--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="379">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1141,6 +1141,24 @@
   <si>
     <t>timdlrcontact@test.com</t>
   </si>
+  <si>
+    <t>cooptest@test.com</t>
+  </si>
+  <si>
+    <t>timdlrxmltest@test.com</t>
+  </si>
+  <si>
+    <t>TIM DLR Contact</t>
+  </si>
+  <si>
+    <t>timdlrtest@test.com</t>
+  </si>
+  <si>
+    <t>www.kbbctusedredir.com</t>
+  </si>
+  <si>
+    <t>www.kbbctnewredir.com</t>
+  </si>
 </sst>
 </file>
 
@@ -1818,7 +1836,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2066,6 +2084,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2410,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,10 +2469,11 @@
     <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" style="38" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="80" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>117</v>
       </c>
@@ -2546,10 +2568,13 @@
         <v>176</v>
       </c>
       <c r="AF1" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG1" s="44" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
@@ -2571,11 +2596,12 @@
       <c r="AE2" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="AF2" s="36" t="b">
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
@@ -2627,11 +2653,12 @@
       <c r="AE3" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="AF3" s="36" t="b">
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
@@ -2676,11 +2703,12 @@
       <c r="AE4" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="AF4" s="36" t="b">
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +2758,9 @@
       <c r="AE5" s="41" t="s">
         <v>191</v>
       </c>
+      <c r="AF5" s="41"/>
     </row>
-    <row r="6" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
@@ -2772,8 +2801,9 @@
       <c r="AE6" s="41" t="s">
         <v>191</v>
       </c>
+      <c r="AF6" s="41"/>
     </row>
-    <row r="7" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
@@ -2799,8 +2829,9 @@
       <c r="AE7" s="41" t="s">
         <v>191</v>
       </c>
+      <c r="AF7" s="41"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -8965,7 +8996,7 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A18"/>
+      <selection activeCell="BZ24" sqref="BZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12368,1422 +12399,855 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FZ17"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
     <col min="7" max="7" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="32.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="29.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="33.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="33.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="29.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="18.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="34" style="5" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="32" style="5" bestFit="1" customWidth="1"/>
-    <col min="81" max="82" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="28.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="37.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="37.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="25.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="24" style="5" bestFit="1" customWidth="1"/>
-    <col min="114" max="116" width="30" style="5" bestFit="1" customWidth="1"/>
-    <col min="117" max="119" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="34.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="33" style="5" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="33.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="34" style="5" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="35.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="27" style="5" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="25.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="25.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="152" max="157" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="31.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="9.140625" style="5"/>
-    <col min="165" max="165" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="32.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="174" max="181" width="9.140625" style="5"/>
-    <col min="182" max="182" width="35.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="183" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:182" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="I1" s="74" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="K1" s="74" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="L1" s="74" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="M1" s="74" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N1" s="74" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="O1" s="74" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="74" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="R1" s="74" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="S1" s="74" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="T1" s="74" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="U1" s="74" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="V1" s="74" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="W1" s="74" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="X1" s="74" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="74" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="Z1" s="74" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="AA1" s="74" t="s">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="AB1" s="74" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="AC1" s="74" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="AD1" s="74" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="AE1" s="74" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
       <c r="AF1" s="74" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="AG1" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH1" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI1" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ1" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK1" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL1" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM1" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="AN1" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO1" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP1" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="AQ1" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="AR1" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="AS1" s="74" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT1" s="74" t="s">
-        <v>276</v>
-      </c>
-      <c r="AU1" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV1" s="74" t="s">
-        <v>278</v>
-      </c>
-      <c r="AW1" s="74" t="s">
-        <v>279</v>
-      </c>
-      <c r="AX1" s="74" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY1" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="AZ1" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="BA1" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB1" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="BC1" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="BD1" s="74" t="s">
-        <v>286</v>
-      </c>
-      <c r="BE1" s="74" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF1" s="74" t="s">
-        <v>288</v>
-      </c>
-      <c r="BG1" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="BH1" s="74" t="s">
-        <v>290</v>
-      </c>
-      <c r="BI1" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="BJ1" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="BK1" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="BL1" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="BM1" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="BN1" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="BO1" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="BP1" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ1" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="BR1" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="BS1" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="BT1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="BU1" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV1" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="BW1" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="BX1" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="BY1" s="74" t="s">
-        <v>294</v>
-      </c>
-      <c r="BZ1" s="74" t="s">
-        <v>241</v>
-      </c>
-      <c r="CA1" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="CB1" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="CC1" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="CD1" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="CE1" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="CF1" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="CG1" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="CH1" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="CI1" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="CJ1" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="CK1" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="CL1" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="CM1" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="CN1" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="CO1" s="74" t="s">
-        <v>247</v>
-      </c>
-      <c r="CP1" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="CQ1" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="CR1" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="CS1" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="CT1" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="CU1" s="74" t="s">
-        <v>297</v>
-      </c>
-      <c r="CV1" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="CW1" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="CX1" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="CY1" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="CZ1" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="DA1" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="DB1" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="DC1" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="DD1" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="DE1" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="DF1" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="DG1" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="DH1" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="DI1" s="74" t="s">
-        <v>298</v>
-      </c>
-      <c r="DJ1" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="DK1" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="DL1" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="DM1" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="DN1" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="DO1" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="DP1" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="DQ1" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="DR1" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS1" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT1" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="DU1" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="DV1" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="DW1" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="DX1" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="DY1" s="74" t="s">
-        <v>299</v>
-      </c>
-      <c r="DZ1" s="74" t="s">
-        <v>300</v>
-      </c>
-      <c r="EA1" s="74" t="s">
-        <v>301</v>
-      </c>
-      <c r="EB1" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="EC1" s="74" t="s">
-        <v>303</v>
-      </c>
-      <c r="ED1" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="EE1" s="74" t="s">
-        <v>305</v>
-      </c>
-      <c r="EF1" s="74" t="s">
-        <v>306</v>
-      </c>
-      <c r="EG1" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="EH1" s="74" t="s">
-        <v>308</v>
-      </c>
-      <c r="EI1" s="74" t="s">
-        <v>309</v>
-      </c>
-      <c r="EJ1" s="74" t="s">
-        <v>310</v>
-      </c>
-      <c r="EK1" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="EL1" s="74" t="s">
-        <v>311</v>
-      </c>
-      <c r="EM1" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="EN1" s="74" t="s">
-        <v>312</v>
-      </c>
-      <c r="EO1" s="74" t="s">
-        <v>313</v>
-      </c>
-      <c r="EP1" s="74" t="s">
-        <v>314</v>
-      </c>
-      <c r="EQ1" s="74" t="s">
-        <v>315</v>
-      </c>
-      <c r="ER1" s="74" t="s">
-        <v>316</v>
-      </c>
-      <c r="ES1" s="74" t="s">
-        <v>317</v>
-      </c>
-      <c r="ET1" s="74" t="s">
-        <v>318</v>
-      </c>
-      <c r="EU1" s="74" t="s">
-        <v>319</v>
-      </c>
-      <c r="EV1" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="EW1" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="EX1" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="EY1" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="EZ1" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="FA1" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="FB1" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="FC1" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="FD1" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="FE1" s="74" t="s">
-        <v>262</v>
-      </c>
-      <c r="FF1" s="74" t="s">
-        <v>321</v>
-      </c>
-      <c r="FG1" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="FH1" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="FI1" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="FJ1" s="74" t="s">
-        <v>322</v>
-      </c>
-      <c r="FK1" s="74" t="s">
-        <v>323</v>
-      </c>
-      <c r="FL1" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM1" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="FN1" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="FO1" s="74" t="s">
-        <v>263</v>
-      </c>
-      <c r="FP1" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="FQ1" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="FZ1" s="74" t="s">
-        <v>325</v>
-      </c>
     </row>
-    <row r="2" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="40">
-        <f t="shared" ref="F2:F17" ca="1" si="0">TODAY()</f>
-        <v>42457</v>
-      </c>
-      <c r="W2" s="40" t="s">
-        <v>181</v>
+      <c r="E2" s="1">
+        <v>42430</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>123</v>
+      </c>
+      <c r="R2" s="40">
+        <v>2000</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="V2" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="X2" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z2" s="40" t="s">
-        <v>183</v>
+        <v>197</v>
+      </c>
+      <c r="AC2" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE2" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF2" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="AG2" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="CX2" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="CY2" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DH2" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DY2" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DZ2" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EA2" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="EC2" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="EK2" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="EM2" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG2" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="FP2" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="W3" s="40" t="s">
-        <v>181</v>
+      <c r="E3" s="1">
+        <v>42431</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>123</v>
+      </c>
+      <c r="R3" s="40">
+        <v>2000</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="U3" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="V3" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="X3" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z3" s="40" t="s">
-        <v>183</v>
+        <v>197</v>
+      </c>
+      <c r="AC3" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE3" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF3" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="AG3" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="CX3" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="CY3" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DH3" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DY3" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DZ3" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EA3" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="EC3" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="EK3" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="EM3" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG3" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="FP3" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="40" t="s">
         <v>269</v>
       </c>
+      <c r="E4" s="1">
+        <v>42432</v>
+      </c>
       <c r="F4" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>197</v>
+        <v>345</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="K4" s="40">
+        <v>789</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="U4" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="W4" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA4" s="40" t="s">
-        <v>197</v>
+        <v>201</v>
+      </c>
+      <c r="AC4" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE4" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF4" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="AG4" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI4" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="CX4" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY4" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DZ4" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EB4" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="EK4" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="EM4" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG4" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="FP4" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="40" t="s">
         <v>269</v>
       </c>
+      <c r="E5" s="1">
+        <v>42433</v>
+      </c>
       <c r="F5" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>197</v>
+        <v>345</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="K5" s="40">
+        <v>789</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="U5" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="W5" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA5" s="40" t="s">
-        <v>197</v>
+        <v>201</v>
+      </c>
+      <c r="AC5" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE5" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF5" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="AG5" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI5" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="CX5" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY5" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DZ5" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EB5" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="EK5" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="EM5" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG5" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="FP5" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="F6" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="W6" s="40" t="s">
-        <v>181</v>
+      <c r="E6" s="1">
+        <v>42434</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>123</v>
+      </c>
+      <c r="R6" s="40">
+        <v>2000</v>
+      </c>
+      <c r="U6" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="X6" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z6" s="40" t="s">
-        <v>183</v>
+        <v>197</v>
+      </c>
+      <c r="Y6" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD6" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE6" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF6" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="AG6" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="CO6" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="CX6" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="CY6" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DH6" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DZ6" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EA6" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="EC6" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="ED6" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="EL6" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="EM6" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG6" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="FP6" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="F7" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="W7" s="40" t="s">
-        <v>181</v>
+      <c r="E7" s="1">
+        <v>42435</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>123</v>
+      </c>
+      <c r="R7" s="40">
+        <v>2000</v>
+      </c>
+      <c r="U7" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="V7" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>183</v>
+        <v>197</v>
+      </c>
+      <c r="Y7" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD7" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="AG7" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="CO7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="CX7" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="CY7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DH7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DZ7" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EA7" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="EC7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="ED7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="EL7" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="EM7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG7" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="FP7" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="C8" s="40" t="s">
         <v>269</v>
       </c>
+      <c r="E8" s="1">
+        <v>42436</v>
+      </c>
       <c r="F8" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>197</v>
+        <v>345</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="K8" s="40">
+        <v>789</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="U8" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="W8" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA8" s="40" t="s">
-        <v>197</v>
+        <v>201</v>
+      </c>
+      <c r="Y8" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD8" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE8" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF8" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="AG8" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI8" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO8" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="CX8" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="DZ8" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EB8" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="ED8" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="EL8" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="EM8" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG8" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="FP8" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="40" t="s">
         <v>269</v>
       </c>
+      <c r="E9" s="1">
+        <v>42437</v>
+      </c>
       <c r="F9" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>197</v>
+        <v>345</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="K9" s="40">
+        <v>789</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="U9" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="W9" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>197</v>
+        <v>201</v>
+      </c>
+      <c r="Y9" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD9" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE9" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF9" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="AG9" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI9" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="CO9" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="CX9" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="DZ9" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EB9" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="ED9" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="EL9" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="EM9" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG9" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="FP9" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="AF10" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX10" s="40" t="s">
+      <c r="E10" s="1">
+        <v>42438</v>
+      </c>
+      <c r="L10" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="DH10" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DI10" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE10" s="40" t="s">
+      <c r="R10" s="40">
+        <v>2000</v>
+      </c>
+      <c r="S10" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="EG10" s="40">
+      <c r="AB10" s="40">
         <v>5</v>
       </c>
-      <c r="EM10" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG10" s="40" t="s">
+      <c r="AE10" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF10" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="AF11" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX11" s="40" t="s">
+      <c r="E11" s="1">
+        <v>42439</v>
+      </c>
+      <c r="L11" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="DH11" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DI11" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE11" s="40" t="s">
+      <c r="R11" s="40">
+        <v>2000</v>
+      </c>
+      <c r="S11" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="EF11" s="40" t="s">
+      <c r="AA11" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="EG11" s="40">
+      <c r="AB11" s="40">
         <v>5</v>
       </c>
-      <c r="EM11" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG11" s="40" t="s">
+      <c r="AE11" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF11" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="AF12" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX12" s="40" t="s">
+      <c r="E12" s="1">
+        <v>42440</v>
+      </c>
+      <c r="L12" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="DH12" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DI12" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE12" s="40" t="s">
+      <c r="R12" s="40">
+        <v>2000</v>
+      </c>
+      <c r="S12" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="EG12" s="40">
+      <c r="AB12" s="40">
         <v>5</v>
       </c>
-      <c r="EM12" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG12" s="40" t="s">
+      <c r="AE12" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF12" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="AF13" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX13" s="40" t="s">
+      <c r="E13" s="1">
+        <v>42441</v>
+      </c>
+      <c r="L13" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="DH13" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DI13" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE13" s="40" t="s">
+      <c r="R13" s="40">
+        <v>2000</v>
+      </c>
+      <c r="S13" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="EG13" s="40">
+      <c r="AB13" s="40">
         <v>5</v>
       </c>
-      <c r="EM13" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG13" s="40" t="s">
+      <c r="AE13" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF13" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="AF14" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX14" s="40" t="s">
+      <c r="E14" s="1">
+        <v>42442</v>
+      </c>
+      <c r="L14" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="DH14" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DI14" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE14" s="40" t="s">
+      <c r="R14" s="40">
+        <v>2000</v>
+      </c>
+      <c r="S14" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="EF14" s="40" t="s">
+      <c r="AA14" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="EG14" s="40">
+      <c r="AB14" s="40">
         <v>5</v>
       </c>
-      <c r="EM14" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG14" s="40" t="s">
+      <c r="AE14" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF14" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="AF15" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX15" s="40" t="s">
+      <c r="E15" s="1">
+        <v>42443</v>
+      </c>
+      <c r="L15" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="DH15" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DI15" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE15" s="40" t="s">
+      <c r="R15" s="40">
+        <v>2000</v>
+      </c>
+      <c r="S15" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="EF15" s="40" t="s">
+      <c r="AA15" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="EG15" s="40">
+      <c r="AB15" s="40">
         <v>5</v>
       </c>
-      <c r="EM15" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG15" s="40" t="s">
+      <c r="AE15" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF15" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:182" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="AF16" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX16" s="40" t="s">
+      <c r="E16" s="1">
+        <v>42444</v>
+      </c>
+      <c r="L16" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="DH16" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DI16" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE16" s="40" t="s">
+      <c r="R16" s="40">
+        <v>2000</v>
+      </c>
+      <c r="S16" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="EF16" s="40" t="s">
+      <c r="AA16" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="EG16" s="40">
+      <c r="AB16" s="40">
         <v>5</v>
       </c>
-      <c r="EM16" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG16" s="40" t="s">
+      <c r="AE16" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF16" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:163" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="AF17" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX17" s="40" t="s">
+      <c r="E17" s="1">
+        <v>42445</v>
+      </c>
+      <c r="L17" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="DH17" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="DI17" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE17" s="40" t="s">
+      <c r="R17" s="40">
+        <v>2000</v>
+      </c>
+      <c r="S17" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="EF17" s="40" t="s">
+      <c r="AA17" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="EG17" s="40">
+      <c r="AB17" s="40">
         <v>5</v>
       </c>
-      <c r="EM17" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG17" s="40" t="s">
+      <c r="AE17" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF17" s="40" t="s">
         <v>191</v>
       </c>
     </row>
@@ -13794,1032 +13258,490 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FY13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="34" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="32" bestFit="1" customWidth="1"/>
-    <col min="80" max="81" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="36" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="6" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="23" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="7" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="23" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="24" bestFit="1" customWidth="1"/>
-    <col min="113" max="115" width="30" bestFit="1" customWidth="1"/>
-    <col min="116" max="118" width="23" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="23" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="23" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="33" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="21" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="34" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="27" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="151" max="156" width="11" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="19" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="18" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="20" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="18" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="8" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:181" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="I1" s="74" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="K1" s="74" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="L1" s="74" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="M1" s="74" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="N1" s="74" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="O1" s="74" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="74" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="R1" s="74" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="S1" s="74" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="T1" s="74" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="U1" s="74" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="V1" s="74" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="W1" s="74" t="s">
-        <v>129</v>
+        <v>312</v>
       </c>
       <c r="X1" s="74" t="s">
-        <v>130</v>
+        <v>313</v>
       </c>
       <c r="Y1" s="74" t="s">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="Z1" s="74" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="AA1" s="74" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
       <c r="AB1" s="74" t="s">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="AC1" s="74" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="AD1" s="74" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="AE1" s="74" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="AF1" s="74" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="AG1" s="74" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="AH1" s="74" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="AI1" s="74" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="AJ1" s="74" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="AK1" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL1" s="74" t="s">
-        <v>238</v>
-      </c>
-      <c r="AM1" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN1" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO1" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="AP1" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ1" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="AR1" s="74" t="s">
-        <v>275</v>
-      </c>
-      <c r="AS1" s="74" t="s">
-        <v>276</v>
-      </c>
-      <c r="AT1" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU1" s="74" t="s">
-        <v>278</v>
-      </c>
-      <c r="AV1" s="74" t="s">
-        <v>279</v>
-      </c>
-      <c r="AW1" s="74" t="s">
-        <v>280</v>
-      </c>
-      <c r="AX1" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="AY1" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="AZ1" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="BA1" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB1" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="BC1" s="74" t="s">
-        <v>286</v>
-      </c>
-      <c r="BD1" s="74" t="s">
-        <v>287</v>
-      </c>
-      <c r="BE1" s="74" t="s">
-        <v>288</v>
-      </c>
-      <c r="BF1" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="BG1" s="74" t="s">
-        <v>290</v>
-      </c>
-      <c r="BH1" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI1" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="BJ1" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK1" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="BL1" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="BM1" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN1" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="BO1" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP1" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="BQ1" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="BR1" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="BS1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="BT1" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU1" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="BV1" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="BW1" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="BX1" s="74" t="s">
-        <v>294</v>
-      </c>
-      <c r="BY1" s="74" t="s">
-        <v>241</v>
-      </c>
-      <c r="BZ1" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="CA1" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="CB1" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="CC1" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="CD1" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="CE1" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="CF1" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="CG1" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="CH1" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="CI1" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="CJ1" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="CK1" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="CL1" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="CM1" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="CN1" s="74" t="s">
-        <v>247</v>
-      </c>
-      <c r="CO1" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="CP1" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="CQ1" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="CR1" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="CS1" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="CT1" s="74" t="s">
-        <v>297</v>
-      </c>
-      <c r="CU1" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="CV1" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="CW1" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="CX1" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="CY1" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="CZ1" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="DA1" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="DB1" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="DC1" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="DD1" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="DE1" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="DF1" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="DG1" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="DH1" s="74" t="s">
-        <v>298</v>
-      </c>
-      <c r="DI1" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="DJ1" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="DK1" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="DL1" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM1" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="DN1" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="DO1" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="DP1" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="DQ1" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="DR1" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="DS1" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="DT1" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="DU1" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="DV1" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="DW1" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="DX1" s="74" t="s">
-        <v>299</v>
-      </c>
-      <c r="DY1" s="74" t="s">
-        <v>300</v>
-      </c>
-      <c r="DZ1" s="74" t="s">
-        <v>301</v>
-      </c>
-      <c r="EA1" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="EB1" s="74" t="s">
-        <v>303</v>
-      </c>
-      <c r="EC1" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="ED1" s="74" t="s">
-        <v>305</v>
-      </c>
-      <c r="EE1" s="74" t="s">
-        <v>306</v>
-      </c>
-      <c r="EF1" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="EG1" s="74" t="s">
-        <v>308</v>
-      </c>
-      <c r="EH1" s="74" t="s">
-        <v>309</v>
-      </c>
-      <c r="EI1" s="74" t="s">
-        <v>310</v>
-      </c>
-      <c r="EJ1" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="EK1" s="74" t="s">
-        <v>311</v>
-      </c>
-      <c r="EL1" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="EM1" s="74" t="s">
-        <v>312</v>
-      </c>
-      <c r="EN1" s="74" t="s">
-        <v>313</v>
-      </c>
-      <c r="EO1" s="74" t="s">
-        <v>314</v>
-      </c>
-      <c r="EP1" s="74" t="s">
-        <v>315</v>
-      </c>
-      <c r="EQ1" s="74" t="s">
-        <v>316</v>
-      </c>
-      <c r="ER1" s="74" t="s">
-        <v>317</v>
-      </c>
-      <c r="ES1" s="74" t="s">
-        <v>318</v>
-      </c>
-      <c r="ET1" s="74" t="s">
-        <v>319</v>
-      </c>
-      <c r="EU1" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="EV1" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="EW1" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="EX1" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="EY1" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="EZ1" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="FA1" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="FB1" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="FC1" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="FD1" s="74" t="s">
-        <v>262</v>
-      </c>
-      <c r="FE1" s="74" t="s">
-        <v>321</v>
-      </c>
-      <c r="FF1" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="FG1" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="FH1" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="FI1" s="74" t="s">
-        <v>322</v>
-      </c>
-      <c r="FJ1" s="74" t="s">
-        <v>323</v>
-      </c>
-      <c r="FK1" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL1" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM1" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="FN1" s="74" t="s">
-        <v>263</v>
-      </c>
-      <c r="FO1" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="FP1" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="FY1" s="74" t="s">
-        <v>325</v>
-      </c>
     </row>
-    <row r="2" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="40">
-        <f t="shared" ref="E2:E13" ca="1" si="0">TODAY()</f>
-        <v>42457</v>
-      </c>
-      <c r="BG2" s="40" t="s">
+      <c r="B2" s="1">
+        <v>42461</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="EL2" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF2" s="40" t="s">
+      <c r="V2" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH2" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="CW3" s="40" t="s">
+      <c r="B3" s="1">
+        <v>42462</v>
+      </c>
+      <c r="T3" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="EL3" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF3" s="40" t="s">
+      <c r="V3" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH3" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+      <c r="B4" s="1">
+        <v>42463</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF4" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO4" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="CW4" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="EJ4" s="40" t="s">
+      <c r="U4" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="EL4" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FC4" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF4" s="40" t="s">
+      <c r="V4" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>50</v>
+      </c>
+      <c r="AH4" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="FO4" s="40" t="s">
+      <c r="AK4" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+      <c r="B5" s="1">
+        <v>42464</v>
+      </c>
+      <c r="C5" s="40">
+        <v>345</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5" s="40">
+        <v>123</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>184</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>197</v>
+        <v>268</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>199</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>267</v>
+        <v>162</v>
+      </c>
+      <c r="U5" s="40" t="s">
+        <v>326</v>
       </c>
       <c r="V5" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF5" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO5" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="BH5" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="CW5" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="EJ5" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="EL5" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF5" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH5" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="FO5" s="40" t="s">
+      <c r="AK5" s="40" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="BP6" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="BR6" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="CW6" s="40" t="s">
+      <c r="B6" s="1">
+        <v>42465</v>
+      </c>
+      <c r="N6" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="P6" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="EL6" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FC6" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF6" s="40" t="s">
+      <c r="V6" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF6" s="40">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="AF7" s="40" t="s">
+      <c r="B7" s="1">
+        <v>42466</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="BM7" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="BO7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="CM7" s="40" t="s">
+      <c r="K7" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q7" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="CS7" s="40" t="s">
+      <c r="S7" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="CW7" s="40" t="s">
+      <c r="T7" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="EL7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FB7" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF7" s="40" t="s">
+      <c r="V7" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE7" s="40">
+        <v>100</v>
+      </c>
+      <c r="AH7" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="CW8" s="40" t="s">
+      <c r="B8" s="1">
+        <v>42467</v>
+      </c>
+      <c r="T8" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="EL8" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF8" s="40" t="s">
+      <c r="V8" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH8" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="BG9" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EL9" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF9" s="40" t="s">
+      <c r="B9" s="1">
+        <v>42468</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="V9" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH9" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="BG10" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EL10" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF10" s="40" t="s">
+      <c r="B10" s="1">
+        <v>42469</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="V10" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH10" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="BG11" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EL11" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF11" s="40" t="s">
+      <c r="B11" s="1">
+        <v>42470</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="V11" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH11" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="BG12" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="EL12" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF12" s="40" t="s">
+      <c r="B12" s="1">
+        <v>42471</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="V12" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH12" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:181" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="40">
-        <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
-      </c>
-      <c r="CQ13" s="40" t="s">
+      <c r="B13" s="1">
+        <v>42472</v>
+      </c>
+      <c r="R13" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="CS13" s="40" t="s">
+      <c r="S13" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="CW13" s="40" t="s">
+      <c r="T13" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="EL13" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="EM13" s="40" t="s">
+      <c r="V13" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="W13" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="EN13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="EO13" s="40" t="s">
+      <c r="X13" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y13" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="EP13" s="40">
-        <v>5555555555</v>
-      </c>
-      <c r="EQ13" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="ER13" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="ES13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="ET13" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FC13" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FE13" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="FF13" s="40" t="s">
+      <c r="Z13" s="40">
+        <v>9876543210</v>
+      </c>
+      <c r="AA13" s="40">
+        <v>1234567890</v>
+      </c>
+      <c r="AB13" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC13" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD13" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF13" s="40">
+        <v>50</v>
+      </c>
+      <c r="AG13" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH13" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="FH13" s="40" t="s">
+      <c r="AI13" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="FM13" s="40" t="s">
+      <c r="AJ13" s="40" t="s">
         <v>197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14827,8 +13749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FY124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView topLeftCell="FJ19" workbookViewId="0">
+      <selection activeCell="FO32" sqref="FO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -15540,7 +14462,7 @@
       <c r="D2" s="57"/>
       <c r="E2" s="58">
         <f t="shared" ref="E2:E65" ca="1" si="0">TODAY()</f>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
@@ -15732,7 +14654,7 @@
       <c r="D3" s="57"/>
       <c r="E3" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
@@ -15924,7 +14846,7 @@
       <c r="D4" s="57"/>
       <c r="E4" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="57"/>
@@ -16116,7 +15038,7 @@
       <c r="D5" s="57"/>
       <c r="E5" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="57"/>
@@ -16310,7 +15232,7 @@
       <c r="D6" s="57"/>
       <c r="E6" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F6" s="57" t="s">
         <v>266</v>
@@ -16528,7 +15450,7 @@
       <c r="D7" s="57"/>
       <c r="E7" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F7" s="57"/>
       <c r="G7" s="57"/>
@@ -16732,7 +15654,7 @@
       <c r="D8" s="57"/>
       <c r="E8" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
@@ -16938,7 +15860,7 @@
       <c r="D9" s="57"/>
       <c r="E9" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
@@ -17138,7 +16060,7 @@
       <c r="D10" s="57"/>
       <c r="E10" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
@@ -17392,7 +16314,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
@@ -17648,7 +16570,7 @@
       <c r="D12" s="57"/>
       <c r="E12" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
@@ -17904,7 +16826,7 @@
       <c r="D13" s="57"/>
       <c r="E13" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -18140,7 +17062,7 @@
       <c r="D14" s="57"/>
       <c r="E14" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
@@ -18380,7 +17302,7 @@
       <c r="D15" s="57"/>
       <c r="E15" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
@@ -18616,7 +17538,7 @@
       <c r="D16" s="57"/>
       <c r="E16" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
@@ -18844,7 +17766,7 @@
       <c r="D17" s="57"/>
       <c r="E17" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
@@ -19072,7 +17994,7 @@
       <c r="D18" s="57"/>
       <c r="E18" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
@@ -19267,7 +18189,7 @@
       <c r="D19" s="57"/>
       <c r="E19" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
@@ -19459,7 +18381,7 @@
       <c r="D20" s="57"/>
       <c r="E20" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
@@ -19651,7 +18573,7 @@
       <c r="D21" s="57"/>
       <c r="E21" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
@@ -19845,7 +18767,7 @@
       <c r="D22" s="57"/>
       <c r="E22" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
@@ -20037,7 +18959,7 @@
       <c r="D23" s="57"/>
       <c r="E23" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
@@ -20267,7 +19189,7 @@
       <c r="D24" s="57"/>
       <c r="E24" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="57"/>
@@ -20483,7 +19405,7 @@
       <c r="D25" s="57"/>
       <c r="E25" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="57"/>
@@ -20699,7 +19621,7 @@
       <c r="D26" s="57"/>
       <c r="E26" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
@@ -20961,7 +19883,7 @@
       <c r="D27" s="57"/>
       <c r="E27" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="57"/>
@@ -21223,7 +20145,7 @@
       <c r="D28" s="57"/>
       <c r="E28" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="57"/>
@@ -21465,7 +20387,7 @@
       <c r="D29" s="57"/>
       <c r="E29" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F29" s="57"/>
       <c r="G29" s="57"/>
@@ -21703,7 +20625,7 @@
       <c r="D30" s="57"/>
       <c r="E30" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
@@ -21945,7 +20867,7 @@
       <c r="D31" s="57"/>
       <c r="E31" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="57"/>
@@ -22185,7 +21107,7 @@
       </c>
       <c r="E32" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F32" s="57"/>
       <c r="G32" s="57"/>
@@ -22397,7 +21319,7 @@
       <c r="D33" s="57"/>
       <c r="E33" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
@@ -22607,7 +21529,7 @@
       <c r="D34" s="57"/>
       <c r="E34" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F34" s="57"/>
       <c r="G34" s="57"/>
@@ -22865,7 +21787,7 @@
       <c r="D35" s="57"/>
       <c r="E35" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F35" s="57"/>
       <c r="G35" s="57"/>
@@ -23133,7 +22055,7 @@
       <c r="D36" s="57"/>
       <c r="E36" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F36" s="57"/>
       <c r="G36" s="57"/>
@@ -23401,7 +22323,7 @@
       <c r="D37" s="57"/>
       <c r="E37" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F37" s="57"/>
       <c r="G37" s="57"/>
@@ -23703,7 +22625,7 @@
       <c r="D38" s="57"/>
       <c r="E38" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
@@ -23915,7 +22837,7 @@
       <c r="D39" s="57"/>
       <c r="E39" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F39" s="57"/>
       <c r="G39" s="57"/>
@@ -24163,7 +23085,7 @@
       <c r="D40" s="57"/>
       <c r="E40" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F40" s="57"/>
       <c r="G40" s="57"/>
@@ -24377,7 +23299,7 @@
       <c r="D41" s="57"/>
       <c r="E41" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
@@ -24587,7 +23509,7 @@
       <c r="D42" s="57"/>
       <c r="E42" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
@@ -24811,7 +23733,7 @@
       <c r="D43" s="57"/>
       <c r="E43" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F43" s="57"/>
       <c r="G43" s="57"/>
@@ -25079,7 +24001,7 @@
       <c r="D44" s="57"/>
       <c r="E44" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
@@ -25347,7 +24269,7 @@
       <c r="D45" s="57"/>
       <c r="E45" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
@@ -25617,7 +24539,7 @@
       </c>
       <c r="E46" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F46" s="57"/>
       <c r="G46" s="57"/>
@@ -25833,7 +24755,7 @@
       </c>
       <c r="E47" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F47" s="57"/>
       <c r="G47" s="57"/>
@@ -26049,7 +24971,7 @@
       </c>
       <c r="E48" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F48" s="57"/>
       <c r="G48" s="57"/>
@@ -26263,7 +25185,7 @@
       </c>
       <c r="E49" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F49" s="57"/>
       <c r="G49" s="57"/>
@@ -26475,7 +25397,7 @@
       <c r="D50" s="57"/>
       <c r="E50" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F50" s="57"/>
       <c r="G50" s="57"/>
@@ -26669,7 +25591,7 @@
       <c r="D51" s="57"/>
       <c r="E51" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F51" s="57"/>
       <c r="G51" s="57"/>
@@ -26869,7 +25791,7 @@
       <c r="D52" s="57"/>
       <c r="E52" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
@@ -27065,7 +25987,7 @@
       <c r="D53" s="57"/>
       <c r="E53" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
@@ -27274,7 +26196,7 @@
       <c r="D54" s="57"/>
       <c r="E54" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F54" s="57"/>
       <c r="G54" s="57"/>
@@ -27482,7 +26404,7 @@
       <c r="D55" s="57"/>
       <c r="E55" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F55" s="57"/>
       <c r="G55" s="57"/>
@@ -27726,7 +26648,7 @@
       <c r="D56" s="57"/>
       <c r="E56" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F56" s="57"/>
       <c r="G56" s="57"/>
@@ -27934,7 +26856,7 @@
       <c r="D57" s="57"/>
       <c r="E57" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F57" s="57"/>
       <c r="G57" s="57"/>
@@ -28131,7 +27053,7 @@
       <c r="D58" s="57"/>
       <c r="E58" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
@@ -28334,7 +27256,7 @@
       <c r="D59" s="57"/>
       <c r="E59" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F59" s="57"/>
       <c r="G59" s="57"/>
@@ -28539,7 +27461,7 @@
       <c r="D60" s="57"/>
       <c r="E60" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
@@ -28739,7 +27661,7 @@
       <c r="D61" s="57"/>
       <c r="E61" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
@@ -28975,7 +27897,7 @@
       <c r="D62" s="57"/>
       <c r="E62" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
@@ -29211,7 +28133,7 @@
       <c r="D63" s="57"/>
       <c r="E63" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F63" s="57"/>
       <c r="G63" s="57"/>
@@ -29451,7 +28373,7 @@
       <c r="D64" s="57"/>
       <c r="E64" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F64" s="57"/>
       <c r="G64" s="57"/>
@@ -29687,7 +28609,7 @@
       <c r="D65" s="57"/>
       <c r="E65" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
@@ -29939,7 +28861,7 @@
       <c r="D66" s="57"/>
       <c r="E66" s="58">
         <f t="shared" ref="E66:E89" ca="1" si="1">TODAY()</f>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F66" s="57"/>
       <c r="G66" s="57"/>
@@ -30195,7 +29117,7 @@
       <c r="D67" s="57"/>
       <c r="E67" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
@@ -30435,7 +29357,7 @@
       <c r="D68" s="57"/>
       <c r="E68" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
@@ -30677,7 +29599,7 @@
       <c r="D69" s="57"/>
       <c r="E69" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
@@ -30919,7 +29841,7 @@
       <c r="D70" s="57"/>
       <c r="E70" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
@@ -31163,7 +30085,7 @@
       <c r="D71" s="57"/>
       <c r="E71" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
@@ -31403,7 +30325,7 @@
       <c r="D72" s="57"/>
       <c r="E72" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
@@ -31595,7 +30517,7 @@
       <c r="D73" s="57"/>
       <c r="E73" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
@@ -31787,7 +30709,7 @@
       <c r="D74" s="57"/>
       <c r="E74" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
@@ -31979,7 +30901,7 @@
       <c r="D75" s="57"/>
       <c r="E75" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
@@ -32231,7 +31153,7 @@
       <c r="D76" s="57"/>
       <c r="E76" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
@@ -32485,7 +31407,7 @@
       <c r="D77" s="57"/>
       <c r="E77" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
@@ -32739,7 +31661,7 @@
       <c r="D78" s="57"/>
       <c r="E78" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
@@ -32973,7 +31895,7 @@
       <c r="D79" s="57"/>
       <c r="E79" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
@@ -33211,7 +32133,7 @@
       <c r="D80" s="57"/>
       <c r="E80" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
@@ -33445,7 +32367,7 @@
       <c r="D81" s="57"/>
       <c r="E81" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
@@ -33691,7 +32613,7 @@
       <c r="D82" s="57"/>
       <c r="E82" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
@@ -33915,7 +32837,7 @@
       <c r="D83" s="57"/>
       <c r="E83" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
@@ -34169,7 +33091,7 @@
       <c r="D84" s="57"/>
       <c r="E84" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
@@ -34423,7 +33345,7 @@
       <c r="D85" s="57"/>
       <c r="E85" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
@@ -34677,7 +33599,7 @@
       <c r="D86" s="57"/>
       <c r="E86" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
@@ -34931,7 +33853,7 @@
       <c r="D87" s="57"/>
       <c r="E87" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
@@ -35125,7 +34047,7 @@
       <c r="D88" s="57"/>
       <c r="E88" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F88" s="57"/>
       <c r="G88" s="57"/>
@@ -35319,7 +34241,7 @@
       <c r="D89" s="57"/>
       <c r="E89" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F89" s="57"/>
       <c r="G89" s="57"/>
@@ -35698,7 +34620,7 @@
       <c r="D91" s="57"/>
       <c r="E91" s="58">
         <f ca="1">TODAY()</f>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F91" s="57"/>
       <c r="G91" s="57"/>
@@ -36077,7 +34999,7 @@
       <c r="D93" s="57"/>
       <c r="E93" s="58">
         <f t="shared" ref="E93:E118" ca="1" si="2">TODAY()</f>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F93" s="57"/>
       <c r="G93" s="57"/>
@@ -36297,7 +35219,7 @@
       <c r="D94" s="57"/>
       <c r="E94" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F94" s="57"/>
       <c r="G94" s="57"/>
@@ -36517,7 +35439,7 @@
       <c r="D95" s="57"/>
       <c r="E95" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F95" s="57"/>
       <c r="G95" s="57"/>
@@ -36735,7 +35657,7 @@
       <c r="D96" s="57"/>
       <c r="E96" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F96" s="57"/>
       <c r="G96" s="57"/>
@@ -36951,7 +35873,7 @@
       <c r="D97" s="57"/>
       <c r="E97" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F97" s="57"/>
       <c r="G97" s="57"/>
@@ -37154,7 +36076,7 @@
       <c r="D98" s="57"/>
       <c r="E98" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F98" s="57"/>
       <c r="G98" s="57"/>
@@ -37357,7 +36279,7 @@
       <c r="D99" s="57"/>
       <c r="E99" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F99" s="57"/>
       <c r="G99" s="57"/>
@@ -37562,7 +36484,7 @@
       <c r="D100" s="57"/>
       <c r="E100" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F100" s="57"/>
       <c r="G100" s="57"/>
@@ -37767,7 +36689,7 @@
       <c r="D101" s="57"/>
       <c r="E101" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F101" s="57"/>
       <c r="G101" s="57"/>
@@ -37972,7 +36894,7 @@
       <c r="D102" s="57"/>
       <c r="E102" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F102" s="57"/>
       <c r="G102" s="57"/>
@@ -38177,7 +37099,7 @@
       <c r="D103" s="57"/>
       <c r="E103" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F103" s="57"/>
       <c r="G103" s="57"/>
@@ -38381,7 +37303,7 @@
       <c r="D104" s="57"/>
       <c r="E104" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F104" s="57"/>
       <c r="G104" s="57"/>
@@ -38601,7 +37523,7 @@
       <c r="D105" s="57"/>
       <c r="E105" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F105" s="57"/>
       <c r="G105" s="57"/>
@@ -38821,7 +37743,7 @@
       <c r="D106" s="57"/>
       <c r="E106" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F106" s="57"/>
       <c r="G106" s="57"/>
@@ -39041,7 +37963,7 @@
       <c r="D107" s="57"/>
       <c r="E107" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F107" s="57"/>
       <c r="G107" s="57"/>
@@ -39261,7 +38183,7 @@
       <c r="D108" s="57"/>
       <c r="E108" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F108" s="57"/>
       <c r="G108" s="57"/>
@@ -39481,7 +38403,7 @@
       <c r="D109" s="57"/>
       <c r="E109" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F109" s="57"/>
       <c r="G109" s="57"/>
@@ -39701,7 +38623,7 @@
       <c r="D110" s="57"/>
       <c r="E110" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F110" s="57"/>
       <c r="G110" s="57"/>
@@ -39921,7 +38843,7 @@
       <c r="D111" s="57"/>
       <c r="E111" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F111" s="57"/>
       <c r="G111" s="57"/>
@@ -40141,7 +39063,7 @@
       <c r="D112" s="57"/>
       <c r="E112" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F112" s="57"/>
       <c r="G112" s="57"/>
@@ -40361,7 +39283,7 @@
       <c r="D113" s="57"/>
       <c r="E113" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F113" s="57"/>
       <c r="G113" s="57"/>
@@ -40581,7 +39503,7 @@
       <c r="D114" s="57"/>
       <c r="E114" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F114" s="57"/>
       <c r="G114" s="57"/>
@@ -40773,7 +39695,7 @@
       <c r="D115" s="57"/>
       <c r="E115" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F115" s="57"/>
       <c r="G115" s="57"/>
@@ -40965,7 +39887,7 @@
       <c r="D116" s="57"/>
       <c r="E116" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F116" s="57"/>
       <c r="G116" s="57"/>
@@ -41157,7 +40079,7 @@
       <c r="D117" s="57"/>
       <c r="E117" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F117" s="57"/>
       <c r="G117" s="57"/>
@@ -41349,7 +40271,7 @@
       <c r="D118" s="57"/>
       <c r="E118" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>42457</v>
+        <v>42460</v>
       </c>
       <c r="F118" s="57"/>
       <c r="G118" s="57"/>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="391">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1189,6 +1189,12 @@
   <si>
     <t>TRUE</t>
   </si>
+  <si>
+    <t>MINILocationId</t>
+  </si>
+  <si>
+    <t>New1GMFrontLineProModel</t>
+  </si>
 </sst>
 </file>
 
@@ -1917,7 +1923,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2169,9 +2175,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2205,14 +2208,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -2561,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AG2" sqref="AG2:AG4"/>
     </sheetView>
   </sheetViews>
@@ -2725,7 +2740,7 @@
         <v>191</v>
       </c>
       <c r="AF2" s="38"/>
-      <c r="AG2" s="111" t="b">
+      <c r="AG2" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2782,7 +2797,7 @@
         <v>191</v>
       </c>
       <c r="AF3" s="89"/>
-      <c r="AG3" s="111" t="b">
+      <c r="AG3" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2832,7 +2847,7 @@
         <v>191</v>
       </c>
       <c r="AF4" s="38"/>
-      <c r="AG4" s="111" t="b">
+      <c r="AG4" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2993,10 +3008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FP21"/>
+  <dimension ref="A1:FQ21"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BC6" sqref="BC6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,7 +3044,7 @@
     <col min="26" max="26" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="37.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6" style="6" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
@@ -3038,28 +3053,29 @@
     <col min="35" max="35" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.140625" style="6"/>
-    <col min="53" max="53" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="6"/>
+    <col min="38" max="38" width="24.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.140625" style="6"/>
+    <col min="54" max="54" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:172" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:173" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>117</v>
       </c>
@@ -3172,61 +3188,64 @@
         <v>162</v>
       </c>
       <c r="AL1" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM1" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="AM1" s="71" t="s">
+      <c r="AN1" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AN1" s="71" t="s">
+      <c r="AO1" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="AO1" s="71" t="s">
+      <c r="AP1" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="AP1" s="71" t="s">
+      <c r="AQ1" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="AQ1" s="71" t="s">
+      <c r="AR1" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="AR1" s="71" t="s">
+      <c r="AS1" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="AS1" s="71" t="s">
+      <c r="AT1" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="AT1" s="71" t="s">
+      <c r="AU1" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="AU1" s="71" t="s">
+      <c r="AV1" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="AV1" s="71" t="s">
+      <c r="AW1" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="AW1" s="71" t="s">
+      <c r="AX1" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="AX1" s="71" t="s">
+      <c r="AY1" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="AY1" s="71" t="s">
+      <c r="AZ1" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="AZ1" s="71" t="s">
+      <c r="BA1" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="BA1" s="71" t="s">
+      <c r="BB1" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="BB1" s="71" t="s">
+      <c r="BC1" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="BC1" s="71" t="s">
+      <c r="BD1" s="71" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>6</v>
       </c>
@@ -3298,49 +3317,49 @@
       <c r="AK2" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="AL2" s="73">
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="73">
         <v>1234</v>
       </c>
-      <c r="AM2" s="38" t="s">
+      <c r="AN2" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="AN2" s="75" t="s">
+      <c r="AO2" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="AO2" s="39"/>
       <c r="AP2" s="39"/>
-      <c r="AQ2" s="75" t="s">
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="AR2" s="73">
+      <c r="AS2" s="73">
         <v>2000</v>
       </c>
-      <c r="AS2" s="73" t="s">
+      <c r="AT2" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="AT2" s="73">
-        <v>1</v>
-      </c>
       <c r="AU2" s="73">
         <v>1</v>
       </c>
-      <c r="AV2" s="75" t="s">
+      <c r="AV2" s="73">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="AW2" s="73">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="73" t="s">
+      <c r="AX2" s="73">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="AZ2" s="39"/>
       <c r="BA2" s="39"/>
       <c r="BB2" s="39"/>
-      <c r="BC2" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="7"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE2" s="7"/>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
@@ -3457,8 +3476,9 @@
       <c r="FN2" s="7"/>
       <c r="FO2" s="7"/>
       <c r="FP2" s="7"/>
-    </row>
-    <row r="3" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ2" s="7"/>
+    </row>
+    <row r="3" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
@@ -3530,49 +3550,49 @@
       <c r="AK3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL3" s="10">
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="10">
         <v>1234</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AN3" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AO3" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO3" s="8"/>
       <c r="AP3" s="8"/>
-      <c r="AQ3" s="9" t="s">
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AS3" s="10">
         <v>2000</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AT3" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT3" s="10">
-        <v>1</v>
-      </c>
       <c r="AU3" s="10">
         <v>1</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="AV3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="10" t="s">
+      <c r="AX3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ3" s="8"/>
       <c r="BA3" s="8"/>
       <c r="BB3" s="8"/>
-      <c r="BC3" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="7"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE3" s="7"/>
       <c r="BF3" s="7"/>
       <c r="BG3" s="7"/>
@@ -3689,8 +3709,9 @@
       <c r="FN3" s="7"/>
       <c r="FO3" s="7"/>
       <c r="FP3" s="7"/>
-    </row>
-    <row r="4" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ3" s="7"/>
+    </row>
+    <row r="4" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
@@ -3762,49 +3783,49 @@
       <c r="AK4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL4" s="10">
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="10">
         <v>1234</v>
       </c>
-      <c r="AM4" s="10" t="s">
+      <c r="AN4" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO4" s="8"/>
       <c r="AP4" s="8"/>
-      <c r="AQ4" s="9" t="s">
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR4" s="10">
+      <c r="AS4" s="10">
         <v>2000</v>
       </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AT4" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT4" s="10">
-        <v>1</v>
-      </c>
       <c r="AU4" s="10">
         <v>1</v>
       </c>
-      <c r="AV4" s="9" t="s">
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="10" t="s">
+      <c r="AX4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
-      <c r="BC4" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="7"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE4" s="7"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
@@ -3921,8 +3942,9 @@
       <c r="FN4" s="7"/>
       <c r="FO4" s="7"/>
       <c r="FP4" s="7"/>
-    </row>
-    <row r="5" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ4" s="7"/>
+    </row>
+    <row r="5" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>9</v>
       </c>
@@ -3990,49 +4012,51 @@
       <c r="AK5" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AL5" s="38">
+        <v>500</v>
+      </c>
+      <c r="AM5" s="10">
         <v>1234</v>
       </c>
-      <c r="AM5" s="10" t="s">
+      <c r="AN5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AN5" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="9" t="s">
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR5" s="10">
+      <c r="AS5" s="10">
         <v>2000</v>
       </c>
-      <c r="AS5" s="10" t="s">
+      <c r="AT5" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT5" s="10">
-        <v>1</v>
-      </c>
       <c r="AU5" s="10">
         <v>1</v>
       </c>
-      <c r="AV5" s="9" t="s">
+      <c r="AV5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="10" t="s">
+      <c r="AX5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
       <c r="BB5" s="8"/>
-      <c r="BC5" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="7"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE5" s="7"/>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
@@ -4149,8 +4173,9 @@
       <c r="FN5" s="7"/>
       <c r="FO5" s="7"/>
       <c r="FP5" s="7"/>
-    </row>
-    <row r="6" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ5" s="7"/>
+    </row>
+    <row r="6" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>11</v>
       </c>
@@ -4220,49 +4245,51 @@
       <c r="AK6" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AL6" s="38">
+        <v>500</v>
+      </c>
+      <c r="AM6" s="10">
         <v>1234</v>
       </c>
-      <c r="AM6" s="10" t="s">
+      <c r="AN6" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AO6" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="9" t="s">
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR6" s="10">
+      <c r="AS6" s="10">
         <v>2000</v>
       </c>
-      <c r="AS6" s="10" t="s">
+      <c r="AT6" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT6" s="10">
-        <v>1</v>
-      </c>
       <c r="AU6" s="10">
         <v>1</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AV6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="10" t="s">
+      <c r="AX6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
       <c r="BB6" s="8"/>
-      <c r="BC6" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="7"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE6" s="7"/>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
@@ -4379,8 +4406,9 @@
       <c r="FN6" s="7"/>
       <c r="FO6" s="7"/>
       <c r="FP6" s="7"/>
-    </row>
-    <row r="7" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ6" s="7"/>
+    </row>
+    <row r="7" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>10</v>
       </c>
@@ -4448,49 +4476,51 @@
       <c r="AK7" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL7" s="10">
+      <c r="AL7" s="38">
+        <v>500</v>
+      </c>
+      <c r="AM7" s="10">
         <v>1234</v>
       </c>
-      <c r="AM7" s="10" t="s">
+      <c r="AN7" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AN7" s="9" t="s">
+      <c r="AO7" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="9" t="s">
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR7" s="10">
+      <c r="AS7" s="10">
         <v>2000</v>
       </c>
-      <c r="AS7" s="10" t="s">
+      <c r="AT7" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT7" s="10">
-        <v>1</v>
-      </c>
       <c r="AU7" s="10">
         <v>1</v>
       </c>
-      <c r="AV7" s="9" t="s">
+      <c r="AV7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="10" t="s">
+      <c r="AX7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ7" s="8"/>
       <c r="BA7" s="8"/>
       <c r="BB7" s="8"/>
-      <c r="BC7" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="7"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE7" s="7"/>
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
@@ -4607,8 +4637,9 @@
       <c r="FN7" s="7"/>
       <c r="FO7" s="7"/>
       <c r="FP7" s="7"/>
-    </row>
-    <row r="8" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ7" s="7"/>
+    </row>
+    <row r="8" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>12</v>
       </c>
@@ -4696,53 +4727,53 @@
       <c r="AK8" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL8" s="8"/>
+      <c r="AL8" s="2"/>
       <c r="AM8" s="8"/>
-      <c r="AN8" s="9" t="s">
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AP8" s="10">
         <v>1234567890</v>
       </c>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="9" t="s">
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="10" t="s">
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT8" s="10">
-        <v>1</v>
-      </c>
       <c r="AU8" s="10">
         <v>1</v>
       </c>
-      <c r="AV8" s="9" t="s">
+      <c r="AV8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW8" s="10">
-        <v>1</v>
-      </c>
       <c r="AX8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="10">
         <v>100</v>
       </c>
-      <c r="AY8" s="10" t="s">
+      <c r="AZ8" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ8" s="10">
+      <c r="BA8" s="10">
         <v>2</v>
       </c>
-      <c r="BA8" s="10">
-        <v>1</v>
-      </c>
       <c r="BB8" s="10">
         <v>1</v>
       </c>
-      <c r="BC8" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="7"/>
+      <c r="BC8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE8" s="7"/>
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
@@ -4859,8 +4890,9 @@
       <c r="FN8" s="7"/>
       <c r="FO8" s="7"/>
       <c r="FP8" s="7"/>
-    </row>
-    <row r="9" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ8" s="7"/>
+    </row>
+    <row r="9" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>14</v>
       </c>
@@ -4948,53 +4980,53 @@
       <c r="AK9" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL9" s="8"/>
+      <c r="AL9" s="2"/>
       <c r="AM9" s="8"/>
-      <c r="AN9" s="9" t="s">
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AP9" s="10">
         <v>1234567890</v>
       </c>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="9" t="s">
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="10" t="s">
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT9" s="10">
-        <v>1</v>
-      </c>
       <c r="AU9" s="10">
         <v>1</v>
       </c>
-      <c r="AV9" s="9" t="s">
+      <c r="AV9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW9" s="10">
-        <v>1</v>
-      </c>
       <c r="AX9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="10">
         <v>100</v>
       </c>
-      <c r="AY9" s="10" t="s">
+      <c r="AZ9" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ9" s="10">
+      <c r="BA9" s="10">
         <v>2</v>
       </c>
-      <c r="BA9" s="10">
-        <v>1</v>
-      </c>
       <c r="BB9" s="10">
         <v>1</v>
       </c>
-      <c r="BC9" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="7"/>
+      <c r="BC9" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE9" s="7"/>
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
@@ -5111,8 +5143,9 @@
       <c r="FN9" s="7"/>
       <c r="FO9" s="7"/>
       <c r="FP9" s="7"/>
-    </row>
-    <row r="10" spans="1:172" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="FQ9" s="7"/>
+    </row>
+    <row r="10" spans="1:173" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
         <v>13</v>
       </c>
@@ -5196,54 +5229,55 @@
       <c r="AK10" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AL10" s="34"/>
+      <c r="AL10" s="2"/>
       <c r="AM10" s="34"/>
-      <c r="AN10" s="9" t="s">
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO10" s="38">
+      <c r="AP10" s="38">
         <v>1234567890</v>
       </c>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="9" t="s">
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="38" t="s">
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AT10" s="38">
-        <v>1</v>
-      </c>
       <c r="AU10" s="38">
         <v>1</v>
       </c>
-      <c r="AV10" s="9" t="s">
+      <c r="AV10" s="38">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW10" s="38">
-        <v>1</v>
-      </c>
       <c r="AX10" s="38">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="38">
         <v>100</v>
       </c>
-      <c r="AY10" s="38" t="s">
+      <c r="AZ10" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="AZ10" s="38">
+      <c r="BA10" s="38">
         <v>2</v>
       </c>
-      <c r="BA10" s="38">
-        <v>1</v>
-      </c>
       <c r="BB10" s="38">
         <v>1</v>
       </c>
-      <c r="BC10" s="109" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="BC10" s="38">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>15</v>
       </c>
@@ -5311,49 +5345,49 @@
       <c r="AK11" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="10">
         <v>1234</v>
       </c>
-      <c r="AM11" s="10" t="s">
+      <c r="AN11" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AN11" s="9" t="s">
+      <c r="AO11" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO11" s="8"/>
       <c r="AP11" s="8"/>
-      <c r="AQ11" s="9" t="s">
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR11" s="10">
+      <c r="AS11" s="10">
         <v>2000</v>
       </c>
-      <c r="AS11" s="10" t="s">
+      <c r="AT11" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT11" s="10">
-        <v>1</v>
-      </c>
       <c r="AU11" s="10">
         <v>1</v>
       </c>
-      <c r="AV11" s="9" t="s">
+      <c r="AV11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="10" t="s">
+      <c r="AX11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ11" s="8"/>
       <c r="BA11" s="8"/>
       <c r="BB11" s="8"/>
-      <c r="BC11" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="7"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
@@ -5470,8 +5504,9 @@
       <c r="FN11" s="7"/>
       <c r="FO11" s="7"/>
       <c r="FP11" s="7"/>
-    </row>
-    <row r="12" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ11" s="7"/>
+    </row>
+    <row r="12" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>17</v>
       </c>
@@ -5543,49 +5578,49 @@
       <c r="AK12" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL12" s="10">
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="10">
         <v>1234</v>
       </c>
-      <c r="AM12" s="10" t="s">
+      <c r="AN12" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AN12" s="9" t="s">
+      <c r="AO12" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO12" s="8"/>
       <c r="AP12" s="8"/>
-      <c r="AQ12" s="9" t="s">
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR12" s="10">
+      <c r="AS12" s="10">
         <v>2000</v>
       </c>
-      <c r="AS12" s="10" t="s">
+      <c r="AT12" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT12" s="10">
-        <v>1</v>
-      </c>
       <c r="AU12" s="10">
         <v>1</v>
       </c>
-      <c r="AV12" s="9" t="s">
+      <c r="AV12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="10" t="s">
+      <c r="AX12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ12" s="8"/>
       <c r="BA12" s="8"/>
       <c r="BB12" s="8"/>
-      <c r="BC12" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="7"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
       <c r="BG12" s="7"/>
@@ -5702,8 +5737,9 @@
       <c r="FN12" s="7"/>
       <c r="FO12" s="7"/>
       <c r="FP12" s="7"/>
-    </row>
-    <row r="13" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ12" s="7"/>
+    </row>
+    <row r="13" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>16</v>
       </c>
@@ -5773,49 +5809,49 @@
       <c r="AK13" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL13" s="10">
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="10">
         <v>1234</v>
       </c>
-      <c r="AM13" s="10" t="s">
+      <c r="AN13" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AN13" s="9" t="s">
+      <c r="AO13" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="9" t="s">
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR13" s="10">
+      <c r="AS13" s="10">
         <v>2000</v>
       </c>
-      <c r="AS13" s="10" t="s">
+      <c r="AT13" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT13" s="10">
-        <v>1</v>
-      </c>
       <c r="AU13" s="10">
         <v>1</v>
       </c>
-      <c r="AV13" s="9" t="s">
+      <c r="AV13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="10" t="s">
+      <c r="AX13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ13" s="8"/>
       <c r="BA13" s="8"/>
       <c r="BB13" s="8"/>
-      <c r="BC13" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="7"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
       <c r="BG13" s="7"/>
@@ -5932,8 +5968,9 @@
       <c r="FN13" s="7"/>
       <c r="FO13" s="7"/>
       <c r="FP13" s="7"/>
-    </row>
-    <row r="14" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ13" s="7"/>
+    </row>
+    <row r="14" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>18</v>
       </c>
@@ -6007,45 +6044,45 @@
       <c r="AK14" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="10">
         <v>1234</v>
       </c>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="9" t="s">
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="9" t="s">
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="10" t="s">
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT14" s="10">
-        <v>1</v>
-      </c>
       <c r="AU14" s="10">
         <v>1</v>
       </c>
-      <c r="AV14" s="9" t="s">
+      <c r="AV14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW14" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="10" t="s">
+      <c r="AX14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ14" s="8"/>
       <c r="BA14" s="8"/>
       <c r="BB14" s="8"/>
-      <c r="BC14" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD14" s="7"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE14" s="7"/>
       <c r="BF14" s="7"/>
       <c r="BG14" s="7"/>
@@ -6162,8 +6199,9 @@
       <c r="FN14" s="7"/>
       <c r="FO14" s="7"/>
       <c r="FP14" s="7"/>
-    </row>
-    <row r="15" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ14" s="7"/>
+    </row>
+    <row r="15" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>19</v>
       </c>
@@ -6237,47 +6275,47 @@
       <c r="AK15" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="10">
         <v>1234</v>
       </c>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="9" t="s">
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
-      <c r="AQ15" s="9" t="s">
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR15" s="10">
+      <c r="AS15" s="10">
         <v>2000</v>
       </c>
-      <c r="AS15" s="10" t="s">
+      <c r="AT15" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT15" s="10">
-        <v>1</v>
-      </c>
       <c r="AU15" s="10">
         <v>1</v>
       </c>
-      <c r="AV15" s="9" t="s">
+      <c r="AV15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="10" t="s">
+      <c r="AX15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ15" s="8"/>
       <c r="BA15" s="8"/>
       <c r="BB15" s="8"/>
-      <c r="BC15" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="7"/>
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
       <c r="BG15" s="7"/>
@@ -6394,8 +6432,9 @@
       <c r="FN15" s="7"/>
       <c r="FO15" s="7"/>
       <c r="FP15" s="7"/>
-    </row>
-    <row r="16" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ15" s="7"/>
+    </row>
+    <row r="16" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>20</v>
       </c>
@@ -6469,47 +6508,47 @@
       <c r="AK16" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL16" s="10">
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="10">
         <v>1234</v>
       </c>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="9" t="s">
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
-      <c r="AQ16" s="9" t="s">
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR16" s="10">
+      <c r="AS16" s="10">
         <v>2000</v>
       </c>
-      <c r="AS16" s="10" t="s">
+      <c r="AT16" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT16" s="10">
-        <v>1</v>
-      </c>
       <c r="AU16" s="10">
         <v>1</v>
       </c>
-      <c r="AV16" s="9" t="s">
+      <c r="AV16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="10" t="s">
+      <c r="AX16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ16" s="8"/>
       <c r="BA16" s="8"/>
       <c r="BB16" s="8"/>
-      <c r="BC16" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD16" s="7"/>
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE16" s="7"/>
       <c r="BF16" s="7"/>
       <c r="BG16" s="7"/>
@@ -6626,8 +6665,9 @@
       <c r="FN16" s="7"/>
       <c r="FO16" s="7"/>
       <c r="FP16" s="7"/>
-    </row>
-    <row r="17" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ16" s="7"/>
+    </row>
+    <row r="17" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>21</v>
       </c>
@@ -6703,47 +6743,47 @@
       <c r="AK17" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL17" s="10">
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="10">
         <v>1234</v>
       </c>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="9" t="s">
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
-      <c r="AQ17" s="9" t="s">
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR17" s="10">
+      <c r="AS17" s="10">
         <v>2000</v>
       </c>
-      <c r="AS17" s="10" t="s">
+      <c r="AT17" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT17" s="10">
-        <v>1</v>
-      </c>
       <c r="AU17" s="10">
         <v>1</v>
       </c>
-      <c r="AV17" s="9" t="s">
+      <c r="AV17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="10" t="s">
+      <c r="AX17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ17" s="8"/>
       <c r="BA17" s="8"/>
       <c r="BB17" s="8"/>
-      <c r="BC17" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="7"/>
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE17" s="7"/>
       <c r="BF17" s="7"/>
       <c r="BG17" s="7"/>
@@ -6860,8 +6900,9 @@
       <c r="FN17" s="7"/>
       <c r="FO17" s="7"/>
       <c r="FP17" s="7"/>
-    </row>
-    <row r="18" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ17" s="7"/>
+    </row>
+    <row r="18" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>22</v>
       </c>
@@ -6935,47 +6976,47 @@
       <c r="AK18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL18" s="10">
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="10">
         <v>1234</v>
       </c>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="9" t="s">
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
-      <c r="AQ18" s="9" t="s">
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR18" s="10">
+      <c r="AS18" s="10">
         <v>2000</v>
       </c>
-      <c r="AS18" s="10" t="s">
+      <c r="AT18" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT18" s="10">
-        <v>1</v>
-      </c>
       <c r="AU18" s="10">
         <v>1</v>
       </c>
-      <c r="AV18" s="9" t="s">
+      <c r="AV18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="8"/>
-      <c r="AY18" s="10" t="s">
+      <c r="AX18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ18" s="8"/>
       <c r="BA18" s="8"/>
       <c r="BB18" s="8"/>
-      <c r="BC18" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="7"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE18" s="7"/>
       <c r="BF18" s="7"/>
       <c r="BG18" s="7"/>
@@ -7092,8 +7133,9 @@
       <c r="FN18" s="7"/>
       <c r="FO18" s="7"/>
       <c r="FP18" s="7"/>
-    </row>
-    <row r="19" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ18" s="7"/>
+    </row>
+    <row r="19" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>23</v>
       </c>
@@ -7161,47 +7203,47 @@
       <c r="AK19" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL19" s="10">
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="10">
         <v>1234</v>
       </c>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="9" t="s">
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="10">
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="10">
         <v>911</v>
       </c>
-      <c r="AQ19" s="9" t="s">
+      <c r="AR19" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="10" t="s">
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT19" s="10">
-        <v>1</v>
-      </c>
       <c r="AU19" s="10">
         <v>1</v>
       </c>
-      <c r="AV19" s="9" t="s">
+      <c r="AV19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="10" t="s">
+      <c r="AX19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ19" s="8"/>
       <c r="BA19" s="8"/>
       <c r="BB19" s="8"/>
-      <c r="BC19" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD19" s="7"/>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE19" s="7"/>
       <c r="BF19" s="7"/>
       <c r="BG19" s="7"/>
@@ -7318,8 +7360,9 @@
       <c r="FN19" s="7"/>
       <c r="FO19" s="7"/>
       <c r="FP19" s="7"/>
-    </row>
-    <row r="20" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ19" s="7"/>
+    </row>
+    <row r="20" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>25</v>
       </c>
@@ -7389,47 +7432,47 @@
       <c r="AK20" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL20" s="10">
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="10">
         <v>1234</v>
       </c>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="9" t="s">
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO20" s="8"/>
-      <c r="AP20" s="10">
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="10">
         <v>911</v>
       </c>
-      <c r="AQ20" s="9" t="s">
+      <c r="AR20" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR20" s="8"/>
-      <c r="AS20" s="10" t="s">
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT20" s="10">
-        <v>1</v>
-      </c>
       <c r="AU20" s="10">
         <v>1</v>
       </c>
-      <c r="AV20" s="9" t="s">
+      <c r="AV20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX20" s="8"/>
-      <c r="AY20" s="10" t="s">
+      <c r="AX20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ20" s="8"/>
       <c r="BA20" s="8"/>
       <c r="BB20" s="8"/>
-      <c r="BC20" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD20" s="7"/>
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE20" s="7"/>
       <c r="BF20" s="7"/>
       <c r="BG20" s="7"/>
@@ -7546,8 +7589,9 @@
       <c r="FN20" s="7"/>
       <c r="FO20" s="7"/>
       <c r="FP20" s="7"/>
-    </row>
-    <row r="21" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="FQ20" s="7"/>
+    </row>
+    <row r="21" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>24</v>
       </c>
@@ -7615,47 +7659,47 @@
       <c r="AK21" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AL21" s="10">
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="10">
         <v>1234</v>
       </c>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="9" t="s">
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="10">
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="10">
         <v>911</v>
       </c>
-      <c r="AQ21" s="9" t="s">
+      <c r="AR21" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="10" t="s">
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AT21" s="10">
-        <v>1</v>
-      </c>
       <c r="AU21" s="10">
         <v>1</v>
       </c>
-      <c r="AV21" s="9" t="s">
+      <c r="AV21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AW21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="10" t="s">
+      <c r="AX21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AZ21" s="8"/>
       <c r="BA21" s="8"/>
       <c r="BB21" s="8"/>
-      <c r="BC21" s="109" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD21" s="7"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="108" t="b">
+        <v>1</v>
+      </c>
       <c r="BE21" s="7"/>
       <c r="BF21" s="7"/>
       <c r="BG21" s="7"/>
@@ -7772,6 +7816,7 @@
       <c r="FN21" s="7"/>
       <c r="FO21" s="7"/>
       <c r="FP21" s="7"/>
+      <c r="FQ21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7783,8 +7828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BI2" sqref="BI2:BI20"/>
+    <sheetView topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BI13" sqref="BI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="54.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8117,7 +8162,7 @@
       <c r="BG2" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="BI2" s="110" t="b">
+      <c r="BI2" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8179,7 +8224,7 @@
       <c r="BH3" s="38">
         <v>123</v>
       </c>
-      <c r="BI3" s="110" t="b">
+      <c r="BI3" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8259,7 +8304,7 @@
       <c r="BE4" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BI4" s="110" t="b">
+      <c r="BI4" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8291,7 +8336,7 @@
       <c r="BC5" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BI5" s="110" t="b">
+      <c r="BI5" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8353,7 +8398,7 @@
       <c r="BH6" s="38">
         <v>123</v>
       </c>
-      <c r="BI6" s="110" t="b">
+      <c r="BI6" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8415,7 +8460,7 @@
       <c r="BH7" s="38">
         <v>123</v>
       </c>
-      <c r="BI7" s="110" t="b">
+      <c r="BI7" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8462,7 +8507,7 @@
       <c r="BE8" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BI8" s="110" t="b">
+      <c r="BI8" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8524,7 +8569,7 @@
       <c r="BH9" s="38">
         <v>123</v>
       </c>
-      <c r="BI9" s="110" t="b">
+      <c r="BI9" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8574,7 +8619,7 @@
       <c r="BC10" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BI10" s="110" t="b">
+      <c r="BI10" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8678,7 +8723,7 @@
       <c r="BG11" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="BI11" s="110" t="b">
+      <c r="BI11" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8774,7 +8819,7 @@
       <c r="BG12" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="BI12" s="110" t="b">
+      <c r="BI12" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8816,7 +8861,7 @@
       <c r="BC13" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BI13" s="110" t="b">
+      <c r="BI13" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8838,7 +8883,7 @@
       <c r="BC14" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BI14" s="110" t="b">
+      <c r="BI14" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8858,7 +8903,7 @@
       <c r="BC15" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BI15" s="110" t="b">
+      <c r="BI15" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8878,7 +8923,7 @@
       <c r="BC16" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BI16" s="110" t="b">
+      <c r="BI16" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8899,7 +8944,7 @@
       <c r="BC17" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BI17" s="110" t="b">
+      <c r="BI17" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8961,7 +9006,7 @@
       <c r="BH18" s="38">
         <v>123</v>
       </c>
-      <c r="BI18" s="110" t="b">
+      <c r="BI18" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9035,7 +9080,7 @@
       <c r="BG19" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="BI19" s="110" t="b">
+      <c r="BI19" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9108,7 +9153,7 @@
       <c r="BG20" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="BI20" s="110" t="b">
+      <c r="BI20" s="108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9120,10 +9165,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM49"/>
+  <dimension ref="A1:CQ138"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BQ15" sqref="BQ15"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9141,8 +9186,8 @@
     <col min="11" max="11" width="24" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="35" customWidth="1"/>
-    <col min="15" max="15" width="10" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="35" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="5" bestFit="1" customWidth="1"/>
@@ -9163,43 +9208,47 @@
     <col min="34" max="34" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="9.140625" style="5"/>
+    <col min="37" max="37" width="24.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="33.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8" style="35" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>117</v>
       </c>
@@ -9309,106 +9358,118 @@
         <v>214</v>
       </c>
       <c r="AK1" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL1" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM1" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN1" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AL1" s="71" t="s">
+      <c r="AO1" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP1" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="AM1" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="AN1" s="71" t="s">
+      <c r="AQ1" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="AO1" s="71" t="s">
+      <c r="AR1" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="AP1" s="71" t="s">
+      <c r="AS1" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT1" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="AQ1" s="71" t="s">
+      <c r="AU1" s="71" t="s">
         <v>384</v>
       </c>
-      <c r="AR1" s="71" t="s">
+      <c r="AV1" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="AS1" s="71" t="s">
+      <c r="AW1" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="AT1" s="71" t="s">
+      <c r="AX1" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="AU1" s="71" t="s">
+      <c r="AY1" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="AV1" s="71" t="s">
+      <c r="AZ1" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="AW1" s="71" t="s">
+      <c r="BA1" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="AX1" s="71" t="s">
+      <c r="BB1" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="AY1" s="71" t="s">
+      <c r="BC1" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="AZ1" s="71" t="s">
+      <c r="BD1" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="BA1" s="71" t="s">
+      <c r="BE1" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="BB1" s="71" t="s">
+      <c r="BF1" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="BC1" s="71" t="s">
+      <c r="BG1" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="BD1" s="71" t="s">
+      <c r="BH1" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="BE1" s="71" t="s">
+      <c r="BI1" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="BF1" s="71" t="s">
+      <c r="BJ1" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="BG1" s="71" t="s">
+      <c r="BK1" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="BH1" s="71" t="s">
+      <c r="BL1" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="BI1" s="71" t="s">
+      <c r="BM1" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="BJ1" s="71" t="s">
+      <c r="BN1" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="BK1" s="71" t="s">
+      <c r="BO1" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="BL1" s="71" t="s">
+      <c r="BP1" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="BM1" s="71" t="s">
+      <c r="BQ1" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="BN1" s="71" t="s">
+      <c r="BR1" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="BO1" s="71" t="s">
+      <c r="BS1" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="BP1" s="45" t="s">
+      <c r="BT1" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="BQ1" s="71" t="s">
+      <c r="BU1" s="71" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>57</v>
       </c>
@@ -9478,76 +9539,81 @@
       <c r="AI2" s="37"/>
       <c r="AJ2" s="37"/>
       <c r="AK2" s="37"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="38" t="s">
+      <c r="AL2" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN2" s="38" t="s">
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="38" t="s">
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="38" t="s">
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="AS2" s="38" t="s">
+      <c r="AW2" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="AT2" s="38">
+      <c r="AX2" s="38">
         <v>1234567890</v>
       </c>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="38" t="s">
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AX2" s="38">
+      <c r="BB2" s="38">
         <v>2000</v>
       </c>
-      <c r="AY2" s="38" t="s">
+      <c r="BC2" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="38" t="s">
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG2" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="38" t="s">
+      <c r="BK2" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="38" t="s">
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="40"/>
+      <c r="BO2" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL2" s="38">
+      <c r="BP2" s="38">
         <v>2</v>
       </c>
-      <c r="BM2" s="38" t="s">
+      <c r="BQ2" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN2" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR2" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="111"/>
+    </row>
+    <row r="3" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>45</v>
       </c>
@@ -9619,79 +9685,83 @@
       <c r="AI3" s="37"/>
       <c r="AJ3" s="37"/>
       <c r="AK3" s="37"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="38" t="s">
+      <c r="AL3" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN3" s="38" t="s">
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="38" t="s">
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="38" t="s">
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="AS3" s="38" t="s">
+      <c r="AW3" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="AT3" s="38">
+      <c r="AX3" s="38">
         <v>1234567890</v>
       </c>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="38" t="s">
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AX3" s="38">
+      <c r="BB3" s="38">
         <v>2000</v>
       </c>
-      <c r="AY3" s="38" t="s">
+      <c r="BC3" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="38" t="s">
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG3" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="38" t="s">
+      <c r="BK3" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="38" t="s">
+      <c r="BM3" s="37"/>
+      <c r="BN3" s="40"/>
+      <c r="BO3" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL3" s="38">
+      <c r="BP3" s="38">
         <v>2</v>
       </c>
-      <c r="BM3" s="38" t="s">
+      <c r="BQ3" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN3" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR3" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>46</v>
       </c>
@@ -9763,109 +9833,123 @@
       <c r="AI4" s="37"/>
       <c r="AJ4" s="37"/>
       <c r="AK4" s="37"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="38" t="s">
+      <c r="AL4" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN4" s="38" t="s">
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="38" t="s">
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="38" t="s">
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="AS4" s="38" t="s">
+      <c r="AW4" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="AT4" s="38">
+      <c r="AX4" s="38">
         <v>1234567890</v>
       </c>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="38" t="s">
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AX4" s="38">
+      <c r="BB4" s="38">
         <v>2000</v>
       </c>
-      <c r="AY4" s="38" t="s">
+      <c r="BC4" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="38" t="s">
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG4" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="38" t="s">
+      <c r="BK4" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="38" t="s">
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL4" s="38">
+      <c r="BP4" s="38">
         <v>2</v>
       </c>
-      <c r="BM4" s="38" t="s">
+      <c r="BQ4" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN4" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR4" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AQ5" s="90"/>
-    </row>
-    <row r="6" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM5" s="54"/>
+      <c r="AU5" s="90"/>
+      <c r="BU5" s="111"/>
+    </row>
+    <row r="6" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AQ6" s="90"/>
-    </row>
-    <row r="7" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM6" s="54"/>
+      <c r="AU6" s="90"/>
+      <c r="BU6" s="111"/>
+    </row>
+    <row r="7" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="AQ7" s="90"/>
-    </row>
-    <row r="8" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM7" s="54"/>
+      <c r="AU7" s="90"/>
+      <c r="BU7" s="111"/>
+    </row>
+    <row r="8" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="AQ8" s="90"/>
-    </row>
-    <row r="9" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM8" s="54"/>
+      <c r="AU8" s="90"/>
+      <c r="BU8" s="111"/>
+    </row>
+    <row r="9" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="AQ9" s="90"/>
-    </row>
-    <row r="10" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM9" s="54"/>
+      <c r="AU9" s="90"/>
+      <c r="BU9" s="111"/>
+    </row>
+    <row r="10" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>58</v>
       </c>
@@ -9941,67 +10025,71 @@
       <c r="AI10" s="37"/>
       <c r="AJ10" s="37"/>
       <c r="AK10" s="37"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="54"/>
       <c r="AN10" s="37"/>
       <c r="AO10" s="37"/>
-      <c r="AP10" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ10" s="2"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="37"/>
       <c r="AR10" s="37"/>
       <c r="AS10" s="37"/>
-      <c r="AT10" s="38">
-        <v>1234567890</v>
-      </c>
-      <c r="AU10" s="37"/>
+      <c r="AT10" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU10" s="2"/>
       <c r="AV10" s="37"/>
       <c r="AW10" s="37"/>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="38" t="s">
-        <v>189</v>
-      </c>
+      <c r="AX10" s="38">
+        <v>1234567890</v>
+      </c>
+      <c r="AY10" s="37"/>
       <c r="AZ10" s="37"/>
       <c r="BA10" s="37"/>
       <c r="BB10" s="37"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE10" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF10" s="38" t="s">
+      <c r="BC10" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG10" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH10" s="38" t="s">
+      <c r="BK10" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI10" s="37"/>
-      <c r="BJ10" s="40"/>
-      <c r="BK10" s="38" t="s">
+      <c r="BM10" s="37"/>
+      <c r="BN10" s="40"/>
+      <c r="BO10" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL10" s="38">
+      <c r="BP10" s="38">
         <v>2</v>
       </c>
-      <c r="BM10" s="38" t="s">
+      <c r="BQ10" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN10" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO10" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ10" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR10" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS10" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>47</v>
       </c>
@@ -10078,75 +10166,78 @@
       <c r="AJ11" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="38" t="s">
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN11" s="38" t="s">
+      <c r="AM11" s="54"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="38" t="s">
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT11" s="38">
-        <v>1234567890</v>
-      </c>
-      <c r="AU11" s="37"/>
+      <c r="AU11" s="2"/>
       <c r="AV11" s="37"/>
       <c r="AW11" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX11" s="38">
+        <v>1234567890</v>
+      </c>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AX11" s="37"/>
-      <c r="AY11" s="38" t="s">
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AZ11" s="37"/>
-      <c r="BA11" s="37"/>
-      <c r="BB11" s="37"/>
-      <c r="BC11" s="37"/>
-      <c r="BD11" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF11" s="38" t="s">
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG11" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="38" t="s">
+      <c r="BK11" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI11" s="37"/>
-      <c r="BJ11" s="40"/>
-      <c r="BK11" s="38" t="s">
+      <c r="BM11" s="37"/>
+      <c r="BN11" s="40"/>
+      <c r="BO11" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL11" s="38">
+      <c r="BP11" s="38">
         <v>2</v>
       </c>
-      <c r="BM11" s="38" t="s">
+      <c r="BQ11" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN11" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR11" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>48</v>
       </c>
@@ -10223,75 +10314,78 @@
       <c r="AJ12" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="38" t="s">
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN12" s="38" t="s">
+      <c r="AM12" s="54"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="38" t="s">
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT12" s="38">
-        <v>1234567890</v>
-      </c>
-      <c r="AU12" s="37"/>
+      <c r="AU12" s="2"/>
       <c r="AV12" s="37"/>
       <c r="AW12" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX12" s="38">
+        <v>1234567890</v>
+      </c>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AX12" s="37"/>
-      <c r="AY12" s="38" t="s">
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="37"/>
-      <c r="BB12" s="37"/>
-      <c r="BC12" s="37"/>
-      <c r="BD12" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="38" t="s">
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="37"/>
+      <c r="BH12" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG12" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="38" t="s">
+      <c r="BK12" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI12" s="37"/>
-      <c r="BJ12" s="40"/>
-      <c r="BK12" s="38" t="s">
+      <c r="BM12" s="37"/>
+      <c r="BN12" s="40"/>
+      <c r="BO12" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL12" s="38">
+      <c r="BP12" s="38">
         <v>2</v>
       </c>
-      <c r="BM12" s="38" t="s">
+      <c r="BQ12" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN12" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO12" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ12" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR12" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>67</v>
       </c>
@@ -10380,52 +10474,43 @@
       <c r="AJ13" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="38" t="s">
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN13" s="38" t="s">
+      <c r="AM13" s="54"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AO13" s="38" t="s">
+      <c r="AR13" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AP13" s="38" t="s">
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT13" s="38">
-        <v>1234567890</v>
-      </c>
-      <c r="AU13" s="37"/>
+      <c r="AU13" s="2"/>
       <c r="AV13" s="37"/>
       <c r="AW13" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX13" s="38">
+        <v>1234567890</v>
+      </c>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="38" t="s">
+      <c r="BB13" s="37"/>
+      <c r="BC13" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AZ13" s="38">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB13" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="BC13" s="38">
-        <v>1</v>
-      </c>
       <c r="BD13" s="38">
         <v>1</v>
       </c>
-      <c r="BE13" s="38">
+      <c r="BE13" s="38" t="b">
         <v>1</v>
       </c>
       <c r="BF13" s="38" t="s">
@@ -10434,33 +10519,45 @@
       <c r="BG13" s="38">
         <v>1</v>
       </c>
-      <c r="BH13" s="38" t="s">
+      <c r="BH13" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="BK13" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI13" s="38">
+      <c r="BM13" s="38">
         <v>100</v>
       </c>
-      <c r="BJ13" s="40"/>
-      <c r="BK13" s="38" t="s">
+      <c r="BN13" s="40"/>
+      <c r="BO13" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL13" s="38">
+      <c r="BP13" s="38">
         <v>2</v>
       </c>
-      <c r="BM13" s="38" t="s">
+      <c r="BQ13" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN13" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO13" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ13" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR13" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>59</v>
       </c>
@@ -10527,82 +10624,86 @@
       <c r="AH14" s="37"/>
       <c r="AI14" s="37"/>
       <c r="AJ14" s="37"/>
-      <c r="AK14" s="38">
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="38">
         <v>456</v>
       </c>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="38" t="s">
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="37"/>
+      <c r="AT14" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW14" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX14" s="38">
+        <v>1234567980</v>
+      </c>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB14" s="38">
+        <v>2000</v>
+      </c>
+      <c r="BC14" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD14" s="37"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="37"/>
+      <c r="BG14" s="37"/>
+      <c r="BH14" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN14" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS14" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT14" s="38">
-        <v>1234567980</v>
-      </c>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="37"/>
-      <c r="AW14" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX14" s="38">
-        <v>2000</v>
-      </c>
-      <c r="AY14" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ14" s="37"/>
-      <c r="BA14" s="37"/>
-      <c r="BB14" s="37"/>
-      <c r="BC14" s="37"/>
-      <c r="BD14" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="BG14" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="38" t="s">
+      <c r="BK14" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI14" s="37"/>
-      <c r="BJ14" s="40"/>
-      <c r="BK14" s="38" t="s">
+      <c r="BM14" s="37"/>
+      <c r="BN14" s="40"/>
+      <c r="BO14" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL14" s="38">
+      <c r="BP14" s="38">
         <v>2</v>
       </c>
-      <c r="BM14" s="38" t="s">
+      <c r="BQ14" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN14" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO14" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ14" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR14" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU14" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>49</v>
       </c>
@@ -10671,82 +10772,88 @@
       <c r="AH15" s="37"/>
       <c r="AI15" s="37"/>
       <c r="AJ15" s="37"/>
-      <c r="AK15" s="38">
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="38">
         <v>456</v>
       </c>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="38" t="s">
+      <c r="AO15" s="38">
+        <v>12</v>
+      </c>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="37"/>
+      <c r="AT15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW15" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX15" s="38">
+        <v>1234567980</v>
+      </c>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB15" s="38">
+        <v>2000</v>
+      </c>
+      <c r="BC15" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="37"/>
+      <c r="BG15" s="37"/>
+      <c r="BH15" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN15" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS15" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT15" s="38">
-        <v>1234567980</v>
-      </c>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX15" s="38">
-        <v>2000</v>
-      </c>
-      <c r="AY15" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
-      <c r="BB15" s="37"/>
-      <c r="BC15" s="37"/>
-      <c r="BD15" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE15" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF15" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="BG15" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH15" s="38" t="s">
+      <c r="BK15" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI15" s="37"/>
-      <c r="BJ15" s="40"/>
-      <c r="BK15" s="38" t="s">
+      <c r="BM15" s="37"/>
+      <c r="BN15" s="40"/>
+      <c r="BO15" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL15" s="38">
+      <c r="BP15" s="38">
         <v>2</v>
       </c>
-      <c r="BM15" s="38" t="s">
+      <c r="BQ15" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN15" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO15" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ15" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR15" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS15" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU15" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>52</v>
       </c>
@@ -10814,79 +10921,83 @@
       <c r="AI16" s="37"/>
       <c r="AJ16" s="37"/>
       <c r="AK16" s="37"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="38" t="s">
+      <c r="AL16" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN16" s="38" t="s">
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="38" t="s">
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="38" t="s">
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="AT16" s="38">
+      <c r="AX16" s="38">
         <v>1234567980</v>
       </c>
-      <c r="AU16" s="38">
+      <c r="AY16" s="38">
         <v>911</v>
       </c>
-      <c r="AV16" s="38">
+      <c r="AZ16" s="38">
         <v>944</v>
       </c>
-      <c r="AW16" s="38" t="s">
+      <c r="BA16" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AX16" s="37"/>
-      <c r="AY16" s="38" t="s">
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AZ16" s="37"/>
-      <c r="BA16" s="37"/>
-      <c r="BB16" s="37"/>
-      <c r="BC16" s="37"/>
-      <c r="BD16" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE16" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF16" s="38" t="s">
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="37"/>
+      <c r="BF16" s="37"/>
+      <c r="BG16" s="37"/>
+      <c r="BH16" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ16" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG16" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH16" s="38" t="s">
+      <c r="BK16" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL16" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI16" s="37"/>
-      <c r="BJ16" s="40"/>
-      <c r="BK16" s="38" t="s">
+      <c r="BM16" s="37"/>
+      <c r="BN16" s="40"/>
+      <c r="BO16" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL16" s="38">
+      <c r="BP16" s="38">
         <v>2</v>
       </c>
-      <c r="BM16" s="38" t="s">
+      <c r="BQ16" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN16" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO16" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ16" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:69" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BR16" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS16" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU16" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:73" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>51</v>
       </c>
@@ -10956,77 +11067,81 @@
       <c r="AI17" s="37"/>
       <c r="AJ17" s="37"/>
       <c r="AK17" s="37"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="38" t="s">
+      <c r="AL17" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN17" s="38" t="s">
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="38" t="s">
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="38" t="s">
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="AT17" s="38">
+      <c r="AX17" s="38">
         <v>1234567980</v>
       </c>
-      <c r="AU17" s="38">
+      <c r="AY17" s="38">
         <v>911</v>
       </c>
-      <c r="AV17" s="40"/>
-      <c r="AW17" s="38" t="s">
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AX17" s="37"/>
-      <c r="AY17" s="38" t="s">
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AZ17" s="37"/>
-      <c r="BA17" s="37"/>
-      <c r="BB17" s="37"/>
-      <c r="BC17" s="37"/>
-      <c r="BD17" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF17" s="38" t="s">
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="37"/>
+      <c r="BG17" s="37"/>
+      <c r="BH17" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI17" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG17" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH17" s="38" t="s">
+      <c r="BK17" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL17" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI17" s="37"/>
-      <c r="BJ17" s="40"/>
-      <c r="BK17" s="38" t="s">
+      <c r="BM17" s="37"/>
+      <c r="BN17" s="40"/>
+      <c r="BO17" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL17" s="38">
+      <c r="BP17" s="38">
         <v>2</v>
       </c>
-      <c r="BM17" s="38" t="s">
+      <c r="BQ17" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN17" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO17" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ17" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:69" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR17" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS17" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU17" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:73" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>50</v>
       </c>
@@ -11096,77 +11211,81 @@
       <c r="AI18" s="37"/>
       <c r="AJ18" s="37"/>
       <c r="AK18" s="37"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="38" t="s">
+      <c r="AL18" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AN18" s="38" t="s">
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="40"/>
+      <c r="AQ18" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="38" t="s">
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="38" t="s">
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="AT18" s="38">
+      <c r="AX18" s="38">
         <v>1234567980</v>
       </c>
-      <c r="AU18" s="38">
+      <c r="AY18" s="38">
         <v>911</v>
       </c>
-      <c r="AV18" s="40"/>
-      <c r="AW18" s="38" t="s">
+      <c r="AZ18" s="40"/>
+      <c r="BA18" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="38" t="s">
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AZ18" s="37"/>
-      <c r="BA18" s="37"/>
-      <c r="BB18" s="37"/>
-      <c r="BC18" s="37"/>
-      <c r="BD18" s="38">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF18" s="38" t="s">
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="38">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG18" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH18" s="38" t="s">
+      <c r="BK18" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BI18" s="37"/>
-      <c r="BJ18" s="40"/>
-      <c r="BK18" s="38" t="s">
+      <c r="BM18" s="37"/>
+      <c r="BN18" s="40"/>
+      <c r="BO18" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL18" s="38">
+      <c r="BP18" s="38">
         <v>2</v>
       </c>
-      <c r="BM18" s="38" t="s">
+      <c r="BQ18" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN18" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO18" s="38">
-        <v>1</v>
-      </c>
-      <c r="BQ18" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:69" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR18" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS18" s="38">
+        <v>1</v>
+      </c>
+      <c r="BU18" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:73" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>61</v>
       </c>
@@ -11207,48 +11326,54 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AL19" s="42"/>
-      <c r="AO19" s="38" t="s">
+      <c r="AM19" s="54"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="42"/>
+      <c r="AR19" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AP19" s="38" t="s">
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ19" s="38">
+      <c r="AU19" s="38">
         <v>4567</v>
       </c>
-      <c r="AT19" s="2"/>
-      <c r="AX19" s="38">
+      <c r="AX19" s="2"/>
+      <c r="BB19" s="38">
         <v>2000</v>
       </c>
-      <c r="AY19" s="38" t="s">
+      <c r="BC19" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="BD19" s="2"/>
-      <c r="BF19" s="38" t="s">
+      <c r="BH19" s="2"/>
+      <c r="BJ19" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG19" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH19" s="38" t="s">
+      <c r="BK19" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BJ19" s="42"/>
-      <c r="BK19" s="38" t="s">
+      <c r="BN19" s="42"/>
+      <c r="BO19" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="38" t="s">
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BQ19" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:69" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="BU19" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:73" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>62</v>
       </c>
@@ -11301,61 +11426,72 @@
       <c r="AG20" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AL20" s="42"/>
-      <c r="AO20" s="38" t="s">
+      <c r="AK20" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AP20" s="38" t="s">
+      <c r="AL20" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM20" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO20" s="68"/>
+      <c r="AP20" s="42"/>
+      <c r="AR20" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ20" s="38">
+      <c r="AU20" s="38">
         <v>4567</v>
       </c>
-      <c r="AT20" s="38">
+      <c r="AX20" s="38">
         <v>1234567980</v>
       </c>
-      <c r="AX20" s="38">
+      <c r="BB20" s="38">
         <v>2000</v>
       </c>
-      <c r="AY20" s="38" t="s">
+      <c r="BC20" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="BD20" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF20" s="38" t="s">
+      <c r="BH20" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG20" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH20" s="38" t="s">
+      <c r="BK20" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL20" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="38" t="s">
+      <c r="BN20" s="42"/>
+      <c r="BO20" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL20" s="38">
+      <c r="BP20" s="38">
         <v>2</v>
       </c>
-      <c r="BM20" s="38" t="s">
+      <c r="BQ20" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN20" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO20" s="38">
-        <v>1</v>
-      </c>
-      <c r="BP20" s="89" t="s">
+      <c r="BR20" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS20" s="38">
+        <v>1</v>
+      </c>
+      <c r="BT20" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="BQ20" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:69" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BU20" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:73" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>63</v>
       </c>
@@ -11408,61 +11544,64 @@
       <c r="AG21" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AL21" s="42"/>
-      <c r="AO21" s="38" t="s">
+      <c r="AM21" s="54"/>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="42"/>
+      <c r="AR21" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AP21" s="38" t="s">
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ21" s="38">
+      <c r="AU21" s="38">
         <v>4567</v>
       </c>
-      <c r="AT21" s="38">
+      <c r="AX21" s="38">
         <v>1234567980</v>
       </c>
-      <c r="AX21" s="38">
+      <c r="BB21" s="38">
         <v>2000</v>
       </c>
-      <c r="AY21" s="38" t="s">
+      <c r="BC21" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="BD21" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF21" s="38" t="s">
+      <c r="BH21" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG21" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH21" s="38" t="s">
+      <c r="BK21" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL21" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BJ21" s="42"/>
-      <c r="BK21" s="38" t="s">
+      <c r="BN21" s="42"/>
+      <c r="BO21" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL21" s="38">
+      <c r="BP21" s="38">
         <v>2</v>
       </c>
-      <c r="BM21" s="38" t="s">
+      <c r="BQ21" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN21" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO21" s="38">
-        <v>1</v>
-      </c>
-      <c r="BP21" s="89" t="s">
+      <c r="BR21" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS21" s="38">
+        <v>1</v>
+      </c>
+      <c r="BT21" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="BQ21" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:69" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BU21" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:73" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>64</v>
       </c>
@@ -11515,61 +11654,72 @@
       <c r="AG22" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AL22" s="42"/>
-      <c r="AO22" s="38" t="s">
+      <c r="AK22" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AP22" s="38" t="s">
+      <c r="AL22" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM22" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="42"/>
+      <c r="AR22" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ22" s="38">
+      <c r="AU22" s="38">
         <v>4567</v>
       </c>
-      <c r="AT22" s="38">
+      <c r="AX22" s="38">
         <v>1234567980</v>
       </c>
-      <c r="AX22" s="38">
+      <c r="BB22" s="38">
         <v>2000</v>
       </c>
-      <c r="AY22" s="38" t="s">
+      <c r="BC22" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="BD22" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF22" s="38" t="s">
+      <c r="BH22" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG22" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH22" s="38" t="s">
+      <c r="BK22" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL22" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="38" t="s">
+      <c r="BN22" s="42"/>
+      <c r="BO22" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL22" s="38">
+      <c r="BP22" s="38">
         <v>2</v>
       </c>
-      <c r="BM22" s="38" t="s">
+      <c r="BQ22" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN22" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO22" s="38">
-        <v>1</v>
-      </c>
-      <c r="BP22" s="89" t="s">
+      <c r="BR22" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS22" s="38">
+        <v>1</v>
+      </c>
+      <c r="BT22" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="BQ22" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:69" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BU22" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:73" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>65</v>
       </c>
@@ -11622,61 +11772,72 @@
       <c r="AG23" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AL23" s="42"/>
-      <c r="AO23" s="38" t="s">
+      <c r="AK23" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AP23" s="38" t="s">
+      <c r="AL23" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM23" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO23" s="68"/>
+      <c r="AP23" s="42"/>
+      <c r="AR23" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ23" s="38">
+      <c r="AU23" s="38">
         <v>4567</v>
       </c>
-      <c r="AT23" s="38">
+      <c r="AX23" s="38">
         <v>1234567980</v>
       </c>
-      <c r="AX23" s="38">
+      <c r="BB23" s="38">
         <v>2000</v>
       </c>
-      <c r="AY23" s="38" t="s">
+      <c r="BC23" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="BD23" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF23" s="38" t="s">
+      <c r="BH23" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG23" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH23" s="38" t="s">
+      <c r="BK23" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL23" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="38" t="s">
+      <c r="BN23" s="42"/>
+      <c r="BO23" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL23" s="38">
+      <c r="BP23" s="38">
         <v>2</v>
       </c>
-      <c r="BM23" s="38" t="s">
+      <c r="BQ23" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN23" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO23" s="38">
-        <v>1</v>
-      </c>
-      <c r="BP23" s="89" t="s">
+      <c r="BR23" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS23" s="38">
+        <v>1</v>
+      </c>
+      <c r="BT23" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="BQ23" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:69" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BU23" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:73" s="52" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>66</v>
       </c>
@@ -11729,85 +11890,145 @@
       <c r="AG24" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AL24" s="42"/>
-      <c r="AO24" s="38" t="s">
+      <c r="AK24" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AP24" s="38" t="s">
+      <c r="AL24" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM24" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO24" s="68"/>
+      <c r="AP24" s="42"/>
+      <c r="AR24" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AQ24" s="38">
+      <c r="AU24" s="38">
         <v>4567</v>
       </c>
-      <c r="AT24" s="38">
+      <c r="AX24" s="38">
         <v>1234567980</v>
       </c>
-      <c r="AX24" s="38">
+      <c r="BB24" s="38">
         <v>2000</v>
       </c>
-      <c r="AY24" s="38" t="s">
+      <c r="BC24" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="BD24" s="38">
-        <v>1</v>
-      </c>
-      <c r="BF24" s="38" t="s">
+      <c r="BH24" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="BG24" s="38">
-        <v>1</v>
-      </c>
-      <c r="BH24" s="38" t="s">
+      <c r="BK24" s="38">
+        <v>1</v>
+      </c>
+      <c r="BL24" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="38" t="s">
+      <c r="BN24" s="42"/>
+      <c r="BO24" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BL24" s="38">
+      <c r="BP24" s="38">
         <v>2</v>
       </c>
-      <c r="BM24" s="38" t="s">
+      <c r="BQ24" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BN24" s="38">
-        <v>1</v>
-      </c>
-      <c r="BO24" s="38">
-        <v>1</v>
-      </c>
-      <c r="BP24" s="89" t="s">
+      <c r="BR24" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS24" s="38">
+        <v>1</v>
+      </c>
+      <c r="BT24" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="BQ24" s="38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:69" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="BU24" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:73" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-    </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="AM25" s="112"/>
+    </row>
+    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-    </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="AM26" s="112"/>
+    </row>
+    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-    </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="AM27" s="112"/>
+    </row>
+    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-    </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AM28" s="112"/>
+    </row>
+    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="AM29" s="112"/>
+    </row>
+    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="AM30" s="112"/>
+    </row>
+    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="AM31" s="112"/>
+    </row>
+    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="AM32" s="112"/>
+    </row>
+    <row r="33" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-    </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AM33" s="112"/>
+    </row>
+    <row r="34" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
-    </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AM34" s="112"/>
+    </row>
+    <row r="35" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-    </row>
-    <row r="43" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AM35" s="112"/>
+    </row>
+    <row r="36" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM36" s="112"/>
+    </row>
+    <row r="37" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM37" s="112"/>
+    </row>
+    <row r="38" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM38" s="112"/>
+    </row>
+    <row r="39" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM39" s="112"/>
+    </row>
+    <row r="40" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM40" s="112"/>
+    </row>
+    <row r="41" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM41" s="112"/>
+    </row>
+    <row r="42" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM42" s="112"/>
+    </row>
+    <row r="43" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
-    </row>
-    <row r="46" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AM43" s="112"/>
+    </row>
+    <row r="44" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM44" s="112"/>
+      <c r="AP44" s="97"/>
+    </row>
+    <row r="45" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM45" s="112"/>
+      <c r="AP45" s="97"/>
+    </row>
+    <row r="46" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A46" s="91"/>
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
@@ -11845,16 +12066,16 @@
       <c r="AI46" s="92"/>
       <c r="AJ46" s="91"/>
       <c r="AK46" s="91"/>
-      <c r="AL46" s="93"/>
-      <c r="AM46" s="91"/>
+      <c r="AL46" s="91"/>
+      <c r="AM46" s="112"/>
       <c r="AN46" s="91"/>
       <c r="AO46" s="91"/>
-      <c r="AP46" s="88"/>
-      <c r="AQ46" s="88"/>
+      <c r="AP46" s="113"/>
+      <c r="AQ46" s="91"/>
       <c r="AR46" s="91"/>
       <c r="AS46" s="91"/>
-      <c r="AT46" s="91"/>
-      <c r="AU46" s="91"/>
+      <c r="AT46" s="88"/>
+      <c r="AU46" s="88"/>
       <c r="AV46" s="91"/>
       <c r="AW46" s="91"/>
       <c r="AX46" s="91"/>
@@ -11867,19 +12088,19 @@
       <c r="BE46" s="91"/>
       <c r="BF46" s="91"/>
       <c r="BG46" s="91"/>
-      <c r="BH46" s="88"/>
+      <c r="BH46" s="91"/>
       <c r="BI46" s="91"/>
-      <c r="BJ46" s="86"/>
-      <c r="BK46" s="88"/>
-      <c r="BL46" s="91"/>
-      <c r="BM46" s="88"/>
-      <c r="BN46" s="91"/>
-      <c r="BO46" s="91"/>
-      <c r="BP46" s="94"/>
-      <c r="BQ46" s="92"/>
-      <c r="BR46" s="92"/>
-      <c r="BS46" s="92"/>
-      <c r="BT46" s="92"/>
+      <c r="BJ46" s="91"/>
+      <c r="BK46" s="91"/>
+      <c r="BL46" s="88"/>
+      <c r="BM46" s="91"/>
+      <c r="BN46" s="86"/>
+      <c r="BO46" s="88"/>
+      <c r="BP46" s="91"/>
+      <c r="BQ46" s="88"/>
+      <c r="BR46" s="91"/>
+      <c r="BS46" s="91"/>
+      <c r="BT46" s="93"/>
       <c r="BU46" s="92"/>
       <c r="BV46" s="92"/>
       <c r="BW46" s="92"/>
@@ -11899,8 +12120,12 @@
       <c r="CK46" s="92"/>
       <c r="CL46" s="92"/>
       <c r="CM46" s="92"/>
-    </row>
-    <row r="47" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="CN46" s="92"/>
+      <c r="CO46" s="92"/>
+      <c r="CP46" s="92"/>
+      <c r="CQ46" s="92"/>
+    </row>
+    <row r="47" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A47" s="91"/>
       <c r="B47" s="88"/>
       <c r="C47" s="88"/>
@@ -11920,7 +12145,7 @@
       <c r="Q47" s="88"/>
       <c r="R47" s="88"/>
       <c r="S47" s="88"/>
-      <c r="T47" s="95"/>
+      <c r="T47" s="94"/>
       <c r="U47" s="91"/>
       <c r="V47" s="91"/>
       <c r="W47" s="91"/>
@@ -11938,41 +12163,41 @@
       <c r="AI47" s="91"/>
       <c r="AJ47" s="91"/>
       <c r="AK47" s="91"/>
-      <c r="AL47" s="93"/>
-      <c r="AM47" s="91"/>
+      <c r="AL47" s="91"/>
+      <c r="AM47" s="112"/>
       <c r="AN47" s="91"/>
       <c r="AO47" s="91"/>
-      <c r="AP47" s="88"/>
-      <c r="AQ47" s="88"/>
+      <c r="AP47" s="113"/>
+      <c r="AQ47" s="91"/>
       <c r="AR47" s="91"/>
       <c r="AS47" s="91"/>
       <c r="AT47" s="88"/>
-      <c r="AU47" s="91"/>
+      <c r="AU47" s="88"/>
       <c r="AV47" s="91"/>
       <c r="AW47" s="91"/>
-      <c r="AX47" s="91"/>
-      <c r="AY47" s="88"/>
+      <c r="AX47" s="88"/>
+      <c r="AY47" s="91"/>
       <c r="AZ47" s="91"/>
       <c r="BA47" s="91"/>
       <c r="BB47" s="91"/>
-      <c r="BC47" s="91"/>
+      <c r="BC47" s="88"/>
       <c r="BD47" s="91"/>
       <c r="BE47" s="91"/>
       <c r="BF47" s="91"/>
       <c r="BG47" s="91"/>
-      <c r="BH47" s="88"/>
+      <c r="BH47" s="91"/>
       <c r="BI47" s="91"/>
-      <c r="BJ47" s="86"/>
-      <c r="BK47" s="88"/>
-      <c r="BL47" s="91"/>
-      <c r="BM47" s="88"/>
-      <c r="BN47" s="91"/>
-      <c r="BO47" s="91"/>
-      <c r="BP47" s="94"/>
-      <c r="BQ47" s="92"/>
-      <c r="BR47" s="92"/>
-      <c r="BS47" s="92"/>
-      <c r="BT47" s="92"/>
+      <c r="BJ47" s="91"/>
+      <c r="BK47" s="91"/>
+      <c r="BL47" s="88"/>
+      <c r="BM47" s="91"/>
+      <c r="BN47" s="86"/>
+      <c r="BO47" s="88"/>
+      <c r="BP47" s="91"/>
+      <c r="BQ47" s="88"/>
+      <c r="BR47" s="91"/>
+      <c r="BS47" s="91"/>
+      <c r="BT47" s="93"/>
       <c r="BU47" s="92"/>
       <c r="BV47" s="92"/>
       <c r="BW47" s="92"/>
@@ -11992,8 +12217,12 @@
       <c r="CK47" s="92"/>
       <c r="CL47" s="92"/>
       <c r="CM47" s="92"/>
-    </row>
-    <row r="48" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="CN47" s="92"/>
+      <c r="CO47" s="92"/>
+      <c r="CP47" s="92"/>
+      <c r="CQ47" s="92"/>
+    </row>
+    <row r="48" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A48" s="91"/>
       <c r="B48" s="88"/>
       <c r="C48" s="91"/>
@@ -12031,16 +12260,16 @@
       <c r="AI48" s="91"/>
       <c r="AJ48" s="91"/>
       <c r="AK48" s="91"/>
-      <c r="AL48" s="93"/>
-      <c r="AM48" s="91"/>
+      <c r="AL48" s="91"/>
+      <c r="AM48" s="112"/>
       <c r="AN48" s="91"/>
       <c r="AO48" s="91"/>
-      <c r="AP48" s="88"/>
-      <c r="AQ48" s="88"/>
+      <c r="AP48" s="113"/>
+      <c r="AQ48" s="91"/>
       <c r="AR48" s="91"/>
       <c r="AS48" s="91"/>
-      <c r="AT48" s="91"/>
-      <c r="AU48" s="91"/>
+      <c r="AT48" s="88"/>
+      <c r="AU48" s="88"/>
       <c r="AV48" s="91"/>
       <c r="AW48" s="91"/>
       <c r="AX48" s="91"/>
@@ -12053,19 +12282,19 @@
       <c r="BE48" s="91"/>
       <c r="BF48" s="91"/>
       <c r="BG48" s="91"/>
-      <c r="BH48" s="88"/>
+      <c r="BH48" s="91"/>
       <c r="BI48" s="91"/>
-      <c r="BJ48" s="86"/>
-      <c r="BK48" s="88"/>
-      <c r="BL48" s="91"/>
+      <c r="BJ48" s="91"/>
+      <c r="BK48" s="91"/>
+      <c r="BL48" s="88"/>
       <c r="BM48" s="91"/>
-      <c r="BN48" s="91"/>
-      <c r="BO48" s="91"/>
-      <c r="BP48" s="94"/>
-      <c r="BQ48" s="92"/>
-      <c r="BR48" s="92"/>
-      <c r="BS48" s="92"/>
-      <c r="BT48" s="92"/>
+      <c r="BN48" s="86"/>
+      <c r="BO48" s="88"/>
+      <c r="BP48" s="91"/>
+      <c r="BQ48" s="91"/>
+      <c r="BR48" s="91"/>
+      <c r="BS48" s="91"/>
+      <c r="BT48" s="93"/>
       <c r="BU48" s="92"/>
       <c r="BV48" s="92"/>
       <c r="BW48" s="92"/>
@@ -12085,8 +12314,12 @@
       <c r="CK48" s="92"/>
       <c r="CL48" s="92"/>
       <c r="CM48" s="92"/>
-    </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="CN48" s="92"/>
+      <c r="CO48" s="92"/>
+      <c r="CP48" s="92"/>
+      <c r="CQ48" s="92"/>
+    </row>
+    <row r="49" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A49" s="91"/>
       <c r="B49" s="88"/>
       <c r="C49" s="91"/>
@@ -12106,7 +12339,7 @@
       <c r="Q49" s="91"/>
       <c r="R49" s="91"/>
       <c r="S49" s="91"/>
-      <c r="T49" s="95"/>
+      <c r="T49" s="94"/>
       <c r="U49" s="88"/>
       <c r="V49" s="88"/>
       <c r="W49" s="88"/>
@@ -12124,41 +12357,41 @@
       <c r="AI49" s="91"/>
       <c r="AJ49" s="91"/>
       <c r="AK49" s="91"/>
-      <c r="AL49" s="93"/>
-      <c r="AM49" s="91"/>
+      <c r="AL49" s="91"/>
+      <c r="AM49" s="112"/>
       <c r="AN49" s="91"/>
       <c r="AO49" s="91"/>
-      <c r="AP49" s="88"/>
-      <c r="AQ49" s="88"/>
+      <c r="AP49" s="113"/>
+      <c r="AQ49" s="91"/>
       <c r="AR49" s="91"/>
       <c r="AS49" s="91"/>
       <c r="AT49" s="88"/>
-      <c r="AU49" s="91"/>
+      <c r="AU49" s="88"/>
       <c r="AV49" s="91"/>
       <c r="AW49" s="91"/>
-      <c r="AX49" s="91"/>
-      <c r="AY49" s="88"/>
+      <c r="AX49" s="88"/>
+      <c r="AY49" s="91"/>
       <c r="AZ49" s="91"/>
       <c r="BA49" s="91"/>
       <c r="BB49" s="91"/>
-      <c r="BC49" s="91"/>
-      <c r="BD49" s="88"/>
-      <c r="BE49" s="88"/>
-      <c r="BF49" s="88"/>
-      <c r="BG49" s="88"/>
+      <c r="BC49" s="88"/>
+      <c r="BD49" s="91"/>
+      <c r="BE49" s="91"/>
+      <c r="BF49" s="91"/>
+      <c r="BG49" s="91"/>
       <c r="BH49" s="88"/>
-      <c r="BI49" s="91"/>
-      <c r="BJ49" s="86"/>
+      <c r="BI49" s="88"/>
+      <c r="BJ49" s="88"/>
       <c r="BK49" s="88"/>
       <c r="BL49" s="88"/>
       <c r="BM49" s="91"/>
-      <c r="BN49" s="88"/>
+      <c r="BN49" s="86"/>
       <c r="BO49" s="88"/>
-      <c r="BP49" s="94"/>
-      <c r="BQ49" s="92"/>
-      <c r="BR49" s="92"/>
-      <c r="BS49" s="92"/>
-      <c r="BT49" s="92"/>
+      <c r="BP49" s="88"/>
+      <c r="BQ49" s="91"/>
+      <c r="BR49" s="88"/>
+      <c r="BS49" s="88"/>
+      <c r="BT49" s="93"/>
       <c r="BU49" s="92"/>
       <c r="BV49" s="92"/>
       <c r="BW49" s="92"/>
@@ -12178,6 +12411,278 @@
       <c r="CK49" s="92"/>
       <c r="CL49" s="92"/>
       <c r="CM49" s="92"/>
+      <c r="CN49" s="92"/>
+      <c r="CO49" s="92"/>
+      <c r="CP49" s="92"/>
+      <c r="CQ49" s="92"/>
+    </row>
+    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM50" s="112"/>
+      <c r="AP50" s="97"/>
+    </row>
+    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM51" s="112"/>
+    </row>
+    <row r="52" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM52" s="112"/>
+    </row>
+    <row r="53" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM53" s="112"/>
+    </row>
+    <row r="54" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM54" s="112"/>
+    </row>
+    <row r="55" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM55" s="112"/>
+    </row>
+    <row r="56" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM56" s="112"/>
+    </row>
+    <row r="57" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM57" s="112"/>
+    </row>
+    <row r="58" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM58" s="112"/>
+    </row>
+    <row r="59" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM59" s="112"/>
+    </row>
+    <row r="60" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM60" s="112"/>
+    </row>
+    <row r="61" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM61" s="112"/>
+    </row>
+    <row r="62" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM62" s="112"/>
+    </row>
+    <row r="63" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM63" s="112"/>
+    </row>
+    <row r="64" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AM64" s="112"/>
+    </row>
+    <row r="65" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM65" s="112"/>
+    </row>
+    <row r="66" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM66" s="112"/>
+    </row>
+    <row r="67" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM67" s="112"/>
+    </row>
+    <row r="68" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM68" s="112"/>
+    </row>
+    <row r="69" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM69" s="112"/>
+    </row>
+    <row r="70" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM70" s="112"/>
+    </row>
+    <row r="71" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM71" s="112"/>
+    </row>
+    <row r="72" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM72" s="112"/>
+    </row>
+    <row r="73" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM73" s="112"/>
+    </row>
+    <row r="74" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM74" s="112"/>
+    </row>
+    <row r="75" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM75" s="112"/>
+    </row>
+    <row r="76" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM76" s="112"/>
+    </row>
+    <row r="77" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM77" s="112"/>
+    </row>
+    <row r="78" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM78" s="112"/>
+    </row>
+    <row r="79" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM79" s="112"/>
+    </row>
+    <row r="80" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM80" s="112"/>
+    </row>
+    <row r="81" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM81" s="112"/>
+    </row>
+    <row r="82" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM82" s="112"/>
+    </row>
+    <row r="83" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM83" s="112"/>
+    </row>
+    <row r="84" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM84" s="112"/>
+    </row>
+    <row r="85" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM85" s="112"/>
+    </row>
+    <row r="86" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM86" s="112"/>
+    </row>
+    <row r="87" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM87" s="112"/>
+    </row>
+    <row r="88" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM88" s="112"/>
+    </row>
+    <row r="89" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM89" s="112"/>
+    </row>
+    <row r="90" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM90" s="112"/>
+    </row>
+    <row r="91" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM91" s="112"/>
+    </row>
+    <row r="92" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM92" s="112"/>
+    </row>
+    <row r="93" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM93" s="112"/>
+    </row>
+    <row r="94" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM94" s="112"/>
+    </row>
+    <row r="95" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM95" s="112"/>
+    </row>
+    <row r="96" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM96" s="112"/>
+    </row>
+    <row r="97" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM97" s="112"/>
+    </row>
+    <row r="98" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM98" s="112"/>
+    </row>
+    <row r="99" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM99" s="112"/>
+    </row>
+    <row r="100" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM100" s="112"/>
+    </row>
+    <row r="101" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM101" s="112"/>
+    </row>
+    <row r="102" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM102" s="112"/>
+    </row>
+    <row r="103" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM103" s="112"/>
+    </row>
+    <row r="104" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM104" s="112"/>
+    </row>
+    <row r="105" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM105" s="112"/>
+    </row>
+    <row r="106" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM106" s="112"/>
+    </row>
+    <row r="107" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM107" s="112"/>
+    </row>
+    <row r="108" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM108" s="112"/>
+    </row>
+    <row r="109" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM109" s="112"/>
+    </row>
+    <row r="110" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM110" s="112"/>
+    </row>
+    <row r="111" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM111" s="112"/>
+    </row>
+    <row r="112" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM112" s="112"/>
+    </row>
+    <row r="113" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM113" s="112"/>
+    </row>
+    <row r="114" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM114" s="112"/>
+    </row>
+    <row r="115" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM115" s="112"/>
+    </row>
+    <row r="116" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM116" s="112"/>
+    </row>
+    <row r="117" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM117" s="112"/>
+    </row>
+    <row r="118" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM118" s="112"/>
+    </row>
+    <row r="119" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM119" s="68"/>
+    </row>
+    <row r="120" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM120" s="68"/>
+    </row>
+    <row r="121" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM121" s="68"/>
+    </row>
+    <row r="122" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM122" s="68"/>
+    </row>
+    <row r="123" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM123" s="68"/>
+    </row>
+    <row r="124" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM124" s="68"/>
+    </row>
+    <row r="125" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM125" s="68"/>
+    </row>
+    <row r="126" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM126" s="68"/>
+    </row>
+    <row r="127" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM127" s="68"/>
+    </row>
+    <row r="128" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM128" s="68"/>
+    </row>
+    <row r="129" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM129" s="68"/>
+    </row>
+    <row r="130" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM130" s="68"/>
+    </row>
+    <row r="131" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM131" s="68"/>
+    </row>
+    <row r="132" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM132" s="68"/>
+    </row>
+    <row r="133" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM133" s="68"/>
+    </row>
+    <row r="134" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM134" s="68"/>
+    </row>
+    <row r="135" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM135" s="68"/>
+    </row>
+    <row r="136" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM136" s="68"/>
+    </row>
+    <row r="137" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM137" s="68"/>
+    </row>
+    <row r="138" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM138" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12190,13 +12695,13 @@
   <dimension ref="A1:BB124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="98" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="97" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" style="5" bestFit="1" customWidth="1"/>
@@ -12246,7 +12751,7 @@
       <c r="A1" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>350</v>
       </c>
       <c r="C1" s="71" t="s">
@@ -12410,7 +12915,7 @@
       <c r="A2" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C2" s="76">
@@ -12436,7 +12941,7 @@
       <c r="A3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C3" s="76">
@@ -12464,7 +12969,7 @@
       <c r="A4" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C4" s="76">
@@ -12528,7 +13033,7 @@
       <c r="A5" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C5" s="76">
@@ -12592,7 +13097,7 @@
       <c r="A6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C6" s="76">
@@ -12634,7 +13139,7 @@
       <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C7" s="76">
@@ -12698,7 +13203,7 @@
       <c r="A8" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C8" s="76">
@@ -12724,7 +13229,7 @@
       <c r="A9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C9" s="76">
@@ -12750,7 +13255,7 @@
       <c r="A10" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C10" s="76">
@@ -12776,7 +13281,7 @@
       <c r="A11" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C11" s="76">
@@ -12800,7 +13305,7 @@
       <c r="A12" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C12" s="87"/>
@@ -12816,7 +13321,7 @@
       <c r="A13" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C13" s="87"/>
@@ -12832,7 +13337,7 @@
       <c r="A14" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C14" s="76">
@@ -12856,7 +13361,7 @@
       <c r="A15" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C15" s="76">
@@ -12880,7 +13385,7 @@
       <c r="A16" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C16" s="76">
@@ -12904,7 +13409,7 @@
       <c r="A17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C17" s="76">
@@ -12984,7 +13489,7 @@
       <c r="A18" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C18" s="76">
@@ -13013,7 +13518,7 @@
       <c r="A19" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C19" s="76">
@@ -13077,7 +13582,7 @@
       <c r="A20" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C20" s="76">
@@ -13100,7 +13605,7 @@
       <c r="A21" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="96" t="s">
         <v>388</v>
       </c>
       <c r="C21" s="76">
@@ -13144,7 +13649,7 @@
       <c r="A22" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="101" t="s">
         <v>388</v>
       </c>
       <c r="C22" s="76">
@@ -13173,310 +13678,310 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B23" s="103"/>
+      <c r="B23" s="102"/>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B24" s="103"/>
+      <c r="B24" s="102"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B25" s="103"/>
+      <c r="B25" s="102"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B26" s="103"/>
+      <c r="B26" s="102"/>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B27" s="103"/>
+      <c r="B27" s="102"/>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B28" s="103"/>
+      <c r="B28" s="102"/>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B29" s="103"/>
+      <c r="B29" s="102"/>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B30" s="103"/>
+      <c r="B30" s="102"/>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B31" s="104"/>
+      <c r="B31" s="103"/>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B32" s="105"/>
+      <c r="B32" s="104"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="103"/>
+      <c r="B33" s="102"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="103"/>
+      <c r="B34" s="102"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="103"/>
+      <c r="B35" s="102"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="103"/>
+      <c r="B36" s="102"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="103"/>
+      <c r="B37" s="102"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="103"/>
+      <c r="B38" s="102"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="106"/>
+      <c r="B39" s="105"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="106"/>
+      <c r="B40" s="105"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="103"/>
+      <c r="B41" s="102"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="106"/>
+      <c r="B42" s="105"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="103"/>
+      <c r="B43" s="102"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="103"/>
+      <c r="B44" s="102"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="103"/>
+      <c r="B45" s="102"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="106"/>
+      <c r="B46" s="105"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="106"/>
+      <c r="B47" s="105"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="103"/>
+      <c r="B48" s="102"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="103"/>
+      <c r="B49" s="102"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="107"/>
+      <c r="B50" s="106"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="103"/>
+      <c r="B51" s="102"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="103"/>
+      <c r="B52" s="102"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="103"/>
+      <c r="B53" s="102"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="103"/>
+      <c r="B54" s="102"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="103"/>
+      <c r="B55" s="102"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="103"/>
+      <c r="B56" s="102"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="103"/>
+      <c r="B57" s="102"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="103"/>
+      <c r="B58" s="102"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="103"/>
+      <c r="B59" s="102"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="103"/>
+      <c r="B60" s="102"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="103"/>
+      <c r="B61" s="102"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="103"/>
+      <c r="B62" s="102"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="103"/>
+      <c r="B63" s="102"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="103"/>
+      <c r="B64" s="102"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="103"/>
+      <c r="B65" s="102"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="103"/>
+      <c r="B66" s="102"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="103"/>
+      <c r="B67" s="102"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="103"/>
+      <c r="B68" s="102"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="103"/>
+      <c r="B69" s="102"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="103"/>
+      <c r="B70" s="102"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="103"/>
+      <c r="B71" s="102"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="103"/>
+      <c r="B72" s="102"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="103"/>
+      <c r="B73" s="102"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="103"/>
+      <c r="B74" s="102"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="103"/>
+      <c r="B75" s="102"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="103"/>
+      <c r="B76" s="102"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="103"/>
+      <c r="B77" s="102"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="103"/>
+      <c r="B78" s="102"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="103"/>
+      <c r="B79" s="102"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="103"/>
+      <c r="B80" s="102"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="106"/>
+      <c r="B81" s="105"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="103"/>
+      <c r="B82" s="102"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="103"/>
+      <c r="B83" s="102"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="103"/>
+      <c r="B84" s="102"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="103"/>
+      <c r="B85" s="102"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="103"/>
+      <c r="B86" s="102"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="103"/>
+      <c r="B87" s="102"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="106"/>
+      <c r="B88" s="105"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="103"/>
+      <c r="B89" s="102"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="103"/>
+      <c r="B90" s="102"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="103"/>
+      <c r="B91" s="102"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="103"/>
+      <c r="B92" s="102"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="103"/>
+      <c r="B93" s="102"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="103"/>
+      <c r="B94" s="102"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="103"/>
+      <c r="B95" s="102"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="103"/>
+      <c r="B96" s="102"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="103"/>
+      <c r="B97" s="102"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="103"/>
+      <c r="B98" s="102"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="103"/>
+      <c r="B99" s="102"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="103"/>
+      <c r="B100" s="102"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="103"/>
+      <c r="B101" s="102"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="103"/>
+      <c r="B102" s="102"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="103"/>
+      <c r="B103" s="102"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="103"/>
+      <c r="B104" s="102"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="103"/>
+      <c r="B105" s="102"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="103"/>
+      <c r="B106" s="102"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="103"/>
+      <c r="B107" s="102"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="103"/>
+      <c r="B108" s="102"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="103"/>
+      <c r="B109" s="102"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="103"/>
+      <c r="B110" s="102"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="103"/>
+      <c r="B111" s="102"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="103"/>
+      <c r="B112" s="102"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="103"/>
+      <c r="B113" s="102"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="103"/>
+      <c r="B114" s="102"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="103"/>
+      <c r="B115" s="102"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="103"/>
+      <c r="B116" s="102"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="103"/>
+      <c r="B117" s="102"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="103"/>
+      <c r="B118" s="102"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="108"/>
+      <c r="B119" s="107"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="99"/>
+      <c r="B120" s="98"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="99"/>
+      <c r="B121" s="98"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="100"/>
+      <c r="B122" s="99"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="101"/>
+      <c r="B123" s="100"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="99"/>
+      <c r="B124" s="98"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13491,7 +13996,7 @@
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AH17"/>
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13692,7 +14197,7 @@
       <c r="AG2" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AH2" s="111" t="b">
+      <c r="AH2" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13751,7 +14256,7 @@
       <c r="AG3" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AH3" s="111" t="b">
+      <c r="AH3" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13804,7 +14309,7 @@
       <c r="AG4" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AH4" s="111" t="b">
+      <c r="AH4" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13857,7 +14362,7 @@
       <c r="AG5" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AH5" s="111" t="b">
+      <c r="AH5" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13919,7 +14424,7 @@
       <c r="AG6" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AH6" s="111" t="b">
+      <c r="AH6" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13981,7 +14486,7 @@
       <c r="AG7" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AH7" s="111" t="b">
+      <c r="AH7" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14037,7 +14542,7 @@
       <c r="AG8" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AH8" s="111" t="b">
+      <c r="AH8" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14093,7 +14598,7 @@
       <c r="AG9" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AH9" s="111" t="b">
+      <c r="AH9" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14128,7 +14633,7 @@
       <c r="AF10" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AH10" s="111" t="b">
+      <c r="AH10" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14166,7 +14671,7 @@
       <c r="AF11" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AH11" s="111" t="b">
+      <c r="AH11" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14201,7 +14706,7 @@
       <c r="AF12" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AH12" s="111" t="b">
+      <c r="AH12" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14236,7 +14741,7 @@
       <c r="AF13" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AH13" s="111" t="b">
+      <c r="AH13" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14274,7 +14779,7 @@
       <c r="AF14" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AH14" s="111" t="b">
+      <c r="AH14" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14312,7 +14817,7 @@
       <c r="AF15" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AH15" s="111" t="b">
+      <c r="AH15" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14350,7 +14855,7 @@
       <c r="AF16" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AH16" s="111" t="b">
+      <c r="AH16" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14388,7 +14893,7 @@
       <c r="AF17" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AH17" s="111" t="b">
+      <c r="AH17" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14576,7 +15081,7 @@
       <c r="AH2" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AL2" s="111" t="b">
+      <c r="AL2" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14596,7 +15101,7 @@
       <c r="AH3" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AL3" s="111" t="b">
+      <c r="AL3" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14634,7 +15139,7 @@
       <c r="AK4" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AL4" s="111" t="b">
+      <c r="AL4" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14681,7 +15186,7 @@
       <c r="AK5" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AL5" s="111" t="b">
+      <c r="AL5" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14713,7 +15218,7 @@
       <c r="AH6" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AL6" s="111" t="b">
+      <c r="AL6" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14754,7 +15259,7 @@
       <c r="AH7" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AL7" s="111" t="b">
+      <c r="AL7" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14774,7 +15279,7 @@
       <c r="AH8" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AL8" s="111" t="b">
+      <c r="AL8" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14794,7 +15299,7 @@
       <c r="AH9" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AL9" s="111" t="b">
+      <c r="AL9" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14814,7 +15319,7 @@
       <c r="AH10" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AL10" s="111" t="b">
+      <c r="AL10" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14834,7 +15339,7 @@
       <c r="AH11" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AL11" s="111" t="b">
+      <c r="AL11" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14854,7 +15359,7 @@
       <c r="AH12" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="AL12" s="111" t="b">
+      <c r="AL12" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14916,7 +15421,7 @@
       <c r="AJ13" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="AL13" s="111" t="b">
+      <c r="AL13" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14930,8 +15435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FY124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -15020,7 +15525,6 @@
     <col min="87" max="87" width="26.42578125" style="43" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="36.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="29.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="37.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="9.85546875" style="43" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="21.85546875" style="67" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="27" style="43" bestFit="1" customWidth="1"/>
@@ -15373,9 +15877,6 @@
       <c r="CK1" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="CL1" s="45" t="s">
-        <v>246</v>
-      </c>
       <c r="CM1" s="45" t="s">
         <v>155</v>
       </c>
@@ -15642,8 +16143,8 @@
       <c r="C2" s="53"/>
       <c r="D2" s="54"/>
       <c r="E2" s="55">
-        <f t="shared" ref="E2:E65" ca="1" si="0">TODAY()</f>
-        <v>42467</v>
+        <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
+        <v>42468</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="54"/>
@@ -15730,7 +16231,6 @@
       <c r="CI2" s="54"/>
       <c r="CJ2" s="54"/>
       <c r="CK2" s="54"/>
-      <c r="CL2" s="54"/>
       <c r="CM2" s="54"/>
       <c r="CN2" s="56"/>
       <c r="CO2" s="54"/>
@@ -15835,7 +16335,7 @@
       <c r="D3" s="54"/>
       <c r="E3" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
@@ -15922,7 +16422,6 @@
       <c r="CI3" s="54"/>
       <c r="CJ3" s="54"/>
       <c r="CK3" s="54"/>
-      <c r="CL3" s="54"/>
       <c r="CM3" s="54"/>
       <c r="CN3" s="56"/>
       <c r="CO3" s="54"/>
@@ -16027,7 +16526,7 @@
       <c r="D4" s="54"/>
       <c r="E4" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
@@ -16114,7 +16613,6 @@
       <c r="CI4" s="54"/>
       <c r="CJ4" s="54"/>
       <c r="CK4" s="54"/>
-      <c r="CL4" s="54"/>
       <c r="CM4" s="54"/>
       <c r="CN4" s="56"/>
       <c r="CO4" s="54"/>
@@ -16219,7 +16717,7 @@
       <c r="D5" s="54"/>
       <c r="E5" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54"/>
@@ -16306,7 +16804,6 @@
       <c r="CI5" s="54"/>
       <c r="CJ5" s="54"/>
       <c r="CK5" s="54"/>
-      <c r="CL5" s="54"/>
       <c r="CM5" s="54"/>
       <c r="CN5" s="56"/>
       <c r="CO5" s="54"/>
@@ -16413,7 +16910,7 @@
       <c r="D6" s="54"/>
       <c r="E6" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>266</v>
@@ -16516,7 +17013,6 @@
       <c r="CI6" s="54"/>
       <c r="CJ6" s="54"/>
       <c r="CK6" s="54"/>
-      <c r="CL6" s="54"/>
       <c r="CM6" s="54"/>
       <c r="CN6" s="56" t="s">
         <v>197</v>
@@ -16631,7 +17127,7 @@
       <c r="D7" s="54"/>
       <c r="E7" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -16722,7 +17218,6 @@
       <c r="CI7" s="54"/>
       <c r="CJ7" s="54"/>
       <c r="CK7" s="54"/>
-      <c r="CL7" s="54"/>
       <c r="CM7" s="54"/>
       <c r="CN7" s="56"/>
       <c r="CO7" s="54"/>
@@ -16835,7 +17330,7 @@
       <c r="D8" s="54"/>
       <c r="E8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
@@ -16928,7 +17423,6 @@
       <c r="CI8" s="54"/>
       <c r="CJ8" s="54"/>
       <c r="CK8" s="54"/>
-      <c r="CL8" s="54"/>
       <c r="CM8" s="54" t="s">
         <v>265</v>
       </c>
@@ -17041,7 +17535,7 @@
       <c r="D9" s="54"/>
       <c r="E9" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
@@ -17132,7 +17626,6 @@
       <c r="CI9" s="54"/>
       <c r="CJ9" s="54"/>
       <c r="CK9" s="54"/>
-      <c r="CL9" s="54"/>
       <c r="CM9" s="54"/>
       <c r="CN9" s="56"/>
       <c r="CO9" s="54"/>
@@ -17241,7 +17734,7 @@
       <c r="D10" s="54"/>
       <c r="E10" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
@@ -17356,7 +17849,6 @@
       <c r="CK10" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL10" s="54"/>
       <c r="CM10" s="54"/>
       <c r="CN10" s="56"/>
       <c r="CO10" s="54"/>
@@ -17495,7 +17987,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
@@ -17612,7 +18104,6 @@
       <c r="CK11" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL11" s="54"/>
       <c r="CM11" s="54"/>
       <c r="CN11" s="56"/>
       <c r="CO11" s="54"/>
@@ -17751,7 +18242,7 @@
       <c r="D12" s="54"/>
       <c r="E12" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
@@ -17868,7 +18359,6 @@
       <c r="CK12" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL12" s="54"/>
       <c r="CM12" s="54"/>
       <c r="CN12" s="56"/>
       <c r="CO12" s="54"/>
@@ -18007,7 +18497,7 @@
       <c r="D13" s="54"/>
       <c r="E13" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
@@ -18110,7 +18600,6 @@
       <c r="CI13" s="54"/>
       <c r="CJ13" s="54"/>
       <c r="CK13" s="54"/>
-      <c r="CL13" s="54"/>
       <c r="CM13" s="54"/>
       <c r="CN13" s="56"/>
       <c r="CO13" s="54"/>
@@ -18243,7 +18732,7 @@
       <c r="D14" s="54"/>
       <c r="E14" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
@@ -18348,7 +18837,6 @@
       <c r="CI14" s="54"/>
       <c r="CJ14" s="54"/>
       <c r="CK14" s="54"/>
-      <c r="CL14" s="54"/>
       <c r="CM14" s="54" t="s">
         <v>265</v>
       </c>
@@ -18483,7 +18971,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -18586,7 +19074,6 @@
       <c r="CI15" s="54"/>
       <c r="CJ15" s="54"/>
       <c r="CK15" s="54"/>
-      <c r="CL15" s="54"/>
       <c r="CM15" s="54"/>
       <c r="CN15" s="56"/>
       <c r="CO15" s="54"/>
@@ -18719,7 +19206,7 @@
       <c r="D16" s="54"/>
       <c r="E16" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -18820,7 +19307,6 @@
       <c r="CI16" s="54"/>
       <c r="CJ16" s="54"/>
       <c r="CK16" s="54"/>
-      <c r="CL16" s="54"/>
       <c r="CM16" s="54"/>
       <c r="CN16" s="56"/>
       <c r="CO16" s="54"/>
@@ -18947,7 +19433,7 @@
       <c r="D17" s="54"/>
       <c r="E17" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -19048,7 +19534,6 @@
       <c r="CI17" s="54"/>
       <c r="CJ17" s="54"/>
       <c r="CK17" s="54"/>
-      <c r="CL17" s="54"/>
       <c r="CM17" s="54"/>
       <c r="CN17" s="56"/>
       <c r="CO17" s="54"/>
@@ -19175,7 +19660,7 @@
       <c r="D18" s="54"/>
       <c r="E18" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -19260,7 +19745,6 @@
       <c r="CI18" s="54"/>
       <c r="CJ18" s="54"/>
       <c r="CK18" s="54"/>
-      <c r="CL18" s="54"/>
       <c r="CM18" s="54"/>
       <c r="CN18" s="56"/>
       <c r="CO18" s="54"/>
@@ -19370,7 +19854,7 @@
       <c r="D19" s="54"/>
       <c r="E19" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -19455,7 +19939,6 @@
       <c r="CI19" s="54"/>
       <c r="CJ19" s="54"/>
       <c r="CK19" s="54"/>
-      <c r="CL19" s="54"/>
       <c r="CM19" s="54"/>
       <c r="CN19" s="56"/>
       <c r="CO19" s="54"/>
@@ -19562,7 +20045,7 @@
       <c r="D20" s="54"/>
       <c r="E20" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
@@ -19649,7 +20132,6 @@
       <c r="CI20" s="54"/>
       <c r="CJ20" s="54"/>
       <c r="CK20" s="54"/>
-      <c r="CL20" s="54"/>
       <c r="CM20" s="54"/>
       <c r="CN20" s="56"/>
       <c r="CO20" s="54"/>
@@ -19754,7 +20236,7 @@
       <c r="D21" s="54"/>
       <c r="E21" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -19841,7 +20323,6 @@
       <c r="CI21" s="54"/>
       <c r="CJ21" s="54"/>
       <c r="CK21" s="54"/>
-      <c r="CL21" s="54"/>
       <c r="CM21" s="54"/>
       <c r="CN21" s="56"/>
       <c r="CO21" s="54" t="s">
@@ -19948,7 +20429,7 @@
       <c r="D22" s="54"/>
       <c r="E22" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -20035,7 +20516,6 @@
       <c r="CI22" s="54"/>
       <c r="CJ22" s="54"/>
       <c r="CK22" s="54"/>
-      <c r="CL22" s="54"/>
       <c r="CM22" s="54"/>
       <c r="CN22" s="56"/>
       <c r="CO22" s="54"/>
@@ -20140,7 +20620,7 @@
       <c r="D23" s="54"/>
       <c r="E23" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -20231,7 +20711,6 @@
       <c r="CI23" s="54"/>
       <c r="CJ23" s="54"/>
       <c r="CK23" s="54"/>
-      <c r="CL23" s="54"/>
       <c r="CM23" s="54"/>
       <c r="CN23" s="56"/>
       <c r="CO23" s="54"/>
@@ -20370,7 +20849,7 @@
       <c r="D24" s="54"/>
       <c r="E24" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -20463,7 +20942,6 @@
       <c r="CI24" s="54"/>
       <c r="CJ24" s="54"/>
       <c r="CK24" s="54"/>
-      <c r="CL24" s="54"/>
       <c r="CM24" s="54"/>
       <c r="CN24" s="56"/>
       <c r="CO24" s="54"/>
@@ -20586,7 +21064,7 @@
       <c r="D25" s="54"/>
       <c r="E25" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -20679,7 +21157,6 @@
       <c r="CI25" s="54"/>
       <c r="CJ25" s="54"/>
       <c r="CK25" s="54"/>
-      <c r="CL25" s="54"/>
       <c r="CM25" s="54"/>
       <c r="CN25" s="56"/>
       <c r="CO25" s="54"/>
@@ -20802,7 +21279,7 @@
       <c r="D26" s="54"/>
       <c r="E26" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -20925,9 +21402,6 @@
       <c r="CK26" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL26" s="54" t="s">
-        <v>197</v>
-      </c>
       <c r="CM26" s="54"/>
       <c r="CN26" s="56"/>
       <c r="CO26" s="54"/>
@@ -21064,7 +21538,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -21187,9 +21661,6 @@
       <c r="CK27" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL27" s="54" t="s">
-        <v>197</v>
-      </c>
       <c r="CM27" s="54"/>
       <c r="CN27" s="56"/>
       <c r="CO27" s="54"/>
@@ -21326,7 +21797,7 @@
       <c r="D28" s="54"/>
       <c r="E28" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
@@ -21435,7 +21906,6 @@
       <c r="CI28" s="54"/>
       <c r="CJ28" s="54"/>
       <c r="CK28" s="54"/>
-      <c r="CL28" s="54"/>
       <c r="CM28" s="54"/>
       <c r="CN28" s="56"/>
       <c r="CO28" s="54"/>
@@ -21568,7 +22038,7 @@
       <c r="D29" s="54"/>
       <c r="E29" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -21671,7 +22141,6 @@
       <c r="CI29" s="54"/>
       <c r="CJ29" s="54"/>
       <c r="CK29" s="54"/>
-      <c r="CL29" s="54"/>
       <c r="CM29" s="54"/>
       <c r="CN29" s="56"/>
       <c r="CO29" s="54"/>
@@ -21806,7 +22275,7 @@
       <c r="D30" s="54"/>
       <c r="E30" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
@@ -21911,7 +22380,6 @@
       <c r="CI30" s="54"/>
       <c r="CJ30" s="54"/>
       <c r="CK30" s="54"/>
-      <c r="CL30" s="54"/>
       <c r="CM30" s="54" t="s">
         <v>265</v>
       </c>
@@ -22048,7 +22516,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="54"/>
@@ -22151,7 +22619,6 @@
       <c r="CI31" s="54"/>
       <c r="CJ31" s="54"/>
       <c r="CK31" s="54"/>
-      <c r="CL31" s="54"/>
       <c r="CM31" s="54"/>
       <c r="CN31" s="56"/>
       <c r="CO31" s="54"/>
@@ -22288,7 +22755,7 @@
       </c>
       <c r="E32" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
@@ -22389,7 +22856,6 @@
       <c r="CI32" s="54"/>
       <c r="CJ32" s="54"/>
       <c r="CK32" s="54"/>
-      <c r="CL32" s="54"/>
       <c r="CM32" s="54"/>
       <c r="CN32" s="56" t="s">
         <v>197</v>
@@ -22500,7 +22966,7 @@
       <c r="D33" s="54"/>
       <c r="E33" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
@@ -22599,7 +23065,6 @@
       <c r="CI33" s="54"/>
       <c r="CJ33" s="54"/>
       <c r="CK33" s="54"/>
-      <c r="CL33" s="54"/>
       <c r="CM33" s="54"/>
       <c r="CN33" s="56"/>
       <c r="CO33" s="54"/>
@@ -22709,8 +23174,8 @@
       <c r="C34" s="53"/>
       <c r="D34" s="54"/>
       <c r="E34" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
+        <v>42468</v>
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
@@ -22837,7 +23302,6 @@
       <c r="CI34" s="54"/>
       <c r="CJ34" s="54"/>
       <c r="CK34" s="54"/>
-      <c r="CL34" s="54"/>
       <c r="CM34" s="54"/>
       <c r="CN34" s="56"/>
       <c r="CO34" s="54"/>
@@ -22967,8 +23431,8 @@
       <c r="C35" s="53"/>
       <c r="D35" s="54"/>
       <c r="E35" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
@@ -23099,7 +23563,6 @@
       <c r="CK35" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL35" s="54"/>
       <c r="CM35" s="54"/>
       <c r="CN35" s="56"/>
       <c r="CO35" s="54"/>
@@ -23235,8 +23698,8 @@
       <c r="C36" s="53"/>
       <c r="D36" s="54"/>
       <c r="E36" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
@@ -23367,7 +23830,6 @@
       <c r="CK36" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL36" s="54"/>
       <c r="CM36" s="54"/>
       <c r="CN36" s="56"/>
       <c r="CO36" s="54"/>
@@ -23503,8 +23965,8 @@
       <c r="C37" s="53"/>
       <c r="D37" s="54"/>
       <c r="E37" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
@@ -23655,7 +24117,6 @@
       <c r="CK37" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL37" s="54"/>
       <c r="CM37" s="54"/>
       <c r="CN37" s="56"/>
       <c r="CO37" s="54"/>
@@ -23805,8 +24266,8 @@
       <c r="C38" s="53"/>
       <c r="D38" s="54"/>
       <c r="E38" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -23905,7 +24366,6 @@
       <c r="CI38" s="54"/>
       <c r="CJ38" s="54"/>
       <c r="CK38" s="54"/>
-      <c r="CL38" s="54"/>
       <c r="CM38" s="54" t="s">
         <v>265</v>
       </c>
@@ -24017,8 +24477,8 @@
       <c r="C39" s="53"/>
       <c r="D39" s="54"/>
       <c r="E39" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -24135,7 +24595,6 @@
       <c r="CI39" s="54"/>
       <c r="CJ39" s="54"/>
       <c r="CK39" s="54"/>
-      <c r="CL39" s="54"/>
       <c r="CM39" s="54" t="s">
         <v>265</v>
       </c>
@@ -24265,8 +24724,8 @@
       <c r="C40" s="53"/>
       <c r="D40" s="54"/>
       <c r="E40" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
@@ -24371,7 +24830,6 @@
       <c r="CI40" s="54"/>
       <c r="CJ40" s="54"/>
       <c r="CK40" s="54"/>
-      <c r="CL40" s="54"/>
       <c r="CM40" s="54" t="s">
         <v>265</v>
       </c>
@@ -24479,8 +24937,8 @@
       <c r="C41" s="53"/>
       <c r="D41" s="54"/>
       <c r="E41" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
@@ -24579,7 +25037,6 @@
       <c r="CI41" s="54"/>
       <c r="CJ41" s="54"/>
       <c r="CK41" s="54"/>
-      <c r="CL41" s="54"/>
       <c r="CM41" s="54"/>
       <c r="CN41" s="56"/>
       <c r="CO41" s="54"/>
@@ -24689,8 +25146,8 @@
       <c r="C42" s="53"/>
       <c r="D42" s="54"/>
       <c r="E42" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -24799,7 +25256,6 @@
       <c r="CI42" s="54"/>
       <c r="CJ42" s="54"/>
       <c r="CK42" s="54"/>
-      <c r="CL42" s="54"/>
       <c r="CM42" s="54"/>
       <c r="CN42" s="56"/>
       <c r="CO42" s="54"/>
@@ -24913,8 +25369,8 @@
       <c r="C43" s="53"/>
       <c r="D43" s="54"/>
       <c r="E43" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
@@ -25045,7 +25501,6 @@
       <c r="CI43" s="54"/>
       <c r="CJ43" s="54"/>
       <c r="CK43" s="54"/>
-      <c r="CL43" s="54"/>
       <c r="CM43" s="54"/>
       <c r="CN43" s="56"/>
       <c r="CO43" s="54"/>
@@ -25181,8 +25636,8 @@
       <c r="C44" s="53"/>
       <c r="D44" s="54"/>
       <c r="E44" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
@@ -25313,7 +25768,6 @@
       <c r="CI44" s="54"/>
       <c r="CJ44" s="54"/>
       <c r="CK44" s="54"/>
-      <c r="CL44" s="54"/>
       <c r="CM44" s="54"/>
       <c r="CN44" s="56"/>
       <c r="CO44" s="54"/>
@@ -25449,8 +25903,8 @@
       <c r="C45" s="53"/>
       <c r="D45" s="54"/>
       <c r="E45" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
@@ -25581,7 +26035,6 @@
       <c r="CI45" s="54"/>
       <c r="CJ45" s="54"/>
       <c r="CK45" s="54"/>
-      <c r="CL45" s="54"/>
       <c r="CM45" s="54"/>
       <c r="CN45" s="56"/>
       <c r="CO45" s="54"/>
@@ -25719,8 +26172,8 @@
         <v>269</v>
       </c>
       <c r="E46" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
@@ -25815,7 +26268,6 @@
       <c r="CI46" s="54"/>
       <c r="CJ46" s="54"/>
       <c r="CK46" s="54"/>
-      <c r="CL46" s="54"/>
       <c r="CM46" s="54"/>
       <c r="CN46" s="56" t="s">
         <v>197</v>
@@ -25935,8 +26387,8 @@
         <v>269</v>
       </c>
       <c r="E47" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
@@ -26031,7 +26483,6 @@
       <c r="CI47" s="54"/>
       <c r="CJ47" s="54"/>
       <c r="CK47" s="54"/>
-      <c r="CL47" s="54"/>
       <c r="CM47" s="54"/>
       <c r="CN47" s="56" t="s">
         <v>197</v>
@@ -26151,8 +26602,8 @@
         <v>269</v>
       </c>
       <c r="E48" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
@@ -26247,7 +26698,6 @@
       <c r="CI48" s="54"/>
       <c r="CJ48" s="54"/>
       <c r="CK48" s="54"/>
-      <c r="CL48" s="54"/>
       <c r="CM48" s="54"/>
       <c r="CN48" s="56"/>
       <c r="CO48" s="54"/>
@@ -26365,8 +26815,8 @@
         <v>269</v>
       </c>
       <c r="E49" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
@@ -26461,7 +26911,6 @@
       <c r="CI49" s="54"/>
       <c r="CJ49" s="54"/>
       <c r="CK49" s="54"/>
-      <c r="CL49" s="54"/>
       <c r="CM49" s="54"/>
       <c r="CN49" s="56"/>
       <c r="CO49" s="54"/>
@@ -26577,8 +27026,8 @@
       <c r="C50" s="53"/>
       <c r="D50" s="54"/>
       <c r="E50" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
@@ -26663,7 +27112,6 @@
       <c r="CI50" s="54"/>
       <c r="CJ50" s="54"/>
       <c r="CK50" s="54"/>
-      <c r="CL50" s="54"/>
       <c r="CM50" s="54"/>
       <c r="CN50" s="56"/>
       <c r="CO50" s="54"/>
@@ -26771,8 +27219,8 @@
       </c>
       <c r="D51" s="54"/>
       <c r="E51" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
@@ -26859,7 +27307,6 @@
       <c r="CI51" s="54"/>
       <c r="CJ51" s="54"/>
       <c r="CK51" s="54"/>
-      <c r="CL51" s="54"/>
       <c r="CM51" s="54" t="s">
         <v>265</v>
       </c>
@@ -26971,8 +27418,8 @@
       <c r="C52" s="53"/>
       <c r="D52" s="54"/>
       <c r="E52" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
@@ -27059,7 +27506,6 @@
       <c r="CI52" s="54"/>
       <c r="CJ52" s="54"/>
       <c r="CK52" s="54"/>
-      <c r="CL52" s="54"/>
       <c r="CM52" s="54" t="s">
         <v>265</v>
       </c>
@@ -27167,8 +27613,8 @@
       <c r="C53" s="53"/>
       <c r="D53" s="54"/>
       <c r="E53" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
@@ -27262,7 +27708,6 @@
       <c r="CI53" s="54"/>
       <c r="CJ53" s="54"/>
       <c r="CK53" s="54"/>
-      <c r="CL53" s="54"/>
       <c r="CM53" s="54"/>
       <c r="CN53" s="56"/>
       <c r="CO53" s="54"/>
@@ -27376,8 +27821,8 @@
       <c r="C54" s="53"/>
       <c r="D54" s="54"/>
       <c r="E54" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
@@ -27470,7 +27915,6 @@
       <c r="CI54" s="54"/>
       <c r="CJ54" s="54"/>
       <c r="CK54" s="54"/>
-      <c r="CL54" s="54"/>
       <c r="CM54" s="54" t="s">
         <v>265</v>
       </c>
@@ -27584,8 +28028,8 @@
       <c r="C55" s="53"/>
       <c r="D55" s="54"/>
       <c r="E55" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
@@ -27696,7 +28140,6 @@
       <c r="CI55" s="54"/>
       <c r="CJ55" s="54"/>
       <c r="CK55" s="54"/>
-      <c r="CL55" s="54"/>
       <c r="CM55" s="54" t="s">
         <v>265</v>
       </c>
@@ -27828,8 +28271,8 @@
       <c r="C56" s="53"/>
       <c r="D56" s="54"/>
       <c r="E56" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
@@ -27926,7 +28369,6 @@
       <c r="CI56" s="54"/>
       <c r="CJ56" s="54"/>
       <c r="CK56" s="54"/>
-      <c r="CL56" s="54"/>
       <c r="CM56" s="54" t="s">
         <v>265</v>
       </c>
@@ -28036,8 +28478,8 @@
       <c r="C57" s="53"/>
       <c r="D57" s="54"/>
       <c r="E57" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
@@ -28122,7 +28564,6 @@
       <c r="CI57" s="54"/>
       <c r="CJ57" s="54"/>
       <c r="CK57" s="54"/>
-      <c r="CL57" s="54"/>
       <c r="CM57" s="54"/>
       <c r="CN57" s="56"/>
       <c r="CO57" s="54"/>
@@ -28233,8 +28674,8 @@
       <c r="C58" s="53"/>
       <c r="D58" s="54"/>
       <c r="E58" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
@@ -28321,7 +28762,6 @@
       <c r="CI58" s="54"/>
       <c r="CJ58" s="54"/>
       <c r="CK58" s="54"/>
-      <c r="CL58" s="54"/>
       <c r="CM58" s="54"/>
       <c r="CN58" s="56"/>
       <c r="CO58" s="54"/>
@@ -28436,8 +28876,8 @@
       <c r="C59" s="53"/>
       <c r="D59" s="54"/>
       <c r="E59" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
@@ -28524,7 +28964,6 @@
       <c r="CI59" s="54"/>
       <c r="CJ59" s="54"/>
       <c r="CK59" s="54"/>
-      <c r="CL59" s="54"/>
       <c r="CM59" s="54"/>
       <c r="CN59" s="56"/>
       <c r="CO59" s="54"/>
@@ -28641,8 +29080,8 @@
       <c r="C60" s="53"/>
       <c r="D60" s="54"/>
       <c r="E60" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
@@ -28733,7 +29172,6 @@
       <c r="CI60" s="54"/>
       <c r="CJ60" s="54"/>
       <c r="CK60" s="54"/>
-      <c r="CL60" s="54"/>
       <c r="CM60" s="54"/>
       <c r="CN60" s="56"/>
       <c r="CO60" s="54"/>
@@ -28841,8 +29279,8 @@
       <c r="C61" s="53"/>
       <c r="D61" s="54"/>
       <c r="E61" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
@@ -28951,7 +29389,6 @@
       <c r="CI61" s="54"/>
       <c r="CJ61" s="54"/>
       <c r="CK61" s="54"/>
-      <c r="CL61" s="54"/>
       <c r="CM61" s="54"/>
       <c r="CN61" s="56"/>
       <c r="CO61" s="54"/>
@@ -29077,8 +29514,8 @@
       <c r="C62" s="53"/>
       <c r="D62" s="54"/>
       <c r="E62" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
@@ -29181,7 +29618,6 @@
       <c r="CI62" s="54"/>
       <c r="CJ62" s="54"/>
       <c r="CK62" s="54"/>
-      <c r="CL62" s="54"/>
       <c r="CM62" s="54"/>
       <c r="CN62" s="56"/>
       <c r="CO62" s="54"/>
@@ -29313,8 +29749,8 @@
       <c r="C63" s="53"/>
       <c r="D63" s="54"/>
       <c r="E63" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
@@ -29419,7 +29855,6 @@
       <c r="CI63" s="54"/>
       <c r="CJ63" s="54"/>
       <c r="CK63" s="54"/>
-      <c r="CL63" s="54"/>
       <c r="CM63" s="54" t="s">
         <v>265</v>
       </c>
@@ -29553,8 +29988,8 @@
       <c r="C64" s="53"/>
       <c r="D64" s="54"/>
       <c r="E64" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
@@ -29657,7 +30092,6 @@
       <c r="CI64" s="54"/>
       <c r="CJ64" s="54"/>
       <c r="CK64" s="54"/>
-      <c r="CL64" s="54"/>
       <c r="CM64" s="54"/>
       <c r="CN64" s="56"/>
       <c r="CO64" s="54"/>
@@ -29789,8 +30223,8 @@
       <c r="C65" s="53"/>
       <c r="D65" s="54"/>
       <c r="E65" s="55">
-        <f t="shared" ca="1" si="0"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42468</v>
       </c>
       <c r="F65" s="54"/>
       <c r="G65" s="54"/>
@@ -29903,7 +30337,6 @@
       <c r="CK65" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL65" s="54"/>
       <c r="CM65" s="54"/>
       <c r="CN65" s="56"/>
       <c r="CO65" s="54"/>
@@ -30041,8 +30474,8 @@
       <c r="C66" s="53"/>
       <c r="D66" s="54"/>
       <c r="E66" s="55">
-        <f t="shared" ref="E66:E89" ca="1" si="1">TODAY()</f>
-        <v>42467</v>
+        <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
+        <v>42468</v>
       </c>
       <c r="F66" s="54"/>
       <c r="G66" s="54"/>
@@ -30157,7 +30590,6 @@
       <c r="CK66" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL66" s="54"/>
       <c r="CM66" s="54"/>
       <c r="CN66" s="56"/>
       <c r="CO66" s="54"/>
@@ -30297,8 +30729,8 @@
       <c r="C67" s="53"/>
       <c r="D67" s="54"/>
       <c r="E67" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
@@ -30405,7 +30837,6 @@
       <c r="CI67" s="54"/>
       <c r="CJ67" s="54"/>
       <c r="CK67" s="54"/>
-      <c r="CL67" s="54"/>
       <c r="CM67" s="54" t="s">
         <v>265</v>
       </c>
@@ -30537,8 +30968,8 @@
       <c r="C68" s="53"/>
       <c r="D68" s="54"/>
       <c r="E68" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
@@ -30645,7 +31076,6 @@
       <c r="CI68" s="54"/>
       <c r="CJ68" s="54"/>
       <c r="CK68" s="54"/>
-      <c r="CL68" s="54"/>
       <c r="CM68" s="54" t="s">
         <v>265</v>
       </c>
@@ -30779,8 +31209,8 @@
       <c r="C69" s="53"/>
       <c r="D69" s="54"/>
       <c r="E69" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
@@ -30887,7 +31317,6 @@
       <c r="CI69" s="54"/>
       <c r="CJ69" s="54"/>
       <c r="CK69" s="54"/>
-      <c r="CL69" s="54"/>
       <c r="CM69" s="54" t="s">
         <v>265</v>
       </c>
@@ -31021,8 +31450,8 @@
       <c r="C70" s="53"/>
       <c r="D70" s="54"/>
       <c r="E70" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
@@ -31131,7 +31560,6 @@
       <c r="CI70" s="54"/>
       <c r="CJ70" s="54"/>
       <c r="CK70" s="54"/>
-      <c r="CL70" s="54"/>
       <c r="CM70" s="54" t="s">
         <v>265</v>
       </c>
@@ -31265,8 +31693,8 @@
       <c r="C71" s="53"/>
       <c r="D71" s="54"/>
       <c r="E71" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F71" s="54"/>
       <c r="G71" s="54"/>
@@ -31373,7 +31801,6 @@
       <c r="CI71" s="54"/>
       <c r="CJ71" s="54"/>
       <c r="CK71" s="54"/>
-      <c r="CL71" s="54"/>
       <c r="CM71" s="54" t="s">
         <v>265</v>
       </c>
@@ -31505,8 +31932,8 @@
       <c r="C72" s="53"/>
       <c r="D72" s="54"/>
       <c r="E72" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F72" s="54"/>
       <c r="G72" s="54"/>
@@ -31593,7 +32020,6 @@
       <c r="CI72" s="54"/>
       <c r="CJ72" s="54"/>
       <c r="CK72" s="54"/>
-      <c r="CL72" s="54"/>
       <c r="CM72" s="54"/>
       <c r="CN72" s="56"/>
       <c r="CO72" s="54"/>
@@ -31697,8 +32123,8 @@
       <c r="C73" s="53"/>
       <c r="D73" s="54"/>
       <c r="E73" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F73" s="54"/>
       <c r="G73" s="54"/>
@@ -31785,7 +32211,6 @@
       <c r="CI73" s="54"/>
       <c r="CJ73" s="54"/>
       <c r="CK73" s="54"/>
-      <c r="CL73" s="54"/>
       <c r="CM73" s="54"/>
       <c r="CN73" s="56"/>
       <c r="CO73" s="54"/>
@@ -31889,8 +32314,8 @@
       <c r="C74" s="53"/>
       <c r="D74" s="54"/>
       <c r="E74" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F74" s="54"/>
       <c r="G74" s="54"/>
@@ -31977,7 +32402,6 @@
       <c r="CI74" s="54"/>
       <c r="CJ74" s="54"/>
       <c r="CK74" s="54"/>
-      <c r="CL74" s="54"/>
       <c r="CM74" s="54"/>
       <c r="CN74" s="56"/>
       <c r="CO74" s="54"/>
@@ -32081,8 +32505,8 @@
       <c r="C75" s="53"/>
       <c r="D75" s="54"/>
       <c r="E75" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F75" s="54"/>
       <c r="G75" s="54"/>
@@ -32195,7 +32619,6 @@
       <c r="CK75" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL75" s="54"/>
       <c r="CM75" s="54"/>
       <c r="CN75" s="56"/>
       <c r="CO75" s="54"/>
@@ -32333,8 +32756,8 @@
       <c r="C76" s="53"/>
       <c r="D76" s="54"/>
       <c r="E76" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F76" s="54"/>
       <c r="G76" s="54"/>
@@ -32449,7 +32872,6 @@
       <c r="CK76" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL76" s="54"/>
       <c r="CM76" s="54"/>
       <c r="CN76" s="56"/>
       <c r="CO76" s="54"/>
@@ -32587,8 +33009,8 @@
       <c r="C77" s="53"/>
       <c r="D77" s="54"/>
       <c r="E77" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
@@ -32703,7 +33125,6 @@
       <c r="CK77" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL77" s="54"/>
       <c r="CM77" s="54"/>
       <c r="CN77" s="56"/>
       <c r="CO77" s="54"/>
@@ -32841,8 +33262,8 @@
       <c r="C78" s="53"/>
       <c r="D78" s="54"/>
       <c r="E78" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
@@ -32945,7 +33366,6 @@
       <c r="CI78" s="54"/>
       <c r="CJ78" s="54"/>
       <c r="CK78" s="54"/>
-      <c r="CL78" s="54"/>
       <c r="CM78" s="54"/>
       <c r="CN78" s="56"/>
       <c r="CO78" s="54"/>
@@ -33075,8 +33495,8 @@
       <c r="C79" s="53"/>
       <c r="D79" s="54"/>
       <c r="E79" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F79" s="54"/>
       <c r="G79" s="54"/>
@@ -33181,7 +33601,6 @@
       <c r="CI79" s="54"/>
       <c r="CJ79" s="54"/>
       <c r="CK79" s="54"/>
-      <c r="CL79" s="54"/>
       <c r="CM79" s="54" t="s">
         <v>265</v>
       </c>
@@ -33313,8 +33732,8 @@
       <c r="C80" s="53"/>
       <c r="D80" s="54"/>
       <c r="E80" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F80" s="54"/>
       <c r="G80" s="54"/>
@@ -33417,7 +33836,6 @@
       <c r="CI80" s="54"/>
       <c r="CJ80" s="54"/>
       <c r="CK80" s="54"/>
-      <c r="CL80" s="54"/>
       <c r="CM80" s="54"/>
       <c r="CN80" s="56"/>
       <c r="CO80" s="54"/>
@@ -33547,8 +33965,8 @@
       <c r="C81" s="53"/>
       <c r="D81" s="54"/>
       <c r="E81" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
@@ -33659,7 +34077,6 @@
       <c r="CI81" s="54"/>
       <c r="CJ81" s="54"/>
       <c r="CK81" s="54"/>
-      <c r="CL81" s="54"/>
       <c r="CM81" s="54"/>
       <c r="CN81" s="56"/>
       <c r="CO81" s="54"/>
@@ -33793,8 +34210,8 @@
       <c r="C82" s="53"/>
       <c r="D82" s="54"/>
       <c r="E82" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
@@ -33893,7 +34310,6 @@
       <c r="CI82" s="54"/>
       <c r="CJ82" s="54"/>
       <c r="CK82" s="54"/>
-      <c r="CL82" s="54"/>
       <c r="CM82" s="54"/>
       <c r="CN82" s="56"/>
       <c r="CO82" s="54"/>
@@ -34017,8 +34433,8 @@
       <c r="C83" s="53"/>
       <c r="D83" s="54"/>
       <c r="E83" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F83" s="54"/>
       <c r="G83" s="54"/>
@@ -34133,9 +34549,6 @@
       <c r="CK83" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL83" s="54" t="s">
-        <v>197</v>
-      </c>
       <c r="CM83" s="54"/>
       <c r="CN83" s="56"/>
       <c r="CO83" s="54"/>
@@ -34271,8 +34684,8 @@
       <c r="C84" s="53"/>
       <c r="D84" s="54"/>
       <c r="E84" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
@@ -34387,9 +34800,6 @@
       <c r="CK84" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL84" s="54" t="s">
-        <v>197</v>
-      </c>
       <c r="CM84" s="54"/>
       <c r="CN84" s="56"/>
       <c r="CO84" s="54"/>
@@ -34525,8 +34935,8 @@
       <c r="C85" s="53"/>
       <c r="D85" s="54"/>
       <c r="E85" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F85" s="54"/>
       <c r="G85" s="54"/>
@@ -34641,9 +35051,6 @@
       <c r="CK85" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL85" s="54" t="s">
-        <v>197</v>
-      </c>
       <c r="CM85" s="54"/>
       <c r="CN85" s="56"/>
       <c r="CO85" s="54"/>
@@ -34779,8 +35186,8 @@
       <c r="C86" s="53"/>
       <c r="D86" s="54"/>
       <c r="E86" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F86" s="54"/>
       <c r="G86" s="54"/>
@@ -34895,9 +35302,6 @@
       <c r="CK86" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="CL86" s="54" t="s">
-        <v>197</v>
-      </c>
       <c r="CM86" s="54"/>
       <c r="CN86" s="56"/>
       <c r="CO86" s="54"/>
@@ -35033,8 +35437,8 @@
       <c r="C87" s="53"/>
       <c r="D87" s="54"/>
       <c r="E87" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F87" s="54"/>
       <c r="G87" s="54"/>
@@ -35121,7 +35525,6 @@
       <c r="CI87" s="54"/>
       <c r="CJ87" s="54"/>
       <c r="CK87" s="54"/>
-      <c r="CL87" s="54"/>
       <c r="CM87" s="54"/>
       <c r="CN87" s="56"/>
       <c r="CO87" s="54" t="s">
@@ -35227,8 +35630,8 @@
       <c r="C88" s="53"/>
       <c r="D88" s="54"/>
       <c r="E88" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F88" s="54"/>
       <c r="G88" s="54"/>
@@ -35315,7 +35718,6 @@
       <c r="CI88" s="54"/>
       <c r="CJ88" s="54"/>
       <c r="CK88" s="54"/>
-      <c r="CL88" s="54"/>
       <c r="CM88" s="54"/>
       <c r="CN88" s="56"/>
       <c r="CO88" s="54" t="s">
@@ -35421,8 +35823,8 @@
       <c r="C89" s="53"/>
       <c r="D89" s="54"/>
       <c r="E89" s="55">
-        <f t="shared" ca="1" si="1"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42468</v>
       </c>
       <c r="F89" s="54"/>
       <c r="G89" s="54"/>
@@ -35509,7 +35911,6 @@
       <c r="CI89" s="54"/>
       <c r="CJ89" s="54"/>
       <c r="CK89" s="54"/>
-      <c r="CL89" s="54"/>
       <c r="CM89" s="54"/>
       <c r="CN89" s="56"/>
       <c r="CO89" s="54" t="s">
@@ -35698,7 +36099,6 @@
       <c r="CI90" s="54"/>
       <c r="CJ90" s="54"/>
       <c r="CK90" s="54"/>
-      <c r="CL90" s="54"/>
       <c r="CM90" s="54"/>
       <c r="CN90" s="56"/>
       <c r="CO90" s="54"/>
@@ -35801,7 +36201,7 @@
       <c r="D91" s="54"/>
       <c r="E91" s="55">
         <f ca="1">TODAY()</f>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="F91" s="54"/>
       <c r="G91" s="54"/>
@@ -35888,7 +36288,6 @@
       <c r="CI91" s="54"/>
       <c r="CJ91" s="54"/>
       <c r="CK91" s="54"/>
-      <c r="CL91" s="54"/>
       <c r="CM91" s="54"/>
       <c r="CN91" s="56"/>
       <c r="CO91" s="54"/>
@@ -36075,7 +36474,6 @@
       <c r="CI92" s="54"/>
       <c r="CJ92" s="54"/>
       <c r="CK92" s="54"/>
-      <c r="CL92" s="54"/>
       <c r="CM92" s="54"/>
       <c r="CN92" s="56"/>
       <c r="CO92" s="54"/>
@@ -36179,8 +36577,8 @@
       </c>
       <c r="D93" s="54"/>
       <c r="E93" s="55">
-        <f t="shared" ref="E93:E118" ca="1" si="2">TODAY()</f>
-        <v>42467</v>
+        <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
+        <v>42468</v>
       </c>
       <c r="F93" s="54"/>
       <c r="G93" s="54"/>
@@ -36273,7 +36671,6 @@
       <c r="CI93" s="54"/>
       <c r="CJ93" s="54"/>
       <c r="CK93" s="54"/>
-      <c r="CL93" s="54"/>
       <c r="CM93" s="54"/>
       <c r="CN93" s="56" t="s">
         <v>197</v>
@@ -36399,8 +36796,8 @@
       </c>
       <c r="D94" s="54"/>
       <c r="E94" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F94" s="54"/>
       <c r="G94" s="54"/>
@@ -36493,7 +36890,6 @@
       <c r="CI94" s="54"/>
       <c r="CJ94" s="54"/>
       <c r="CK94" s="54"/>
-      <c r="CL94" s="54"/>
       <c r="CM94" s="54"/>
       <c r="CN94" s="56" t="s">
         <v>197</v>
@@ -36619,8 +37015,8 @@
       </c>
       <c r="D95" s="54"/>
       <c r="E95" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F95" s="54"/>
       <c r="G95" s="54"/>
@@ -36713,7 +37109,6 @@
       <c r="CI95" s="54"/>
       <c r="CJ95" s="54"/>
       <c r="CK95" s="54"/>
-      <c r="CL95" s="54"/>
       <c r="CM95" s="54"/>
       <c r="CN95" s="56"/>
       <c r="CO95" s="54"/>
@@ -36837,8 +37232,8 @@
       </c>
       <c r="D96" s="54"/>
       <c r="E96" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F96" s="54"/>
       <c r="G96" s="54"/>
@@ -36931,7 +37326,6 @@
       <c r="CI96" s="54"/>
       <c r="CJ96" s="54"/>
       <c r="CK96" s="54"/>
-      <c r="CL96" s="54"/>
       <c r="CM96" s="54"/>
       <c r="CN96" s="56"/>
       <c r="CO96" s="54"/>
@@ -37053,8 +37447,8 @@
       <c r="C97" s="53"/>
       <c r="D97" s="54"/>
       <c r="E97" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F97" s="54"/>
       <c r="G97" s="54"/>
@@ -37141,7 +37535,6 @@
       <c r="CI97" s="54"/>
       <c r="CJ97" s="54"/>
       <c r="CK97" s="54"/>
-      <c r="CL97" s="54"/>
       <c r="CM97" s="54"/>
       <c r="CN97" s="56"/>
       <c r="CO97" s="54"/>
@@ -37256,8 +37649,8 @@
       <c r="C98" s="53"/>
       <c r="D98" s="54"/>
       <c r="E98" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F98" s="54"/>
       <c r="G98" s="54"/>
@@ -37344,7 +37737,6 @@
       <c r="CI98" s="54"/>
       <c r="CJ98" s="54"/>
       <c r="CK98" s="54"/>
-      <c r="CL98" s="54"/>
       <c r="CM98" s="54"/>
       <c r="CN98" s="56"/>
       <c r="CO98" s="54"/>
@@ -37459,8 +37851,8 @@
       <c r="C99" s="53"/>
       <c r="D99" s="54"/>
       <c r="E99" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F99" s="54"/>
       <c r="G99" s="54"/>
@@ -37547,7 +37939,6 @@
       <c r="CI99" s="54"/>
       <c r="CJ99" s="54"/>
       <c r="CK99" s="54"/>
-      <c r="CL99" s="54"/>
       <c r="CM99" s="54"/>
       <c r="CN99" s="56"/>
       <c r="CO99" s="54"/>
@@ -37664,8 +38055,8 @@
       <c r="C100" s="53"/>
       <c r="D100" s="54"/>
       <c r="E100" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F100" s="54"/>
       <c r="G100" s="54"/>
@@ -37752,7 +38143,6 @@
       <c r="CI100" s="54"/>
       <c r="CJ100" s="54"/>
       <c r="CK100" s="54"/>
-      <c r="CL100" s="54"/>
       <c r="CM100" s="54"/>
       <c r="CN100" s="56"/>
       <c r="CO100" s="54"/>
@@ -37869,8 +38259,8 @@
       <c r="C101" s="53"/>
       <c r="D101" s="54"/>
       <c r="E101" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
@@ -37957,7 +38347,6 @@
       <c r="CI101" s="54"/>
       <c r="CJ101" s="54"/>
       <c r="CK101" s="54"/>
-      <c r="CL101" s="54"/>
       <c r="CM101" s="54"/>
       <c r="CN101" s="56"/>
       <c r="CO101" s="54"/>
@@ -38074,8 +38463,8 @@
       <c r="C102" s="53"/>
       <c r="D102" s="54"/>
       <c r="E102" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F102" s="54"/>
       <c r="G102" s="54"/>
@@ -38162,7 +38551,6 @@
       <c r="CI102" s="54"/>
       <c r="CJ102" s="54"/>
       <c r="CK102" s="54"/>
-      <c r="CL102" s="54"/>
       <c r="CM102" s="54"/>
       <c r="CN102" s="56"/>
       <c r="CO102" s="54"/>
@@ -38279,8 +38667,8 @@
       <c r="C103" s="53"/>
       <c r="D103" s="54"/>
       <c r="E103" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F103" s="54"/>
       <c r="G103" s="54"/>
@@ -38373,7 +38761,6 @@
       <c r="CI103" s="54"/>
       <c r="CJ103" s="54"/>
       <c r="CK103" s="54"/>
-      <c r="CL103" s="54"/>
       <c r="CM103" s="54"/>
       <c r="CN103" s="56"/>
       <c r="CO103" s="54"/>
@@ -38483,8 +38870,8 @@
       <c r="C104" s="53"/>
       <c r="D104" s="54"/>
       <c r="E104" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F104" s="54"/>
       <c r="G104" s="54"/>
@@ -38569,7 +38956,6 @@
       <c r="CI104" s="54"/>
       <c r="CJ104" s="54"/>
       <c r="CK104" s="54"/>
-      <c r="CL104" s="54"/>
       <c r="CM104" s="54"/>
       <c r="CN104" s="56"/>
       <c r="CO104" s="54"/>
@@ -38703,8 +39089,8 @@
       <c r="C105" s="53"/>
       <c r="D105" s="54"/>
       <c r="E105" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F105" s="54"/>
       <c r="G105" s="54"/>
@@ -38789,7 +39175,6 @@
       <c r="CI105" s="54"/>
       <c r="CJ105" s="54"/>
       <c r="CK105" s="54"/>
-      <c r="CL105" s="54"/>
       <c r="CM105" s="54"/>
       <c r="CN105" s="56"/>
       <c r="CO105" s="54"/>
@@ -38923,8 +39308,8 @@
       <c r="C106" s="53"/>
       <c r="D106" s="54"/>
       <c r="E106" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F106" s="54"/>
       <c r="G106" s="54"/>
@@ -39009,7 +39394,6 @@
       <c r="CI106" s="54"/>
       <c r="CJ106" s="54"/>
       <c r="CK106" s="54"/>
-      <c r="CL106" s="54"/>
       <c r="CM106" s="54"/>
       <c r="CN106" s="56"/>
       <c r="CO106" s="54"/>
@@ -39143,8 +39527,8 @@
       <c r="C107" s="53"/>
       <c r="D107" s="54"/>
       <c r="E107" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F107" s="54"/>
       <c r="G107" s="54"/>
@@ -39229,7 +39613,6 @@
       <c r="CI107" s="54"/>
       <c r="CJ107" s="54"/>
       <c r="CK107" s="54"/>
-      <c r="CL107" s="54"/>
       <c r="CM107" s="54"/>
       <c r="CN107" s="56"/>
       <c r="CO107" s="54"/>
@@ -39363,8 +39746,8 @@
       <c r="C108" s="53"/>
       <c r="D108" s="54"/>
       <c r="E108" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F108" s="54"/>
       <c r="G108" s="54"/>
@@ -39449,7 +39832,6 @@
       <c r="CI108" s="54"/>
       <c r="CJ108" s="54"/>
       <c r="CK108" s="54"/>
-      <c r="CL108" s="54"/>
       <c r="CM108" s="54"/>
       <c r="CN108" s="56"/>
       <c r="CO108" s="54"/>
@@ -39583,8 +39965,8 @@
       <c r="C109" s="53"/>
       <c r="D109" s="54"/>
       <c r="E109" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F109" s="54"/>
       <c r="G109" s="54"/>
@@ -39669,7 +40051,6 @@
       <c r="CI109" s="54"/>
       <c r="CJ109" s="54"/>
       <c r="CK109" s="54"/>
-      <c r="CL109" s="54"/>
       <c r="CM109" s="54"/>
       <c r="CN109" s="56"/>
       <c r="CO109" s="54"/>
@@ -39803,8 +40184,8 @@
       <c r="C110" s="53"/>
       <c r="D110" s="54"/>
       <c r="E110" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F110" s="54"/>
       <c r="G110" s="54"/>
@@ -39889,7 +40270,6 @@
       <c r="CI110" s="54"/>
       <c r="CJ110" s="54"/>
       <c r="CK110" s="54"/>
-      <c r="CL110" s="54"/>
       <c r="CM110" s="54"/>
       <c r="CN110" s="56"/>
       <c r="CO110" s="54"/>
@@ -40023,8 +40403,8 @@
       <c r="C111" s="53"/>
       <c r="D111" s="54"/>
       <c r="E111" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F111" s="54"/>
       <c r="G111" s="54"/>
@@ -40109,7 +40489,6 @@
       <c r="CI111" s="54"/>
       <c r="CJ111" s="54"/>
       <c r="CK111" s="54"/>
-      <c r="CL111" s="54"/>
       <c r="CM111" s="54"/>
       <c r="CN111" s="56"/>
       <c r="CO111" s="54"/>
@@ -40243,8 +40622,8 @@
       <c r="C112" s="53"/>
       <c r="D112" s="54"/>
       <c r="E112" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F112" s="54"/>
       <c r="G112" s="54"/>
@@ -40329,7 +40708,6 @@
       <c r="CI112" s="54"/>
       <c r="CJ112" s="54"/>
       <c r="CK112" s="54"/>
-      <c r="CL112" s="54"/>
       <c r="CM112" s="54"/>
       <c r="CN112" s="56"/>
       <c r="CO112" s="54"/>
@@ -40463,8 +40841,8 @@
       <c r="C113" s="53"/>
       <c r="D113" s="54"/>
       <c r="E113" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F113" s="54"/>
       <c r="G113" s="54"/>
@@ -40549,7 +40927,6 @@
       <c r="CI113" s="54"/>
       <c r="CJ113" s="54"/>
       <c r="CK113" s="54"/>
-      <c r="CL113" s="54"/>
       <c r="CM113" s="54"/>
       <c r="CN113" s="56"/>
       <c r="CO113" s="54"/>
@@ -40683,8 +41060,8 @@
       <c r="C114" s="53"/>
       <c r="D114" s="54"/>
       <c r="E114" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F114" s="54"/>
       <c r="G114" s="54"/>
@@ -40769,7 +41146,6 @@
       <c r="CI114" s="54"/>
       <c r="CJ114" s="54"/>
       <c r="CK114" s="54"/>
-      <c r="CL114" s="54"/>
       <c r="CM114" s="54"/>
       <c r="CN114" s="56"/>
       <c r="CO114" s="54"/>
@@ -40875,8 +41251,8 @@
       <c r="C115" s="53"/>
       <c r="D115" s="54"/>
       <c r="E115" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F115" s="54"/>
       <c r="G115" s="54"/>
@@ -40961,7 +41337,6 @@
       <c r="CI115" s="54"/>
       <c r="CJ115" s="54"/>
       <c r="CK115" s="54"/>
-      <c r="CL115" s="54"/>
       <c r="CM115" s="54"/>
       <c r="CN115" s="56"/>
       <c r="CO115" s="54"/>
@@ -41067,8 +41442,8 @@
       <c r="C116" s="53"/>
       <c r="D116" s="54"/>
       <c r="E116" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F116" s="54"/>
       <c r="G116" s="54"/>
@@ -41153,7 +41528,6 @@
       <c r="CI116" s="54"/>
       <c r="CJ116" s="54"/>
       <c r="CK116" s="54"/>
-      <c r="CL116" s="54"/>
       <c r="CM116" s="54"/>
       <c r="CN116" s="56"/>
       <c r="CO116" s="54"/>
@@ -41259,8 +41633,8 @@
       <c r="C117" s="53"/>
       <c r="D117" s="54"/>
       <c r="E117" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F117" s="54"/>
       <c r="G117" s="54"/>
@@ -41345,7 +41719,6 @@
       <c r="CI117" s="54"/>
       <c r="CJ117" s="54"/>
       <c r="CK117" s="54"/>
-      <c r="CL117" s="54"/>
       <c r="CM117" s="54"/>
       <c r="CN117" s="56"/>
       <c r="CO117" s="54"/>
@@ -41451,8 +41824,8 @@
       <c r="C118" s="53"/>
       <c r="D118" s="54"/>
       <c r="E118" s="55">
-        <f t="shared" ca="1" si="2"/>
-        <v>42467</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42468</v>
       </c>
       <c r="F118" s="54"/>
       <c r="G118" s="54"/>
@@ -41537,7 +41910,6 @@
       <c r="CI118" s="54"/>
       <c r="CJ118" s="54"/>
       <c r="CK118" s="54"/>
-      <c r="CL118" s="54"/>
       <c r="CM118" s="54"/>
       <c r="CN118" s="56"/>
       <c r="CO118" s="54"/>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -7828,8 +7828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI20"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BI13" sqref="BI13"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="54.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8011,7 +8011,7 @@
         <v>218</v>
       </c>
       <c r="AM1" s="71" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="AN1" s="71" t="s">
         <v>220</v>
@@ -8085,7 +8085,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="76">
-        <v>42460</v>
+        <v>42491</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>181</v>
@@ -8171,7 +8171,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="76">
-        <v>42461</v>
+        <v>42492</v>
       </c>
       <c r="AC3" s="38" t="s">
         <v>341</v>
@@ -8233,7 +8233,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="76">
-        <v>42462</v>
+        <v>42493</v>
       </c>
       <c r="D4" s="38">
         <v>1234</v>
@@ -8313,7 +8313,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="76">
-        <v>42463</v>
+        <v>42494</v>
       </c>
       <c r="V5" s="38" t="b">
         <v>1</v>
@@ -8345,7 +8345,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="76">
-        <v>42464</v>
+        <v>42495</v>
       </c>
       <c r="AC6" s="37" t="s">
         <v>341</v>
@@ -8407,7 +8407,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="76">
-        <v>42465</v>
+        <v>42496</v>
       </c>
       <c r="AC7" s="38" t="s">
         <v>341</v>
@@ -8469,7 +8469,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="76">
-        <v>42466</v>
+        <v>42497</v>
       </c>
       <c r="D8" s="38">
         <v>1234</v>
@@ -8516,7 +8516,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="76">
-        <v>42467</v>
+        <v>42498</v>
       </c>
       <c r="AC9" s="37" t="s">
         <v>341</v>
@@ -8578,7 +8578,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="76">
-        <v>42468</v>
+        <v>42499</v>
       </c>
       <c r="D10" s="38">
         <v>1234</v>
@@ -8628,7 +8628,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="76">
-        <v>42469</v>
+        <v>42500</v>
       </c>
       <c r="D11" s="38">
         <v>1234</v>
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="76">
-        <v>42470</v>
+        <v>42501</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>184</v>
@@ -8831,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="76">
-        <v>42471</v>
+        <v>42502</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>184</v>
@@ -8870,7 +8870,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="76">
-        <v>42472</v>
+        <v>42503</v>
       </c>
       <c r="AB14" s="39"/>
       <c r="AE14" s="38" t="s">
@@ -8892,7 +8892,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="76">
-        <v>42473</v>
+        <v>42504</v>
       </c>
       <c r="AE15" s="38" t="s">
         <v>162</v>
@@ -8912,7 +8912,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="76">
-        <v>42474</v>
+        <v>42505</v>
       </c>
       <c r="AE16" s="38" t="s">
         <v>162</v>
@@ -8932,7 +8932,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="76">
-        <v>42475</v>
+        <v>42506</v>
       </c>
       <c r="AE17" s="38" t="s">
         <v>162</v>
@@ -8953,7 +8953,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="76">
-        <v>42476</v>
+        <v>42507</v>
       </c>
       <c r="AC18" s="38" t="s">
         <v>341</v>
@@ -9015,7 +9015,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="76">
-        <v>42477</v>
+        <v>42508</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>194</v>
@@ -9089,7 +9089,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="76">
-        <v>42478</v>
+        <v>42509</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>194</v>
@@ -9167,8 +9167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AS13" sqref="AS13"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16144,7 +16144,7 @@
       <c r="D2" s="54"/>
       <c r="E2" s="55">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="54"/>
@@ -16335,7 +16335,7 @@
       <c r="D3" s="54"/>
       <c r="E3" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
@@ -16526,7 +16526,7 @@
       <c r="D4" s="54"/>
       <c r="E4" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
@@ -16717,7 +16717,7 @@
       <c r="D5" s="54"/>
       <c r="E5" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54"/>
@@ -16910,7 +16910,7 @@
       <c r="D6" s="54"/>
       <c r="E6" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>266</v>
@@ -17127,7 +17127,7 @@
       <c r="D7" s="54"/>
       <c r="E7" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -17330,7 +17330,7 @@
       <c r="D8" s="54"/>
       <c r="E8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
@@ -17535,7 +17535,7 @@
       <c r="D9" s="54"/>
       <c r="E9" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
@@ -17734,7 +17734,7 @@
       <c r="D10" s="54"/>
       <c r="E10" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
@@ -17987,7 +17987,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
@@ -18242,7 +18242,7 @@
       <c r="D12" s="54"/>
       <c r="E12" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
@@ -18497,7 +18497,7 @@
       <c r="D13" s="54"/>
       <c r="E13" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
@@ -18732,7 +18732,7 @@
       <c r="D14" s="54"/>
       <c r="E14" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
@@ -18971,7 +18971,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -19206,7 +19206,7 @@
       <c r="D16" s="54"/>
       <c r="E16" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -19433,7 +19433,7 @@
       <c r="D17" s="54"/>
       <c r="E17" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -19660,7 +19660,7 @@
       <c r="D18" s="54"/>
       <c r="E18" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -19854,7 +19854,7 @@
       <c r="D19" s="54"/>
       <c r="E19" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -20045,7 +20045,7 @@
       <c r="D20" s="54"/>
       <c r="E20" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
@@ -20236,7 +20236,7 @@
       <c r="D21" s="54"/>
       <c r="E21" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -20429,7 +20429,7 @@
       <c r="D22" s="54"/>
       <c r="E22" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -20620,7 +20620,7 @@
       <c r="D23" s="54"/>
       <c r="E23" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -20849,7 +20849,7 @@
       <c r="D24" s="54"/>
       <c r="E24" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -21064,7 +21064,7 @@
       <c r="D25" s="54"/>
       <c r="E25" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -21279,7 +21279,7 @@
       <c r="D26" s="54"/>
       <c r="E26" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -21538,7 +21538,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -21797,7 +21797,7 @@
       <c r="D28" s="54"/>
       <c r="E28" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
@@ -22038,7 +22038,7 @@
       <c r="D29" s="54"/>
       <c r="E29" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -22275,7 +22275,7 @@
       <c r="D30" s="54"/>
       <c r="E30" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
@@ -22516,7 +22516,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="54"/>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="E32" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
@@ -22966,7 +22966,7 @@
       <c r="D33" s="54"/>
       <c r="E33" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
@@ -23175,7 +23175,7 @@
       <c r="D34" s="54"/>
       <c r="E34" s="55">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
@@ -23432,7 +23432,7 @@
       <c r="D35" s="54"/>
       <c r="E35" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
@@ -23699,7 +23699,7 @@
       <c r="D36" s="54"/>
       <c r="E36" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
@@ -23966,7 +23966,7 @@
       <c r="D37" s="54"/>
       <c r="E37" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
@@ -24267,7 +24267,7 @@
       <c r="D38" s="54"/>
       <c r="E38" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -24478,7 +24478,7 @@
       <c r="D39" s="54"/>
       <c r="E39" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -24725,7 +24725,7 @@
       <c r="D40" s="54"/>
       <c r="E40" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
@@ -24938,7 +24938,7 @@
       <c r="D41" s="54"/>
       <c r="E41" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
@@ -25147,7 +25147,7 @@
       <c r="D42" s="54"/>
       <c r="E42" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -25370,7 +25370,7 @@
       <c r="D43" s="54"/>
       <c r="E43" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
@@ -25637,7 +25637,7 @@
       <c r="D44" s="54"/>
       <c r="E44" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
@@ -25904,7 +25904,7 @@
       <c r="D45" s="54"/>
       <c r="E45" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="E46" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
@@ -26388,7 +26388,7 @@
       </c>
       <c r="E47" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
@@ -26603,7 +26603,7 @@
       </c>
       <c r="E48" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
@@ -26816,7 +26816,7 @@
       </c>
       <c r="E49" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
@@ -27027,7 +27027,7 @@
       <c r="D50" s="54"/>
       <c r="E50" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
@@ -27220,7 +27220,7 @@
       <c r="D51" s="54"/>
       <c r="E51" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
@@ -27419,7 +27419,7 @@
       <c r="D52" s="54"/>
       <c r="E52" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
@@ -27614,7 +27614,7 @@
       <c r="D53" s="54"/>
       <c r="E53" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
@@ -27822,7 +27822,7 @@
       <c r="D54" s="54"/>
       <c r="E54" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
@@ -28029,7 +28029,7 @@
       <c r="D55" s="54"/>
       <c r="E55" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
@@ -28272,7 +28272,7 @@
       <c r="D56" s="54"/>
       <c r="E56" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
@@ -28479,7 +28479,7 @@
       <c r="D57" s="54"/>
       <c r="E57" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
@@ -28675,7 +28675,7 @@
       <c r="D58" s="54"/>
       <c r="E58" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
@@ -28877,7 +28877,7 @@
       <c r="D59" s="54"/>
       <c r="E59" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
@@ -29081,7 +29081,7 @@
       <c r="D60" s="54"/>
       <c r="E60" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
@@ -29280,7 +29280,7 @@
       <c r="D61" s="54"/>
       <c r="E61" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
@@ -29515,7 +29515,7 @@
       <c r="D62" s="54"/>
       <c r="E62" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
@@ -29750,7 +29750,7 @@
       <c r="D63" s="54"/>
       <c r="E63" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
@@ -29989,7 +29989,7 @@
       <c r="D64" s="54"/>
       <c r="E64" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
@@ -30224,7 +30224,7 @@
       <c r="D65" s="54"/>
       <c r="E65" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F65" s="54"/>
       <c r="G65" s="54"/>
@@ -30475,7 +30475,7 @@
       <c r="D66" s="54"/>
       <c r="E66" s="55">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F66" s="54"/>
       <c r="G66" s="54"/>
@@ -30730,7 +30730,7 @@
       <c r="D67" s="54"/>
       <c r="E67" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
@@ -30969,7 +30969,7 @@
       <c r="D68" s="54"/>
       <c r="E68" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
@@ -31210,7 +31210,7 @@
       <c r="D69" s="54"/>
       <c r="E69" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
@@ -31451,7 +31451,7 @@
       <c r="D70" s="54"/>
       <c r="E70" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
@@ -31694,7 +31694,7 @@
       <c r="D71" s="54"/>
       <c r="E71" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F71" s="54"/>
       <c r="G71" s="54"/>
@@ -31933,7 +31933,7 @@
       <c r="D72" s="54"/>
       <c r="E72" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F72" s="54"/>
       <c r="G72" s="54"/>
@@ -32124,7 +32124,7 @@
       <c r="D73" s="54"/>
       <c r="E73" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F73" s="54"/>
       <c r="G73" s="54"/>
@@ -32315,7 +32315,7 @@
       <c r="D74" s="54"/>
       <c r="E74" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F74" s="54"/>
       <c r="G74" s="54"/>
@@ -32506,7 +32506,7 @@
       <c r="D75" s="54"/>
       <c r="E75" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F75" s="54"/>
       <c r="G75" s="54"/>
@@ -32757,7 +32757,7 @@
       <c r="D76" s="54"/>
       <c r="E76" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F76" s="54"/>
       <c r="G76" s="54"/>
@@ -33010,7 +33010,7 @@
       <c r="D77" s="54"/>
       <c r="E77" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
@@ -33263,7 +33263,7 @@
       <c r="D78" s="54"/>
       <c r="E78" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
@@ -33496,7 +33496,7 @@
       <c r="D79" s="54"/>
       <c r="E79" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F79" s="54"/>
       <c r="G79" s="54"/>
@@ -33733,7 +33733,7 @@
       <c r="D80" s="54"/>
       <c r="E80" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F80" s="54"/>
       <c r="G80" s="54"/>
@@ -33966,7 +33966,7 @@
       <c r="D81" s="54"/>
       <c r="E81" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
@@ -34211,7 +34211,7 @@
       <c r="D82" s="54"/>
       <c r="E82" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
@@ -34434,7 +34434,7 @@
       <c r="D83" s="54"/>
       <c r="E83" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F83" s="54"/>
       <c r="G83" s="54"/>
@@ -34685,7 +34685,7 @@
       <c r="D84" s="54"/>
       <c r="E84" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
@@ -34936,7 +34936,7 @@
       <c r="D85" s="54"/>
       <c r="E85" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F85" s="54"/>
       <c r="G85" s="54"/>
@@ -35187,7 +35187,7 @@
       <c r="D86" s="54"/>
       <c r="E86" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F86" s="54"/>
       <c r="G86" s="54"/>
@@ -35438,7 +35438,7 @@
       <c r="D87" s="54"/>
       <c r="E87" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F87" s="54"/>
       <c r="G87" s="54"/>
@@ -35631,7 +35631,7 @@
       <c r="D88" s="54"/>
       <c r="E88" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F88" s="54"/>
       <c r="G88" s="54"/>
@@ -35824,7 +35824,7 @@
       <c r="D89" s="54"/>
       <c r="E89" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F89" s="54"/>
       <c r="G89" s="54"/>
@@ -36201,7 +36201,7 @@
       <c r="D91" s="54"/>
       <c r="E91" s="55">
         <f ca="1">TODAY()</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F91" s="54"/>
       <c r="G91" s="54"/>
@@ -36578,7 +36578,7 @@
       <c r="D93" s="54"/>
       <c r="E93" s="55">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F93" s="54"/>
       <c r="G93" s="54"/>
@@ -36797,7 +36797,7 @@
       <c r="D94" s="54"/>
       <c r="E94" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F94" s="54"/>
       <c r="G94" s="54"/>
@@ -37016,7 +37016,7 @@
       <c r="D95" s="54"/>
       <c r="E95" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F95" s="54"/>
       <c r="G95" s="54"/>
@@ -37233,7 +37233,7 @@
       <c r="D96" s="54"/>
       <c r="E96" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F96" s="54"/>
       <c r="G96" s="54"/>
@@ -37448,7 +37448,7 @@
       <c r="D97" s="54"/>
       <c r="E97" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F97" s="54"/>
       <c r="G97" s="54"/>
@@ -37650,7 +37650,7 @@
       <c r="D98" s="54"/>
       <c r="E98" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F98" s="54"/>
       <c r="G98" s="54"/>
@@ -37852,7 +37852,7 @@
       <c r="D99" s="54"/>
       <c r="E99" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F99" s="54"/>
       <c r="G99" s="54"/>
@@ -38056,7 +38056,7 @@
       <c r="D100" s="54"/>
       <c r="E100" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F100" s="54"/>
       <c r="G100" s="54"/>
@@ -38260,7 +38260,7 @@
       <c r="D101" s="54"/>
       <c r="E101" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
@@ -38464,7 +38464,7 @@
       <c r="D102" s="54"/>
       <c r="E102" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F102" s="54"/>
       <c r="G102" s="54"/>
@@ -38668,7 +38668,7 @@
       <c r="D103" s="54"/>
       <c r="E103" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F103" s="54"/>
       <c r="G103" s="54"/>
@@ -38871,7 +38871,7 @@
       <c r="D104" s="54"/>
       <c r="E104" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F104" s="54"/>
       <c r="G104" s="54"/>
@@ -39090,7 +39090,7 @@
       <c r="D105" s="54"/>
       <c r="E105" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F105" s="54"/>
       <c r="G105" s="54"/>
@@ -39309,7 +39309,7 @@
       <c r="D106" s="54"/>
       <c r="E106" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F106" s="54"/>
       <c r="G106" s="54"/>
@@ -39528,7 +39528,7 @@
       <c r="D107" s="54"/>
       <c r="E107" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F107" s="54"/>
       <c r="G107" s="54"/>
@@ -39747,7 +39747,7 @@
       <c r="D108" s="54"/>
       <c r="E108" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F108" s="54"/>
       <c r="G108" s="54"/>
@@ -39966,7 +39966,7 @@
       <c r="D109" s="54"/>
       <c r="E109" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F109" s="54"/>
       <c r="G109" s="54"/>
@@ -40185,7 +40185,7 @@
       <c r="D110" s="54"/>
       <c r="E110" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F110" s="54"/>
       <c r="G110" s="54"/>
@@ -40404,7 +40404,7 @@
       <c r="D111" s="54"/>
       <c r="E111" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F111" s="54"/>
       <c r="G111" s="54"/>
@@ -40623,7 +40623,7 @@
       <c r="D112" s="54"/>
       <c r="E112" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F112" s="54"/>
       <c r="G112" s="54"/>
@@ -40842,7 +40842,7 @@
       <c r="D113" s="54"/>
       <c r="E113" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F113" s="54"/>
       <c r="G113" s="54"/>
@@ -41061,7 +41061,7 @@
       <c r="D114" s="54"/>
       <c r="E114" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F114" s="54"/>
       <c r="G114" s="54"/>
@@ -41252,7 +41252,7 @@
       <c r="D115" s="54"/>
       <c r="E115" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F115" s="54"/>
       <c r="G115" s="54"/>
@@ -41443,7 +41443,7 @@
       <c r="D116" s="54"/>
       <c r="E116" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F116" s="54"/>
       <c r="G116" s="54"/>
@@ -41634,7 +41634,7 @@
       <c r="D117" s="54"/>
       <c r="E117" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F117" s="54"/>
       <c r="G117" s="54"/>
@@ -41825,7 +41825,7 @@
       <c r="D118" s="54"/>
       <c r="E118" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="F118" s="54"/>
       <c r="G118" s="54"/>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="392">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1194,6 +1194,9 @@
   </si>
   <si>
     <t>New1GMFrontLineProModel</t>
+  </si>
+  <si>
+    <t>KBBCallTrackingNewRedirect</t>
   </si>
 </sst>
 </file>
@@ -7828,70 +7831,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="54.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="34" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="34" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7900,181 +7903,181 @@
         <v>117</v>
       </c>
       <c r="B1" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="T1" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="W1" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="X1" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y1" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA1" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB1" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC1" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD1" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE1" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF1" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG1" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH1" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI1" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ1" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK1" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL1" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM1" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN1" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO1" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP1" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ1" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR1" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="AS1" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT1" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU1" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV1" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="AW1" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX1" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="AY1" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ1" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA1" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="BB1" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC1" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD1" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE1" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF1" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG1" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH1" s="71" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="P1" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="R1" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="S1" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="U1" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="V1" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="W1" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="X1" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y1" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z1" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA1" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB1" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC1" s="71" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD1" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE1" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF1" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG1" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH1" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI1" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ1" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK1" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL1" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM1" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="AN1" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="AO1" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="AP1" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ1" s="71" t="s">
-        <v>312</v>
-      </c>
-      <c r="AR1" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="AS1" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="AT1" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="AU1" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="AV1" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW1" s="71" t="s">
-        <v>318</v>
-      </c>
-      <c r="AX1" s="71" t="s">
-        <v>319</v>
-      </c>
-      <c r="AY1" s="71" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ1" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA1" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="BB1" s="71" t="s">
-        <v>321</v>
-      </c>
-      <c r="BC1" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD1" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE1" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF1" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG1" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="BH1" s="71" t="s">
-        <v>324</v>
       </c>
       <c r="BI1" s="71" t="s">
         <v>350</v>
@@ -8084,82 +8087,82 @@
       <c r="A2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="76">
+      <c r="B2" s="76">
         <v>42491</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>181</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="J2" s="38" t="s">
         <v>196</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="M2" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="P2" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="V2" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="W2" s="38" t="s">
+      <c r="U2" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="X2" s="38" t="b">
-        <v>1</v>
+      <c r="W2" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>225</v>
       </c>
       <c r="Y2" s="38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Z2" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA2" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AE2" s="38" t="s">
+      <c r="AD2" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AF2" s="38">
+      <c r="AE2" s="38">
         <v>1234567890</v>
       </c>
-      <c r="AG2" s="38" t="s">
+      <c r="AF2" s="38" t="s">
         <v>189</v>
       </c>
+      <c r="AK2" s="38" t="b">
+        <v>1</v>
+      </c>
       <c r="AL2" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="AM2" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="38" t="s">
+      <c r="AM2" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AO2" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="38" t="s">
+      <c r="AN2" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="40"/>
-      <c r="BC2" s="38" t="s">
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="40"/>
+      <c r="BB2" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BD2" s="38">
+      <c r="BC2" s="38">
         <v>2</v>
       </c>
+      <c r="BE2" s="38" t="b">
+        <v>1</v>
+      </c>
       <c r="BF2" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG2" s="38" t="b">
         <v>1</v>
       </c>
       <c r="BI2" s="108" t="b">
@@ -8170,58 +8173,58 @@
       <c r="A3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="76">
+      <c r="B3" s="76">
         <v>42492</v>
       </c>
+      <c r="AB3" s="38" t="s">
+        <v>341</v>
+      </c>
       <c r="AC3" s="38" t="s">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="AD3" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO3" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP3" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="AQ3" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="AR3" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS3" s="38">
+        <v>8527419630</v>
+      </c>
+      <c r="AT3" s="38">
+        <v>3216549870</v>
+      </c>
+      <c r="AU3" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="AV3" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="AW3" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="38">
+        <v>20</v>
+      </c>
+      <c r="BB3" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="BD3" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AE3" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP3" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ3" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="AR3" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="AS3" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="AT3" s="38">
-        <v>8527419630</v>
-      </c>
-      <c r="AU3" s="38">
-        <v>3216549870</v>
-      </c>
-      <c r="AV3" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW3" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="AX3" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="38">
-        <v>20</v>
-      </c>
-      <c r="BC3" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="BE3" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="BH3" s="38">
+      <c r="BG3" s="38">
         <v>123</v>
       </c>
       <c r="BI3" s="108" t="b">
@@ -8232,76 +8235,76 @@
       <c r="A4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="76">
+      <c r="B4" s="76">
         <v>42493</v>
       </c>
+      <c r="C4" s="38">
+        <v>1234</v>
+      </c>
       <c r="D4" s="38">
-        <v>1234</v>
-      </c>
-      <c r="E4" s="38">
         <v>3456</v>
       </c>
+      <c r="G4" s="38" t="s">
+        <v>184</v>
+      </c>
       <c r="H4" s="38" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>328</v>
+        <v>196</v>
       </c>
       <c r="J4" s="38" t="s">
         <v>196</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="M4" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="P4" s="35"/>
-      <c r="R4" s="38" t="s">
+      <c r="M4" s="2"/>
+      <c r="O4" s="35"/>
+      <c r="Q4" s="38" t="s">
         <v>344</v>
       </c>
+      <c r="R4" s="77"/>
       <c r="S4" s="77"/>
       <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="31" t="s">
+      <c r="U4" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="38" t="b">
-        <v>1</v>
-      </c>
+      <c r="W4" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="77"/>
       <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
+      <c r="Z4" s="38" t="s">
+        <v>200</v>
+      </c>
       <c r="AA4" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB4" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="AE4" s="38" t="s">
+      <c r="AD4" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AF4" s="38">
+      <c r="AE4" s="38">
         <v>1234567890</v>
       </c>
-      <c r="AG4" s="38" t="s">
+      <c r="AF4" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AP4" s="38" t="s">
+      <c r="AO4" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AY4" s="39"/>
-      <c r="BA4" s="17"/>
-      <c r="BC4" s="38" t="s">
+      <c r="AX4" s="39"/>
+      <c r="AZ4" s="17"/>
+      <c r="BB4" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BE4" s="38" t="s">
+      <c r="BD4" s="38" t="s">
         <v>186</v>
       </c>
       <c r="BI4" s="108" t="b">
@@ -8312,28 +8315,28 @@
       <c r="A5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="76">
+      <c r="B5" s="76">
         <v>42494</v>
       </c>
-      <c r="V5" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" s="38" t="s">
+      <c r="U5" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="X5" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="38" t="s">
+      <c r="W5" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AP5" s="38" t="s">
+      <c r="AO5" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="40"/>
-      <c r="BC5" s="38" t="s">
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="40"/>
+      <c r="BB5" s="38" t="s">
         <v>191</v>
       </c>
       <c r="BI5" s="108" t="b">
@@ -8344,58 +8347,58 @@
       <c r="A6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="76">
+      <c r="B6" s="76">
         <v>42495</v>
       </c>
+      <c r="AB6" s="37" t="s">
+        <v>341</v>
+      </c>
       <c r="AC6" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD6" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="AE6" s="38" t="s">
+      <c r="AD6" s="38" t="s">
         <v>162</v>
       </c>
+      <c r="AO6" s="38" t="s">
+        <v>180</v>
+      </c>
       <c r="AP6" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ6" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="AR6" s="80" t="s">
+      <c r="AQ6" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="AS6" s="38" t="s">
+      <c r="AR6" s="38" t="s">
         <v>342</v>
       </c>
+      <c r="AS6" s="38">
+        <v>8527419630</v>
+      </c>
       <c r="AT6" s="38">
-        <v>8527419630</v>
-      </c>
-      <c r="AU6" s="38">
         <v>3216549870</v>
       </c>
-      <c r="AV6" s="38" t="s">
+      <c r="AU6" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="AW6" s="81" t="s">
+      <c r="AV6" s="81" t="s">
         <v>348</v>
       </c>
-      <c r="AX6" s="80" t="s">
+      <c r="AW6" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="39"/>
-      <c r="BB6" s="38">
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="38">
         <v>20</v>
       </c>
-      <c r="BC6" s="38" t="s">
+      <c r="BB6" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BE6" s="38" t="s">
+      <c r="BD6" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BH6" s="38">
+      <c r="BG6" s="38">
         <v>123</v>
       </c>
       <c r="BI6" s="108" t="b">
@@ -8406,58 +8409,58 @@
       <c r="A7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="76">
+      <c r="B7" s="76">
         <v>42496</v>
       </c>
+      <c r="AB7" s="38" t="s">
+        <v>341</v>
+      </c>
       <c r="AC7" s="38" t="s">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="AD7" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO7" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP7" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="AQ7" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="AR7" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS7" s="38">
+        <v>8527419630</v>
+      </c>
+      <c r="AT7" s="38">
+        <v>3216549870</v>
+      </c>
+      <c r="AU7" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="AV7" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="AW7" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="38">
+        <v>20</v>
+      </c>
+      <c r="BB7" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="BD7" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AE7" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP7" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ7" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="AR7" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="AS7" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="AT7" s="38">
-        <v>8527419630</v>
-      </c>
-      <c r="AU7" s="38">
-        <v>3216549870</v>
-      </c>
-      <c r="AV7" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW7" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="AX7" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="38">
-        <v>20</v>
-      </c>
-      <c r="BC7" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="BE7" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="BH7" s="38">
+      <c r="BG7" s="38">
         <v>123</v>
       </c>
       <c r="BI7" s="108" t="b">
@@ -8468,43 +8471,43 @@
       <c r="A8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="76">
+      <c r="B8" s="76">
         <v>42497</v>
       </c>
+      <c r="C8" s="38">
+        <v>1234</v>
+      </c>
       <c r="D8" s="38">
-        <v>1234</v>
-      </c>
-      <c r="E8" s="38">
         <v>3456</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="G8" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="M8" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="V8" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="W8" s="38" t="s">
+      <c r="U8" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="X8" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="38" t="s">
+      <c r="W8" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AP8" s="38" t="s">
+      <c r="AO8" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="40"/>
-      <c r="BC8" s="38" t="s">
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="40"/>
+      <c r="BB8" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BE8" s="38" t="s">
+      <c r="BD8" s="38" t="s">
         <v>186</v>
       </c>
       <c r="BI8" s="108" t="b">
@@ -8515,58 +8518,58 @@
       <c r="A9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="76">
+      <c r="B9" s="76">
         <v>42498</v>
       </c>
+      <c r="AB9" s="37" t="s">
+        <v>341</v>
+      </c>
       <c r="AC9" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD9" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="AE9" s="38" t="s">
+      <c r="AD9" s="38" t="s">
         <v>162</v>
       </c>
+      <c r="AO9" s="38" t="s">
+        <v>180</v>
+      </c>
       <c r="AP9" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ9" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="AR9" s="80" t="s">
+      <c r="AQ9" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="AS9" s="38" t="s">
+      <c r="AR9" s="38" t="s">
         <v>342</v>
       </c>
+      <c r="AS9" s="38">
+        <v>8527419630</v>
+      </c>
       <c r="AT9" s="38">
-        <v>8527419630</v>
-      </c>
-      <c r="AU9" s="38">
         <v>3216549870</v>
       </c>
-      <c r="AV9" s="38" t="s">
+      <c r="AU9" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="AW9" s="81" t="s">
+      <c r="AV9" s="81" t="s">
         <v>348</v>
       </c>
-      <c r="AX9" s="80" t="s">
+      <c r="AW9" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="AY9" s="40"/>
-      <c r="AZ9" s="82"/>
-      <c r="BA9" s="39"/>
-      <c r="BB9" s="38">
+      <c r="AX9" s="40"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="38">
         <v>20</v>
       </c>
-      <c r="BC9" s="38" t="s">
+      <c r="BB9" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BE9" s="38" t="s">
+      <c r="BD9" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="BH9" s="38">
+      <c r="BG9" s="38">
         <v>123</v>
       </c>
       <c r="BI9" s="108" t="b">
@@ -8577,46 +8580,46 @@
       <c r="A10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="76">
+      <c r="B10" s="76">
         <v>42499</v>
       </c>
+      <c r="C10" s="38">
+        <v>1234</v>
+      </c>
       <c r="D10" s="38">
-        <v>1234</v>
-      </c>
-      <c r="E10" s="38">
         <v>3456</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="M10" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="S10" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" s="38" t="s">
+      <c r="R10" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="U10" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="38" t="s">
+      <c r="T10" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="38" t="s">
         <v>269</v>
       </c>
+      <c r="AC10" s="38" t="s">
+        <v>186</v>
+      </c>
       <c r="AD10" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE10" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AP10" s="38" t="s">
+      <c r="AO10" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="29"/>
-      <c r="BA10" s="16"/>
-      <c r="BC10" s="38" t="s">
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="29"/>
+      <c r="AZ10" s="16"/>
+      <c r="BB10" s="38" t="s">
         <v>191</v>
       </c>
       <c r="BI10" s="108" t="b">
@@ -8627,100 +8630,100 @@
       <c r="A11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="76">
+      <c r="B11" s="76">
         <v>42500</v>
       </c>
+      <c r="C11" s="38">
+        <v>1234</v>
+      </c>
       <c r="D11" s="38">
-        <v>1234</v>
-      </c>
-      <c r="E11" s="38">
         <v>3456</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="G11" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="H11" s="30" t="s">
         <v>181</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="J11" s="38" t="s">
         <v>196</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="P11" s="38" t="s">
+      <c r="O11" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="S11" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" s="38" t="s">
+      <c r="R11" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="U11" s="38" t="b">
-        <v>1</v>
+      <c r="T11" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" s="38" t="s">
+        <v>225</v>
       </c>
       <c r="Y11" s="38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Z11" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA11" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AB11" s="23" t="s">
+      <c r="AA11" s="23" t="s">
         <v>269</v>
       </c>
+      <c r="AC11" s="38" t="s">
+        <v>186</v>
+      </c>
       <c r="AD11" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE11" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AF11" s="38">
+      <c r="AE11" s="38">
         <v>1234567890</v>
       </c>
-      <c r="AG11" s="38" t="s">
+      <c r="AF11" s="38" t="s">
         <v>189</v>
       </c>
+      <c r="AG11" s="38" t="b">
+        <v>1</v>
+      </c>
       <c r="AH11" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="AI11" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="38" t="s">
+      <c r="AI11" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AK11" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="38" t="s">
+      <c r="AJ11" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AY11" s="12"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="16"/>
-      <c r="BC11" s="38" t="s">
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="16"/>
+      <c r="BB11" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BD11" s="38">
+      <c r="BC11" s="38">
         <v>2</v>
       </c>
+      <c r="BE11" s="38" t="b">
+        <v>1</v>
+      </c>
       <c r="BF11" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="38" t="b">
         <v>1</v>
       </c>
       <c r="BI11" s="108" t="b">
@@ -8731,92 +8734,93 @@
       <c r="A12" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="76">
+      <c r="B12" s="76">
         <v>42501</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="G12" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="H12" s="30" t="s">
         <v>181</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>196</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="M12" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="M12" s="35"/>
+      <c r="N12" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="S12" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" s="38" t="s">
+      <c r="R12" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="U12" s="38" t="b">
-        <v>1</v>
+      <c r="T12" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" s="38" t="s">
+        <v>225</v>
       </c>
       <c r="Y12" s="38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Z12" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA12" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AB12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AC12" s="38" t="s">
+        <v>186</v>
+      </c>
       <c r="AD12" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE12" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AF12" s="38">
+      <c r="AE12" s="38">
         <v>1234567890</v>
       </c>
-      <c r="AG12" s="38" t="s">
+      <c r="AF12" s="38" t="s">
         <v>189</v>
       </c>
+      <c r="AG12" s="38" t="b">
+        <v>1</v>
+      </c>
       <c r="AH12" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="AI12" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="38" t="s">
+      <c r="AI12" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AK12" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="38" t="s">
+      <c r="AJ12" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AY12" s="12"/>
-      <c r="AZ12" s="40"/>
-      <c r="BA12" s="16"/>
-      <c r="BC12" s="38" t="s">
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="16"/>
+      <c r="BB12" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BD12" s="38">
+      <c r="BC12" s="38">
         <v>2</v>
       </c>
-      <c r="BF12" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="38" t="b">
+      <c r="BE12" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="38" t="b">
         <v>1</v>
       </c>
       <c r="BI12" s="108" t="b">
@@ -8827,40 +8831,38 @@
       <c r="A13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="76">
+      <c r="B13" s="76">
         <v>42502</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="G13" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="S13" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" s="38" t="s">
+      <c r="R13" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="U13" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="74"/>
+      <c r="T13" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="74"/>
+      <c r="AC13" s="38" t="s">
+        <v>186</v>
+      </c>
       <c r="AD13" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE13" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AP13" s="38" t="s">
+      <c r="AO13" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AY13" s="12"/>
-      <c r="AZ13" s="74"/>
-      <c r="BA13" s="16"/>
-      <c r="BC13" s="38" t="s">
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="74"/>
+      <c r="AZ13" s="16"/>
+      <c r="BB13" s="38" t="s">
         <v>191</v>
       </c>
+      <c r="BH13" s="35"/>
       <c r="BI13" s="108" t="b">
         <v>1</v>
       </c>
@@ -8869,18 +8871,18 @@
       <c r="A14" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="76">
+      <c r="B14" s="76">
         <v>42503</v>
       </c>
-      <c r="AB14" s="39"/>
-      <c r="AE14" s="38" t="s">
+      <c r="AA14" s="39"/>
+      <c r="AD14" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AP14" s="38" t="s">
+      <c r="AO14" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AZ14" s="39"/>
-      <c r="BC14" s="38" t="s">
+      <c r="AY14" s="39"/>
+      <c r="BB14" s="38" t="s">
         <v>191</v>
       </c>
       <c r="BI14" s="108" t="b">
@@ -8891,16 +8893,16 @@
       <c r="A15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="76">
+      <c r="B15" s="76">
         <v>42504</v>
       </c>
-      <c r="AE15" s="38" t="s">
+      <c r="AD15" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AP15" s="38" t="s">
+      <c r="AO15" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BC15" s="38" t="s">
+      <c r="BB15" s="38" t="s">
         <v>191</v>
       </c>
       <c r="BI15" s="108" t="b">
@@ -8911,16 +8913,16 @@
       <c r="A16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="76">
+      <c r="B16" s="76">
         <v>42505</v>
       </c>
-      <c r="AE16" s="38" t="s">
+      <c r="AD16" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AP16" s="38" t="s">
+      <c r="AO16" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="BC16" s="38" t="s">
+      <c r="BB16" s="38" t="s">
         <v>191</v>
       </c>
       <c r="BI16" s="108" t="b">
@@ -8931,17 +8933,17 @@
       <c r="A17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="76">
+      <c r="B17" s="76">
         <v>42506</v>
       </c>
-      <c r="AE17" s="38" t="s">
+      <c r="AD17" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AP17" s="38" t="s">
+      <c r="AO17" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AY17" s="17"/>
-      <c r="BC17" s="38" t="s">
+      <c r="AX17" s="17"/>
+      <c r="BB17" s="38" t="s">
         <v>191</v>
       </c>
       <c r="BI17" s="108" t="b">
@@ -8952,58 +8954,58 @@
       <c r="A18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="76">
+      <c r="B18" s="76">
         <v>42507</v>
       </c>
+      <c r="AB18" s="38" t="s">
+        <v>341</v>
+      </c>
       <c r="AC18" s="38" t="s">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="AD18" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO18" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP18" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="AQ18" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="AR18" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="AS18" s="38">
+        <v>8527419630</v>
+      </c>
+      <c r="AT18" s="38">
+        <v>3216549870</v>
+      </c>
+      <c r="AU18" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="AV18" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="AW18" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="AX18" s="40"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="38">
+        <v>20</v>
+      </c>
+      <c r="BB18" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="BD18" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AE18" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP18" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ18" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="AR18" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="AS18" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="AT18" s="38">
-        <v>8527419630</v>
-      </c>
-      <c r="AU18" s="38">
-        <v>3216549870</v>
-      </c>
-      <c r="AV18" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW18" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="AX18" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="AY18" s="40"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="38">
-        <v>20</v>
-      </c>
-      <c r="BC18" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="BE18" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="BH18" s="38">
+      <c r="BG18" s="38">
         <v>123</v>
       </c>
       <c r="BI18" s="108" t="b">
@@ -9014,70 +9016,70 @@
       <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="76">
+      <c r="B19" s="76">
         <v>42508</v>
       </c>
+      <c r="E19" s="38" t="s">
+        <v>194</v>
+      </c>
       <c r="F19" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G19" s="38" t="s">
         <v>195</v>
       </c>
+      <c r="H19" s="38" t="s">
+        <v>328</v>
+      </c>
       <c r="I19" s="38" t="s">
-        <v>328</v>
+        <v>196</v>
       </c>
       <c r="J19" s="38" t="s">
         <v>196</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="AA19" s="38" t="s">
+      <c r="Z19" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AE19" s="38" t="s">
+      <c r="AD19" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AF19" s="38">
+      <c r="AE19" s="38">
         <v>1234567980</v>
       </c>
+      <c r="AK19" s="38" t="b">
+        <v>1</v>
+      </c>
       <c r="AL19" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="AM19" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="38" t="s">
+      <c r="AM19" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AO19" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="38" t="s">
+      <c r="AN19" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AY19" s="39"/>
-      <c r="AZ19" s="12"/>
-      <c r="BA19" s="40"/>
-      <c r="BC19" s="38" t="s">
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="40"/>
+      <c r="BB19" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BD19" s="38">
+      <c r="BC19" s="38">
         <v>2</v>
       </c>
-      <c r="BE19" s="38" t="s">
+      <c r="BD19" s="38" t="s">
         <v>186</v>
       </c>
+      <c r="BE19" s="38" t="b">
+        <v>1</v>
+      </c>
       <c r="BF19" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG19" s="38" t="b">
         <v>1</v>
       </c>
       <c r="BI19" s="108" t="b">
@@ -9088,69 +9090,69 @@
       <c r="A20" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="76">
+      <c r="B20" s="76">
         <v>42509</v>
       </c>
+      <c r="E20" s="38" t="s">
+        <v>194</v>
+      </c>
       <c r="F20" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="38" t="s">
         <v>195</v>
       </c>
+      <c r="H20" s="38" t="s">
+        <v>328</v>
+      </c>
       <c r="I20" s="38" t="s">
-        <v>328</v>
+        <v>196</v>
       </c>
       <c r="J20" s="38" t="s">
         <v>196</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="M20" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="AA20" s="38" t="s">
+      <c r="Z20" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AE20" s="38" t="s">
+      <c r="AD20" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AF20" s="38">
+      <c r="AE20" s="38">
         <v>1234567890</v>
       </c>
+      <c r="AK20" s="38" t="b">
+        <v>1</v>
+      </c>
       <c r="AL20" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="AM20" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="38" t="s">
+      <c r="AM20" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="AO20" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="38" t="s">
+      <c r="AN20" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AZ20" s="12"/>
-      <c r="BA20" s="74"/>
-      <c r="BC20" s="38" t="s">
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="74"/>
+      <c r="BB20" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="BD20" s="38">
+      <c r="BC20" s="38">
         <v>2</v>
       </c>
-      <c r="BE20" s="38" t="s">
+      <c r="BD20" s="38" t="s">
         <v>186</v>
       </c>
+      <c r="BE20" s="38" t="b">
+        <v>1</v>
+      </c>
       <c r="BF20" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG20" s="38" t="b">
         <v>1</v>
       </c>
       <c r="BI20" s="108" t="b">
@@ -16144,7 +16146,7 @@
       <c r="D2" s="54"/>
       <c r="E2" s="55">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="54"/>
@@ -16335,7 +16337,7 @@
       <c r="D3" s="54"/>
       <c r="E3" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
@@ -16526,7 +16528,7 @@
       <c r="D4" s="54"/>
       <c r="E4" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
@@ -16717,7 +16719,7 @@
       <c r="D5" s="54"/>
       <c r="E5" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54"/>
@@ -16910,7 +16912,7 @@
       <c r="D6" s="54"/>
       <c r="E6" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>266</v>
@@ -17127,7 +17129,7 @@
       <c r="D7" s="54"/>
       <c r="E7" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -17330,7 +17332,7 @@
       <c r="D8" s="54"/>
       <c r="E8" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
@@ -17535,7 +17537,7 @@
       <c r="D9" s="54"/>
       <c r="E9" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
@@ -17734,7 +17736,7 @@
       <c r="D10" s="54"/>
       <c r="E10" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
@@ -17987,7 +17989,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
@@ -18242,7 +18244,7 @@
       <c r="D12" s="54"/>
       <c r="E12" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
@@ -18497,7 +18499,7 @@
       <c r="D13" s="54"/>
       <c r="E13" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
@@ -18732,7 +18734,7 @@
       <c r="D14" s="54"/>
       <c r="E14" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
@@ -18971,7 +18973,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -19206,7 +19208,7 @@
       <c r="D16" s="54"/>
       <c r="E16" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -19433,7 +19435,7 @@
       <c r="D17" s="54"/>
       <c r="E17" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -19660,7 +19662,7 @@
       <c r="D18" s="54"/>
       <c r="E18" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -19854,7 +19856,7 @@
       <c r="D19" s="54"/>
       <c r="E19" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -20045,7 +20047,7 @@
       <c r="D20" s="54"/>
       <c r="E20" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
@@ -20236,7 +20238,7 @@
       <c r="D21" s="54"/>
       <c r="E21" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -20429,7 +20431,7 @@
       <c r="D22" s="54"/>
       <c r="E22" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -20620,7 +20622,7 @@
       <c r="D23" s="54"/>
       <c r="E23" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -20849,7 +20851,7 @@
       <c r="D24" s="54"/>
       <c r="E24" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -21064,7 +21066,7 @@
       <c r="D25" s="54"/>
       <c r="E25" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -21279,7 +21281,7 @@
       <c r="D26" s="54"/>
       <c r="E26" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -21538,7 +21540,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -21797,7 +21799,7 @@
       <c r="D28" s="54"/>
       <c r="E28" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
@@ -22038,7 +22040,7 @@
       <c r="D29" s="54"/>
       <c r="E29" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -22275,7 +22277,7 @@
       <c r="D30" s="54"/>
       <c r="E30" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
@@ -22516,7 +22518,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="54"/>
@@ -22755,7 +22757,7 @@
       </c>
       <c r="E32" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
@@ -22966,7 +22968,7 @@
       <c r="D33" s="54"/>
       <c r="E33" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
@@ -23175,7 +23177,7 @@
       <c r="D34" s="54"/>
       <c r="E34" s="55">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
@@ -23432,7 +23434,7 @@
       <c r="D35" s="54"/>
       <c r="E35" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
@@ -23699,7 +23701,7 @@
       <c r="D36" s="54"/>
       <c r="E36" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
@@ -23966,7 +23968,7 @@
       <c r="D37" s="54"/>
       <c r="E37" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
@@ -24267,7 +24269,7 @@
       <c r="D38" s="54"/>
       <c r="E38" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -24478,7 +24480,7 @@
       <c r="D39" s="54"/>
       <c r="E39" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -24725,7 +24727,7 @@
       <c r="D40" s="54"/>
       <c r="E40" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
@@ -24938,7 +24940,7 @@
       <c r="D41" s="54"/>
       <c r="E41" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
@@ -25147,7 +25149,7 @@
       <c r="D42" s="54"/>
       <c r="E42" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -25370,7 +25372,7 @@
       <c r="D43" s="54"/>
       <c r="E43" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
@@ -25637,7 +25639,7 @@
       <c r="D44" s="54"/>
       <c r="E44" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
@@ -25904,7 +25906,7 @@
       <c r="D45" s="54"/>
       <c r="E45" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
@@ -26173,7 +26175,7 @@
       </c>
       <c r="E46" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
@@ -26388,7 +26390,7 @@
       </c>
       <c r="E47" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
@@ -26603,7 +26605,7 @@
       </c>
       <c r="E48" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
@@ -26816,7 +26818,7 @@
       </c>
       <c r="E49" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
@@ -27027,7 +27029,7 @@
       <c r="D50" s="54"/>
       <c r="E50" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
@@ -27220,7 +27222,7 @@
       <c r="D51" s="54"/>
       <c r="E51" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
@@ -27419,7 +27421,7 @@
       <c r="D52" s="54"/>
       <c r="E52" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
@@ -27614,7 +27616,7 @@
       <c r="D53" s="54"/>
       <c r="E53" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
@@ -27822,7 +27824,7 @@
       <c r="D54" s="54"/>
       <c r="E54" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
@@ -28029,7 +28031,7 @@
       <c r="D55" s="54"/>
       <c r="E55" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
@@ -28272,7 +28274,7 @@
       <c r="D56" s="54"/>
       <c r="E56" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
@@ -28479,7 +28481,7 @@
       <c r="D57" s="54"/>
       <c r="E57" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
@@ -28675,7 +28677,7 @@
       <c r="D58" s="54"/>
       <c r="E58" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
@@ -28877,7 +28879,7 @@
       <c r="D59" s="54"/>
       <c r="E59" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
@@ -29081,7 +29083,7 @@
       <c r="D60" s="54"/>
       <c r="E60" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
@@ -29280,7 +29282,7 @@
       <c r="D61" s="54"/>
       <c r="E61" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
@@ -29515,7 +29517,7 @@
       <c r="D62" s="54"/>
       <c r="E62" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
@@ -29750,7 +29752,7 @@
       <c r="D63" s="54"/>
       <c r="E63" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
@@ -29989,7 +29991,7 @@
       <c r="D64" s="54"/>
       <c r="E64" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
@@ -30224,7 +30226,7 @@
       <c r="D65" s="54"/>
       <c r="E65" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F65" s="54"/>
       <c r="G65" s="54"/>
@@ -30475,7 +30477,7 @@
       <c r="D66" s="54"/>
       <c r="E66" s="55">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F66" s="54"/>
       <c r="G66" s="54"/>
@@ -30730,7 +30732,7 @@
       <c r="D67" s="54"/>
       <c r="E67" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
@@ -30969,7 +30971,7 @@
       <c r="D68" s="54"/>
       <c r="E68" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
@@ -31210,7 +31212,7 @@
       <c r="D69" s="54"/>
       <c r="E69" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
@@ -31451,7 +31453,7 @@
       <c r="D70" s="54"/>
       <c r="E70" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
@@ -31694,7 +31696,7 @@
       <c r="D71" s="54"/>
       <c r="E71" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F71" s="54"/>
       <c r="G71" s="54"/>
@@ -31933,7 +31935,7 @@
       <c r="D72" s="54"/>
       <c r="E72" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F72" s="54"/>
       <c r="G72" s="54"/>
@@ -32124,7 +32126,7 @@
       <c r="D73" s="54"/>
       <c r="E73" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F73" s="54"/>
       <c r="G73" s="54"/>
@@ -32315,7 +32317,7 @@
       <c r="D74" s="54"/>
       <c r="E74" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F74" s="54"/>
       <c r="G74" s="54"/>
@@ -32506,7 +32508,7 @@
       <c r="D75" s="54"/>
       <c r="E75" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F75" s="54"/>
       <c r="G75" s="54"/>
@@ -32757,7 +32759,7 @@
       <c r="D76" s="54"/>
       <c r="E76" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F76" s="54"/>
       <c r="G76" s="54"/>
@@ -33010,7 +33012,7 @@
       <c r="D77" s="54"/>
       <c r="E77" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
@@ -33263,7 +33265,7 @@
       <c r="D78" s="54"/>
       <c r="E78" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
@@ -33496,7 +33498,7 @@
       <c r="D79" s="54"/>
       <c r="E79" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F79" s="54"/>
       <c r="G79" s="54"/>
@@ -33733,7 +33735,7 @@
       <c r="D80" s="54"/>
       <c r="E80" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F80" s="54"/>
       <c r="G80" s="54"/>
@@ -33966,7 +33968,7 @@
       <c r="D81" s="54"/>
       <c r="E81" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
@@ -34211,7 +34213,7 @@
       <c r="D82" s="54"/>
       <c r="E82" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
@@ -34434,7 +34436,7 @@
       <c r="D83" s="54"/>
       <c r="E83" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F83" s="54"/>
       <c r="G83" s="54"/>
@@ -34685,7 +34687,7 @@
       <c r="D84" s="54"/>
       <c r="E84" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
@@ -34936,7 +34938,7 @@
       <c r="D85" s="54"/>
       <c r="E85" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F85" s="54"/>
       <c r="G85" s="54"/>
@@ -35187,7 +35189,7 @@
       <c r="D86" s="54"/>
       <c r="E86" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F86" s="54"/>
       <c r="G86" s="54"/>
@@ -35438,7 +35440,7 @@
       <c r="D87" s="54"/>
       <c r="E87" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F87" s="54"/>
       <c r="G87" s="54"/>
@@ -35631,7 +35633,7 @@
       <c r="D88" s="54"/>
       <c r="E88" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F88" s="54"/>
       <c r="G88" s="54"/>
@@ -35824,7 +35826,7 @@
       <c r="D89" s="54"/>
       <c r="E89" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F89" s="54"/>
       <c r="G89" s="54"/>
@@ -36201,7 +36203,7 @@
       <c r="D91" s="54"/>
       <c r="E91" s="55">
         <f ca="1">TODAY()</f>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F91" s="54"/>
       <c r="G91" s="54"/>
@@ -36578,7 +36580,7 @@
       <c r="D93" s="54"/>
       <c r="E93" s="55">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F93" s="54"/>
       <c r="G93" s="54"/>
@@ -36797,7 +36799,7 @@
       <c r="D94" s="54"/>
       <c r="E94" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F94" s="54"/>
       <c r="G94" s="54"/>
@@ -37016,7 +37018,7 @@
       <c r="D95" s="54"/>
       <c r="E95" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F95" s="54"/>
       <c r="G95" s="54"/>
@@ -37233,7 +37235,7 @@
       <c r="D96" s="54"/>
       <c r="E96" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F96" s="54"/>
       <c r="G96" s="54"/>
@@ -37448,7 +37450,7 @@
       <c r="D97" s="54"/>
       <c r="E97" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F97" s="54"/>
       <c r="G97" s="54"/>
@@ -37650,7 +37652,7 @@
       <c r="D98" s="54"/>
       <c r="E98" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F98" s="54"/>
       <c r="G98" s="54"/>
@@ -37852,7 +37854,7 @@
       <c r="D99" s="54"/>
       <c r="E99" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F99" s="54"/>
       <c r="G99" s="54"/>
@@ -38056,7 +38058,7 @@
       <c r="D100" s="54"/>
       <c r="E100" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F100" s="54"/>
       <c r="G100" s="54"/>
@@ -38260,7 +38262,7 @@
       <c r="D101" s="54"/>
       <c r="E101" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
@@ -38464,7 +38466,7 @@
       <c r="D102" s="54"/>
       <c r="E102" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F102" s="54"/>
       <c r="G102" s="54"/>
@@ -38668,7 +38670,7 @@
       <c r="D103" s="54"/>
       <c r="E103" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F103" s="54"/>
       <c r="G103" s="54"/>
@@ -38871,7 +38873,7 @@
       <c r="D104" s="54"/>
       <c r="E104" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F104" s="54"/>
       <c r="G104" s="54"/>
@@ -39090,7 +39092,7 @@
       <c r="D105" s="54"/>
       <c r="E105" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F105" s="54"/>
       <c r="G105" s="54"/>
@@ -39309,7 +39311,7 @@
       <c r="D106" s="54"/>
       <c r="E106" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F106" s="54"/>
       <c r="G106" s="54"/>
@@ -39528,7 +39530,7 @@
       <c r="D107" s="54"/>
       <c r="E107" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F107" s="54"/>
       <c r="G107" s="54"/>
@@ -39747,7 +39749,7 @@
       <c r="D108" s="54"/>
       <c r="E108" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F108" s="54"/>
       <c r="G108" s="54"/>
@@ -39966,7 +39968,7 @@
       <c r="D109" s="54"/>
       <c r="E109" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F109" s="54"/>
       <c r="G109" s="54"/>
@@ -40185,7 +40187,7 @@
       <c r="D110" s="54"/>
       <c r="E110" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F110" s="54"/>
       <c r="G110" s="54"/>
@@ -40404,7 +40406,7 @@
       <c r="D111" s="54"/>
       <c r="E111" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F111" s="54"/>
       <c r="G111" s="54"/>
@@ -40623,7 +40625,7 @@
       <c r="D112" s="54"/>
       <c r="E112" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F112" s="54"/>
       <c r="G112" s="54"/>
@@ -40842,7 +40844,7 @@
       <c r="D113" s="54"/>
       <c r="E113" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F113" s="54"/>
       <c r="G113" s="54"/>
@@ -41061,7 +41063,7 @@
       <c r="D114" s="54"/>
       <c r="E114" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F114" s="54"/>
       <c r="G114" s="54"/>
@@ -41252,7 +41254,7 @@
       <c r="D115" s="54"/>
       <c r="E115" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F115" s="54"/>
       <c r="G115" s="54"/>
@@ -41443,7 +41445,7 @@
       <c r="D116" s="54"/>
       <c r="E116" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F116" s="54"/>
       <c r="G116" s="54"/>
@@ -41634,7 +41636,7 @@
       <c r="D117" s="54"/>
       <c r="E117" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F117" s="54"/>
       <c r="G117" s="54"/>
@@ -41825,7 +41827,7 @@
       <c r="D118" s="54"/>
       <c r="E118" s="55">
         <f t="shared" ca="1" si="3"/>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="F118" s="54"/>
       <c r="G118" s="54"/>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="396">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1207,6 +1207,9 @@
   <si>
     <t>3 Months</t>
   </si>
+  <si>
+    <t>Used1GMMake</t>
+  </si>
 </sst>
 </file>
 
@@ -2220,9 +2223,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2251,6 +2251,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3568,7 +3571,7 @@
       <c r="AD3" s="8"/>
       <c r="AE3" s="21"/>
       <c r="AF3" s="49"/>
-      <c r="AG3" s="112"/>
+      <c r="AG3" s="111"/>
       <c r="AH3" s="21"/>
       <c r="AI3" s="10" t="s">
         <v>181</v>
@@ -3802,7 +3805,7 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="15"/>
       <c r="AF4" s="49"/>
-      <c r="AG4" s="113"/>
+      <c r="AG4" s="112"/>
       <c r="AH4" s="17"/>
       <c r="AI4" s="20" t="s">
         <v>181</v>
@@ -4032,7 +4035,7 @@
       <c r="AD5" s="12"/>
       <c r="AE5" s="8"/>
       <c r="AF5" s="49"/>
-      <c r="AG5" s="114"/>
+      <c r="AG5" s="113"/>
       <c r="AH5" s="21"/>
       <c r="AI5" s="10" t="s">
         <v>181</v>
@@ -4266,7 +4269,7 @@
       <c r="AD6" s="12"/>
       <c r="AE6" s="21"/>
       <c r="AF6" s="49"/>
-      <c r="AG6" s="112"/>
+      <c r="AG6" s="111"/>
       <c r="AH6" s="21"/>
       <c r="AI6" s="10" t="s">
         <v>181</v>
@@ -4498,7 +4501,7 @@
       <c r="AD7" s="12"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="49"/>
-      <c r="AG7" s="114"/>
+      <c r="AG7" s="113"/>
       <c r="AH7" s="21"/>
       <c r="AI7" s="10" t="s">
         <v>181</v>
@@ -4750,7 +4753,7 @@
       <c r="AD8" s="12"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="49"/>
-      <c r="AG8" s="114"/>
+      <c r="AG8" s="113"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="10" t="s">
         <v>181</v>
@@ -5004,7 +5007,7 @@
       <c r="AD9" s="12"/>
       <c r="AE9" s="8"/>
       <c r="AF9" s="49"/>
-      <c r="AG9" s="114"/>
+      <c r="AG9" s="113"/>
       <c r="AH9" s="26"/>
       <c r="AI9" s="10" t="s">
         <v>181</v>
@@ -5254,7 +5257,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="31"/>
       <c r="AF10" s="49"/>
-      <c r="AG10" s="115"/>
+      <c r="AG10" s="114"/>
       <c r="AH10" s="37"/>
       <c r="AI10" s="35" t="s">
         <v>181</v>
@@ -5843,7 +5846,7 @@
       <c r="AF13" s="35">
         <v>5</v>
       </c>
-      <c r="AG13" s="116">
+      <c r="AG13" s="115">
         <v>5678</v>
       </c>
       <c r="AH13" s="17"/>
@@ -9212,10 +9215,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CQ138"/>
+  <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9234,68 +9237,67 @@
     <col min="12" max="12" width="24.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="33.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8" style="32" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="5"/>
+    <col min="15" max="16" width="18.7109375" style="32" customWidth="1"/>
+    <col min="17" max="17" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" style="5" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.28515625" style="32" customWidth="1"/>
+    <col min="45" max="45" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.42578125" style="32" customWidth="1"/>
+    <col min="69" max="69" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>117</v>
       </c>
@@ -9339,184 +9341,181 @@
         <v>384</v>
       </c>
       <c r="O1" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="68" t="s">
         <v>383</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="R1" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="S1" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="T1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="U1" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="V1" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="W1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="V1" s="68" t="s">
+      <c r="X1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="W1" s="68" t="s">
+      <c r="Y1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="68" t="s">
+      <c r="Z1" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA1" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="Y1" s="68" t="s">
+      <c r="AC1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA1" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB1" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC1" s="68" t="s">
-        <v>211</v>
-      </c>
       <c r="AD1" s="68" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="AE1" s="68" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AF1" s="68" t="s">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="AG1" s="68" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="AH1" s="68" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="AJ1" s="68" t="s">
-        <v>213</v>
+        <v>350</v>
+      </c>
+      <c r="AJ1" s="42" t="s">
+        <v>245</v>
       </c>
       <c r="AK1" s="68" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>350</v>
-      </c>
-      <c r="AM1" s="42" t="s">
-        <v>245</v>
+        <v>387</v>
+      </c>
+      <c r="AM1" s="68" t="s">
+        <v>157</v>
       </c>
       <c r="AN1" s="68" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AO1" s="68" t="s">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="AP1" s="68" t="s">
-        <v>157</v>
+        <v>388</v>
       </c>
       <c r="AQ1" s="68" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AR1" s="68" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AS1" s="68" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AT1" s="68" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="AU1" s="68" t="s">
-        <v>382</v>
+        <v>165</v>
       </c>
       <c r="AV1" s="68" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="AW1" s="68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AX1" s="68" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="AY1" s="68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AZ1" s="68" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="BA1" s="68" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BB1" s="68" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BC1" s="68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BD1" s="68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BE1" s="68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BF1" s="68" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>174</v>
+        <v>351</v>
       </c>
       <c r="BH1" s="68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="BI1" s="68" t="s">
-        <v>351</v>
+        <v>220</v>
       </c>
       <c r="BJ1" s="68" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="BK1" s="68" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="BL1" s="68" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="BM1" s="68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BN1" s="68" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="BO1" s="68" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="BP1" s="68" t="s">
-        <v>177</v>
+        <v>395</v>
       </c>
       <c r="BQ1" s="68" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="BR1" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="BS1" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="BT1" s="42" t="s">
+      <c r="BS1" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="BU1" s="68" t="s">
+      <c r="BT1" s="68" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>57</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L2" s="35">
         <v>1</v>
@@ -9547,120 +9546,121 @@
         <v>181</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="T2" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35" t="s">
+      <c r="U2" s="34"/>
+      <c r="V2" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="W2" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="X2" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W2" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X2" s="35" t="s">
+      <c r="Y2" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
       <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
+      <c r="AD2" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>
-      <c r="AG2" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="AG2" s="34"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
+      <c r="AI2" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ2" s="51"/>
       <c r="AK2" s="34"/>
-      <c r="AL2" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="35" t="s">
+        <v>223</v>
+      </c>
       <c r="AO2" s="34"/>
-      <c r="AP2" s="37"/>
+      <c r="AP2" s="34"/>
       <c r="AQ2" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
+        <v>162</v>
+      </c>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
       <c r="AT2" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="AW2" s="35" t="s">
+      <c r="AU2" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AX2" s="35">
+      <c r="AV2" s="35">
         <v>1234567890</v>
       </c>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ2" s="35">
+        <v>2000</v>
+      </c>
       <c r="BA2" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB2" s="35">
-        <v>2000</v>
-      </c>
-      <c r="BC2" s="35" t="s">
         <v>189</v>
       </c>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
       <c r="BD2" s="34"/>
       <c r="BE2" s="34"/>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="35">
-        <v>1</v>
+      <c r="BF2" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI2" s="35">
         <v>1</v>
       </c>
       <c r="BJ2" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK2" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM2" s="34"/>
-      <c r="BN2" s="37"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN2" s="35">
+        <v>2</v>
+      </c>
       <c r="BO2" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP2" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ2" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="35">
+        <v>1</v>
+      </c>
       <c r="BR2" s="35">
         <v>1</v>
       </c>
-      <c r="BS2" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="108"/>
-    </row>
-    <row r="3" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT2" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>45</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L3" s="35">
         <v>1</v>
@@ -9691,124 +9691,123 @@
         <v>181</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="T3" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="U3" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="V3" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="W3" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="X3" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W3" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X3" s="35" t="s">
+      <c r="Y3" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
       <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
+      <c r="AD3" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE3" s="34"/>
       <c r="AF3" s="34"/>
-      <c r="AG3" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="AG3" s="34"/>
       <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
+      <c r="AI3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ3" s="51"/>
       <c r="AK3" s="34"/>
-      <c r="AL3" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="35" t="s">
+        <v>223</v>
+      </c>
       <c r="AO3" s="34"/>
-      <c r="AP3" s="37"/>
+      <c r="AP3" s="34"/>
       <c r="AQ3" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
+        <v>162</v>
+      </c>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
       <c r="AT3" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="AW3" s="35" t="s">
+      <c r="AU3" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AX3" s="35">
+      <c r="AV3" s="35">
         <v>1234567890</v>
       </c>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ3" s="35">
+        <v>2000</v>
+      </c>
       <c r="BA3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB3" s="35">
-        <v>2000</v>
-      </c>
-      <c r="BC3" s="35" t="s">
         <v>189</v>
       </c>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
       <c r="BD3" s="34"/>
       <c r="BE3" s="34"/>
-      <c r="BF3" s="34"/>
-      <c r="BG3" s="34"/>
-      <c r="BH3" s="35">
-        <v>1</v>
+      <c r="BF3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI3" s="35">
         <v>1</v>
       </c>
       <c r="BJ3" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK3" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM3" s="34"/>
-      <c r="BN3" s="37"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="37"/>
+      <c r="BM3" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN3" s="35">
+        <v>2</v>
+      </c>
       <c r="BO3" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP3" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ3" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="35">
+        <v>1</v>
+      </c>
       <c r="BR3" s="35">
         <v>1</v>
       </c>
-      <c r="BS3" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT3" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>46</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L4" s="35">
         <v>1</v>
@@ -9839,164 +9838,496 @@
         <v>181</v>
       </c>
       <c r="N4" s="2"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="T4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="U4" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="V4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="W4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="X4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X4" s="35" t="s">
+      <c r="Y4" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
       <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
+      <c r="AD4" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE4" s="34"/>
       <c r="AF4" s="34"/>
-      <c r="AG4" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="AG4" s="34"/>
       <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
+      <c r="AI4" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ4" s="51"/>
       <c r="AK4" s="34"/>
-      <c r="AL4" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="35" t="s">
+        <v>223</v>
+      </c>
       <c r="AO4" s="34"/>
-      <c r="AP4" s="37"/>
+      <c r="AP4" s="34"/>
       <c r="AQ4" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
+        <v>162</v>
+      </c>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
       <c r="AT4" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="AW4" s="35" t="s">
+      <c r="AU4" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AX4" s="35">
+      <c r="AV4" s="35">
         <v>1234567890</v>
       </c>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ4" s="35">
+        <v>2000</v>
+      </c>
       <c r="BA4" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB4" s="35">
-        <v>2000</v>
-      </c>
-      <c r="BC4" s="35" t="s">
         <v>189</v>
       </c>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
       <c r="BD4" s="34"/>
       <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="35">
-        <v>1</v>
+      <c r="BF4" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI4" s="35">
         <v>1</v>
       </c>
       <c r="BJ4" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN4" s="35">
+        <v>2</v>
+      </c>
+      <c r="BO4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="35">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="35">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="73">
+        <v>42614</v>
+      </c>
+      <c r="I5" s="35">
+        <v>1</v>
+      </c>
+      <c r="J5" s="35">
+        <v>1</v>
+      </c>
+      <c r="K5" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="L5" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="87"/>
+      <c r="AJ5" s="51"/>
+      <c r="AL5" s="118"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ5" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="87"/>
+      <c r="AZ5" s="35">
+        <v>2000</v>
+      </c>
+      <c r="BA5" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH5" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="BK4" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="35" t="s">
+      <c r="BI5" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="35" t="s">
+      <c r="BK5" s="118"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="BP4" s="35">
+      <c r="BO5" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP5" s="2"/>
+      <c r="BS5" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT5" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="73">
+        <v>42615</v>
+      </c>
+      <c r="I6" s="35">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35">
+        <v>1</v>
+      </c>
+      <c r="K6" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="L6" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="87"/>
+      <c r="AJ6" s="51"/>
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="55"/>
+      <c r="AQ6" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="87"/>
+      <c r="AZ6" s="35">
+        <v>2000</v>
+      </c>
+      <c r="BA6" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH6" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI6" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK6" s="118"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO6" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP6" s="2"/>
+      <c r="BS6" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT6" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="73">
+        <v>42616</v>
+      </c>
+      <c r="I7" s="35">
+        <v>1</v>
+      </c>
+      <c r="J7" s="35">
+        <v>1</v>
+      </c>
+      <c r="K7" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="L7" s="35">
+        <v>1</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="87"/>
+      <c r="S7" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="W7" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="X7" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y7" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z7" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA7" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB7" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD7" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH7" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI7" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ7" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL7" s="118"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ7" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR7" s="35">
+        <v>4567</v>
+      </c>
+      <c r="AS7" s="87"/>
+      <c r="AV7" s="35">
+        <v>1234567890</v>
+      </c>
+      <c r="AZ7" s="35">
+        <v>2000</v>
+      </c>
+      <c r="BA7" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="BF7" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI7" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK7" s="118"/>
+      <c r="BL7" s="37"/>
+      <c r="BM7" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN7" s="35">
         <v>2</v>
       </c>
-      <c r="BQ4" s="35" t="s">
+      <c r="BO7" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="BR4" s="35">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM5" s="51"/>
-      <c r="AU5" s="87"/>
-      <c r="BU5" s="108"/>
-    </row>
-    <row r="6" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM6" s="51"/>
-      <c r="AU6" s="87"/>
-      <c r="BU6" s="108"/>
-    </row>
-    <row r="7" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM7" s="51"/>
-      <c r="AU7" s="87"/>
-      <c r="BU7" s="108"/>
-    </row>
-    <row r="8" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="35">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="35">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT7" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AM8" s="51"/>
-      <c r="AU8" s="87"/>
-      <c r="BU8" s="108"/>
-    </row>
-    <row r="9" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="B8" s="73">
+        <v>42617</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1</v>
+      </c>
+      <c r="J8" s="35">
+        <v>1</v>
+      </c>
+      <c r="K8" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="L8" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="87"/>
+      <c r="AJ8" s="51"/>
+      <c r="AL8" s="118"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="55"/>
+      <c r="AQ8" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="87"/>
+      <c r="AZ8" s="35">
+        <v>2000</v>
+      </c>
+      <c r="BA8" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH8" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI8" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK8" s="118"/>
+      <c r="BL8" s="37"/>
+      <c r="BM8" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO8" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP8" s="2"/>
+      <c r="BS8" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT8" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AM9" s="51"/>
-      <c r="AU9" s="87"/>
-      <c r="BU9" s="108"/>
-    </row>
-    <row r="10" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="73">
+        <v>42618</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1</v>
+      </c>
+      <c r="J9" s="35">
+        <v>1</v>
+      </c>
+      <c r="K9" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="L9" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="87"/>
+      <c r="AJ9" s="51"/>
+      <c r="AL9" s="118"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="55"/>
+      <c r="AQ9" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="87"/>
+      <c r="AZ9" s="35">
+        <v>2000</v>
+      </c>
+      <c r="BA9" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH9" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI9" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK9" s="118"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO9" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP9" s="2"/>
+      <c r="BS9" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT9" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>58</v>
       </c>
@@ -10018,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L10" s="35">
         <v>1</v>
@@ -10027,116 +10358,117 @@
         <v>181</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="35">
         <v>1234</v>
       </c>
-      <c r="Q10" s="35" t="s">
+      <c r="S10" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R10" s="35" t="s">
+      <c r="T10" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="U10" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T10" s="35" t="s">
+      <c r="V10" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="W10" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V10" s="35" t="s">
+      <c r="X10" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W10" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X10" s="35" t="s">
+      <c r="Y10" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y10" s="35" t="s">
+      <c r="AC10" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
+      <c r="AD10" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE10" s="34"/>
       <c r="AF10" s="34"/>
-      <c r="AG10" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="AG10" s="34"/>
       <c r="AH10" s="34"/>
       <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
+      <c r="AJ10" s="51"/>
       <c r="AK10" s="34"/>
       <c r="AL10" s="34"/>
-      <c r="AM10" s="51"/>
+      <c r="AM10" s="71"/>
       <c r="AN10" s="34"/>
       <c r="AO10" s="34"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="35" t="s">
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="34"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="35">
+        <v>1234567890</v>
+      </c>
       <c r="AW10" s="34"/>
-      <c r="AX10" s="35">
-        <v>1234567890</v>
-      </c>
+      <c r="AX10" s="34"/>
       <c r="AY10" s="34"/>
       <c r="AZ10" s="34"/>
-      <c r="BA10" s="34"/>
+      <c r="BA10" s="35" t="s">
+        <v>189</v>
+      </c>
       <c r="BB10" s="34"/>
-      <c r="BC10" s="35" t="s">
-        <v>189</v>
-      </c>
+      <c r="BC10" s="34"/>
       <c r="BD10" s="34"/>
       <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="35">
-        <v>1</v>
+      <c r="BF10" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI10" s="35">
         <v>1</v>
       </c>
       <c r="BJ10" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK10" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL10" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM10" s="34"/>
-      <c r="BN10" s="37"/>
+      <c r="BK10" s="12"/>
+      <c r="BL10" s="37"/>
+      <c r="BM10" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN10" s="35">
+        <v>2</v>
+      </c>
       <c r="BO10" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP10" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ10" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP10" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="BQ10" s="35">
+        <v>1</v>
+      </c>
       <c r="BR10" s="35">
         <v>1</v>
       </c>
-      <c r="BS10" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU10" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT10" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>47</v>
       </c>
@@ -10158,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L11" s="35">
         <v>1</v>
@@ -10167,124 +10499,123 @@
         <v>181</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="35">
         <v>1234</v>
       </c>
-      <c r="Q11" s="35" t="s">
+      <c r="S11" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R11" s="35" t="s">
+      <c r="T11" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S11" s="35" t="s">
+      <c r="U11" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="V11" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="W11" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V11" s="35" t="s">
+      <c r="X11" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W11" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X11" s="35" t="s">
+      <c r="Y11" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y11" s="35" t="s">
+      <c r="AC11" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
+      <c r="AD11" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE11" s="34"/>
       <c r="AF11" s="34"/>
       <c r="AG11" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35" t="s">
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AM11" s="51"/>
-      <c r="AP11" s="37"/>
+      <c r="AJ11" s="51"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
       <c r="AQ11" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="35" t="s">
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AX11" s="35">
+      <c r="AV11" s="35">
         <v>1234567890</v>
       </c>
-      <c r="AY11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="35" t="s">
+        <v>188</v>
+      </c>
       <c r="AZ11" s="34"/>
       <c r="BA11" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BB11" s="34"/>
-      <c r="BC11" s="35" t="s">
-        <v>189</v>
-      </c>
+      <c r="BC11" s="34"/>
       <c r="BD11" s="34"/>
       <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="35">
-        <v>1</v>
+      <c r="BF11" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI11" s="35">
         <v>1</v>
       </c>
       <c r="BJ11" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK11" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL11" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="37"/>
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="37"/>
+      <c r="BM11" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN11" s="35">
+        <v>2</v>
+      </c>
       <c r="BO11" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP11" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ11" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="35">
+        <v>1</v>
+      </c>
       <c r="BR11" s="35">
         <v>1</v>
       </c>
-      <c r="BS11" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT11" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>48</v>
       </c>
@@ -10306,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L12" s="35">
         <v>1</v>
@@ -10315,124 +10646,123 @@
         <v>181</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="35">
         <v>1234</v>
       </c>
-      <c r="Q12" s="35" t="s">
+      <c r="S12" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R12" s="35" t="s">
+      <c r="T12" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S12" s="35" t="s">
+      <c r="U12" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T12" s="35" t="s">
+      <c r="V12" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U12" s="35" t="s">
+      <c r="W12" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V12" s="35" t="s">
+      <c r="X12" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W12" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X12" s="35" t="s">
+      <c r="Y12" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y12" s="35" t="s">
+      <c r="AC12" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
+      <c r="AD12" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE12" s="34"/>
       <c r="AF12" s="34"/>
       <c r="AG12" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35" t="s">
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AM12" s="51"/>
-      <c r="AP12" s="37"/>
+      <c r="AJ12" s="51"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
       <c r="AQ12" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR12" s="34"/>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="35" t="s">
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AX12" s="35">
+      <c r="AV12" s="35">
         <v>1234567890</v>
       </c>
-      <c r="AY12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="35" t="s">
+        <v>188</v>
+      </c>
       <c r="AZ12" s="34"/>
       <c r="BA12" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BB12" s="34"/>
-      <c r="BC12" s="35" t="s">
-        <v>189</v>
-      </c>
+      <c r="BC12" s="34"/>
       <c r="BD12" s="34"/>
       <c r="BE12" s="34"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="35">
-        <v>1</v>
+      <c r="BF12" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI12" s="35">
         <v>1</v>
       </c>
       <c r="BJ12" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK12" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL12" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM12" s="34"/>
-      <c r="BN12" s="37"/>
+      <c r="BK12" s="12"/>
+      <c r="BL12" s="37"/>
+      <c r="BM12" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN12" s="35">
+        <v>2</v>
+      </c>
       <c r="BO12" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP12" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ12" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="35">
+        <v>1</v>
+      </c>
       <c r="BR12" s="35">
         <v>1</v>
       </c>
-      <c r="BS12" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU12" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT12" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>67</v>
       </c>
@@ -10462,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L13" s="35">
         <v>1</v>
@@ -10471,140 +10801,139 @@
         <v>181</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="35">
         <v>1234</v>
       </c>
-      <c r="Q13" s="35" t="s">
+      <c r="S13" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R13" s="35" t="s">
+      <c r="T13" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S13" s="35" t="s">
+      <c r="U13" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T13" s="35" t="s">
+      <c r="V13" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U13" s="35" t="s">
+      <c r="W13" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V13" s="35" t="s">
+      <c r="X13" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W13" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X13" s="35" t="s">
+      <c r="Y13" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y13" s="35" t="s">
+      <c r="AC13" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
+      <c r="AD13" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE13" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF13" s="35" t="s">
+        <v>185</v>
+      </c>
       <c r="AG13" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH13" s="35" t="s">
         <v>201</v>
       </c>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AJ13" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM13" s="51"/>
-      <c r="AP13" s="37"/>
+      <c r="AJ13" s="51"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO13" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP13" s="2"/>
       <c r="AQ13" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR13" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="35" t="s">
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AX13" s="35">
+      <c r="AV13" s="35">
         <v>1234567890</v>
       </c>
-      <c r="AY13" s="34"/>
+      <c r="AW13" s="34"/>
+      <c r="AX13" s="34"/>
+      <c r="AY13" s="35" t="s">
+        <v>188</v>
+      </c>
       <c r="AZ13" s="34"/>
       <c r="BA13" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB13" s="34"/>
-      <c r="BC13" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="BD13" s="35">
-        <v>1</v>
-      </c>
-      <c r="BE13" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF13" s="35" t="s">
+      <c r="BB13" s="35">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="35" t="s">
         <v>185</v>
       </c>
+      <c r="BE13" s="35">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="35">
+        <v>1</v>
+      </c>
       <c r="BG13" s="35">
         <v>1</v>
       </c>
-      <c r="BH13" s="35">
-        <v>1</v>
+      <c r="BH13" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI13" s="35">
         <v>1</v>
       </c>
       <c r="BJ13" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK13" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL13" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM13" s="35">
+      <c r="BK13" s="13">
         <v>100</v>
       </c>
-      <c r="BN13" s="37"/>
+      <c r="BL13" s="37"/>
+      <c r="BM13" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN13" s="35">
+        <v>2</v>
+      </c>
       <c r="BO13" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP13" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ13" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="35">
+        <v>1</v>
+      </c>
       <c r="BR13" s="35">
         <v>1</v>
       </c>
-      <c r="BS13" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU13" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT13" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>59</v>
       </c>
@@ -10624,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L14" s="35">
         <v>1</v>
@@ -10633,124 +10962,125 @@
         <v>181</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35" t="s">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R14" s="35" t="s">
+      <c r="T14" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S14" s="34"/>
-      <c r="T14" s="35" t="s">
+      <c r="U14" s="34"/>
+      <c r="V14" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U14" s="35" t="s">
+      <c r="W14" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V14" s="35" t="s">
+      <c r="X14" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W14" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X14" s="35" t="s">
+      <c r="Y14" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
+      <c r="AD14" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE14" s="34"/>
       <c r="AF14" s="34"/>
-      <c r="AG14" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="AG14" s="34"/>
       <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="35" t="s">
+      <c r="AI14" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="35">
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="35">
         <v>456</v>
       </c>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="37"/>
+      <c r="AL14" s="35">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="31"/>
       <c r="AQ14" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
+        <v>162</v>
+      </c>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
       <c r="AT14" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="AW14" s="35" t="s">
+      <c r="AU14" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AX14" s="35">
+      <c r="AV14" s="35">
         <v>1234567980</v>
       </c>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
+      <c r="AW14" s="34"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ14" s="35">
+        <v>2000</v>
+      </c>
       <c r="BA14" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB14" s="35">
-        <v>2000</v>
-      </c>
-      <c r="BC14" s="35" t="s">
         <v>189</v>
       </c>
+      <c r="BB14" s="34"/>
+      <c r="BC14" s="34"/>
       <c r="BD14" s="34"/>
       <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="35">
-        <v>1</v>
+      <c r="BF14" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH14" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI14" s="35">
         <v>1</v>
       </c>
       <c r="BJ14" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK14" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL14" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="37"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="37"/>
+      <c r="BM14" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN14" s="35">
+        <v>2</v>
+      </c>
       <c r="BO14" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP14" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ14" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="35">
+        <v>1</v>
+      </c>
       <c r="BR14" s="35">
         <v>1</v>
       </c>
-      <c r="BS14" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU14" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT14" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>49</v>
       </c>
@@ -10770,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L15" s="35">
         <v>1</v>
@@ -10779,128 +11109,127 @@
         <v>181</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="35" t="s">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R15" s="35" t="s">
+      <c r="T15" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S15" s="35" t="s">
+      <c r="U15" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T15" s="35" t="s">
+      <c r="V15" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U15" s="35" t="s">
+      <c r="W15" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V15" s="35" t="s">
+      <c r="X15" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W15" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X15" s="35" t="s">
+      <c r="Y15" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
       <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
+      <c r="AD15" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE15" s="34"/>
       <c r="AF15" s="34"/>
-      <c r="AG15" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="35" t="s">
+      <c r="AI15" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="35">
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="35">
         <v>456</v>
       </c>
-      <c r="AO15" s="35">
+      <c r="AL15" s="35">
         <v>12</v>
       </c>
-      <c r="AP15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="31"/>
       <c r="AQ15" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="34"/>
+        <v>162</v>
+      </c>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
       <c r="AT15" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="AW15" s="35" t="s">
+      <c r="AU15" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AX15" s="35">
+      <c r="AV15" s="35">
         <v>1234567980</v>
       </c>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="34"/>
+      <c r="AW15" s="34"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ15" s="35">
+        <v>2000</v>
+      </c>
       <c r="BA15" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB15" s="35">
-        <v>2000</v>
-      </c>
-      <c r="BC15" s="35" t="s">
         <v>189</v>
       </c>
+      <c r="BB15" s="34"/>
+      <c r="BC15" s="34"/>
       <c r="BD15" s="34"/>
       <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="35">
-        <v>1</v>
+      <c r="BF15" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI15" s="35">
         <v>1</v>
       </c>
       <c r="BJ15" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK15" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL15" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM15" s="34"/>
-      <c r="BN15" s="37"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="37"/>
+      <c r="BM15" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN15" s="35">
+        <v>2</v>
+      </c>
       <c r="BO15" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP15" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ15" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="35">
+        <v>1</v>
+      </c>
       <c r="BR15" s="35">
         <v>1</v>
       </c>
-      <c r="BS15" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU15" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT15" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>52</v>
       </c>
@@ -10920,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L16" s="35">
         <v>1</v>
@@ -10929,122 +11258,121 @@
         <v>181</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="35" t="s">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="T16" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35" t="s">
+      <c r="U16" s="34"/>
+      <c r="V16" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="W16" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="X16" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W16" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X16" s="35" t="s">
+      <c r="Y16" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
       <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
+      <c r="AD16" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE16" s="34"/>
       <c r="AF16" s="34"/>
-      <c r="AG16" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="AG16" s="34"/>
       <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
+      <c r="AI16" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ16" s="51"/>
       <c r="AK16" s="34"/>
-      <c r="AL16" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="35" t="s">
+        <v>223</v>
+      </c>
       <c r="AO16" s="34"/>
-      <c r="AP16" s="37"/>
+      <c r="AP16" s="31"/>
       <c r="AQ16" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="35" t="s">
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="35" t="s">
         <v>187</v>
       </c>
+      <c r="AV16" s="35">
+        <v>1234567980</v>
+      </c>
+      <c r="AW16" s="35">
+        <v>911</v>
+      </c>
       <c r="AX16" s="35">
-        <v>1234567980</v>
-      </c>
-      <c r="AY16" s="35">
-        <v>911</v>
-      </c>
-      <c r="AZ16" s="35">
         <v>944</v>
       </c>
+      <c r="AY16" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ16" s="34"/>
       <c r="BA16" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BB16" s="34"/>
-      <c r="BC16" s="35" t="s">
-        <v>189</v>
-      </c>
+      <c r="BC16" s="34"/>
       <c r="BD16" s="34"/>
       <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="35">
-        <v>1</v>
+      <c r="BF16" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG16" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH16" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI16" s="35">
         <v>1</v>
       </c>
       <c r="BJ16" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK16" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL16" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM16" s="34"/>
-      <c r="BN16" s="37"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="37"/>
+      <c r="BM16" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN16" s="35">
+        <v>2</v>
+      </c>
       <c r="BO16" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP16" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ16" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="35">
+        <v>1</v>
+      </c>
       <c r="BR16" s="35">
         <v>1</v>
       </c>
-      <c r="BS16" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU16" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:73" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT16" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>51</v>
       </c>
@@ -11064,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L17" s="35">
         <v>1</v>
@@ -11073,122 +11401,121 @@
         <v>181</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="35" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R17" s="35" t="s">
+      <c r="T17" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S17" s="35" t="s">
+      <c r="U17" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T17" s="35" t="s">
+      <c r="V17" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U17" s="35" t="s">
+      <c r="W17" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V17" s="35" t="s">
+      <c r="X17" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W17" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X17" s="35" t="s">
+      <c r="Y17" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
       <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
+      <c r="AD17" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE17" s="34"/>
       <c r="AF17" s="34"/>
-      <c r="AG17" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="AG17" s="34"/>
       <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
+      <c r="AI17" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ17" s="51"/>
       <c r="AK17" s="34"/>
-      <c r="AL17" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="35" t="s">
+        <v>223</v>
+      </c>
       <c r="AO17" s="34"/>
-      <c r="AP17" s="37"/>
+      <c r="AP17" s="31"/>
       <c r="AQ17" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="34"/>
-      <c r="AT17" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="34"/>
-      <c r="AW17" s="35" t="s">
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AX17" s="35">
+      <c r="AV17" s="35">
         <v>1234567980</v>
       </c>
-      <c r="AY17" s="35">
+      <c r="AW17" s="35">
         <v>911</v>
       </c>
-      <c r="AZ17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ17" s="34"/>
       <c r="BA17" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BB17" s="34"/>
-      <c r="BC17" s="35" t="s">
-        <v>189</v>
-      </c>
+      <c r="BC17" s="34"/>
       <c r="BD17" s="34"/>
       <c r="BE17" s="34"/>
-      <c r="BF17" s="34"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="35">
-        <v>1</v>
+      <c r="BF17" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG17" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH17" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI17" s="35">
         <v>1</v>
       </c>
       <c r="BJ17" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK17" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL17" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="37"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="37"/>
+      <c r="BM17" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN17" s="35">
+        <v>2</v>
+      </c>
       <c r="BO17" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP17" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ17" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="35">
+        <v>1</v>
+      </c>
       <c r="BR17" s="35">
         <v>1</v>
       </c>
-      <c r="BS17" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU17" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:73" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT17" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>50</v>
       </c>
@@ -11208,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L18" s="35">
         <v>1</v>
@@ -11217,122 +11544,121 @@
         <v>181</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="35" t="s">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R18" s="35" t="s">
+      <c r="T18" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S18" s="35" t="s">
+      <c r="U18" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T18" s="35" t="s">
+      <c r="V18" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U18" s="35" t="s">
+      <c r="W18" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V18" s="35" t="s">
+      <c r="X18" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W18" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X18" s="35" t="s">
+      <c r="Y18" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
       <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
+      <c r="AD18" s="35" t="s">
+        <v>200</v>
+      </c>
       <c r="AE18" s="34"/>
       <c r="AF18" s="34"/>
-      <c r="AG18" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="AG18" s="34"/>
       <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
+      <c r="AI18" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ18" s="51"/>
       <c r="AK18" s="34"/>
-      <c r="AL18" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="35" t="s">
+        <v>223</v>
+      </c>
       <c r="AO18" s="34"/>
-      <c r="AP18" s="37"/>
+      <c r="AP18" s="31"/>
       <c r="AQ18" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="35" t="s">
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AX18" s="35">
+      <c r="AV18" s="35">
         <v>1234567980</v>
       </c>
-      <c r="AY18" s="35">
+      <c r="AW18" s="35">
         <v>911</v>
       </c>
-      <c r="AZ18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ18" s="34"/>
       <c r="BA18" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BB18" s="34"/>
-      <c r="BC18" s="35" t="s">
-        <v>189</v>
-      </c>
+      <c r="BC18" s="34"/>
       <c r="BD18" s="34"/>
       <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="35">
-        <v>1</v>
+      <c r="BF18" s="35">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="BI18" s="35">
         <v>1</v>
       </c>
       <c r="BJ18" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK18" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL18" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="37"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="37"/>
+      <c r="BM18" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN18" s="35">
+        <v>2</v>
+      </c>
       <c r="BO18" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP18" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ18" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="35">
+        <v>1</v>
+      </c>
       <c r="BR18" s="35">
         <v>1</v>
       </c>
-      <c r="BS18" s="35">
-        <v>1</v>
-      </c>
-      <c r="BU18" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:73" s="49" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT18" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>61</v>
       </c>
@@ -11346,81 +11672,88 @@
         <v>1</v>
       </c>
       <c r="K19" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L19" s="35">
         <v>1</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="28" t="s">
+      <c r="N19" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="O19" s="35" t="s">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="Q19" s="35" t="s">
+      <c r="S19" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R19" s="35" t="s">
+      <c r="T19" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S19" s="35" t="s">
+      <c r="U19" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AM19" s="51"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="39"/>
-      <c r="AR19" s="35" t="s">
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AJ19" s="51"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="35" t="s">
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU19" s="35">
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="35">
         <v>4567</v>
       </c>
-      <c r="AX19" s="2"/>
-      <c r="BB19" s="35">
+      <c r="AV19" s="2"/>
+      <c r="AZ19" s="35">
         <v>2000</v>
       </c>
-      <c r="BC19" s="35" t="s">
+      <c r="BA19" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="BH19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BH19" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI19" s="35">
+        <v>1</v>
+      </c>
       <c r="BJ19" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK19" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL19" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BN19" s="39"/>
+      <c r="BK19" s="118"/>
+      <c r="BL19" s="37"/>
+      <c r="BM19" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN19" s="2"/>
       <c r="BO19" s="35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="BP19" s="2"/>
-      <c r="BQ19" s="35" t="s">
-        <v>186</v>
-      </c>
+      <c r="BQ19" s="2"/>
       <c r="BR19" s="2"/>
-      <c r="BS19" s="2"/>
-      <c r="BT19" s="86" t="s">
+      <c r="BS19" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="BU19" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:73" s="49" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT19" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>62</v>
       </c>
@@ -11434,111 +11767,118 @@
         <v>1</v>
       </c>
       <c r="K20" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L20" s="35">
         <v>1</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="28" t="s">
+      <c r="N20" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="O20" s="35" t="s">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="Q20" s="35" t="s">
+      <c r="S20" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R20" s="35" t="s">
+      <c r="T20" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S20" s="35" t="s">
+      <c r="U20" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T20" s="35" t="s">
+      <c r="V20" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U20" s="35" t="s">
+      <c r="W20" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V20" s="35" t="s">
+      <c r="X20" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W20" s="35" t="s">
+      <c r="Y20" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="X20" s="35" t="s">
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="AG20" s="35" t="s">
+      <c r="AD20" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="AK20" s="35" t="s">
+      <c r="AH20" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AL20" s="28" t="s">
+      <c r="AI20" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="AM20" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="39"/>
-      <c r="AR20" s="35" t="s">
+      <c r="AJ20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AS20" s="35"/>
-      <c r="AT20" s="35" t="s">
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU20" s="35">
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="35">
         <v>4567</v>
       </c>
-      <c r="AX20" s="35">
+      <c r="AV20" s="35">
         <v>1234567980</v>
       </c>
-      <c r="BB20" s="35">
+      <c r="AZ20" s="35">
         <v>2000</v>
       </c>
-      <c r="BC20" s="35" t="s">
+      <c r="BA20" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="BH20" s="35">
+      <c r="BF20" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI20" s="35">
         <v>1</v>
       </c>
       <c r="BJ20" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK20" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL20" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BN20" s="39"/>
+      <c r="BK20" s="118"/>
+      <c r="BL20" s="37"/>
+      <c r="BM20" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN20" s="35">
+        <v>2</v>
+      </c>
       <c r="BO20" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP20" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ20" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="35">
+        <v>1</v>
+      </c>
       <c r="BR20" s="35">
         <v>1</v>
       </c>
-      <c r="BS20" s="35">
-        <v>1</v>
-      </c>
-      <c r="BT20" s="86" t="s">
+      <c r="BS20" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="BU20" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:73" s="49" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT20" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>63</v>
       </c>
@@ -11558,97 +11898,104 @@
         <v>1</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="O21" s="35" t="s">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="Q21" s="35" t="s">
+      <c r="S21" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R21" s="35" t="s">
+      <c r="T21" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S21" s="35" t="s">
+      <c r="U21" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T21" s="35" t="s">
+      <c r="V21" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U21" s="35" t="s">
+      <c r="W21" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V21" s="35" t="s">
+      <c r="X21" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W21" s="35" t="s">
+      <c r="Y21" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="X21" s="35" t="s">
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="AG21" s="35" t="s">
+      <c r="AD21" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="AM21" s="51"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="39"/>
-      <c r="AR21" s="35" t="s">
+      <c r="AJ21" s="51"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35" t="s">
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU21" s="35">
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="35">
         <v>4567</v>
       </c>
-      <c r="AX21" s="35">
+      <c r="AV21" s="35">
         <v>1234567980</v>
       </c>
-      <c r="BB21" s="35">
+      <c r="AZ21" s="35">
         <v>2000</v>
       </c>
-      <c r="BC21" s="35" t="s">
+      <c r="BA21" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="BH21" s="35">
+      <c r="BF21" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI21" s="35">
         <v>1</v>
       </c>
       <c r="BJ21" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK21" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL21" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BN21" s="39"/>
+      <c r="BK21" s="118"/>
+      <c r="BL21" s="37"/>
+      <c r="BM21" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN21" s="35">
+        <v>2</v>
+      </c>
       <c r="BO21" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP21" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ21" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="35">
+        <v>1</v>
+      </c>
       <c r="BR21" s="35">
         <v>1</v>
       </c>
-      <c r="BS21" s="35">
-        <v>1</v>
-      </c>
-      <c r="BT21" s="86" t="s">
+      <c r="BS21" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="BU21" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:73" s="49" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT21" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>64</v>
       </c>
@@ -11662,111 +12009,118 @@
         <v>1</v>
       </c>
       <c r="K22" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L22" s="35">
         <v>1</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="O22" s="35" t="s">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="Q22" s="35" t="s">
+      <c r="S22" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R22" s="35" t="s">
+      <c r="T22" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S22" s="35" t="s">
+      <c r="U22" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T22" s="35" t="s">
+      <c r="V22" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U22" s="35" t="s">
+      <c r="W22" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V22" s="35" t="s">
+      <c r="X22" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W22" s="35" t="s">
+      <c r="Y22" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="X22" s="35" t="s">
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="AG22" s="35" t="s">
+      <c r="AD22" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="AK22" s="35" t="s">
+      <c r="AH22" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AL22" s="35" t="s">
+      <c r="AI22" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AM22" s="111" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="39"/>
-      <c r="AR22" s="35" t="s">
+      <c r="AJ22" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35" t="s">
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU22" s="35">
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="35">
         <v>4567</v>
       </c>
-      <c r="AX22" s="35">
+      <c r="AV22" s="35">
         <v>1234567980</v>
       </c>
-      <c r="BB22" s="35">
+      <c r="AZ22" s="35">
         <v>2000</v>
       </c>
-      <c r="BC22" s="35" t="s">
+      <c r="BA22" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="BH22" s="35">
+      <c r="BF22" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI22" s="35">
         <v>1</v>
       </c>
       <c r="BJ22" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK22" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL22" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BN22" s="39"/>
+      <c r="BK22" s="118"/>
+      <c r="BL22" s="37"/>
+      <c r="BM22" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN22" s="35">
+        <v>2</v>
+      </c>
       <c r="BO22" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP22" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ22" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="35">
+        <v>1</v>
+      </c>
       <c r="BR22" s="35">
         <v>1</v>
       </c>
-      <c r="BS22" s="35">
-        <v>1</v>
-      </c>
-      <c r="BT22" s="86" t="s">
+      <c r="BS22" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="BU22" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:73" s="49" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT22" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>65</v>
       </c>
@@ -11780,111 +12134,118 @@
         <v>1</v>
       </c>
       <c r="K23" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L23" s="35">
         <v>1</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="28" t="s">
+      <c r="N23" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="O23" s="35" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="Q23" s="35" t="s">
+      <c r="S23" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R23" s="35" t="s">
+      <c r="T23" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S23" s="35" t="s">
+      <c r="U23" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T23" s="35" t="s">
+      <c r="V23" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U23" s="35" t="s">
+      <c r="W23" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V23" s="35" t="s">
+      <c r="X23" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W23" s="35" t="s">
+      <c r="Y23" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="X23" s="35" t="s">
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="AG23" s="35" t="s">
+      <c r="AD23" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="AK23" s="35" t="s">
+      <c r="AH23" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AL23" s="35" t="s">
+      <c r="AI23" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AM23" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="39"/>
-      <c r="AR23" s="35" t="s">
+      <c r="AJ23" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35" t="s">
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU23" s="35">
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="35">
         <v>4567</v>
       </c>
-      <c r="AX23" s="35">
+      <c r="AV23" s="35">
         <v>1234567980</v>
       </c>
-      <c r="BB23" s="35">
+      <c r="AZ23" s="35">
         <v>2000</v>
       </c>
-      <c r="BC23" s="35" t="s">
+      <c r="BA23" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="BH23" s="35">
+      <c r="BF23" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI23" s="35">
         <v>1</v>
       </c>
       <c r="BJ23" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK23" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL23" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BN23" s="39"/>
+      <c r="BK23" s="118"/>
+      <c r="BL23" s="37"/>
+      <c r="BM23" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN23" s="35">
+        <v>2</v>
+      </c>
       <c r="BO23" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP23" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ23" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="35">
+        <v>1</v>
+      </c>
       <c r="BR23" s="35">
         <v>1</v>
       </c>
-      <c r="BS23" s="35">
-        <v>1</v>
-      </c>
-      <c r="BT23" s="86" t="s">
+      <c r="BS23" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="BU23" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:73" s="49" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT23" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>66</v>
       </c>
@@ -11898,184 +12259,191 @@
         <v>1</v>
       </c>
       <c r="K24" s="35">
-        <v>1</v>
+        <v>9638527410</v>
       </c>
       <c r="L24" s="35">
         <v>1</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="28" t="s">
+      <c r="N24" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="O24" s="35" t="s">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="Q24" s="35" t="s">
+      <c r="S24" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="R24" s="35" t="s">
+      <c r="T24" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S24" s="35" t="s">
+      <c r="U24" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T24" s="35" t="s">
+      <c r="V24" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="U24" s="35" t="s">
+      <c r="W24" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="V24" s="35" t="s">
+      <c r="X24" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="W24" s="35" t="s">
+      <c r="Y24" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="X24" s="35" t="s">
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="AG24" s="35" t="s">
+      <c r="AD24" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="AK24" s="35" t="s">
+      <c r="AH24" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AL24" s="35" t="s">
+      <c r="AI24" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AM24" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="39"/>
-      <c r="AR24" s="35" t="s">
+      <c r="AJ24" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35" t="s">
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AU24" s="35">
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="35">
         <v>4567</v>
       </c>
-      <c r="AX24" s="35">
+      <c r="AV24" s="35">
         <v>1234567980</v>
       </c>
-      <c r="BB24" s="35">
+      <c r="AZ24" s="35">
         <v>2000</v>
       </c>
-      <c r="BC24" s="35" t="s">
+      <c r="BA24" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="BH24" s="35">
+      <c r="BF24" s="35">
+        <v>1</v>
+      </c>
+      <c r="BH24" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI24" s="35">
         <v>1</v>
       </c>
       <c r="BJ24" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK24" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL24" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BN24" s="39"/>
+      <c r="BK24" s="118"/>
+      <c r="BL24" s="37"/>
+      <c r="BM24" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN24" s="35">
+        <v>2</v>
+      </c>
       <c r="BO24" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP24" s="35">
-        <v>2</v>
-      </c>
-      <c r="BQ24" s="35" t="s">
         <v>186</v>
       </c>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="35">
+        <v>1</v>
+      </c>
       <c r="BR24" s="35">
         <v>1</v>
       </c>
-      <c r="BS24" s="35">
-        <v>1</v>
-      </c>
-      <c r="BT24" s="86" t="s">
+      <c r="BS24" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="BU24" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:73" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="BT24" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
-      <c r="AM25" s="109"/>
-    </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="108"/>
+    </row>
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="AM26" s="109"/>
-    </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="108"/>
+    </row>
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
-      <c r="AM27" s="109"/>
-    </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="108"/>
+    </row>
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
-      <c r="AM28" s="109"/>
-    </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="AM29" s="109"/>
-    </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="AM30" s="109"/>
-    </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="AM31" s="109"/>
-    </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="AM32" s="109"/>
-    </row>
-    <row r="33" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="108"/>
+    </row>
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="AJ29" s="108"/>
+    </row>
+    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="108"/>
+    </row>
+    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="AJ31" s="108"/>
+    </row>
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="AJ32" s="108"/>
+    </row>
+    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="AM33" s="109"/>
-    </row>
-    <row r="34" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AJ33" s="108"/>
+    </row>
+    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
-      <c r="AM34" s="109"/>
-    </row>
-    <row r="35" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="108"/>
+    </row>
+    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="AM35" s="109"/>
-    </row>
-    <row r="36" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM36" s="109"/>
-    </row>
-    <row r="37" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM37" s="109"/>
-    </row>
-    <row r="38" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM38" s="109"/>
-    </row>
-    <row r="39" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM39" s="109"/>
-    </row>
-    <row r="40" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM40" s="109"/>
-    </row>
-    <row r="41" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM41" s="109"/>
-    </row>
-    <row r="42" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM42" s="109"/>
-    </row>
-    <row r="43" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AJ35" s="108"/>
+    </row>
+    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ36" s="108"/>
+    </row>
+    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ37" s="108"/>
+    </row>
+    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ38" s="108"/>
+    </row>
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ39" s="108"/>
+    </row>
+    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ40" s="108"/>
+    </row>
+    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ41" s="108"/>
+    </row>
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ42" s="108"/>
+    </row>
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
-      <c r="AM43" s="109"/>
-    </row>
-    <row r="44" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM44" s="109"/>
-      <c r="AP44" s="94"/>
-    </row>
-    <row r="45" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM45" s="109"/>
-      <c r="AP45" s="94"/>
-    </row>
-    <row r="46" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="AJ43" s="108"/>
+    </row>
+    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ44" s="108"/>
+      <c r="AM44" s="94"/>
+    </row>
+    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ45" s="108"/>
+      <c r="AM45" s="94"/>
+    </row>
+    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A46" s="88"/>
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
@@ -12091,38 +12459,38 @@
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
       <c r="O46" s="88"/>
-      <c r="P46" s="85"/>
+      <c r="P46" s="88"/>
       <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="88"/>
       <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
+      <c r="U46" s="85"/>
       <c r="V46" s="88"/>
       <c r="W46" s="88"/>
       <c r="X46" s="88"/>
-      <c r="Y46" s="85"/>
+      <c r="Y46" s="88"/>
       <c r="Z46" s="88"/>
       <c r="AA46" s="88"/>
-      <c r="AB46" s="85"/>
+      <c r="AB46" s="88"/>
       <c r="AC46" s="85"/>
-      <c r="AD46" s="85"/>
+      <c r="AD46" s="88"/>
       <c r="AE46" s="88"/>
-      <c r="AF46" s="88"/>
+      <c r="AF46" s="89"/>
       <c r="AG46" s="88"/>
       <c r="AH46" s="88"/>
-      <c r="AI46" s="89"/>
-      <c r="AJ46" s="88"/>
+      <c r="AI46" s="88"/>
+      <c r="AJ46" s="108"/>
       <c r="AK46" s="88"/>
       <c r="AL46" s="88"/>
       <c r="AM46" s="109"/>
       <c r="AN46" s="88"/>
       <c r="AO46" s="88"/>
-      <c r="AP46" s="110"/>
-      <c r="AQ46" s="88"/>
-      <c r="AR46" s="88"/>
-      <c r="AS46" s="88"/>
-      <c r="AT46" s="85"/>
-      <c r="AU46" s="85"/>
+      <c r="AP46" s="88"/>
+      <c r="AQ46" s="85"/>
+      <c r="AR46" s="85"/>
+      <c r="AS46" s="85"/>
+      <c r="AT46" s="88"/>
+      <c r="AU46" s="88"/>
       <c r="AV46" s="88"/>
       <c r="AW46" s="88"/>
       <c r="AX46" s="88"/>
@@ -12137,17 +12505,17 @@
       <c r="BG46" s="88"/>
       <c r="BH46" s="88"/>
       <c r="BI46" s="88"/>
-      <c r="BJ46" s="88"/>
+      <c r="BJ46" s="85"/>
       <c r="BK46" s="88"/>
-      <c r="BL46" s="85"/>
-      <c r="BM46" s="88"/>
-      <c r="BN46" s="83"/>
+      <c r="BL46" s="83"/>
+      <c r="BM46" s="85"/>
+      <c r="BN46" s="88"/>
       <c r="BO46" s="85"/>
-      <c r="BP46" s="88"/>
-      <c r="BQ46" s="85"/>
+      <c r="BP46" s="85"/>
+      <c r="BQ46" s="88"/>
       <c r="BR46" s="88"/>
-      <c r="BS46" s="88"/>
-      <c r="BT46" s="90"/>
+      <c r="BS46" s="90"/>
+      <c r="BT46" s="89"/>
       <c r="BU46" s="89"/>
       <c r="BV46" s="89"/>
       <c r="BW46" s="89"/>
@@ -12170,9 +12538,8 @@
       <c r="CN46" s="89"/>
       <c r="CO46" s="89"/>
       <c r="CP46" s="89"/>
-      <c r="CQ46" s="89"/>
-    </row>
-    <row r="47" spans="1:95" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A47" s="88"/>
       <c r="B47" s="85"/>
       <c r="C47" s="85"/>
@@ -12188,63 +12555,63 @@
       <c r="M47" s="88"/>
       <c r="N47" s="88"/>
       <c r="O47" s="88"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="85"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
       <c r="R47" s="85"/>
       <c r="S47" s="85"/>
-      <c r="T47" s="91"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
+      <c r="T47" s="85"/>
+      <c r="U47" s="85"/>
+      <c r="V47" s="91"/>
       <c r="W47" s="88"/>
-      <c r="X47" s="85"/>
+      <c r="X47" s="88"/>
       <c r="Y47" s="88"/>
       <c r="Z47" s="88"/>
-      <c r="AA47" s="85"/>
+      <c r="AA47" s="88"/>
       <c r="AB47" s="85"/>
-      <c r="AC47" s="85"/>
+      <c r="AC47" s="88"/>
       <c r="AD47" s="85"/>
       <c r="AE47" s="88"/>
       <c r="AF47" s="88"/>
-      <c r="AG47" s="85"/>
+      <c r="AG47" s="88"/>
       <c r="AH47" s="88"/>
       <c r="AI47" s="88"/>
-      <c r="AJ47" s="88"/>
+      <c r="AJ47" s="108"/>
       <c r="AK47" s="88"/>
       <c r="AL47" s="88"/>
       <c r="AM47" s="109"/>
       <c r="AN47" s="88"/>
       <c r="AO47" s="88"/>
-      <c r="AP47" s="110"/>
-      <c r="AQ47" s="88"/>
-      <c r="AR47" s="88"/>
-      <c r="AS47" s="88"/>
-      <c r="AT47" s="85"/>
-      <c r="AU47" s="85"/>
-      <c r="AV47" s="88"/>
+      <c r="AP47" s="88"/>
+      <c r="AQ47" s="85"/>
+      <c r="AR47" s="85"/>
+      <c r="AS47" s="85"/>
+      <c r="AT47" s="88"/>
+      <c r="AU47" s="88"/>
+      <c r="AV47" s="85"/>
       <c r="AW47" s="88"/>
-      <c r="AX47" s="85"/>
+      <c r="AX47" s="88"/>
       <c r="AY47" s="88"/>
       <c r="AZ47" s="88"/>
-      <c r="BA47" s="88"/>
+      <c r="BA47" s="85"/>
       <c r="BB47" s="88"/>
-      <c r="BC47" s="85"/>
+      <c r="BC47" s="88"/>
       <c r="BD47" s="88"/>
       <c r="BE47" s="88"/>
       <c r="BF47" s="88"/>
       <c r="BG47" s="88"/>
       <c r="BH47" s="88"/>
       <c r="BI47" s="88"/>
-      <c r="BJ47" s="88"/>
+      <c r="BJ47" s="85"/>
       <c r="BK47" s="88"/>
-      <c r="BL47" s="85"/>
-      <c r="BM47" s="88"/>
-      <c r="BN47" s="83"/>
+      <c r="BL47" s="83"/>
+      <c r="BM47" s="85"/>
+      <c r="BN47" s="88"/>
       <c r="BO47" s="85"/>
-      <c r="BP47" s="88"/>
-      <c r="BQ47" s="85"/>
+      <c r="BP47" s="85"/>
+      <c r="BQ47" s="88"/>
       <c r="BR47" s="88"/>
-      <c r="BS47" s="88"/>
-      <c r="BT47" s="90"/>
+      <c r="BS47" s="90"/>
+      <c r="BT47" s="89"/>
       <c r="BU47" s="89"/>
       <c r="BV47" s="89"/>
       <c r="BW47" s="89"/>
@@ -12267,9 +12634,8 @@
       <c r="CN47" s="89"/>
       <c r="CO47" s="89"/>
       <c r="CP47" s="89"/>
-      <c r="CQ47" s="89"/>
-    </row>
-    <row r="48" spans="1:95" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A48" s="88"/>
       <c r="B48" s="85"/>
       <c r="C48" s="88"/>
@@ -12297,26 +12663,26 @@
       <c r="Y48" s="88"/>
       <c r="Z48" s="88"/>
       <c r="AA48" s="88"/>
-      <c r="AB48" s="85"/>
-      <c r="AC48" s="85"/>
-      <c r="AD48" s="85"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="88"/>
+      <c r="AD48" s="88"/>
       <c r="AE48" s="88"/>
       <c r="AF48" s="88"/>
       <c r="AG48" s="88"/>
       <c r="AH48" s="88"/>
       <c r="AI48" s="88"/>
-      <c r="AJ48" s="88"/>
+      <c r="AJ48" s="108"/>
       <c r="AK48" s="88"/>
       <c r="AL48" s="88"/>
       <c r="AM48" s="109"/>
       <c r="AN48" s="88"/>
       <c r="AO48" s="88"/>
-      <c r="AP48" s="110"/>
-      <c r="AQ48" s="88"/>
-      <c r="AR48" s="88"/>
-      <c r="AS48" s="88"/>
-      <c r="AT48" s="85"/>
-      <c r="AU48" s="85"/>
+      <c r="AP48" s="88"/>
+      <c r="AQ48" s="85"/>
+      <c r="AR48" s="85"/>
+      <c r="AS48" s="85"/>
+      <c r="AT48" s="88"/>
+      <c r="AU48" s="88"/>
       <c r="AV48" s="88"/>
       <c r="AW48" s="88"/>
       <c r="AX48" s="88"/>
@@ -12331,17 +12697,17 @@
       <c r="BG48" s="88"/>
       <c r="BH48" s="88"/>
       <c r="BI48" s="88"/>
-      <c r="BJ48" s="88"/>
+      <c r="BJ48" s="85"/>
       <c r="BK48" s="88"/>
-      <c r="BL48" s="85"/>
-      <c r="BM48" s="88"/>
-      <c r="BN48" s="83"/>
-      <c r="BO48" s="85"/>
+      <c r="BL48" s="83"/>
+      <c r="BM48" s="85"/>
+      <c r="BN48" s="88"/>
+      <c r="BO48" s="88"/>
       <c r="BP48" s="88"/>
       <c r="BQ48" s="88"/>
       <c r="BR48" s="88"/>
-      <c r="BS48" s="88"/>
-      <c r="BT48" s="90"/>
+      <c r="BS48" s="90"/>
+      <c r="BT48" s="89"/>
       <c r="BU48" s="89"/>
       <c r="BV48" s="89"/>
       <c r="BW48" s="89"/>
@@ -12364,9 +12730,8 @@
       <c r="CN48" s="89"/>
       <c r="CO48" s="89"/>
       <c r="CP48" s="89"/>
-      <c r="CQ48" s="89"/>
-    </row>
-    <row r="49" spans="1:95" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A49" s="88"/>
       <c r="B49" s="85"/>
       <c r="C49" s="88"/>
@@ -12386,59 +12751,59 @@
       <c r="Q49" s="88"/>
       <c r="R49" s="88"/>
       <c r="S49" s="88"/>
-      <c r="T49" s="91"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="91"/>
       <c r="W49" s="85"/>
       <c r="X49" s="85"/>
-      <c r="Y49" s="88"/>
+      <c r="Y49" s="85"/>
       <c r="Z49" s="85"/>
-      <c r="AA49" s="88"/>
+      <c r="AA49" s="85"/>
       <c r="AB49" s="85"/>
-      <c r="AC49" s="85"/>
+      <c r="AC49" s="88"/>
       <c r="AD49" s="85"/>
-      <c r="AE49" s="85"/>
-      <c r="AF49" s="85"/>
-      <c r="AG49" s="85"/>
+      <c r="AE49" s="88"/>
+      <c r="AF49" s="88"/>
+      <c r="AG49" s="88"/>
       <c r="AH49" s="88"/>
       <c r="AI49" s="88"/>
-      <c r="AJ49" s="88"/>
+      <c r="AJ49" s="108"/>
       <c r="AK49" s="88"/>
       <c r="AL49" s="88"/>
       <c r="AM49" s="109"/>
       <c r="AN49" s="88"/>
       <c r="AO49" s="88"/>
-      <c r="AP49" s="110"/>
-      <c r="AQ49" s="88"/>
-      <c r="AR49" s="88"/>
-      <c r="AS49" s="88"/>
-      <c r="AT49" s="85"/>
-      <c r="AU49" s="85"/>
-      <c r="AV49" s="88"/>
+      <c r="AP49" s="88"/>
+      <c r="AQ49" s="85"/>
+      <c r="AR49" s="85"/>
+      <c r="AS49" s="85"/>
+      <c r="AT49" s="88"/>
+      <c r="AU49" s="88"/>
+      <c r="AV49" s="85"/>
       <c r="AW49" s="88"/>
-      <c r="AX49" s="85"/>
+      <c r="AX49" s="88"/>
       <c r="AY49" s="88"/>
       <c r="AZ49" s="88"/>
-      <c r="BA49" s="88"/>
+      <c r="BA49" s="85"/>
       <c r="BB49" s="88"/>
-      <c r="BC49" s="85"/>
+      <c r="BC49" s="88"/>
       <c r="BD49" s="88"/>
       <c r="BE49" s="88"/>
-      <c r="BF49" s="88"/>
-      <c r="BG49" s="88"/>
+      <c r="BF49" s="85"/>
+      <c r="BG49" s="85"/>
       <c r="BH49" s="85"/>
       <c r="BI49" s="85"/>
       <c r="BJ49" s="85"/>
-      <c r="BK49" s="85"/>
-      <c r="BL49" s="85"/>
-      <c r="BM49" s="88"/>
-      <c r="BN49" s="83"/>
-      <c r="BO49" s="85"/>
-      <c r="BP49" s="85"/>
-      <c r="BQ49" s="88"/>
+      <c r="BK49" s="88"/>
+      <c r="BL49" s="83"/>
+      <c r="BM49" s="85"/>
+      <c r="BN49" s="85"/>
+      <c r="BO49" s="88"/>
+      <c r="BP49" s="88"/>
+      <c r="BQ49" s="85"/>
       <c r="BR49" s="85"/>
-      <c r="BS49" s="85"/>
-      <c r="BT49" s="90"/>
+      <c r="BS49" s="90"/>
+      <c r="BT49" s="89"/>
       <c r="BU49" s="89"/>
       <c r="BV49" s="89"/>
       <c r="BW49" s="89"/>
@@ -12461,275 +12826,274 @@
       <c r="CN49" s="89"/>
       <c r="CO49" s="89"/>
       <c r="CP49" s="89"/>
-      <c r="CQ49" s="89"/>
-    </row>
-    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM50" s="109"/>
-      <c r="AP50" s="94"/>
-    </row>
-    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM51" s="109"/>
-    </row>
-    <row r="52" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM52" s="109"/>
-    </row>
-    <row r="53" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM53" s="109"/>
-    </row>
-    <row r="54" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM54" s="109"/>
-    </row>
-    <row r="55" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM55" s="109"/>
-    </row>
-    <row r="56" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM56" s="109"/>
-    </row>
-    <row r="57" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM57" s="109"/>
-    </row>
-    <row r="58" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM58" s="109"/>
-    </row>
-    <row r="59" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM59" s="109"/>
-    </row>
-    <row r="60" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM60" s="109"/>
-    </row>
-    <row r="61" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM61" s="109"/>
-    </row>
-    <row r="62" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM62" s="109"/>
-    </row>
-    <row r="63" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM63" s="109"/>
-    </row>
-    <row r="64" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="AM64" s="109"/>
-    </row>
-    <row r="65" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM65" s="109"/>
-    </row>
-    <row r="66" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM66" s="109"/>
-    </row>
-    <row r="67" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM67" s="109"/>
-    </row>
-    <row r="68" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM68" s="109"/>
-    </row>
-    <row r="69" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM69" s="109"/>
-    </row>
-    <row r="70" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM70" s="109"/>
-    </row>
-    <row r="71" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM71" s="109"/>
-    </row>
-    <row r="72" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM72" s="109"/>
-    </row>
-    <row r="73" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM73" s="109"/>
-    </row>
-    <row r="74" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM74" s="109"/>
-    </row>
-    <row r="75" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM75" s="109"/>
-    </row>
-    <row r="76" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM76" s="109"/>
-    </row>
-    <row r="77" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM77" s="109"/>
-    </row>
-    <row r="78" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM78" s="109"/>
-    </row>
-    <row r="79" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM79" s="109"/>
-    </row>
-    <row r="80" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM80" s="109"/>
-    </row>
-    <row r="81" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM81" s="109"/>
-    </row>
-    <row r="82" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM82" s="109"/>
-    </row>
-    <row r="83" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM83" s="109"/>
-    </row>
-    <row r="84" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM84" s="109"/>
-    </row>
-    <row r="85" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM85" s="109"/>
-    </row>
-    <row r="86" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM86" s="109"/>
-    </row>
-    <row r="87" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM87" s="109"/>
-    </row>
-    <row r="88" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM88" s="109"/>
-    </row>
-    <row r="89" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM89" s="109"/>
-    </row>
-    <row r="90" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM90" s="109"/>
-    </row>
-    <row r="91" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM91" s="109"/>
-    </row>
-    <row r="92" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM92" s="109"/>
-    </row>
-    <row r="93" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM93" s="109"/>
-    </row>
-    <row r="94" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM94" s="109"/>
-    </row>
-    <row r="95" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM95" s="109"/>
-    </row>
-    <row r="96" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM96" s="109"/>
-    </row>
-    <row r="97" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM97" s="109"/>
-    </row>
-    <row r="98" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM98" s="109"/>
-    </row>
-    <row r="99" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM99" s="109"/>
-    </row>
-    <row r="100" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM100" s="109"/>
-    </row>
-    <row r="101" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM101" s="109"/>
-    </row>
-    <row r="102" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM102" s="109"/>
-    </row>
-    <row r="103" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM103" s="109"/>
-    </row>
-    <row r="104" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM104" s="109"/>
-    </row>
-    <row r="105" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM105" s="109"/>
-    </row>
-    <row r="106" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM106" s="109"/>
-    </row>
-    <row r="107" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM107" s="109"/>
-    </row>
-    <row r="108" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM108" s="109"/>
-    </row>
-    <row r="109" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM109" s="109"/>
-    </row>
-    <row r="110" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM110" s="109"/>
-    </row>
-    <row r="111" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM111" s="109"/>
-    </row>
-    <row r="112" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM112" s="109"/>
-    </row>
-    <row r="113" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM113" s="109"/>
-    </row>
-    <row r="114" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM114" s="109"/>
-    </row>
-    <row r="115" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM115" s="109"/>
-    </row>
-    <row r="116" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM116" s="109"/>
-    </row>
-    <row r="117" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM117" s="109"/>
-    </row>
-    <row r="118" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM118" s="109"/>
-    </row>
-    <row r="119" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM119" s="65"/>
-    </row>
-    <row r="120" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM120" s="65"/>
-    </row>
-    <row r="121" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM121" s="65"/>
-    </row>
-    <row r="122" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM122" s="65"/>
-    </row>
-    <row r="123" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM123" s="65"/>
-    </row>
-    <row r="124" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM124" s="65"/>
-    </row>
-    <row r="125" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM125" s="65"/>
-    </row>
-    <row r="126" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM126" s="65"/>
-    </row>
-    <row r="127" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM127" s="65"/>
-    </row>
-    <row r="128" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM128" s="65"/>
-    </row>
-    <row r="129" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM129" s="65"/>
-    </row>
-    <row r="130" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM130" s="65"/>
-    </row>
-    <row r="131" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM131" s="65"/>
-    </row>
-    <row r="132" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM132" s="65"/>
-    </row>
-    <row r="133" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM133" s="65"/>
-    </row>
-    <row r="134" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM134" s="65"/>
-    </row>
-    <row r="135" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM135" s="65"/>
-    </row>
-    <row r="136" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM136" s="65"/>
-    </row>
-    <row r="137" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM137" s="65"/>
-    </row>
-    <row r="138" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM138" s="65"/>
+    </row>
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="108"/>
+      <c r="AM50" s="94"/>
+    </row>
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ51" s="108"/>
+    </row>
+    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ52" s="108"/>
+    </row>
+    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ53" s="108"/>
+    </row>
+    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ54" s="108"/>
+    </row>
+    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ55" s="108"/>
+    </row>
+    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ56" s="108"/>
+    </row>
+    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="108"/>
+    </row>
+    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ58" s="108"/>
+    </row>
+    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ59" s="108"/>
+    </row>
+    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ60" s="108"/>
+    </row>
+    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ61" s="108"/>
+    </row>
+    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ62" s="108"/>
+    </row>
+    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ63" s="108"/>
+    </row>
+    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AJ64" s="108"/>
+    </row>
+    <row r="65" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ65" s="108"/>
+    </row>
+    <row r="66" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ66" s="108"/>
+    </row>
+    <row r="67" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ67" s="108"/>
+    </row>
+    <row r="68" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ68" s="108"/>
+    </row>
+    <row r="69" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="108"/>
+    </row>
+    <row r="70" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="108"/>
+    </row>
+    <row r="71" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="108"/>
+    </row>
+    <row r="72" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="108"/>
+    </row>
+    <row r="73" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="108"/>
+    </row>
+    <row r="74" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="108"/>
+    </row>
+    <row r="75" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="108"/>
+    </row>
+    <row r="76" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="108"/>
+    </row>
+    <row r="77" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="108"/>
+    </row>
+    <row r="78" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="108"/>
+    </row>
+    <row r="79" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="108"/>
+    </row>
+    <row r="80" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="108"/>
+    </row>
+    <row r="81" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="108"/>
+    </row>
+    <row r="82" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="108"/>
+    </row>
+    <row r="83" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="108"/>
+    </row>
+    <row r="84" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="108"/>
+    </row>
+    <row r="85" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="108"/>
+    </row>
+    <row r="86" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="108"/>
+    </row>
+    <row r="87" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="108"/>
+    </row>
+    <row r="88" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="108"/>
+    </row>
+    <row r="89" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="108"/>
+    </row>
+    <row r="90" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="108"/>
+    </row>
+    <row r="91" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="108"/>
+    </row>
+    <row r="92" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="108"/>
+    </row>
+    <row r="93" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="108"/>
+    </row>
+    <row r="94" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="108"/>
+    </row>
+    <row r="95" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="108"/>
+    </row>
+    <row r="96" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="108"/>
+    </row>
+    <row r="97" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="108"/>
+    </row>
+    <row r="98" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="108"/>
+    </row>
+    <row r="99" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="108"/>
+    </row>
+    <row r="100" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="108"/>
+    </row>
+    <row r="101" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ101" s="108"/>
+    </row>
+    <row r="102" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ102" s="108"/>
+    </row>
+    <row r="103" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ103" s="108"/>
+    </row>
+    <row r="104" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ104" s="108"/>
+    </row>
+    <row r="105" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ105" s="108"/>
+    </row>
+    <row r="106" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ106" s="108"/>
+    </row>
+    <row r="107" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ107" s="108"/>
+    </row>
+    <row r="108" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ108" s="108"/>
+    </row>
+    <row r="109" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ109" s="108"/>
+    </row>
+    <row r="110" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ110" s="108"/>
+    </row>
+    <row r="111" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ111" s="108"/>
+    </row>
+    <row r="112" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ112" s="108"/>
+    </row>
+    <row r="113" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ113" s="108"/>
+    </row>
+    <row r="114" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ114" s="108"/>
+    </row>
+    <row r="115" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ115" s="108"/>
+    </row>
+    <row r="116" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ116" s="108"/>
+    </row>
+    <row r="117" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ117" s="108"/>
+    </row>
+    <row r="118" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ118" s="108"/>
+    </row>
+    <row r="119" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ119" s="65"/>
+    </row>
+    <row r="120" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ120" s="65"/>
+    </row>
+    <row r="121" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ121" s="65"/>
+    </row>
+    <row r="122" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ122" s="65"/>
+    </row>
+    <row r="123" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ123" s="65"/>
+    </row>
+    <row r="124" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ124" s="65"/>
+    </row>
+    <row r="125" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ125" s="65"/>
+    </row>
+    <row r="126" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ126" s="65"/>
+    </row>
+    <row r="127" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ127" s="65"/>
+    </row>
+    <row r="128" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ128" s="65"/>
+    </row>
+    <row r="129" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ129" s="65"/>
+    </row>
+    <row r="130" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ130" s="65"/>
+    </row>
+    <row r="131" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ131" s="65"/>
+    </row>
+    <row r="132" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ132" s="65"/>
+    </row>
+    <row r="133" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ133" s="65"/>
+    </row>
+    <row r="134" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ134" s="65"/>
+    </row>
+    <row r="135" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ135" s="65"/>
+    </row>
+    <row r="136" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ136" s="65"/>
+    </row>
+    <row r="137" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ137" s="65"/>
+    </row>
+    <row r="138" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ138" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14040,15 +14404,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF9" activeCellId="19" sqref="AB6 AB7 AB8 AB9 AC9 AC8 AC7 AC6 AD6 AD7 AD9 AD8 AE9 AE8 AE7 AE6 AF6 AF7 AF8 AF9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="94" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" style="94" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="94" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="94" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="94" bestFit="1" customWidth="1"/>
@@ -14060,7 +14424,7 @@
     <col min="10" max="10" width="26.28515625" style="94" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="94" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" style="94" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="94" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="94" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="94" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="94" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" style="94" bestFit="1" customWidth="1"/>
@@ -14074,8 +14438,8 @@
     <col min="24" max="24" width="16.85546875" style="94" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.140625" style="94" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.85546875" style="94" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="33" style="94" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.5703125" style="94" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.7109375" style="94" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.28515625" style="94" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.7109375" style="94" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.28515625" style="94" bestFit="1" customWidth="1"/>
@@ -14083,7 +14447,7 @@
     <col min="33" max="16384" width="9.140625" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="117" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="116" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>117</v>
       </c>
@@ -14181,7 +14545,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="117" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>89</v>
       </c>
@@ -14251,7 +14615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="117" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>90</v>
       </c>
@@ -14321,7 +14685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="117" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>91</v>
       </c>
@@ -14387,7 +14751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="118" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" s="117" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>92</v>
       </c>
@@ -14453,7 +14817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="118" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>93</v>
       </c>
@@ -14525,7 +14889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="118" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>94</v>
       </c>
@@ -14597,7 +14961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="118" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>95</v>
       </c>
@@ -14665,7 +15029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="118" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>96</v>
       </c>
@@ -14733,13 +15097,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="118" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="1">
+      <c r="D10" s="73">
         <v>42438</v>
       </c>
       <c r="E10" s="34"/>
@@ -14747,20 +15111,20 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="34" t="b">
+      <c r="J10" s="35" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="35" t="s">
         <v>162</v>
       </c>
       <c r="O10" s="34"/>
-      <c r="P10" s="34">
+      <c r="P10" s="35">
         <v>2000</v>
       </c>
-      <c r="Q10" s="34" t="b">
+      <c r="Q10" s="35" t="b">
         <v>1</v>
       </c>
       <c r="R10" s="34"/>
@@ -14769,33 +15133,29 @@
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
       <c r="W10" s="34"/>
-      <c r="X10" s="34" t="s">
-        <v>337</v>
-      </c>
+      <c r="X10" s="39"/>
       <c r="Y10" s="34"/>
-      <c r="Z10" s="34">
-        <v>5</v>
-      </c>
+      <c r="Z10" s="39"/>
       <c r="AA10" s="34"/>
       <c r="AB10" s="34"/>
-      <c r="AC10" s="34" t="s">
+      <c r="AC10" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD10" s="34" t="s">
+      <c r="AD10" s="35" t="s">
         <v>191</v>
       </c>
       <c r="AE10" s="34"/>
-      <c r="AF10" s="106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="AF10" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="1">
+      <c r="D11" s="73">
         <v>42439</v>
       </c>
       <c r="E11" s="34"/>
@@ -14803,20 +15163,20 @@
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="34" t="b">
+      <c r="J11" s="35" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="35" t="s">
         <v>162</v>
       </c>
       <c r="O11" s="34"/>
-      <c r="P11" s="34">
+      <c r="P11" s="35">
         <v>2000</v>
       </c>
-      <c r="Q11" s="34" t="b">
+      <c r="Q11" s="35" t="b">
         <v>1</v>
       </c>
       <c r="R11" s="34"/>
@@ -14825,35 +15185,31 @@
       <c r="U11" s="34"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
-      <c r="X11" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y11" s="34" t="s">
+      <c r="X11" s="39"/>
+      <c r="Y11" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="Z11" s="34">
-        <v>5</v>
-      </c>
+      <c r="Z11" s="39"/>
       <c r="AA11" s="34"/>
       <c r="AB11" s="34"/>
-      <c r="AC11" s="34" t="s">
+      <c r="AC11" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD11" s="34" t="s">
+      <c r="AD11" s="35" t="s">
         <v>191</v>
       </c>
       <c r="AE11" s="34"/>
-      <c r="AF11" s="106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="AF11" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
         <v>99</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
-      <c r="D12" s="1">
+      <c r="D12" s="73">
         <v>42440</v>
       </c>
       <c r="E12" s="34"/>
@@ -14861,20 +15217,20 @@
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="34" t="b">
+      <c r="J12" s="35" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="35" t="s">
         <v>162</v>
       </c>
       <c r="O12" s="34"/>
-      <c r="P12" s="34">
+      <c r="P12" s="35">
         <v>2000</v>
       </c>
-      <c r="Q12" s="34" t="b">
+      <c r="Q12" s="35" t="b">
         <v>1</v>
       </c>
       <c r="R12" s="34"/>
@@ -14883,33 +15239,29 @@
       <c r="U12" s="34"/>
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
-      <c r="X12" s="34" t="s">
-        <v>337</v>
-      </c>
+      <c r="X12" s="39"/>
       <c r="Y12" s="34"/>
-      <c r="Z12" s="34">
-        <v>5</v>
-      </c>
+      <c r="Z12" s="39"/>
       <c r="AA12" s="34"/>
       <c r="AB12" s="34"/>
-      <c r="AC12" s="34" t="s">
+      <c r="AC12" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD12" s="34" t="s">
+      <c r="AD12" s="35" t="s">
         <v>191</v>
       </c>
       <c r="AE12" s="34"/>
-      <c r="AF12" s="106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="AF12" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
-      <c r="D13" s="1">
+      <c r="D13" s="73">
         <v>42441</v>
       </c>
       <c r="E13" s="34"/>
@@ -14917,20 +15269,20 @@
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="34" t="b">
+      <c r="J13" s="35" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="35" t="s">
         <v>162</v>
       </c>
       <c r="O13" s="34"/>
-      <c r="P13" s="34">
+      <c r="P13" s="35">
         <v>2000</v>
       </c>
-      <c r="Q13" s="34" t="b">
+      <c r="Q13" s="35" t="b">
         <v>1</v>
       </c>
       <c r="R13" s="34"/>
@@ -14939,33 +15291,29 @@
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
       <c r="W13" s="34"/>
-      <c r="X13" s="34" t="s">
-        <v>337</v>
-      </c>
+      <c r="X13" s="39"/>
       <c r="Y13" s="34"/>
-      <c r="Z13" s="34">
-        <v>5</v>
-      </c>
+      <c r="Z13" s="39"/>
       <c r="AA13" s="34"/>
       <c r="AB13" s="34"/>
-      <c r="AC13" s="34" t="s">
+      <c r="AC13" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD13" s="34" t="s">
+      <c r="AD13" s="35" t="s">
         <v>191</v>
       </c>
       <c r="AE13" s="34"/>
-      <c r="AF13" s="106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="AF13" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
-      <c r="D14" s="1">
+      <c r="D14" s="73">
         <v>42442</v>
       </c>
       <c r="E14" s="34"/>
@@ -14973,20 +15321,20 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="34" t="b">
+      <c r="J14" s="35" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="35" t="s">
         <v>162</v>
       </c>
       <c r="O14" s="34"/>
-      <c r="P14" s="34">
+      <c r="P14" s="35">
         <v>2000</v>
       </c>
-      <c r="Q14" s="34" t="b">
+      <c r="Q14" s="35" t="b">
         <v>1</v>
       </c>
       <c r="R14" s="34"/>
@@ -14995,35 +15343,31 @@
       <c r="U14" s="34"/>
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
-      <c r="X14" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y14" s="34" t="s">
+      <c r="X14" s="39"/>
+      <c r="Y14" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="Z14" s="34">
-        <v>5</v>
-      </c>
+      <c r="Z14" s="39"/>
       <c r="AA14" s="34"/>
       <c r="AB14" s="34"/>
-      <c r="AC14" s="34" t="s">
+      <c r="AC14" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD14" s="34" t="s">
+      <c r="AD14" s="35" t="s">
         <v>191</v>
       </c>
       <c r="AE14" s="34"/>
-      <c r="AF14" s="106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="AF14" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="1">
+      <c r="D15" s="73">
         <v>42443</v>
       </c>
       <c r="E15" s="34"/>
@@ -15031,20 +15375,20 @@
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="34" t="b">
+      <c r="J15" s="35" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
-      <c r="N15" s="34" t="s">
+      <c r="N15" s="35" t="s">
         <v>162</v>
       </c>
       <c r="O15" s="34"/>
-      <c r="P15" s="34">
+      <c r="P15" s="35">
         <v>2000</v>
       </c>
-      <c r="Q15" s="34" t="b">
+      <c r="Q15" s="35" t="b">
         <v>1</v>
       </c>
       <c r="R15" s="34"/>
@@ -15053,35 +15397,31 @@
       <c r="U15" s="34"/>
       <c r="V15" s="34"/>
       <c r="W15" s="34"/>
-      <c r="X15" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y15" s="34" t="s">
+      <c r="X15" s="39"/>
+      <c r="Y15" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="Z15" s="34">
-        <v>5</v>
-      </c>
+      <c r="Z15" s="39"/>
       <c r="AA15" s="34"/>
       <c r="AB15" s="34"/>
-      <c r="AC15" s="34" t="s">
+      <c r="AC15" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD15" s="34" t="s">
+      <c r="AD15" s="35" t="s">
         <v>191</v>
       </c>
       <c r="AE15" s="34"/>
-      <c r="AF15" s="106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="AF15" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
         <v>103</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
-      <c r="D16" s="1">
+      <c r="D16" s="73">
         <v>42444</v>
       </c>
       <c r="E16" s="34"/>
@@ -15089,20 +15429,20 @@
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="34" t="b">
+      <c r="J16" s="35" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="35" t="s">
         <v>162</v>
       </c>
       <c r="O16" s="34"/>
-      <c r="P16" s="34">
+      <c r="P16" s="35">
         <v>2000</v>
       </c>
-      <c r="Q16" s="34" t="b">
+      <c r="Q16" s="35" t="b">
         <v>1</v>
       </c>
       <c r="R16" s="34"/>
@@ -15111,35 +15451,31 @@
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
-      <c r="X16" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y16" s="34" t="s">
+      <c r="X16" s="39"/>
+      <c r="Y16" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="Z16" s="34">
-        <v>5</v>
-      </c>
+      <c r="Z16" s="39"/>
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
-      <c r="AC16" s="34" t="s">
+      <c r="AC16" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD16" s="34" t="s">
+      <c r="AD16" s="35" t="s">
         <v>191</v>
       </c>
       <c r="AE16" s="34"/>
-      <c r="AF16" s="106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="AF16" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
-      <c r="D17" s="1">
+      <c r="D17" s="73">
         <v>42445</v>
       </c>
       <c r="E17" s="34"/>
@@ -15147,20 +15483,20 @@
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="34" t="b">
+      <c r="J17" s="35" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="35" t="s">
         <v>162</v>
       </c>
       <c r="O17" s="34"/>
-      <c r="P17" s="34">
+      <c r="P17" s="35">
         <v>2000</v>
       </c>
-      <c r="Q17" s="34" t="b">
+      <c r="Q17" s="35" t="b">
         <v>1</v>
       </c>
       <c r="R17" s="34"/>
@@ -15169,28 +15505,25 @@
       <c r="U17" s="34"/>
       <c r="V17" s="34"/>
       <c r="W17" s="34"/>
-      <c r="X17" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y17" s="34" t="s">
+      <c r="X17" s="39"/>
+      <c r="Y17" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="Z17" s="34">
-        <v>5</v>
-      </c>
+      <c r="Z17" s="39"/>
       <c r="AA17" s="34"/>
       <c r="AB17" s="34"/>
-      <c r="AC17" s="34" t="s">
+      <c r="AC17" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD17" s="34" t="s">
+      <c r="AD17" s="35" t="s">
         <v>191</v>
       </c>
       <c r="AE17" s="34"/>
-      <c r="AF17" s="106" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="AF17" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16438,7 +16771,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -16629,7 +16962,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -16820,7 +17153,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17011,7 +17344,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17204,7 +17537,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>265</v>
@@ -17421,7 +17754,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -17624,7 +17957,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -17829,7 +18162,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18028,7 +18361,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18281,7 +18614,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18536,7 +18869,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -18791,7 +19124,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19026,7 +19359,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19265,7 +19598,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19500,7 +19833,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -19727,7 +20060,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -19954,7 +20287,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20148,7 +20481,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20339,7 +20672,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20530,7 +20863,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -20723,7 +21056,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -20914,7 +21247,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21143,7 +21476,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21358,7 +21691,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21573,7 +21906,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -21832,7 +22165,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22091,7 +22424,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22332,7 +22665,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22569,7 +22902,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -22810,7 +23143,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23049,7 +23382,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23260,7 +23593,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23469,7 +23802,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -23726,7 +24059,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -23993,7 +24326,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24260,7 +24593,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24561,7 +24894,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -24772,7 +25105,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25019,7 +25352,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25232,7 +25565,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25441,7 +25774,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -25664,7 +25997,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -25931,7 +26264,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26198,7 +26531,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26467,7 +26800,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -26682,7 +27015,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -26897,7 +27230,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27110,7 +27443,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27321,7 +27654,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27514,7 +27847,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -27713,7 +28046,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -27908,7 +28241,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28116,7 +28449,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28323,7 +28656,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28566,7 +28899,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -28773,7 +29106,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -28969,7 +29302,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29171,7 +29504,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29375,7 +29708,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29574,7 +29907,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -29809,7 +30142,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30044,7 +30377,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30283,7 +30616,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30518,7 +30851,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -30769,7 +31102,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31024,7 +31357,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31263,7 +31596,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31504,7 +31837,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -31745,7 +32078,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -31988,7 +32321,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32227,7 +32560,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32418,7 +32751,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32609,7 +32942,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -32800,7 +33133,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33051,7 +33384,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33304,7 +33637,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33557,7 +33890,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -33790,7 +34123,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34027,7 +34360,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34260,7 +34593,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34505,7 +34838,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -34728,7 +35061,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -34979,7 +35312,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35230,7 +35563,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35481,7 +35814,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -35732,7 +36065,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -35925,7 +36258,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36118,7 +36451,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36495,7 +36828,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -36872,7 +37205,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37091,7 +37424,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37310,7 +37643,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37527,7 +37860,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -37742,7 +38075,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -37944,7 +38277,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38146,7 +38479,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38350,7 +38683,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38554,7 +38887,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -38758,7 +39091,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -38962,7 +39295,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39165,7 +39498,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39384,7 +39717,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39603,7 +39936,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -39822,7 +40155,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40041,7 +40374,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40260,7 +40593,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40479,7 +40812,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40698,7 +41031,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -40917,7 +41250,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41136,7 +41469,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41355,7 +41688,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41546,7 +41879,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41737,7 +42070,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -41928,7 +42261,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42119,7 +42452,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="396">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -3037,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FR21"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2:BA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,9 +3383,7 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="36"/>
-      <c r="BA2" s="70" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA2" s="70"/>
       <c r="BB2" s="36"/>
       <c r="BC2" s="36"/>
       <c r="BD2" s="36"/>
@@ -3617,9 +3615,7 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="8"/>
-      <c r="BA3" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA3" s="10"/>
       <c r="BB3" s="8"/>
       <c r="BC3" s="8"/>
       <c r="BD3" s="8"/>
@@ -3851,9 +3847,7 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="8"/>
-      <c r="BA4" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA4" s="10"/>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
@@ -4083,9 +4077,7 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="8"/>
-      <c r="BA5" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA5" s="10"/>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
@@ -4317,9 +4309,7 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="8"/>
-      <c r="BA6" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA6" s="10"/>
       <c r="BB6" s="8"/>
       <c r="BC6" s="8"/>
       <c r="BD6" s="8"/>
@@ -4549,9 +4539,7 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="8"/>
-      <c r="BA7" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA7" s="10"/>
       <c r="BB7" s="8"/>
       <c r="BC7" s="8"/>
       <c r="BD7" s="8"/>
@@ -4797,9 +4785,7 @@
       <c r="AZ8" s="10">
         <v>100</v>
       </c>
-      <c r="BA8" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA8" s="10"/>
       <c r="BB8" s="10">
         <v>2</v>
       </c>
@@ -5051,9 +5037,7 @@
       <c r="AZ9" s="10">
         <v>100</v>
       </c>
-      <c r="BA9" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA9" s="10"/>
       <c r="BB9" s="10">
         <v>2</v>
       </c>
@@ -5301,9 +5285,7 @@
       <c r="AZ10" s="35">
         <v>100</v>
       </c>
-      <c r="BA10" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA10" s="35"/>
       <c r="BB10" s="35">
         <v>2</v>
       </c>
@@ -5424,9 +5406,7 @@
         <v>1</v>
       </c>
       <c r="AZ11" s="8"/>
-      <c r="BA11" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA11" s="10"/>
       <c r="BB11" s="8"/>
       <c r="BC11" s="8"/>
       <c r="BD11" s="8"/>
@@ -5660,9 +5640,7 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="8"/>
-      <c r="BA12" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA12" s="10"/>
       <c r="BB12" s="8"/>
       <c r="BC12" s="8"/>
       <c r="BD12" s="8"/>
@@ -5894,9 +5872,7 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="8"/>
-      <c r="BA13" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA13" s="10"/>
       <c r="BB13" s="8"/>
       <c r="BC13" s="8"/>
       <c r="BD13" s="8"/>
@@ -6126,9 +6102,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="8"/>
-      <c r="BA14" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA14" s="10"/>
       <c r="BB14" s="8"/>
       <c r="BC14" s="8"/>
       <c r="BD14" s="8"/>
@@ -6360,9 +6334,7 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="8"/>
-      <c r="BA15" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA15" s="10"/>
       <c r="BB15" s="8"/>
       <c r="BC15" s="8"/>
       <c r="BD15" s="8"/>
@@ -6594,9 +6566,7 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="8"/>
-      <c r="BA16" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA16" s="10"/>
       <c r="BB16" s="8"/>
       <c r="BC16" s="8"/>
       <c r="BD16" s="8"/>
@@ -6830,9 +6800,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="8"/>
-      <c r="BA17" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA17" s="10"/>
       <c r="BB17" s="8"/>
       <c r="BC17" s="8"/>
       <c r="BD17" s="8"/>
@@ -7064,9 +7032,7 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="8"/>
-      <c r="BA18" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA18" s="10"/>
       <c r="BB18" s="8"/>
       <c r="BC18" s="8"/>
       <c r="BD18" s="8"/>
@@ -7292,9 +7258,7 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="8"/>
-      <c r="BA19" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA19" s="10"/>
       <c r="BB19" s="8"/>
       <c r="BC19" s="8"/>
       <c r="BD19" s="8"/>
@@ -7522,9 +7486,7 @@
         <v>1</v>
       </c>
       <c r="AZ20" s="8"/>
-      <c r="BA20" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA20" s="10"/>
       <c r="BB20" s="8"/>
       <c r="BC20" s="8"/>
       <c r="BD20" s="8"/>
@@ -7750,9 +7712,7 @@
         <v>1</v>
       </c>
       <c r="AZ21" s="8"/>
-      <c r="BA21" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="BA21" s="10"/>
       <c r="BB21" s="8"/>
       <c r="BC21" s="8"/>
       <c r="BD21" s="8"/>
@@ -7887,8 +7847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="I4:K4"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2:BB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="54.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8209,9 +8169,7 @@
       <c r="AX2" s="15"/>
       <c r="AY2" s="12"/>
       <c r="AZ2" s="37"/>
-      <c r="BB2" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB2" s="35"/>
       <c r="BC2" s="35">
         <v>2</v>
       </c>
@@ -8274,9 +8232,7 @@
       <c r="BA3" s="35">
         <v>20</v>
       </c>
-      <c r="BB3" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB3" s="35"/>
       <c r="BD3" s="35" t="s">
         <v>186</v>
       </c>
@@ -8349,9 +8305,7 @@
       </c>
       <c r="AX4" s="36"/>
       <c r="AZ4" s="15"/>
-      <c r="BB4" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB4" s="35"/>
       <c r="BD4" s="35" t="s">
         <v>186</v>
       </c>
@@ -8384,9 +8338,7 @@
       <c r="AX5" s="15"/>
       <c r="AY5" s="12"/>
       <c r="AZ5" s="37"/>
-      <c r="BB5" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB5" s="35"/>
       <c r="BI5" s="105" t="b">
         <v>1</v>
       </c>
@@ -8440,9 +8392,7 @@
       <c r="BA6" s="35">
         <v>20</v>
       </c>
-      <c r="BB6" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB6" s="35"/>
       <c r="BD6" s="35" t="s">
         <v>186</v>
       </c>
@@ -8502,9 +8452,7 @@
       <c r="BA7" s="35">
         <v>20</v>
       </c>
-      <c r="BB7" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB7" s="35"/>
       <c r="BD7" s="35" t="s">
         <v>186</v>
       </c>
@@ -8552,9 +8500,7 @@
       <c r="AX8" s="22"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="37"/>
-      <c r="BB8" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB8" s="35"/>
       <c r="BD8" s="35" t="s">
         <v>186</v>
       </c>
@@ -8611,9 +8557,7 @@
       <c r="BA9" s="35">
         <v>20</v>
       </c>
-      <c r="BB9" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB9" s="35"/>
       <c r="BD9" s="35" t="s">
         <v>186</v>
       </c>
@@ -8667,9 +8611,7 @@
       <c r="AX10" s="80"/>
       <c r="AY10" s="26"/>
       <c r="AZ10" s="14"/>
-      <c r="BB10" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB10" s="35"/>
       <c r="BI10" s="105" t="b">
         <v>1</v>
       </c>
@@ -8762,9 +8704,7 @@
       <c r="AX11" s="12"/>
       <c r="AY11" s="26"/>
       <c r="AZ11" s="14"/>
-      <c r="BB11" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB11" s="35"/>
       <c r="BC11" s="35">
         <v>2</v>
       </c>
@@ -8856,9 +8796,7 @@
       <c r="AX12" s="12"/>
       <c r="AY12" s="37"/>
       <c r="AZ12" s="14"/>
-      <c r="BB12" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB12" s="35"/>
       <c r="BC12" s="35">
         <v>2</v>
       </c>
@@ -8907,9 +8845,7 @@
       <c r="AX13" s="12"/>
       <c r="AY13" s="71"/>
       <c r="AZ13" s="14"/>
-      <c r="BB13" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB13" s="35"/>
       <c r="BH13" s="32"/>
       <c r="BI13" s="105" t="b">
         <v>1</v>
@@ -8930,9 +8866,7 @@
         <v>180</v>
       </c>
       <c r="AY14" s="36"/>
-      <c r="BB14" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB14" s="35"/>
       <c r="BI14" s="105" t="b">
         <v>1</v>
       </c>
@@ -8950,9 +8884,7 @@
       <c r="AO15" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BB15" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB15" s="35"/>
       <c r="BI15" s="105" t="b">
         <v>1</v>
       </c>
@@ -8970,9 +8902,7 @@
       <c r="AO16" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="BB16" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB16" s="35"/>
       <c r="BI16" s="105" t="b">
         <v>1</v>
       </c>
@@ -8991,9 +8921,7 @@
         <v>180</v>
       </c>
       <c r="AX17" s="15"/>
-      <c r="BB17" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB17" s="35"/>
       <c r="BI17" s="105" t="b">
         <v>1</v>
       </c>
@@ -9047,9 +8975,7 @@
       <c r="BA18" s="35">
         <v>20</v>
       </c>
-      <c r="BB18" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB18" s="35"/>
       <c r="BD18" s="35" t="s">
         <v>186</v>
       </c>
@@ -9115,9 +9041,7 @@
       <c r="AX19" s="36"/>
       <c r="AY19" s="12"/>
       <c r="AZ19" s="37"/>
-      <c r="BB19" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB19" s="35"/>
       <c r="BC19" s="35">
         <v>2</v>
       </c>
@@ -9188,9 +9112,7 @@
       </c>
       <c r="AY20" s="12"/>
       <c r="AZ20" s="71"/>
-      <c r="BB20" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="BB20" s="35"/>
       <c r="BC20" s="35">
         <v>2</v>
       </c>
@@ -9217,8 +9139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BM2" sqref="BM2:BM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9640,9 +9562,7 @@
       </c>
       <c r="BK2" s="12"/>
       <c r="BL2" s="37"/>
-      <c r="BM2" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM2" s="24"/>
       <c r="BN2" s="35">
         <v>2</v>
       </c>
@@ -9787,9 +9707,7 @@
       </c>
       <c r="BK3" s="12"/>
       <c r="BL3" s="37"/>
-      <c r="BM3" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM3" s="24"/>
       <c r="BN3" s="35">
         <v>2</v>
       </c>
@@ -9934,9 +9852,7 @@
       </c>
       <c r="BK4" s="12"/>
       <c r="BL4" s="37"/>
-      <c r="BM4" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM4" s="24"/>
       <c r="BN4" s="35">
         <v>2</v>
       </c>
@@ -10003,9 +9919,7 @@
       </c>
       <c r="BK5" s="118"/>
       <c r="BL5" s="37"/>
-      <c r="BM5" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM5" s="24"/>
       <c r="BO5" s="35" t="s">
         <v>186</v>
       </c>
@@ -10063,9 +9977,7 @@
       </c>
       <c r="BK6" s="118"/>
       <c r="BL6" s="37"/>
-      <c r="BM6" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM6" s="24"/>
       <c r="BO6" s="35" t="s">
         <v>186</v>
       </c>
@@ -10184,9 +10096,7 @@
       </c>
       <c r="BK7" s="118"/>
       <c r="BL7" s="37"/>
-      <c r="BM7" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM7" s="24"/>
       <c r="BN7" s="35">
         <v>2</v>
       </c>
@@ -10253,9 +10163,7 @@
       </c>
       <c r="BK8" s="118"/>
       <c r="BL8" s="37"/>
-      <c r="BM8" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM8" s="24"/>
       <c r="BO8" s="35" t="s">
         <v>186</v>
       </c>
@@ -10313,9 +10221,7 @@
       </c>
       <c r="BK9" s="118"/>
       <c r="BL9" s="37"/>
-      <c r="BM9" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM9" s="24"/>
       <c r="BO9" s="35" t="s">
         <v>186</v>
       </c>
@@ -10446,9 +10352,7 @@
       </c>
       <c r="BK10" s="12"/>
       <c r="BL10" s="37"/>
-      <c r="BM10" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM10" s="24"/>
       <c r="BN10" s="35">
         <v>2</v>
       </c>
@@ -10595,9 +10499,7 @@
       </c>
       <c r="BK11" s="12"/>
       <c r="BL11" s="37"/>
-      <c r="BM11" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM11" s="24"/>
       <c r="BN11" s="35">
         <v>2</v>
       </c>
@@ -10742,9 +10644,7 @@
       </c>
       <c r="BK12" s="12"/>
       <c r="BL12" s="37"/>
-      <c r="BM12" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM12" s="24"/>
       <c r="BN12" s="35">
         <v>2</v>
       </c>
@@ -10913,9 +10813,7 @@
         <v>100</v>
       </c>
       <c r="BL13" s="37"/>
-      <c r="BM13" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM13" s="24"/>
       <c r="BN13" s="35">
         <v>2</v>
       </c>
@@ -11060,9 +10958,7 @@
       </c>
       <c r="BK14" s="12"/>
       <c r="BL14" s="37"/>
-      <c r="BM14" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM14" s="24"/>
       <c r="BN14" s="35">
         <v>2</v>
       </c>
@@ -11209,9 +11105,7 @@
       </c>
       <c r="BK15" s="12"/>
       <c r="BL15" s="37"/>
-      <c r="BM15" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM15" s="24"/>
       <c r="BN15" s="35">
         <v>2</v>
       </c>
@@ -11352,9 +11246,7 @@
       </c>
       <c r="BK16" s="12"/>
       <c r="BL16" s="37"/>
-      <c r="BM16" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM16" s="24"/>
       <c r="BN16" s="35">
         <v>2</v>
       </c>
@@ -11495,9 +11387,7 @@
       </c>
       <c r="BK17" s="12"/>
       <c r="BL17" s="37"/>
-      <c r="BM17" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM17" s="24"/>
       <c r="BN17" s="35">
         <v>2</v>
       </c>
@@ -11638,9 +11528,7 @@
       </c>
       <c r="BK18" s="12"/>
       <c r="BL18" s="37"/>
-      <c r="BM18" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM18" s="24"/>
       <c r="BN18" s="35">
         <v>2</v>
       </c>
@@ -11736,9 +11624,7 @@
       </c>
       <c r="BK19" s="118"/>
       <c r="BL19" s="37"/>
-      <c r="BM19" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM19" s="24"/>
       <c r="BN19" s="2"/>
       <c r="BO19" s="35" t="s">
         <v>186</v>
@@ -11855,9 +11741,7 @@
       </c>
       <c r="BK20" s="118"/>
       <c r="BL20" s="37"/>
-      <c r="BM20" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM20" s="24"/>
       <c r="BN20" s="35">
         <v>2</v>
       </c>
@@ -11972,9 +11856,7 @@
       </c>
       <c r="BK21" s="118"/>
       <c r="BL21" s="37"/>
-      <c r="BM21" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM21" s="24"/>
       <c r="BN21" s="35">
         <v>2</v>
       </c>
@@ -12097,9 +11979,7 @@
       </c>
       <c r="BK22" s="118"/>
       <c r="BL22" s="37"/>
-      <c r="BM22" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM22" s="24"/>
       <c r="BN22" s="35">
         <v>2</v>
       </c>
@@ -12222,9 +12102,7 @@
       </c>
       <c r="BK23" s="118"/>
       <c r="BL23" s="37"/>
-      <c r="BM23" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM23" s="24"/>
       <c r="BN23" s="35">
         <v>2</v>
       </c>
@@ -12347,9 +12225,7 @@
       </c>
       <c r="BK24" s="118"/>
       <c r="BL24" s="37"/>
-      <c r="BM24" s="24" t="s">
-        <v>191</v>
-      </c>
+      <c r="BM24" s="24"/>
       <c r="BN24" s="35">
         <v>2</v>
       </c>
@@ -13105,8 +12981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2:AY22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13344,9 +13220,7 @@
       <c r="AF2" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY2" s="34" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY2" s="35"/>
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -13372,9 +13246,7 @@
       <c r="AF3" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY3" s="34" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY3" s="35"/>
     </row>
     <row r="4" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -13430,9 +13302,7 @@
       <c r="AX4" s="35">
         <v>4</v>
       </c>
-      <c r="AY4" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY4" s="35"/>
       <c r="BA4" s="35" t="s">
         <v>186</v>
       </c>
@@ -13494,9 +13364,7 @@
       <c r="AX5" s="35">
         <v>4</v>
       </c>
-      <c r="AY5" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY5" s="35"/>
       <c r="BA5" s="35" t="s">
         <v>186</v>
       </c>
@@ -13539,9 +13407,7 @@
         <v>180</v>
       </c>
       <c r="AH6" s="2"/>
-      <c r="AY6" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY6" s="35"/>
       <c r="BA6" s="35" t="s">
         <v>186</v>
       </c>
@@ -13600,9 +13466,7 @@
       <c r="AX7" s="35">
         <v>4</v>
       </c>
-      <c r="AY7" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY7" s="35"/>
       <c r="BA7" s="35" t="s">
         <v>186</v>
       </c>
@@ -13632,9 +13496,7 @@
       <c r="AF8" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY8" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY8" s="35"/>
     </row>
     <row r="9" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
@@ -13658,9 +13520,7 @@
       <c r="AF9" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY9" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY9" s="35"/>
     </row>
     <row r="10" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
@@ -13684,9 +13544,7 @@
       <c r="AF10" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY10" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY10" s="35"/>
     </row>
     <row r="11" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
@@ -13708,9 +13566,7 @@
       <c r="AF11" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY11" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY11" s="35"/>
     </row>
     <row r="12" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
@@ -13727,6 +13583,7 @@
       <c r="AF12" s="35" t="s">
         <v>180</v>
       </c>
+      <c r="AY12" s="35"/>
     </row>
     <row r="13" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -13743,6 +13600,7 @@
       <c r="AF13" s="35" t="s">
         <v>180</v>
       </c>
+      <c r="AY13" s="35"/>
     </row>
     <row r="14" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
@@ -13764,9 +13622,7 @@
       <c r="AF14" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY14" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY14" s="35"/>
     </row>
     <row r="15" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
@@ -13788,9 +13644,7 @@
       <c r="AF15" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY15" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY15" s="35"/>
     </row>
     <row r="16" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
@@ -13812,9 +13666,7 @@
       <c r="AF16" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY16" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY16" s="35"/>
     </row>
     <row r="17" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
@@ -13889,9 +13741,7 @@
       <c r="AW17" s="35">
         <v>23789</v>
       </c>
-      <c r="AY17" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY17" s="35"/>
       <c r="BA17" s="35" t="s">
         <v>186</v>
       </c>
@@ -13921,9 +13771,7 @@
       <c r="AF18" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY18" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY18" s="35"/>
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
@@ -13979,9 +13827,7 @@
       <c r="AX19" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="AY19" s="34" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY19" s="35"/>
       <c r="BA19" s="34" t="s">
         <v>186</v>
       </c>
@@ -14008,9 +13854,7 @@
       <c r="AF20" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY20" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY20" s="35"/>
     </row>
     <row r="21" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
@@ -14052,9 +13896,7 @@
       <c r="AF21" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AY21" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY21" s="35"/>
     </row>
     <row r="22" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
@@ -14081,9 +13923,7 @@
       <c r="AV22" s="35">
         <v>100</v>
       </c>
-      <c r="AY22" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AY22" s="35"/>
       <c r="BA22" s="35" t="s">
         <v>186</v>
       </c>
@@ -14406,8 +14246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14605,9 +14445,7 @@
       <c r="AC2" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD2" s="35"/>
       <c r="AE2" s="35" t="s">
         <v>192</v>
       </c>
@@ -14675,9 +14513,7 @@
       <c r="AC3" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD3" s="35"/>
       <c r="AE3" s="35" t="s">
         <v>192</v>
       </c>
@@ -14741,9 +14577,7 @@
       <c r="AC4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD4" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD4" s="35"/>
       <c r="AE4" s="35" t="s">
         <v>192</v>
       </c>
@@ -14807,9 +14641,7 @@
       <c r="AC5" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD5" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD5" s="35"/>
       <c r="AE5" s="35" t="s">
         <v>192</v>
       </c>
@@ -14879,9 +14711,7 @@
       <c r="AC6" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD6" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD6" s="35"/>
       <c r="AE6" s="35" t="s">
         <v>192</v>
       </c>
@@ -14951,9 +14781,7 @@
       <c r="AC7" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD7" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD7" s="35"/>
       <c r="AE7" s="35" t="s">
         <v>192</v>
       </c>
@@ -15019,9 +14847,7 @@
       <c r="AC8" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD8" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD8" s="35"/>
       <c r="AE8" s="35" t="s">
         <v>192</v>
       </c>
@@ -15087,9 +14913,7 @@
       <c r="AC9" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD9" s="35"/>
       <c r="AE9" s="35" t="s">
         <v>192</v>
       </c>
@@ -15141,9 +14965,7 @@
       <c r="AC10" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD10" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD10" s="35"/>
       <c r="AE10" s="34"/>
       <c r="AF10" s="105" t="b">
         <v>1</v>
@@ -15195,9 +15017,7 @@
       <c r="AC11" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD11" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD11" s="35"/>
       <c r="AE11" s="34"/>
       <c r="AF11" s="105" t="b">
         <v>1</v>
@@ -15247,9 +15067,7 @@
       <c r="AC12" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD12" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD12" s="35"/>
       <c r="AE12" s="34"/>
       <c r="AF12" s="105" t="b">
         <v>1</v>
@@ -15299,9 +15117,7 @@
       <c r="AC13" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD13" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD13" s="35"/>
       <c r="AE13" s="34"/>
       <c r="AF13" s="105" t="b">
         <v>1</v>
@@ -15353,9 +15169,7 @@
       <c r="AC14" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD14" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD14" s="35"/>
       <c r="AE14" s="34"/>
       <c r="AF14" s="105" t="b">
         <v>1</v>
@@ -15407,9 +15221,7 @@
       <c r="AC15" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD15" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD15" s="35"/>
       <c r="AE15" s="34"/>
       <c r="AF15" s="105" t="b">
         <v>1</v>
@@ -15461,9 +15273,7 @@
       <c r="AC16" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD16" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD16" s="35"/>
       <c r="AE16" s="34"/>
       <c r="AF16" s="105" t="b">
         <v>1</v>
@@ -15515,9 +15325,7 @@
       <c r="AC17" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AD17" s="35" t="s">
-        <v>191</v>
-      </c>
+      <c r="AD17" s="35"/>
       <c r="AE17" s="34"/>
       <c r="AF17" s="105" t="b">
         <v>1</v>
@@ -15534,7 +15342,7 @@
   <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL13"/>
+      <selection activeCell="AH2" sqref="AH2:AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15705,9 +15513,6 @@
       <c r="V2" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="AH2" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AL2" s="106" t="b">
         <v>1</v>
       </c>
@@ -15725,9 +15530,6 @@
       <c r="V3" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="AH3" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AL3" s="106" t="b">
         <v>1</v>
       </c>
@@ -15760,9 +15562,6 @@
       <c r="AF4" s="34">
         <v>50</v>
       </c>
-      <c r="AH4" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AK4" s="34" t="s">
         <v>192</v>
       </c>
@@ -15807,9 +15606,6 @@
       <c r="V5" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="AH5" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AK5" s="34" t="s">
         <v>192</v>
       </c>
@@ -15842,9 +15638,6 @@
       <c r="AF6" s="34">
         <v>50</v>
       </c>
-      <c r="AH6" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AL6" s="106" t="b">
         <v>1</v>
       </c>
@@ -15883,9 +15676,6 @@
       <c r="AE7" s="34">
         <v>100</v>
       </c>
-      <c r="AH7" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AL7" s="106" t="b">
         <v>1</v>
       </c>
@@ -15903,9 +15693,6 @@
       <c r="V8" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="AH8" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AL8" s="106" t="b">
         <v>1</v>
       </c>
@@ -15923,9 +15710,6 @@
       <c r="V9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="AH9" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AL9" s="106" t="b">
         <v>1</v>
       </c>
@@ -15943,9 +15727,6 @@
       <c r="V10" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="AH10" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AL10" s="106" t="b">
         <v>1</v>
       </c>
@@ -15963,9 +15744,6 @@
       <c r="V11" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="AH11" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AL11" s="106" t="b">
         <v>1</v>
       </c>
@@ -15983,9 +15761,6 @@
       <c r="V12" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="AH12" s="34" t="s">
-        <v>191</v>
-      </c>
       <c r="AL12" s="106" t="b">
         <v>1</v>
       </c>
@@ -16038,9 +15813,6 @@
       </c>
       <c r="AG13" s="34" t="s">
         <v>197</v>
-      </c>
-      <c r="AH13" s="34" t="s">
-        <v>191</v>
       </c>
       <c r="AI13" s="34" t="s">
         <v>186</v>
@@ -16062,8 +15834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FY124"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AQ11" sqref="AQ11"/>
+    <sheetView tabSelected="1" topLeftCell="FA1" workbookViewId="0">
+      <selection activeCell="FF2" sqref="FF2:FF118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -16771,7 +16543,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -16930,9 +16702,7 @@
       <c r="FC2" s="51"/>
       <c r="FD2" s="51"/>
       <c r="FE2" s="51"/>
-      <c r="FF2" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF2" s="51"/>
       <c r="FG2" s="51"/>
       <c r="FH2" s="51"/>
       <c r="FI2" s="53"/>
@@ -16962,7 +16732,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17121,9 +16891,7 @@
       <c r="FC3" s="51"/>
       <c r="FD3" s="51"/>
       <c r="FE3" s="51"/>
-      <c r="FF3" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF3" s="51"/>
       <c r="FG3" s="51"/>
       <c r="FH3" s="51"/>
       <c r="FI3" s="53"/>
@@ -17153,7 +16921,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17312,9 +17080,7 @@
       <c r="FC4" s="51"/>
       <c r="FD4" s="51"/>
       <c r="FE4" s="51"/>
-      <c r="FF4" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF4" s="51"/>
       <c r="FG4" s="51"/>
       <c r="FH4" s="51"/>
       <c r="FI4" s="53"/>
@@ -17344,7 +17110,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17503,9 +17269,7 @@
       <c r="FC5" s="51"/>
       <c r="FD5" s="51"/>
       <c r="FE5" s="51"/>
-      <c r="FF5" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF5" s="51"/>
       <c r="FG5" s="51"/>
       <c r="FH5" s="51"/>
       <c r="FI5" s="53"/>
@@ -17537,7 +17301,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>265</v>
@@ -17720,9 +17484,7 @@
       <c r="FC6" s="51"/>
       <c r="FD6" s="51"/>
       <c r="FE6" s="51"/>
-      <c r="FF6" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF6" s="51"/>
       <c r="FG6" s="51"/>
       <c r="FH6" s="51"/>
       <c r="FI6" s="53"/>
@@ -17754,7 +17516,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -17923,9 +17685,7 @@
       </c>
       <c r="FD7" s="51"/>
       <c r="FE7" s="51"/>
-      <c r="FF7" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF7" s="51"/>
       <c r="FG7" s="51"/>
       <c r="FH7" s="51"/>
       <c r="FI7" s="53"/>
@@ -17957,7 +17717,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18130,9 +17890,7 @@
       <c r="FC8" s="51"/>
       <c r="FD8" s="51"/>
       <c r="FE8" s="51"/>
-      <c r="FF8" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF8" s="51"/>
       <c r="FG8" s="51"/>
       <c r="FH8" s="51"/>
       <c r="FI8" s="53"/>
@@ -18162,7 +17920,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18329,9 +18087,7 @@
       </c>
       <c r="FD9" s="51"/>
       <c r="FE9" s="51"/>
-      <c r="FF9" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF9" s="51"/>
       <c r="FG9" s="51"/>
       <c r="FH9" s="51"/>
       <c r="FI9" s="53"/>
@@ -18361,7 +18117,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18574,9 +18330,7 @@
       </c>
       <c r="FD10" s="51"/>
       <c r="FE10" s="51"/>
-      <c r="FF10" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF10" s="51"/>
       <c r="FG10" s="51" t="s">
         <v>197</v>
       </c>
@@ -18614,7 +18368,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18829,9 +18583,7 @@
       </c>
       <c r="FD11" s="51"/>
       <c r="FE11" s="51"/>
-      <c r="FF11" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF11" s="51"/>
       <c r="FG11" s="51" t="s">
         <v>197</v>
       </c>
@@ -18869,7 +18621,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -19084,9 +18836,7 @@
       </c>
       <c r="FD12" s="51"/>
       <c r="FE12" s="51"/>
-      <c r="FF12" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF12" s="51"/>
       <c r="FG12" s="51" t="s">
         <v>197</v>
       </c>
@@ -19124,7 +18874,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19327,9 +19077,7 @@
       <c r="FC13" s="51"/>
       <c r="FD13" s="51"/>
       <c r="FE13" s="51"/>
-      <c r="FF13" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF13" s="51"/>
       <c r="FG13" s="51"/>
       <c r="FH13" s="51"/>
       <c r="FI13" s="53"/>
@@ -19359,7 +19107,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19566,9 +19314,7 @@
       <c r="FC14" s="51"/>
       <c r="FD14" s="51"/>
       <c r="FE14" s="51"/>
-      <c r="FF14" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF14" s="51"/>
       <c r="FG14" s="51"/>
       <c r="FH14" s="51"/>
       <c r="FI14" s="53"/>
@@ -19598,7 +19344,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19801,9 +19547,7 @@
       <c r="FC15" s="51"/>
       <c r="FD15" s="51"/>
       <c r="FE15" s="51"/>
-      <c r="FF15" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF15" s="51"/>
       <c r="FG15" s="51"/>
       <c r="FH15" s="51"/>
       <c r="FI15" s="53"/>
@@ -19833,7 +19577,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -20020,9 +19764,7 @@
       </c>
       <c r="FD16" s="51"/>
       <c r="FE16" s="51"/>
-      <c r="FF16" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF16" s="51"/>
       <c r="FG16" s="51" t="s">
         <v>197</v>
       </c>
@@ -20060,7 +19802,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20247,9 +19989,7 @@
       </c>
       <c r="FD17" s="51"/>
       <c r="FE17" s="51"/>
-      <c r="FF17" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF17" s="51"/>
       <c r="FG17" s="51" t="s">
         <v>197</v>
       </c>
@@ -20287,7 +20027,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20447,9 +20187,7 @@
       </c>
       <c r="FD18" s="51"/>
       <c r="FE18" s="51"/>
-      <c r="FF18" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF18" s="51"/>
       <c r="FG18" s="51"/>
       <c r="FH18" s="51" t="s">
         <v>186</v>
@@ -20481,7 +20219,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20640,9 +20378,7 @@
       <c r="FC19" s="51"/>
       <c r="FD19" s="51"/>
       <c r="FE19" s="51"/>
-      <c r="FF19" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF19" s="51"/>
       <c r="FG19" s="51"/>
       <c r="FH19" s="51"/>
       <c r="FI19" s="53"/>
@@ -20672,7 +20408,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20831,9 +20567,7 @@
       <c r="FC20" s="51"/>
       <c r="FD20" s="51"/>
       <c r="FE20" s="51"/>
-      <c r="FF20" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF20" s="51"/>
       <c r="FG20" s="51"/>
       <c r="FH20" s="51"/>
       <c r="FI20" s="53"/>
@@ -20863,7 +20597,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -21024,9 +20758,7 @@
       <c r="FC21" s="51"/>
       <c r="FD21" s="51"/>
       <c r="FE21" s="51"/>
-      <c r="FF21" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF21" s="51"/>
       <c r="FG21" s="51"/>
       <c r="FH21" s="51"/>
       <c r="FI21" s="53"/>
@@ -21056,7 +20788,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21215,9 +20947,7 @@
       <c r="FC22" s="51"/>
       <c r="FD22" s="51"/>
       <c r="FE22" s="51"/>
-      <c r="FF22" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF22" s="51"/>
       <c r="FG22" s="51"/>
       <c r="FH22" s="51"/>
       <c r="FI22" s="53"/>
@@ -21247,7 +20977,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21442,9 +21172,7 @@
         <v>197</v>
       </c>
       <c r="FE23" s="51"/>
-      <c r="FF23" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF23" s="51"/>
       <c r="FG23" s="51"/>
       <c r="FH23" s="51" t="s">
         <v>186</v>
@@ -21476,7 +21204,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21655,9 +21383,7 @@
       </c>
       <c r="FD24" s="51"/>
       <c r="FE24" s="51"/>
-      <c r="FF24" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF24" s="51"/>
       <c r="FG24" s="51"/>
       <c r="FH24" s="51" t="s">
         <v>186</v>
@@ -21691,7 +21417,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21870,9 +21596,7 @@
       </c>
       <c r="FD25" s="51"/>
       <c r="FE25" s="51"/>
-      <c r="FF25" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF25" s="51"/>
       <c r="FG25" s="51"/>
       <c r="FH25" s="51" t="s">
         <v>186</v>
@@ -21906,7 +21630,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -22123,9 +21847,7 @@
       </c>
       <c r="FD26" s="51"/>
       <c r="FE26" s="51"/>
-      <c r="FF26" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF26" s="51"/>
       <c r="FG26" s="51" t="s">
         <v>197</v>
       </c>
@@ -22165,7 +21887,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22382,9 +22104,7 @@
       </c>
       <c r="FD27" s="51"/>
       <c r="FE27" s="51"/>
-      <c r="FF27" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF27" s="51"/>
       <c r="FG27" s="51" t="s">
         <v>197</v>
       </c>
@@ -22424,7 +22144,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22623,9 +22343,7 @@
       </c>
       <c r="FD28" s="51"/>
       <c r="FE28" s="51"/>
-      <c r="FF28" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF28" s="51"/>
       <c r="FG28" s="51" t="s">
         <v>197</v>
       </c>
@@ -22665,7 +22383,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22870,9 +22588,7 @@
       <c r="FC29" s="51"/>
       <c r="FD29" s="51"/>
       <c r="FE29" s="51"/>
-      <c r="FF29" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF29" s="51"/>
       <c r="FG29" s="51"/>
       <c r="FH29" s="51"/>
       <c r="FI29" s="53"/>
@@ -22902,7 +22618,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -23111,9 +22827,7 @@
       <c r="FC30" s="51"/>
       <c r="FD30" s="51"/>
       <c r="FE30" s="51"/>
-      <c r="FF30" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF30" s="51"/>
       <c r="FG30" s="51"/>
       <c r="FH30" s="51"/>
       <c r="FI30" s="53"/>
@@ -23143,7 +22857,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23348,9 +23062,7 @@
       <c r="FC31" s="51"/>
       <c r="FD31" s="51"/>
       <c r="FE31" s="51"/>
-      <c r="FF31" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF31" s="51"/>
       <c r="FG31" s="51"/>
       <c r="FH31" s="51"/>
       <c r="FI31" s="53"/>
@@ -23382,7 +23094,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23559,9 +23271,7 @@
       <c r="FC32" s="51"/>
       <c r="FD32" s="51"/>
       <c r="FE32" s="51"/>
-      <c r="FF32" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF32" s="51"/>
       <c r="FG32" s="51"/>
       <c r="FH32" s="51"/>
       <c r="FI32" s="53"/>
@@ -23593,7 +23303,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23768,9 +23478,7 @@
       <c r="FC33" s="51"/>
       <c r="FD33" s="51"/>
       <c r="FE33" s="51"/>
-      <c r="FF33" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF33" s="51"/>
       <c r="FG33" s="51"/>
       <c r="FH33" s="51"/>
       <c r="FI33" s="53"/>
@@ -23802,7 +23510,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -24017,9 +23725,7 @@
       </c>
       <c r="FD34" s="51"/>
       <c r="FE34" s="51"/>
-      <c r="FF34" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF34" s="51"/>
       <c r="FG34" s="51" t="s">
         <v>197</v>
       </c>
@@ -24059,7 +23765,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24284,9 +23990,7 @@
       </c>
       <c r="FD35" s="51"/>
       <c r="FE35" s="51"/>
-      <c r="FF35" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF35" s="51"/>
       <c r="FG35" s="51" t="s">
         <v>197</v>
       </c>
@@ -24326,7 +24030,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24551,9 +24255,7 @@
       </c>
       <c r="FD36" s="51"/>
       <c r="FE36" s="51"/>
-      <c r="FF36" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF36" s="51"/>
       <c r="FG36" s="51" t="s">
         <v>197</v>
       </c>
@@ -24593,7 +24295,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24852,9 +24554,7 @@
       </c>
       <c r="FD37" s="51"/>
       <c r="FE37" s="51"/>
-      <c r="FF37" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF37" s="51"/>
       <c r="FG37" s="51" t="s">
         <v>197</v>
       </c>
@@ -24894,7 +24594,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -25073,9 +24773,7 @@
       <c r="FC38" s="51"/>
       <c r="FD38" s="51"/>
       <c r="FE38" s="51"/>
-      <c r="FF38" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF38" s="51"/>
       <c r="FG38" s="51"/>
       <c r="FH38" s="51"/>
       <c r="FI38" s="53"/>
@@ -25105,7 +24803,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25314,9 +25012,7 @@
       <c r="FC39" s="51"/>
       <c r="FD39" s="51"/>
       <c r="FE39" s="51"/>
-      <c r="FF39" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF39" s="51"/>
       <c r="FG39" s="51" t="s">
         <v>197</v>
       </c>
@@ -25352,7 +25048,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25533,9 +25229,7 @@
       <c r="FC40" s="51"/>
       <c r="FD40" s="51"/>
       <c r="FE40" s="51"/>
-      <c r="FF40" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF40" s="51"/>
       <c r="FG40" s="51"/>
       <c r="FH40" s="51"/>
       <c r="FI40" s="53"/>
@@ -25565,7 +25259,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25740,9 +25434,7 @@
       </c>
       <c r="FD41" s="51"/>
       <c r="FE41" s="51"/>
-      <c r="FF41" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF41" s="51"/>
       <c r="FG41" s="51"/>
       <c r="FH41" s="51" t="s">
         <v>186</v>
@@ -25774,7 +25466,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -25963,9 +25655,7 @@
       </c>
       <c r="FD42" s="51"/>
       <c r="FE42" s="51"/>
-      <c r="FF42" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF42" s="51"/>
       <c r="FG42" s="51"/>
       <c r="FH42" s="51" t="s">
         <v>186</v>
@@ -25997,7 +25687,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26226,9 +25916,7 @@
       <c r="FC43" s="51"/>
       <c r="FD43" s="51"/>
       <c r="FE43" s="51"/>
-      <c r="FF43" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF43" s="51"/>
       <c r="FG43" s="51" t="s">
         <v>197</v>
       </c>
@@ -26264,7 +25952,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26493,9 +26181,7 @@
       <c r="FC44" s="51"/>
       <c r="FD44" s="51"/>
       <c r="FE44" s="51"/>
-      <c r="FF44" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF44" s="51"/>
       <c r="FG44" s="51" t="s">
         <v>197</v>
       </c>
@@ -26531,7 +26217,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26760,9 +26446,7 @@
       <c r="FC45" s="51"/>
       <c r="FD45" s="51"/>
       <c r="FE45" s="51"/>
-      <c r="FF45" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF45" s="51"/>
       <c r="FG45" s="51" t="s">
         <v>197</v>
       </c>
@@ -26800,7 +26484,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -26979,9 +26663,7 @@
       <c r="FC46" s="51"/>
       <c r="FD46" s="51"/>
       <c r="FE46" s="51"/>
-      <c r="FF46" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF46" s="51"/>
       <c r="FG46" s="51"/>
       <c r="FH46" s="51"/>
       <c r="FI46" s="53"/>
@@ -27015,7 +26697,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -27194,9 +26876,7 @@
       <c r="FC47" s="51"/>
       <c r="FD47" s="51"/>
       <c r="FE47" s="51"/>
-      <c r="FF47" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF47" s="51"/>
       <c r="FG47" s="51"/>
       <c r="FH47" s="51"/>
       <c r="FI47" s="53"/>
@@ -27230,7 +26910,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27407,9 +27087,7 @@
       <c r="FC48" s="51"/>
       <c r="FD48" s="51"/>
       <c r="FE48" s="51"/>
-      <c r="FF48" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF48" s="51"/>
       <c r="FG48" s="51"/>
       <c r="FH48" s="51"/>
       <c r="FI48" s="53"/>
@@ -27443,7 +27121,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27620,9 +27298,7 @@
       <c r="FC49" s="51"/>
       <c r="FD49" s="51"/>
       <c r="FE49" s="51"/>
-      <c r="FF49" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF49" s="51"/>
       <c r="FG49" s="51"/>
       <c r="FH49" s="51"/>
       <c r="FI49" s="53"/>
@@ -27654,7 +27330,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27813,9 +27489,7 @@
       <c r="FC50" s="51"/>
       <c r="FD50" s="51"/>
       <c r="FE50" s="51"/>
-      <c r="FF50" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF50" s="51"/>
       <c r="FG50" s="51"/>
       <c r="FH50" s="51"/>
       <c r="FI50" s="53"/>
@@ -27847,7 +27521,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -28010,9 +27684,7 @@
       <c r="FC51" s="51"/>
       <c r="FD51" s="51"/>
       <c r="FE51" s="51"/>
-      <c r="FF51" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF51" s="51"/>
       <c r="FG51" s="51"/>
       <c r="FH51" s="51"/>
       <c r="FI51" s="53"/>
@@ -28046,7 +27718,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -28209,9 +27881,7 @@
       <c r="FC52" s="51"/>
       <c r="FD52" s="51"/>
       <c r="FE52" s="51"/>
-      <c r="FF52" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF52" s="51"/>
       <c r="FG52" s="51"/>
       <c r="FH52" s="51"/>
       <c r="FI52" s="53"/>
@@ -28241,7 +27911,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28415,9 +28085,7 @@
       <c r="FC53" s="51"/>
       <c r="FD53" s="51"/>
       <c r="FE53" s="51"/>
-      <c r="FF53" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF53" s="51"/>
       <c r="FG53" s="51"/>
       <c r="FH53" s="51"/>
       <c r="FI53" s="53"/>
@@ -28449,7 +28117,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28622,9 +28290,7 @@
       <c r="FC54" s="51"/>
       <c r="FD54" s="51"/>
       <c r="FE54" s="51"/>
-      <c r="FF54" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF54" s="51"/>
       <c r="FG54" s="51"/>
       <c r="FH54" s="51"/>
       <c r="FI54" s="53"/>
@@ -28656,7 +28322,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28859,9 +28525,7 @@
       <c r="FC55" s="51"/>
       <c r="FD55" s="51"/>
       <c r="FE55" s="51"/>
-      <c r="FF55" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF55" s="51"/>
       <c r="FG55" s="51" t="s">
         <v>197</v>
       </c>
@@ -28899,7 +28563,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -29074,9 +28738,7 @@
       <c r="FC56" s="51"/>
       <c r="FD56" s="51"/>
       <c r="FE56" s="51"/>
-      <c r="FF56" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF56" s="51"/>
       <c r="FG56" s="51"/>
       <c r="FH56" s="51"/>
       <c r="FI56" s="53"/>
@@ -29106,7 +28768,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29270,9 +28932,7 @@
       <c r="FC57" s="51"/>
       <c r="FD57" s="51"/>
       <c r="FE57" s="51"/>
-      <c r="FF57" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF57" s="51"/>
       <c r="FG57" s="51"/>
       <c r="FH57" s="51"/>
       <c r="FI57" s="53"/>
@@ -29302,7 +28962,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29472,9 +29132,7 @@
       <c r="FC58" s="51"/>
       <c r="FD58" s="51"/>
       <c r="FE58" s="51"/>
-      <c r="FF58" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF58" s="51"/>
       <c r="FG58" s="51"/>
       <c r="FH58" s="51"/>
       <c r="FI58" s="53"/>
@@ -29504,7 +29162,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29676,9 +29334,7 @@
       <c r="FC59" s="51"/>
       <c r="FD59" s="51"/>
       <c r="FE59" s="51"/>
-      <c r="FF59" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF59" s="51"/>
       <c r="FG59" s="51"/>
       <c r="FH59" s="51"/>
       <c r="FI59" s="53"/>
@@ -29708,7 +29364,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29875,9 +29531,7 @@
       </c>
       <c r="FD60" s="51"/>
       <c r="FE60" s="51"/>
-      <c r="FF60" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF60" s="51"/>
       <c r="FG60" s="51"/>
       <c r="FH60" s="51"/>
       <c r="FI60" s="53"/>
@@ -29907,7 +29561,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -30104,9 +29758,7 @@
       </c>
       <c r="FD61" s="51"/>
       <c r="FE61" s="51"/>
-      <c r="FF61" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF61" s="51"/>
       <c r="FG61" s="51" t="s">
         <v>197</v>
       </c>
@@ -30142,7 +29794,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30345,9 +29997,7 @@
       <c r="FC62" s="51"/>
       <c r="FD62" s="51"/>
       <c r="FE62" s="51"/>
-      <c r="FF62" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF62" s="51"/>
       <c r="FG62" s="51"/>
       <c r="FH62" s="51"/>
       <c r="FI62" s="53"/>
@@ -30377,7 +30027,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30584,9 +30234,7 @@
       <c r="FC63" s="51"/>
       <c r="FD63" s="51"/>
       <c r="FE63" s="51"/>
-      <c r="FF63" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF63" s="51"/>
       <c r="FG63" s="51"/>
       <c r="FH63" s="51"/>
       <c r="FI63" s="53"/>
@@ -30616,7 +30264,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30819,9 +30467,7 @@
       <c r="FC64" s="51"/>
       <c r="FD64" s="51"/>
       <c r="FE64" s="51"/>
-      <c r="FF64" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF64" s="51"/>
       <c r="FG64" s="51"/>
       <c r="FH64" s="51"/>
       <c r="FI64" s="53"/>
@@ -30851,7 +30497,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -31062,9 +30708,7 @@
       </c>
       <c r="FD65" s="51"/>
       <c r="FE65" s="51"/>
-      <c r="FF65" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF65" s="51"/>
       <c r="FG65" s="51" t="s">
         <v>197</v>
       </c>
@@ -31102,7 +30746,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31315,9 +30959,7 @@
       </c>
       <c r="FD66" s="51"/>
       <c r="FE66" s="51"/>
-      <c r="FF66" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF66" s="51"/>
       <c r="FG66" s="51" t="s">
         <v>197</v>
       </c>
@@ -31357,7 +30999,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31562,9 +31204,7 @@
       <c r="FC67" s="51"/>
       <c r="FD67" s="51"/>
       <c r="FE67" s="51"/>
-      <c r="FF67" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF67" s="51"/>
       <c r="FG67" s="51"/>
       <c r="FH67" s="51"/>
       <c r="FI67" s="53"/>
@@ -31596,7 +31236,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31803,9 +31443,7 @@
       <c r="FC68" s="51"/>
       <c r="FD68" s="51"/>
       <c r="FE68" s="51"/>
-      <c r="FF68" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF68" s="51"/>
       <c r="FG68" s="51"/>
       <c r="FH68" s="51"/>
       <c r="FI68" s="53"/>
@@ -31837,7 +31475,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -32044,9 +31682,7 @@
       <c r="FC69" s="51"/>
       <c r="FD69" s="51"/>
       <c r="FE69" s="51"/>
-      <c r="FF69" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF69" s="51"/>
       <c r="FG69" s="51"/>
       <c r="FH69" s="51"/>
       <c r="FI69" s="53"/>
@@ -32078,7 +31714,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32287,9 +31923,7 @@
       <c r="FC70" s="51"/>
       <c r="FD70" s="51"/>
       <c r="FE70" s="51"/>
-      <c r="FF70" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF70" s="51"/>
       <c r="FG70" s="51"/>
       <c r="FH70" s="51"/>
       <c r="FI70" s="53"/>
@@ -32321,7 +31955,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32528,9 +32162,7 @@
       <c r="FC71" s="51"/>
       <c r="FD71" s="51"/>
       <c r="FE71" s="51"/>
-      <c r="FF71" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF71" s="51"/>
       <c r="FG71" s="51"/>
       <c r="FH71" s="51"/>
       <c r="FI71" s="53"/>
@@ -32560,7 +32192,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32719,9 +32351,7 @@
       <c r="FC72" s="51"/>
       <c r="FD72" s="51"/>
       <c r="FE72" s="51"/>
-      <c r="FF72" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF72" s="51"/>
       <c r="FG72" s="51"/>
       <c r="FH72" s="51"/>
       <c r="FI72" s="53"/>
@@ -32751,7 +32381,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32910,9 +32540,7 @@
       <c r="FC73" s="51"/>
       <c r="FD73" s="51"/>
       <c r="FE73" s="51"/>
-      <c r="FF73" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF73" s="51"/>
       <c r="FG73" s="51"/>
       <c r="FH73" s="51"/>
       <c r="FI73" s="53"/>
@@ -32942,7 +32570,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -33101,9 +32729,7 @@
       <c r="FC74" s="51"/>
       <c r="FD74" s="51"/>
       <c r="FE74" s="51"/>
-      <c r="FF74" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF74" s="51"/>
       <c r="FG74" s="51"/>
       <c r="FH74" s="51"/>
       <c r="FI74" s="53"/>
@@ -33133,7 +32759,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33344,9 +32970,7 @@
       </c>
       <c r="FD75" s="51"/>
       <c r="FE75" s="51"/>
-      <c r="FF75" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF75" s="51"/>
       <c r="FG75" s="51" t="s">
         <v>197</v>
       </c>
@@ -33384,7 +33008,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33597,9 +33221,7 @@
       </c>
       <c r="FD76" s="51"/>
       <c r="FE76" s="51"/>
-      <c r="FF76" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF76" s="51"/>
       <c r="FG76" s="51" t="s">
         <v>197</v>
       </c>
@@ -33637,7 +33259,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33850,9 +33472,7 @@
       </c>
       <c r="FD77" s="51"/>
       <c r="FE77" s="51"/>
-      <c r="FF77" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF77" s="51"/>
       <c r="FG77" s="51" t="s">
         <v>197</v>
       </c>
@@ -33890,7 +33510,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -34091,9 +33711,7 @@
       <c r="FC78" s="51"/>
       <c r="FD78" s="51"/>
       <c r="FE78" s="51"/>
-      <c r="FF78" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF78" s="51"/>
       <c r="FG78" s="51"/>
       <c r="FH78" s="51"/>
       <c r="FI78" s="53"/>
@@ -34123,7 +33741,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34328,9 +33946,7 @@
       <c r="FC79" s="51"/>
       <c r="FD79" s="51"/>
       <c r="FE79" s="51"/>
-      <c r="FF79" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF79" s="51"/>
       <c r="FG79" s="51"/>
       <c r="FH79" s="51"/>
       <c r="FI79" s="53"/>
@@ -34360,7 +33976,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34561,9 +34177,7 @@
       <c r="FC80" s="51"/>
       <c r="FD80" s="51"/>
       <c r="FE80" s="51"/>
-      <c r="FF80" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF80" s="51"/>
       <c r="FG80" s="51"/>
       <c r="FH80" s="51"/>
       <c r="FI80" s="53"/>
@@ -34593,7 +34207,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34796,9 +34410,7 @@
       </c>
       <c r="FD81" s="51"/>
       <c r="FE81" s="51"/>
-      <c r="FF81" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF81" s="51"/>
       <c r="FG81" s="51" t="s">
         <v>197</v>
       </c>
@@ -34838,7 +34450,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -35025,9 +34637,7 @@
       </c>
       <c r="FD82" s="51"/>
       <c r="FE82" s="51"/>
-      <c r="FF82" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF82" s="51"/>
       <c r="FG82" s="51"/>
       <c r="FH82" s="51" t="s">
         <v>186</v>
@@ -35061,7 +34671,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35270,9 +34880,7 @@
       </c>
       <c r="FD83" s="51"/>
       <c r="FE83" s="51"/>
-      <c r="FF83" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF83" s="51"/>
       <c r="FG83" s="51" t="s">
         <v>197</v>
       </c>
@@ -35312,7 +34920,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35521,9 +35129,7 @@
       </c>
       <c r="FD84" s="51"/>
       <c r="FE84" s="51"/>
-      <c r="FF84" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF84" s="51"/>
       <c r="FG84" s="51" t="s">
         <v>197</v>
       </c>
@@ -35563,7 +35169,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35772,9 +35378,7 @@
       </c>
       <c r="FD85" s="51"/>
       <c r="FE85" s="51"/>
-      <c r="FF85" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF85" s="51"/>
       <c r="FG85" s="51" t="s">
         <v>197</v>
       </c>
@@ -35814,7 +35418,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -36023,9 +35627,7 @@
       </c>
       <c r="FD86" s="51"/>
       <c r="FE86" s="51"/>
-      <c r="FF86" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF86" s="51"/>
       <c r="FG86" s="51" t="s">
         <v>197</v>
       </c>
@@ -36065,7 +35667,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -36226,9 +35828,7 @@
       <c r="FC87" s="51"/>
       <c r="FD87" s="51"/>
       <c r="FE87" s="51"/>
-      <c r="FF87" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF87" s="51"/>
       <c r="FG87" s="51"/>
       <c r="FH87" s="51"/>
       <c r="FI87" s="53"/>
@@ -36258,7 +35858,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36419,9 +36019,7 @@
       <c r="FC88" s="51"/>
       <c r="FD88" s="51"/>
       <c r="FE88" s="51"/>
-      <c r="FF88" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF88" s="51"/>
       <c r="FG88" s="51"/>
       <c r="FH88" s="51"/>
       <c r="FI88" s="53"/>
@@ -36451,7 +36049,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36612,9 +36210,7 @@
       <c r="FC89" s="51"/>
       <c r="FD89" s="51"/>
       <c r="FE89" s="51"/>
-      <c r="FF89" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF89" s="51"/>
       <c r="FG89" s="51"/>
       <c r="FH89" s="51"/>
       <c r="FI89" s="53"/>
@@ -36828,7 +36424,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -36987,9 +36583,7 @@
       <c r="FC91" s="51"/>
       <c r="FD91" s="51"/>
       <c r="FE91" s="51"/>
-      <c r="FF91" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF91" s="51"/>
       <c r="FG91" s="51"/>
       <c r="FH91" s="51"/>
       <c r="FI91" s="53"/>
@@ -37205,7 +36799,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37388,9 +36982,7 @@
       <c r="FC93" s="51"/>
       <c r="FD93" s="51"/>
       <c r="FE93" s="51"/>
-      <c r="FF93" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF93" s="51"/>
       <c r="FG93" s="51"/>
       <c r="FH93" s="51"/>
       <c r="FI93" s="53"/>
@@ -37424,7 +37016,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37607,9 +37199,7 @@
       <c r="FC94" s="51"/>
       <c r="FD94" s="51"/>
       <c r="FE94" s="51"/>
-      <c r="FF94" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF94" s="51"/>
       <c r="FG94" s="51"/>
       <c r="FH94" s="51"/>
       <c r="FI94" s="53"/>
@@ -37643,7 +37233,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37824,9 +37414,7 @@
       <c r="FC95" s="51"/>
       <c r="FD95" s="51"/>
       <c r="FE95" s="51"/>
-      <c r="FF95" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF95" s="51"/>
       <c r="FG95" s="51"/>
       <c r="FH95" s="51"/>
       <c r="FI95" s="53"/>
@@ -37860,7 +37448,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -38041,9 +37629,7 @@
       <c r="FC96" s="51"/>
       <c r="FD96" s="51"/>
       <c r="FE96" s="51"/>
-      <c r="FF96" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF96" s="51"/>
       <c r="FG96" s="51"/>
       <c r="FH96" s="51"/>
       <c r="FI96" s="53"/>
@@ -38075,7 +37661,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -38245,9 +37831,7 @@
       <c r="FC97" s="51"/>
       <c r="FD97" s="51"/>
       <c r="FE97" s="51"/>
-      <c r="FF97" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF97" s="51"/>
       <c r="FG97" s="51"/>
       <c r="FH97" s="51"/>
       <c r="FI97" s="53"/>
@@ -38277,7 +37861,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38447,9 +38031,7 @@
       <c r="FC98" s="51"/>
       <c r="FD98" s="51"/>
       <c r="FE98" s="51"/>
-      <c r="FF98" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF98" s="51"/>
       <c r="FG98" s="51"/>
       <c r="FH98" s="51"/>
       <c r="FI98" s="53"/>
@@ -38479,7 +38061,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38651,9 +38233,7 @@
       <c r="FC99" s="51"/>
       <c r="FD99" s="51"/>
       <c r="FE99" s="51"/>
-      <c r="FF99" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF99" s="51"/>
       <c r="FG99" s="51"/>
       <c r="FH99" s="51"/>
       <c r="FI99" s="53"/>
@@ -38683,7 +38263,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38855,9 +38435,7 @@
       <c r="FC100" s="51"/>
       <c r="FD100" s="51"/>
       <c r="FE100" s="51"/>
-      <c r="FF100" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF100" s="51"/>
       <c r="FG100" s="51"/>
       <c r="FH100" s="51"/>
       <c r="FI100" s="53"/>
@@ -38887,7 +38465,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -39059,9 +38637,7 @@
       <c r="FC101" s="51"/>
       <c r="FD101" s="51"/>
       <c r="FE101" s="51"/>
-      <c r="FF101" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF101" s="51"/>
       <c r="FG101" s="51"/>
       <c r="FH101" s="51"/>
       <c r="FI101" s="53"/>
@@ -39091,7 +38667,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -39263,9 +38839,7 @@
       <c r="FC102" s="51"/>
       <c r="FD102" s="51"/>
       <c r="FE102" s="51"/>
-      <c r="FF102" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF102" s="51"/>
       <c r="FG102" s="51"/>
       <c r="FH102" s="51"/>
       <c r="FI102" s="53"/>
@@ -39295,7 +38869,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39464,9 +39038,7 @@
       <c r="FC103" s="51"/>
       <c r="FD103" s="51"/>
       <c r="FE103" s="51"/>
-      <c r="FF103" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF103" s="51"/>
       <c r="FG103" s="51"/>
       <c r="FH103" s="51" t="s">
         <v>186</v>
@@ -39498,7 +39070,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39681,9 +39253,7 @@
       <c r="FE104" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="FF104" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF104" s="51"/>
       <c r="FG104" s="51"/>
       <c r="FH104" s="51" t="s">
         <v>186</v>
@@ -39717,7 +39287,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39900,9 +39470,7 @@
       <c r="FE105" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="FF105" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF105" s="51"/>
       <c r="FG105" s="51"/>
       <c r="FH105" s="51" t="s">
         <v>186</v>
@@ -39936,7 +39504,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -40119,9 +39687,7 @@
       <c r="FE106" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="FF106" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF106" s="51"/>
       <c r="FG106" s="51"/>
       <c r="FH106" s="51" t="s">
         <v>186</v>
@@ -40155,7 +39721,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40338,9 +39904,7 @@
       <c r="FE107" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="FF107" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF107" s="51"/>
       <c r="FG107" s="51"/>
       <c r="FH107" s="51" t="s">
         <v>186</v>
@@ -40374,7 +39938,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40557,9 +40121,7 @@
       <c r="FE108" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="FF108" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF108" s="51"/>
       <c r="FG108" s="51"/>
       <c r="FH108" s="51" t="s">
         <v>186</v>
@@ -40593,7 +40155,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40776,9 +40338,7 @@
       <c r="FE109" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="FF109" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF109" s="51"/>
       <c r="FG109" s="51"/>
       <c r="FH109" s="51" t="s">
         <v>186</v>
@@ -40812,7 +40372,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40995,9 +40555,7 @@
       <c r="FE110" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="FF110" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF110" s="51"/>
       <c r="FG110" s="51"/>
       <c r="FH110" s="51" t="s">
         <v>186</v>
@@ -41031,7 +40589,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -41214,9 +40772,7 @@
       <c r="FE111" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="FF111" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF111" s="51"/>
       <c r="FG111" s="51"/>
       <c r="FH111" s="51" t="s">
         <v>186</v>
@@ -41250,7 +40806,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41433,9 +40989,7 @@
       <c r="FE112" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="FF112" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF112" s="51"/>
       <c r="FG112" s="51"/>
       <c r="FH112" s="51" t="s">
         <v>186</v>
@@ -41469,7 +41023,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41652,9 +41206,7 @@
       <c r="FE113" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="FF113" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF113" s="51"/>
       <c r="FG113" s="51"/>
       <c r="FH113" s="51" t="s">
         <v>186</v>
@@ -41688,7 +41240,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41847,9 +41399,7 @@
       <c r="FC114" s="51"/>
       <c r="FD114" s="51"/>
       <c r="FE114" s="51"/>
-      <c r="FF114" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF114" s="51"/>
       <c r="FG114" s="51"/>
       <c r="FH114" s="51"/>
       <c r="FI114" s="53"/>
@@ -41879,7 +41429,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -42038,9 +41588,7 @@
       <c r="FC115" s="51"/>
       <c r="FD115" s="51"/>
       <c r="FE115" s="51"/>
-      <c r="FF115" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF115" s="51"/>
       <c r="FG115" s="51"/>
       <c r="FH115" s="51"/>
       <c r="FI115" s="53"/>
@@ -42070,7 +41618,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -42229,9 +41777,7 @@
       <c r="FC116" s="51"/>
       <c r="FD116" s="51"/>
       <c r="FE116" s="51"/>
-      <c r="FF116" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF116" s="51"/>
       <c r="FG116" s="51"/>
       <c r="FH116" s="51"/>
       <c r="FI116" s="53"/>
@@ -42261,7 +41807,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42420,9 +41966,7 @@
       <c r="FC117" s="51"/>
       <c r="FD117" s="51"/>
       <c r="FE117" s="51"/>
-      <c r="FF117" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF117" s="51"/>
       <c r="FG117" s="51"/>
       <c r="FH117" s="51"/>
       <c r="FI117" s="53"/>
@@ -42452,7 +41996,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42475</v>
+        <v>42479</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42611,9 +42155,7 @@
       <c r="FC118" s="51"/>
       <c r="FD118" s="51"/>
       <c r="FE118" s="51"/>
-      <c r="FF118" s="51" t="s">
-        <v>191</v>
-      </c>
+      <c r="FF118" s="51"/>
       <c r="FG118" s="51"/>
       <c r="FH118" s="51"/>
       <c r="FI118" s="53"/>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Skyscraper-Spotlight" sheetId="6" r:id="rId6"/>
     <sheet name="Not Priceable-Unclassified" sheetId="7" r:id="rId7"/>
     <sheet name="All" sheetId="8" r:id="rId8"/>
+    <sheet name="Pricing" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="478">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1206,12 +1207,264 @@
   </si>
   <si>
     <t>Sent EQS</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>BMWNewCarPriceTotal</t>
+  </si>
+  <si>
+    <t>Dollars</t>
+  </si>
+  <si>
+    <t>AlphazoneMakePriceTotal</t>
+  </si>
+  <si>
+    <t>$650.00</t>
+  </si>
+  <si>
+    <t>$2,895.00</t>
+  </si>
+  <si>
+    <t>$2,885.00</t>
+  </si>
+  <si>
+    <t>$1,050.00</t>
+  </si>
+  <si>
+    <t>$4,135.00</t>
+  </si>
+  <si>
+    <t>$2,545.00</t>
+  </si>
+  <si>
+    <t>$400.00</t>
+  </si>
+  <si>
+    <t>$600.00</t>
+  </si>
+  <si>
+    <t>$1,200.00</t>
+  </si>
+  <si>
+    <t>$4,195.00</t>
+  </si>
+  <si>
+    <t>$2,995.00</t>
+  </si>
+  <si>
+    <t>$450.00</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>$300.00</t>
+  </si>
+  <si>
+    <t>$1,500.00</t>
+  </si>
+  <si>
+    <t>$1,100.00</t>
+  </si>
+  <si>
+    <t>$1,000.00</t>
+  </si>
+  <si>
+    <t>$800.00</t>
+  </si>
+  <si>
+    <t>$500.00</t>
+  </si>
+  <si>
+    <t>$99.00</t>
+  </si>
+  <si>
+    <t>$4,830.00</t>
+  </si>
+  <si>
+    <t>$7,945.00</t>
+  </si>
+  <si>
+    <t>$700.00</t>
+  </si>
+  <si>
+    <t>$1,342.00</t>
+  </si>
+  <si>
+    <t>$7,730.00</t>
+  </si>
+  <si>
+    <t>$242.00</t>
+  </si>
+  <si>
+    <t>BMWUsedCarPremiumPriceTotal</t>
+  </si>
+  <si>
+    <t>$5,780.00</t>
+  </si>
+  <si>
+    <t>Test Totals</t>
+  </si>
+  <si>
+    <t>FlatTypePriceTotal</t>
+  </si>
+  <si>
+    <t>FordNewCarPriceTotal</t>
+  </si>
+  <si>
+    <t>$8,390.00</t>
+  </si>
+  <si>
+    <t>GMNewCarPriceTotal</t>
+  </si>
+  <si>
+    <t>GMCertifiedPremPriceTotal</t>
+  </si>
+  <si>
+    <t>GMUsedPremAndNewPriceTotal</t>
+  </si>
+  <si>
+    <t>InventoryMakeMarketPriceTotal</t>
+  </si>
+  <si>
+    <t>InventoryMarketPriceTotal</t>
+  </si>
+  <si>
+    <t>InventoryOnlyPriceTotal</t>
+  </si>
+  <si>
+    <t>MININewPriceTotal</t>
+  </si>
+  <si>
+    <t>MINIUsedPremiumPriceTotal</t>
+  </si>
+  <si>
+    <t>NewCarPriceTotal</t>
+  </si>
+  <si>
+    <t>PorcheNewCarPriceTotal</t>
+  </si>
+  <si>
+    <t>PorcheUsedPremiumPriceTotal</t>
+  </si>
+  <si>
+    <t>PremiumPriceTotal</t>
+  </si>
+  <si>
+    <t>SkyscraperBucketsPriceTotal</t>
+  </si>
+  <si>
+    <t>SkyscraperSlotsPriceTotal</t>
+  </si>
+  <si>
+    <t>SpotlightPriceTotal</t>
+  </si>
+  <si>
+    <t>UsedCarNonPremiumPriceTotal</t>
+  </si>
+  <si>
+    <t>$2,025.00</t>
+  </si>
+  <si>
+    <t>$270.00</t>
+  </si>
+  <si>
+    <t>$1,700.00</t>
+  </si>
+  <si>
+    <t>$3,995.00</t>
+  </si>
+  <si>
+    <t>$6,235.00</t>
+  </si>
+  <si>
+    <t>$2,375.00</t>
+  </si>
+  <si>
+    <t>$2,070.00</t>
+  </si>
+  <si>
+    <t>$4,445.00</t>
+  </si>
+  <si>
+    <t>$190.00</t>
+  </si>
+  <si>
+    <t>$265.00</t>
+  </si>
+  <si>
+    <t>$230.00</t>
+  </si>
+  <si>
+    <t>$305.00</t>
+  </si>
+  <si>
+    <t>$990.00</t>
+  </si>
+  <si>
+    <t>$2,265.00</t>
+  </si>
+  <si>
+    <t>$770.00</t>
+  </si>
+  <si>
+    <t>$1,710.00</t>
+  </si>
+  <si>
+    <t>$5,595.00</t>
+  </si>
+  <si>
+    <t>$18,245.00</t>
+  </si>
+  <si>
+    <t>$250.00</t>
+  </si>
+  <si>
+    <t>$350.00</t>
+  </si>
+  <si>
+    <t>$6,425.00</t>
+  </si>
+  <si>
+    <t>$490.00</t>
+  </si>
+  <si>
+    <t>$1,960.00</t>
+  </si>
+  <si>
+    <t>$1,175.00</t>
+  </si>
+  <si>
+    <t>$3,625.00</t>
+  </si>
+  <si>
+    <t>$680.00</t>
+  </si>
+  <si>
+    <t>$895.00</t>
+  </si>
+  <si>
+    <t>$1,715.00</t>
+  </si>
+  <si>
+    <t>$3,575.00</t>
+  </si>
+  <si>
+    <t>$2,145.00</t>
+  </si>
+  <si>
+    <t>$9,010.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1935,7 +2188,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2255,6 +2508,35 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -7781,8 +8063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AS29" sqref="AS29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="54.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8285,7 +8567,7 @@
       <c r="AP6" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="AQ6" s="77" t="s">
+      <c r="AQ6" s="130" t="s">
         <v>343</v>
       </c>
       <c r="AR6" s="35" t="s">
@@ -8343,7 +8625,7 @@
       <c r="AP7" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="AQ7" s="77" t="s">
+      <c r="AQ7" s="130" t="s">
         <v>343</v>
       </c>
       <c r="AR7" s="35" t="s">
@@ -9027,8 +9309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1"/>
+    <sheetView topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="BS5" sqref="BS5:BS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9751,8 +10033,8 @@
         <v>186</v>
       </c>
       <c r="BP5" s="2"/>
-      <c r="BS5" s="35" t="s">
-        <v>223</v>
+      <c r="BS5" s="86" t="s">
+        <v>394</v>
       </c>
       <c r="BT5" s="105" t="b">
         <v>1</v>
@@ -9807,8 +10089,8 @@
         <v>186</v>
       </c>
       <c r="BP6" s="2"/>
-      <c r="BS6" s="35" t="s">
-        <v>223</v>
+      <c r="BS6" s="86" t="s">
+        <v>394</v>
       </c>
       <c r="BT6" s="105" t="b">
         <v>1</v>
@@ -9933,8 +10215,8 @@
       <c r="BR7" s="35">
         <v>1</v>
       </c>
-      <c r="BS7" s="35" t="s">
-        <v>223</v>
+      <c r="BS7" s="86" t="s">
+        <v>394</v>
       </c>
       <c r="BT7" s="105" t="b">
         <v>1</v>
@@ -9989,8 +10271,8 @@
         <v>186</v>
       </c>
       <c r="BP8" s="2"/>
-      <c r="BS8" s="35" t="s">
-        <v>223</v>
+      <c r="BS8" s="86" t="s">
+        <v>394</v>
       </c>
       <c r="BT8" s="105" t="b">
         <v>1</v>
@@ -10045,8 +10327,8 @@
         <v>186</v>
       </c>
       <c r="BP9" s="2"/>
-      <c r="BS9" s="35" t="s">
-        <v>223</v>
+      <c r="BS9" s="86" t="s">
+        <v>394</v>
       </c>
       <c r="BT9" s="105" t="b">
         <v>1</v>
@@ -11432,7 +11714,7 @@
       <c r="BQ19" s="2"/>
       <c r="BR19" s="2"/>
       <c r="BS19" s="86" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="BT19" s="105" t="b">
         <v>1</v>
@@ -11553,7 +11835,7 @@
         <v>1</v>
       </c>
       <c r="BS20" s="86" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="BT20" s="105" t="b">
         <v>1</v>
@@ -11787,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="BS22" s="86" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="BT22" s="105" t="b">
         <v>1</v>
@@ -11908,7 +12190,7 @@
         <v>1</v>
       </c>
       <c r="BS23" s="86" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="BT23" s="105" t="b">
         <v>1</v>
@@ -12029,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="BS24" s="86" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="BT24" s="105" t="b">
         <v>1</v>
@@ -12770,8 +13052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AL4" sqref="AL4"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15549,8 +15831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FY124"/>
   <sheetViews>
-    <sheetView topLeftCell="FA1" workbookViewId="0">
-      <selection activeCell="FF2" sqref="FF2:FF118"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -16258,7 +16540,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -16447,7 +16729,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -16636,7 +16918,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -16825,7 +17107,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17016,7 +17298,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17231,7 +17513,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -17432,7 +17714,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -17635,7 +17917,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -17832,7 +18114,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18083,7 +18365,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18336,7 +18618,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -18589,7 +18871,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -18822,7 +19104,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19059,7 +19341,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19292,7 +19574,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -19517,7 +19799,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -19742,7 +20024,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -19934,7 +20216,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20123,7 +20405,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20312,7 +20594,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -20503,7 +20785,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -20692,7 +20974,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -20919,7 +21201,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21132,7 +21414,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21345,7 +21627,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -21602,7 +21884,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -21859,7 +22141,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22098,7 +22380,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22333,7 +22615,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -22572,7 +22854,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -22809,7 +23091,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23018,7 +23300,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23225,7 +23507,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -23480,7 +23762,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -23745,7 +24027,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24010,7 +24292,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24309,7 +24591,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -24518,7 +24800,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -24763,7 +25045,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -24974,7 +25256,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25181,7 +25463,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -25402,7 +25684,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -25667,7 +25949,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -25932,7 +26214,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26199,7 +26481,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -26412,7 +26694,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -26625,7 +26907,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -26836,7 +27118,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27045,7 +27327,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27236,7 +27518,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -27433,7 +27715,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -27626,7 +27908,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -27832,7 +28114,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28037,7 +28319,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28278,7 +28560,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -28483,7 +28765,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -28677,7 +28959,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -28877,7 +29159,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29079,7 +29361,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29276,7 +29558,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -29509,7 +29791,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -29742,7 +30024,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -29979,7 +30261,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30212,7 +30494,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -30461,7 +30743,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -30714,7 +30996,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -30951,7 +31233,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31190,7 +31472,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -31429,7 +31711,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -31670,7 +31952,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -31907,7 +32189,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32096,7 +32378,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32285,7 +32567,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -32474,7 +32756,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -32723,7 +33005,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -32974,7 +33256,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33225,7 +33507,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -33456,7 +33738,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -33691,7 +33973,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -33922,7 +34204,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34165,7 +34447,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -34386,7 +34668,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -34635,7 +34917,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -34884,7 +35166,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35133,7 +35415,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -35382,7 +35664,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -35573,7 +35855,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -35764,7 +36046,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36139,7 +36421,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -36514,7 +36796,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -36731,7 +37013,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -36948,7 +37230,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37163,7 +37445,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -37376,7 +37658,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -37576,7 +37858,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -37776,7 +38058,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -37978,7 +38260,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38180,7 +38462,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -38382,7 +38664,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -38584,7 +38866,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -38785,7 +39067,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39002,7 +39284,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39219,7 +39501,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -39436,7 +39718,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -39653,7 +39935,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -39870,7 +40152,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40087,7 +40369,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40304,7 +40586,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -40521,7 +40803,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -40738,7 +41020,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -40955,7 +41237,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41144,7 +41426,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41333,7 +41615,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -41522,7 +41804,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -41711,7 +41993,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42493</v>
+        <v>42496</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -41915,4 +42197,1819 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="126">
+        <f t="shared" ref="C2:C66" si="0">B2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="120"/>
+      <c r="C3" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="121"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="123"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="123"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="120">
+        <v>650</v>
+      </c>
+      <c r="C6" s="126" t="s">
+        <v>399</v>
+      </c>
+      <c r="I6" s="121"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="120"/>
+      <c r="C7" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="120"/>
+      <c r="C9" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="123"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="120"/>
+      <c r="C10" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="120">
+        <v>2895</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="120">
+        <v>2885</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="120">
+        <v>1050</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="120">
+        <v>4135</v>
+      </c>
+      <c r="C14" s="126" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="120">
+        <v>2545</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="120">
+        <v>300</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="120">
+        <v>250</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="120">
+        <v>400</v>
+      </c>
+      <c r="C18" s="126" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="120"/>
+      <c r="C19" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="120"/>
+      <c r="C20" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="120"/>
+      <c r="C21" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="120"/>
+      <c r="C22" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="120">
+        <v>600</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="120"/>
+      <c r="C24" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="120"/>
+      <c r="C25" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="120"/>
+      <c r="C26" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="120"/>
+      <c r="C27" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="120"/>
+      <c r="C28" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="120">
+        <v>1200</v>
+      </c>
+      <c r="C29" s="126" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="120">
+        <v>4195</v>
+      </c>
+      <c r="C30" s="126" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="120">
+        <v>2995</v>
+      </c>
+      <c r="C31" s="126" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="120">
+        <v>242</v>
+      </c>
+      <c r="C32" s="126" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="120"/>
+      <c r="C33" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="120"/>
+      <c r="C34" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="120">
+        <v>2375</v>
+      </c>
+      <c r="C35" s="126" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="120">
+        <v>2070</v>
+      </c>
+      <c r="C36" s="126" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="120">
+        <v>6235</v>
+      </c>
+      <c r="C37" s="126" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="120">
+        <v>265</v>
+      </c>
+      <c r="C38" s="126" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="120">
+        <v>305</v>
+      </c>
+      <c r="C39" s="126" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="120">
+        <v>305</v>
+      </c>
+      <c r="C40" s="126" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="120">
+        <v>770</v>
+      </c>
+      <c r="C41" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="120">
+        <v>770</v>
+      </c>
+      <c r="C42" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="120">
+        <v>270</v>
+      </c>
+      <c r="C43" s="126" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="120">
+        <v>2025</v>
+      </c>
+      <c r="C44" s="126" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="120">
+        <v>1700</v>
+      </c>
+      <c r="C45" s="126" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="120"/>
+      <c r="C46" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="120"/>
+      <c r="C47" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="120"/>
+      <c r="C48" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="120"/>
+      <c r="C49" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="120"/>
+      <c r="C50" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="120">
+        <v>450</v>
+      </c>
+      <c r="C51" s="126" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="120"/>
+      <c r="C52" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="120">
+        <v>200</v>
+      </c>
+      <c r="C53" s="126" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="120">
+        <v>190</v>
+      </c>
+      <c r="C54" s="126" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="120">
+        <v>230</v>
+      </c>
+      <c r="C55" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="120"/>
+      <c r="C56" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="120">
+        <v>300</v>
+      </c>
+      <c r="C57" s="126" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="120"/>
+      <c r="C58" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="120"/>
+      <c r="C59" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="120">
+        <v>770</v>
+      </c>
+      <c r="C60" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="120">
+        <v>770</v>
+      </c>
+      <c r="C61" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="120">
+        <v>490</v>
+      </c>
+      <c r="C62" s="126" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="120">
+        <v>1960</v>
+      </c>
+      <c r="C63" s="126" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="120">
+        <v>1175</v>
+      </c>
+      <c r="C64" s="126" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="120"/>
+      <c r="C65" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="120">
+        <v>6425</v>
+      </c>
+      <c r="C66" s="126" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="120">
+        <v>680</v>
+      </c>
+      <c r="C67" s="126" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="120">
+        <v>895</v>
+      </c>
+      <c r="C68" s="126" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="120">
+        <v>1715</v>
+      </c>
+      <c r="C69" s="126" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="120">
+        <v>3575</v>
+      </c>
+      <c r="C70" s="126" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="120">
+        <v>2145</v>
+      </c>
+      <c r="C71" s="126" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C72" s="126" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="120">
+        <v>1100</v>
+      </c>
+      <c r="C73" s="126" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="120">
+        <v>1000</v>
+      </c>
+      <c r="C74" s="126" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="120"/>
+      <c r="C75" s="126">
+        <f t="shared" ref="C67:C117" si="1">B75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="120"/>
+      <c r="C76" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="120"/>
+      <c r="C77" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="120"/>
+      <c r="C78" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="120"/>
+      <c r="C79" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="120"/>
+      <c r="C80" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="120"/>
+      <c r="C81" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="120"/>
+      <c r="C82" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="120"/>
+      <c r="C83" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="120"/>
+      <c r="C84" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="120"/>
+      <c r="C85" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" s="120"/>
+      <c r="C86" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="120">
+        <v>400</v>
+      </c>
+      <c r="C87" s="126" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="120">
+        <v>800</v>
+      </c>
+      <c r="C88" s="126" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="120">
+        <v>600</v>
+      </c>
+      <c r="C89" s="126" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="120">
+        <v>0</v>
+      </c>
+      <c r="C90" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="120">
+        <v>500</v>
+      </c>
+      <c r="C91" s="126" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="120">
+        <v>0</v>
+      </c>
+      <c r="C92" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="120"/>
+      <c r="C93" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="120"/>
+      <c r="C94" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="120"/>
+      <c r="C95" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="120"/>
+      <c r="C96" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="120"/>
+      <c r="C97" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="120"/>
+      <c r="C98" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="120"/>
+      <c r="C99" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="120"/>
+      <c r="C100" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="120"/>
+      <c r="C101" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="120"/>
+      <c r="C102" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" s="120">
+        <v>99</v>
+      </c>
+      <c r="C103" s="126" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="120">
+        <v>4830</v>
+      </c>
+      <c r="C104" s="126" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105" s="120">
+        <v>7945</v>
+      </c>
+      <c r="C105" s="126" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" s="120"/>
+      <c r="C106" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="120">
+        <v>2265</v>
+      </c>
+      <c r="C107" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="120"/>
+      <c r="C108" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="120">
+        <v>700</v>
+      </c>
+      <c r="C109" s="126" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="120">
+        <v>5595</v>
+      </c>
+      <c r="C110" s="126" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="120">
+        <v>5595</v>
+      </c>
+      <c r="C111" s="126" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="120"/>
+      <c r="C112" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="120">
+        <v>1710</v>
+      </c>
+      <c r="C113" s="126" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="120">
+        <v>300</v>
+      </c>
+      <c r="C114" s="126" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="120">
+        <v>250</v>
+      </c>
+      <c r="C115" s="126" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116" s="120">
+        <v>250</v>
+      </c>
+      <c r="C116" s="126" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="120">
+        <v>350</v>
+      </c>
+      <c r="C117" s="126" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="120">
+        <v>400</v>
+      </c>
+      <c r="C118" s="126" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="74"/>
+      <c r="B119" s="74"/>
+      <c r="C119" s="129"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="74"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="129"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="74"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="129"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="74"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="129"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="49"/>
+      <c r="B123" s="120"/>
+      <c r="C123" s="120"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="49"/>
+      <c r="B124" s="120"/>
+      <c r="C124" s="120"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="49"/>
+      <c r="B125" s="120"/>
+      <c r="C125" s="120"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="49"/>
+      <c r="B126" s="120"/>
+      <c r="C126" s="120"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="49"/>
+      <c r="B127" s="120"/>
+      <c r="C127" s="120"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="49"/>
+      <c r="B128" s="120"/>
+      <c r="C128" s="120"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="49"/>
+      <c r="B129" s="120"/>
+      <c r="C129" s="120"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="49"/>
+      <c r="B130" s="120"/>
+      <c r="C130" s="120"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="49"/>
+      <c r="B131" s="120"/>
+      <c r="C131" s="120"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="49"/>
+      <c r="B132" s="120"/>
+      <c r="C132" s="120"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="49"/>
+      <c r="B133" s="120"/>
+      <c r="C133" s="120"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="49"/>
+      <c r="B134" s="120"/>
+      <c r="C134" s="120"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="49"/>
+      <c r="B135" s="120"/>
+      <c r="C135" s="120"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="49"/>
+      <c r="B136" s="120"/>
+      <c r="C136" s="120"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="49"/>
+      <c r="B137" s="120"/>
+      <c r="C137" s="120"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="49"/>
+      <c r="B138" s="120"/>
+      <c r="C138" s="120"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="49"/>
+      <c r="B139" s="49"/>
+      <c r="C139" s="120"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="49"/>
+      <c r="B140" s="49"/>
+      <c r="C140" s="120"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="49"/>
+      <c r="B141" s="49"/>
+      <c r="C141" s="120"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="49"/>
+      <c r="B142" s="49"/>
+      <c r="C142" s="120"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="49"/>
+      <c r="B143" s="49"/>
+      <c r="C143" s="120"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="49"/>
+      <c r="B144" s="49"/>
+      <c r="C144" s="120"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="49"/>
+      <c r="B145" s="49"/>
+      <c r="C145" s="120"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="49"/>
+      <c r="B146" s="49"/>
+      <c r="C146" s="120"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="49"/>
+      <c r="B147" s="49"/>
+      <c r="C147" s="120"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="49"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="120"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="B149" s="49"/>
+      <c r="C149" s="120"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="124" t="s">
+        <v>398</v>
+      </c>
+      <c r="B150" s="127">
+        <f>SUM(B6,B32,B51)</f>
+        <v>1342</v>
+      </c>
+      <c r="C150" s="128" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="B151" s="120">
+        <f>SUM(B13:B15)</f>
+        <v>7730</v>
+      </c>
+      <c r="C151" s="126" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="B152" s="120">
+        <f>SUM(B11:B12)</f>
+        <v>5780</v>
+      </c>
+      <c r="C152" s="126" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B153" s="49"/>
+      <c r="C153" s="126"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="B154" s="120">
+        <f>SUM(B29:B31)</f>
+        <v>8390</v>
+      </c>
+      <c r="C154" s="126" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="B155" s="120">
+        <f>SUM(B37)</f>
+        <v>6235</v>
+      </c>
+      <c r="C155" s="126" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="B156" s="120">
+        <f>SUM(B43:B45)</f>
+        <v>3995</v>
+      </c>
+      <c r="C156" s="126" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="B157" s="120">
+        <f>SUM(B35:B36)</f>
+        <v>4445</v>
+      </c>
+      <c r="C157" s="126" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="B158" s="120">
+        <f>SUM(B54,B38,B55,B39)</f>
+        <v>990</v>
+      </c>
+      <c r="C158" s="126" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="B159" s="120">
+        <f>SUM(B113,B111,B110,B107,B60,B61,B42,B41)</f>
+        <v>18245</v>
+      </c>
+      <c r="C159" s="126" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="B160" s="120">
+        <f>SUM(B114:B117,B16,B17)</f>
+        <v>1700</v>
+      </c>
+      <c r="C160" s="126" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="B161" s="129">
+        <f>SUM(B62:B64)</f>
+        <v>3625</v>
+      </c>
+      <c r="C161" s="126" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="B162" s="120">
+        <f>SUM(B66)</f>
+        <v>6425</v>
+      </c>
+      <c r="C162" s="126" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="B163" s="120">
+        <f>SUM(B67:B71)</f>
+        <v>9010</v>
+      </c>
+      <c r="C163" s="126" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="B164" s="49"/>
+      <c r="C164" s="126"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="B165" s="49"/>
+      <c r="C165" s="126"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="B166" s="49"/>
+      <c r="C166" s="126"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B167" s="49"/>
+      <c r="C167" s="126"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="B168" s="49"/>
+      <c r="C168" s="126"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="B169" s="49"/>
+      <c r="C169" s="126"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="B170" s="49"/>
+      <c r="C170" s="126"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="49"/>
+      <c r="B171" s="49"/>
+      <c r="C171" s="126"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="49"/>
+      <c r="B172" s="49"/>
+      <c r="C172" s="126"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="49"/>
+      <c r="B173" s="49"/>
+      <c r="C173" s="126"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="49"/>
+      <c r="B174" s="49"/>
+      <c r="C174" s="126"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="49"/>
+      <c r="B175" s="49"/>
+      <c r="C175" s="126"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="49"/>
+      <c r="B176" s="49"/>
+      <c r="C176" s="126"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="49"/>
+      <c r="B177" s="49"/>
+      <c r="C177" s="126"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="49"/>
+      <c r="B178" s="49"/>
+      <c r="C178" s="126"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="49"/>
+      <c r="B179" s="49"/>
+      <c r="C179" s="126"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="49"/>
+      <c r="B180" s="49"/>
+      <c r="C180" s="126"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="49"/>
+      <c r="B181" s="49"/>
+      <c r="C181" s="126"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="49"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="126"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="49"/>
+      <c r="B183" s="49"/>
+      <c r="C183" s="126"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="49"/>
+      <c r="B184" s="49"/>
+      <c r="C184" s="126"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="49"/>
+      <c r="B185" s="49"/>
+      <c r="C185" s="126"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="49"/>
+      <c r="B186" s="49"/>
+      <c r="C186" s="126"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="49"/>
+      <c r="B187" s="49"/>
+      <c r="C187" s="126"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="49"/>
+      <c r="B188" s="49"/>
+      <c r="C188" s="126"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="49"/>
+      <c r="B189" s="49"/>
+      <c r="C189" s="126"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="49"/>
+      <c r="B190" s="49"/>
+      <c r="C190" s="126"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="49"/>
+      <c r="B191" s="49"/>
+      <c r="C191" s="126"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="49"/>
+      <c r="B192" s="49"/>
+      <c r="C192" s="126"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="49"/>
+      <c r="B193" s="49"/>
+      <c r="C193" s="126"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="49"/>
+      <c r="B194" s="49"/>
+      <c r="C194" s="126"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="49"/>
+      <c r="B195" s="49"/>
+      <c r="C195" s="126"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="49"/>
+      <c r="B196" s="49"/>
+      <c r="C196" s="126"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="49"/>
+      <c r="B197" s="49"/>
+      <c r="C197" s="126"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="49"/>
+      <c r="B198" s="49"/>
+      <c r="C198" s="126"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="49"/>
+      <c r="B199" s="49"/>
+      <c r="C199" s="126"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="49"/>
+      <c r="B200" s="49"/>
+      <c r="C200" s="126"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B151:B152 B154 B156:B157 B160:B161 B163" formulaRange="1"/>
+    <ignoredError sqref="C29:C32 C23 C18 C11:C15 C6 C51 C53 C57 C72:C74 C91 C87:C89 C103:C105 C109 C118 C150:C152 C154 C43:C44 C156 C45 C37" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="510">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1191,9 +1191,6 @@
     <t>KBBCallTrackingUsedRedirect</t>
   </si>
   <si>
-    <t>Elantra Touring</t>
-  </si>
-  <si>
     <t>TermDuration1m2m3m6m</t>
   </si>
   <si>
@@ -1206,9 +1203,6 @@
     <t>Used1GMMake</t>
   </si>
   <si>
-    <t>Sent EQS</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -1377,9 +1371,6 @@
     <t>$3,995.00</t>
   </si>
   <si>
-    <t>$6,235.00</t>
-  </si>
-  <si>
     <t>$2,375.00</t>
   </si>
   <si>
@@ -1440,22 +1431,127 @@
     <t>$3,625.00</t>
   </si>
   <si>
-    <t>$680.00</t>
-  </si>
-  <si>
     <t>$895.00</t>
   </si>
   <si>
     <t>$1,715.00</t>
   </si>
   <si>
-    <t>$3,575.00</t>
-  </si>
-  <si>
-    <t>$2,145.00</t>
-  </si>
-  <si>
-    <t>$9,010.00</t>
+    <t>$540.00</t>
+  </si>
+  <si>
+    <t>$1,430.00</t>
+  </si>
+  <si>
+    <t>$3,750.00</t>
+  </si>
+  <si>
+    <t>$8,330.00</t>
+  </si>
+  <si>
+    <t>$690.00</t>
+  </si>
+  <si>
+    <t>$2,705.00</t>
+  </si>
+  <si>
+    <t>$1,665.00</t>
+  </si>
+  <si>
+    <t>$5,060.00</t>
+  </si>
+  <si>
+    <t>$4,760.00</t>
+  </si>
+  <si>
+    <t>$2,035.00</t>
+  </si>
+  <si>
+    <t>$2.725.00</t>
+  </si>
+  <si>
+    <t>$6,430.00</t>
+  </si>
+  <si>
+    <t>$3,470.00</t>
+  </si>
+  <si>
+    <t>$7,080.00</t>
+  </si>
+  <si>
+    <t>$4,205.00</t>
+  </si>
+  <si>
+    <t>$2,725.00</t>
+  </si>
+  <si>
+    <t>$3,250.00</t>
+  </si>
+  <si>
+    <t>$27,160.00</t>
+  </si>
+  <si>
+    <t>$900.00</t>
+  </si>
+  <si>
+    <t>$4,800.00</t>
+  </si>
+  <si>
+    <t>$1,800.00</t>
+  </si>
+  <si>
+    <t>$6,600.00</t>
+  </si>
+  <si>
+    <t>$925.00</t>
+  </si>
+  <si>
+    <t>$1,850.00</t>
+  </si>
+  <si>
+    <t>$525.00</t>
+  </si>
+  <si>
+    <t>$1,025.00</t>
+  </si>
+  <si>
+    <t>$1,400.00</t>
+  </si>
+  <si>
+    <t>$135.00</t>
+  </si>
+  <si>
+    <t>$80.00</t>
+  </si>
+  <si>
+    <t>$6,640.00</t>
+  </si>
+  <si>
+    <t>$1,120.00</t>
+  </si>
+  <si>
+    <t>$2,910.00</t>
+  </si>
+  <si>
+    <t>$2,685.00</t>
+  </si>
+  <si>
+    <t>$17,280.00</t>
+  </si>
+  <si>
+    <t>/Dealer.com SEO</t>
+  </si>
+  <si>
+    <t>/Dealer.com SEM</t>
+  </si>
+  <si>
+    <t>/Trade In Marketplace - KBB Buying Center</t>
+  </si>
+  <si>
+    <t>$4,625.00</t>
+  </si>
+  <si>
+    <t>Escape</t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2284,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2538,6 +2634,12 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2885,7 +2987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2:AD7"/>
     </sheetView>
   </sheetViews>
@@ -3293,290 +3395,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FR21"/>
+  <dimension ref="A1:FQ21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="37.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="24.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.140625" style="6"/>
-    <col min="55" max="55" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.140625" style="6"/>
+    <col min="54" max="54" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:174" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:173" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L1" s="68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M1" s="68" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N1" s="68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O1" s="68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P1" s="68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R1" s="68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S1" s="68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T1" s="68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U1" s="68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V1" s="68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W1" s="68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X1" s="68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y1" s="68" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Z1" s="68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA1" s="68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB1" s="68" t="s">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="AC1" s="68" t="s">
-        <v>347</v>
+        <v>154</v>
       </c>
       <c r="AD1" s="68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AE1" s="68" t="s">
-        <v>155</v>
+        <v>385</v>
       </c>
       <c r="AF1" s="68" t="s">
-        <v>385</v>
+        <v>156</v>
       </c>
       <c r="AG1" s="68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH1" s="68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ1" s="68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK1" s="68" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM1" s="68" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AN1" s="68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO1" s="68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AP1" s="68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AQ1" s="68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AR1" s="68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AS1" s="68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AT1" s="68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AU1" s="68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AV1" s="68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AW1" s="68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AX1" s="68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AY1" s="68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AZ1" s="68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BA1" s="68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BB1" s="68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BC1" s="68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BD1" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="BE1" s="68" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:174" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="81">
+      <c r="B2" s="81">
         <v>42614</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="70"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70">
+        <v>1234</v>
+      </c>
       <c r="F2" s="70">
-        <v>1234</v>
+        <v>9</v>
       </c>
       <c r="G2" s="70">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H2" s="70">
         <v>1</v>
       </c>
       <c r="I2" s="70">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J2" s="70">
-        <v>1234567890</v>
-      </c>
-      <c r="K2" s="70">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>181</v>
       </c>
       <c r="L2" s="70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="N2" s="70" t="s">
         <v>183</v>
       </c>
+      <c r="N2" s="36"/>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="70" t="s">
+      <c r="Q2" s="70" t="s">
         <v>184</v>
       </c>
+      <c r="R2" s="36"/>
       <c r="S2" s="36"/>
       <c r="T2" s="36"/>
       <c r="U2" s="36"/>
@@ -3586,66 +3684,66 @@
       <c r="Y2" s="36"/>
       <c r="Z2" s="36"/>
       <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="70" t="s">
+      <c r="AB2" s="70" t="s">
         <v>185</v>
       </c>
+      <c r="AC2" s="36"/>
       <c r="AD2" s="36"/>
       <c r="AE2" s="36"/>
       <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="70" t="s">
+        <v>181</v>
+      </c>
       <c r="AI2" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ2" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="70" t="s">
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="70">
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="70">
         <v>1234</v>
       </c>
-      <c r="AO2" s="35" t="s">
+      <c r="AN2" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="AP2" s="72" t="s">
+      <c r="AO2" s="72" t="s">
         <v>187</v>
       </c>
+      <c r="AP2" s="36"/>
       <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="72" t="s">
+      <c r="AR2" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="AT2" s="70">
+      <c r="AS2" s="70">
         <v>2000</v>
       </c>
-      <c r="AU2" s="70" t="s">
+      <c r="AT2" s="70" t="s">
         <v>189</v>
       </c>
+      <c r="AU2" s="70">
+        <v>1</v>
+      </c>
       <c r="AV2" s="70">
         <v>1</v>
       </c>
-      <c r="AW2" s="70">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="72" t="s">
+      <c r="AW2" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="AY2" s="70">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="70"/>
+      <c r="AX2" s="70">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="36"/>
       <c r="BB2" s="36"/>
       <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD2" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="7"/>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
       <c r="BH2" s="7"/>
@@ -3762,120 +3860,119 @@
       <c r="FO2" s="7"/>
       <c r="FP2" s="7"/>
       <c r="FQ2" s="7"/>
-      <c r="FR2" s="7"/>
-    </row>
-    <row r="3" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="81">
+      <c r="B3" s="81">
         <v>42615</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <v>1234</v>
+      </c>
       <c r="F3" s="10">
-        <v>1234</v>
+        <v>9</v>
       </c>
       <c r="G3" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
       </c>
       <c r="I3" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J3" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N3" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="21"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="AI3" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="10" t="s">
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="10">
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="10">
         <v>1234</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AN3" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AO3" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP3" s="8"/>
       <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="9" t="s">
+      <c r="AR3" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT3" s="10">
+      <c r="AS3" s="10">
         <v>2000</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AT3" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU3" s="10">
+        <v>1</v>
+      </c>
       <c r="AV3" s="10">
         <v>1</v>
       </c>
-      <c r="AW3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="9" t="s">
+      <c r="AW3" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="10"/>
+      <c r="AX3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="8"/>
       <c r="BB3" s="8"/>
       <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD3" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="7"/>
       <c r="BF3" s="7"/>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
@@ -3992,51 +4089,50 @@
       <c r="FO3" s="7"/>
       <c r="FP3" s="7"/>
       <c r="FQ3" s="7"/>
-      <c r="FR3" s="7"/>
-    </row>
-    <row r="4" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="81">
+      <c r="B4" s="81">
         <v>42616</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
+        <v>1234</v>
+      </c>
       <c r="F4" s="10">
-        <v>1234</v>
+        <v>9</v>
       </c>
       <c r="G4" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H4" s="10">
         <v>1</v>
       </c>
       <c r="I4" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J4" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K4" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
@@ -4046,66 +4142,66 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="17"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="20" t="s">
+        <v>181</v>
+      </c>
       <c r="AI4" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ4" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="10" t="s">
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="10">
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="10">
         <v>1234</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AN4" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT4" s="10">
+      <c r="AS4" s="10">
         <v>2000</v>
       </c>
-      <c r="AU4" s="10" t="s">
+      <c r="AT4" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU4" s="10">
+        <v>1</v>
+      </c>
       <c r="AV4" s="10">
         <v>1</v>
       </c>
-      <c r="AW4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="9" t="s">
+      <c r="AW4" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="10"/>
+      <c r="AX4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD4" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="7"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
@@ -4222,47 +4318,46 @@
       <c r="FO4" s="7"/>
       <c r="FP4" s="7"/>
       <c r="FQ4" s="7"/>
-      <c r="FR4" s="7"/>
-    </row>
-    <row r="5" spans="1:174" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="81">
+      <c r="B5" s="81">
         <v>42617</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
       <c r="H5" s="10">
         <v>1</v>
       </c>
       <c r="I5" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J5" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N5" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
@@ -4272,68 +4367,68 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="10" t="s">
+      <c r="AB5" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="21"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="AI5" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ5" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="10" t="s">
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM5" s="35">
+      <c r="AL5" s="35">
         <v>500</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AM5" s="10">
         <v>1234</v>
       </c>
-      <c r="AO5" s="10" t="s">
+      <c r="AN5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="9" t="s">
+      <c r="AR5" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT5" s="10">
+      <c r="AS5" s="10">
         <v>2000</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AT5" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU5" s="10">
+        <v>1</v>
+      </c>
       <c r="AV5" s="10">
         <v>1</v>
       </c>
-      <c r="AW5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="9" t="s">
+      <c r="AW5" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="10"/>
+      <c r="AX5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="8"/>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD5" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="7"/>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
@@ -4450,118 +4545,119 @@
       <c r="FO5" s="7"/>
       <c r="FP5" s="7"/>
       <c r="FQ5" s="7"/>
-      <c r="FR5" s="7"/>
-    </row>
-    <row r="6" spans="1:174" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:173" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="81">
+      <c r="B6" s="81">
         <v>42618</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
       <c r="H6" s="10">
         <v>1</v>
       </c>
       <c r="I6" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J6" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N6" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="39"/>
+      <c r="W6" s="132" t="s">
+        <v>509</v>
+      </c>
+      <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="10" t="s">
+      <c r="AB6" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="21"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="AI6" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ6" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="10" t="s">
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM6" s="35">
+      <c r="AL6" s="35">
         <v>500</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AM6" s="10">
         <v>1234</v>
       </c>
-      <c r="AO6" s="10" t="s">
+      <c r="AN6" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AO6" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="9" t="s">
+      <c r="AR6" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT6" s="10">
+      <c r="AS6" s="10">
         <v>2000</v>
       </c>
-      <c r="AU6" s="10" t="s">
+      <c r="AT6" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU6" s="10">
+        <v>1</v>
+      </c>
       <c r="AV6" s="10">
         <v>1</v>
       </c>
-      <c r="AW6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="9" t="s">
+      <c r="AW6" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="10"/>
+      <c r="AX6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="8"/>
       <c r="BB6" s="8"/>
       <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD6" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="7"/>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
@@ -4678,47 +4774,46 @@
       <c r="FO6" s="7"/>
       <c r="FP6" s="7"/>
       <c r="FQ6" s="7"/>
-      <c r="FR6" s="7"/>
-    </row>
-    <row r="7" spans="1:174" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:173" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="81">
+      <c r="B7" s="81">
         <v>42619</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
       <c r="H7" s="10">
         <v>1</v>
       </c>
       <c r="I7" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J7" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N7" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="10" t="s">
+      <c r="Q7" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -4728,68 +4823,68 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="10" t="s">
+      <c r="AB7" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="21"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="AI7" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ7" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="10" t="s">
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM7" s="35">
+      <c r="AL7" s="35">
         <v>500</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AM7" s="10">
         <v>1234</v>
       </c>
-      <c r="AO7" s="10" t="s">
+      <c r="AN7" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AP7" s="9" t="s">
+      <c r="AO7" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP7" s="8"/>
       <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="9" t="s">
+      <c r="AR7" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT7" s="10">
+      <c r="AS7" s="10">
         <v>2000</v>
       </c>
-      <c r="AU7" s="10" t="s">
+      <c r="AT7" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU7" s="10">
+        <v>1</v>
+      </c>
       <c r="AV7" s="10">
         <v>1</v>
       </c>
-      <c r="AW7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="9" t="s">
+      <c r="AW7" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="10"/>
+      <c r="AX7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="8"/>
       <c r="BB7" s="8"/>
       <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD7" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="7"/>
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
@@ -4906,140 +5001,139 @@
       <c r="FO7" s="7"/>
       <c r="FP7" s="7"/>
       <c r="FQ7" s="7"/>
-      <c r="FR7" s="7"/>
-    </row>
-    <row r="8" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="81">
+      <c r="B8" s="81">
         <v>42620</v>
       </c>
-      <c r="D8" s="10">
+      <c r="C8" s="10">
         <v>345</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
       <c r="H8" s="10">
         <v>1</v>
       </c>
       <c r="I8" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J8" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>181</v>
       </c>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="10">
+      <c r="N8" s="10">
         <v>789</v>
       </c>
+      <c r="O8" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="P8" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="R8" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="R8" s="18" t="s">
         <v>181</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="T8" s="10" t="s">
         <v>194</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="W8" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="X8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="Y8" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z8" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AA8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="AB8" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC8" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="21"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="AI8" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ8" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="10" t="s">
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="9" t="s">
+      <c r="AO8" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AQ8" s="10">
+      <c r="AP8" s="10">
         <v>1234567890</v>
       </c>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="9" t="s">
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="10" t="s">
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU8" s="10">
+        <v>1</v>
+      </c>
       <c r="AV8" s="10">
         <v>1</v>
       </c>
-      <c r="AW8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="9" t="s">
+      <c r="AW8" s="9" t="s">
         <v>190</v>
       </c>
+      <c r="AX8" s="10">
+        <v>1</v>
+      </c>
       <c r="AY8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="10">
         <v>100</v>
       </c>
-      <c r="BA8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10">
+        <v>2</v>
+      </c>
       <c r="BB8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="10">
         <v>1</v>
       </c>
-      <c r="BD8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD8" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="7"/>
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
@@ -5156,140 +5250,139 @@
       <c r="FO8" s="7"/>
       <c r="FP8" s="7"/>
       <c r="FQ8" s="7"/>
-      <c r="FR8" s="7"/>
-    </row>
-    <row r="9" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="81">
+      <c r="B9" s="81">
         <v>42621</v>
       </c>
-      <c r="D9" s="10">
+      <c r="C9" s="10">
         <v>345</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
         <v>1</v>
       </c>
       <c r="I9" s="35">
-        <v>1</v>
-      </c>
-      <c r="J9" s="35">
         <v>1234567890</v>
       </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>181</v>
       </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="10">
+      <c r="N9" s="10">
         <v>789</v>
       </c>
+      <c r="O9" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="P9" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="R9" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="R9" s="18" t="s">
         <v>181</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>194</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="W9" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="X9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="Y9" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z9" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AA9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="AB9" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC9" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="26"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="AI9" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ9" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="10" t="s">
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="9" t="s">
+      <c r="AO9" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AQ9" s="10">
+      <c r="AP9" s="10">
         <v>1234567890</v>
       </c>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="9" t="s">
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="10" t="s">
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU9" s="10">
+        <v>1</v>
+      </c>
       <c r="AV9" s="10">
         <v>1</v>
       </c>
-      <c r="AW9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="9" t="s">
+      <c r="AW9" s="9" t="s">
         <v>190</v>
       </c>
+      <c r="AX9" s="10">
+        <v>1</v>
+      </c>
       <c r="AY9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="10">
         <v>100</v>
       </c>
-      <c r="BA9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10">
+        <v>2</v>
+      </c>
       <c r="BB9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="10">
         <v>1</v>
       </c>
-      <c r="BD9" s="10">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD9" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="7"/>
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
@@ -5406,176 +5499,174 @@
       <c r="FO9" s="7"/>
       <c r="FP9" s="7"/>
       <c r="FQ9" s="7"/>
-      <c r="FR9" s="7"/>
-    </row>
-    <row r="10" spans="1:174" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:173" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="81">
+      <c r="B10" s="81">
         <v>42622</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="35">
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
         <v>1</v>
       </c>
       <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10">
         <v>1234567890</v>
       </c>
-      <c r="K10" s="35">
-        <v>1</v>
-      </c>
-      <c r="L10" s="35" t="s">
+      <c r="J10" s="35">
+        <v>1</v>
+      </c>
+      <c r="K10" s="35" t="s">
         <v>181</v>
       </c>
+      <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="35" t="s">
+        <v>192</v>
+      </c>
       <c r="P10" s="35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="R10" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="R10" s="27" t="s">
         <v>181</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="T10" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="U10" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="V10" s="35">
-        <v>1</v>
-      </c>
-      <c r="W10" s="35" t="s">
+      <c r="U10" s="35">
+        <v>1</v>
+      </c>
+      <c r="V10" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="X10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="35" t="s">
+        <v>197</v>
+      </c>
       <c r="Y10" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z10" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="AA10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="35" t="s">
+        <v>199</v>
+      </c>
       <c r="AB10" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC10" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="37"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="35" t="s">
+        <v>181</v>
+      </c>
       <c r="AI10" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ10" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="35" t="s">
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AM10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="31"/>
       <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="9" t="s">
+      <c r="AO10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AQ10" s="35">
+      <c r="AP10" s="35">
         <v>1234567890</v>
       </c>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="9" t="s">
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="35" t="s">
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="35" t="s">
         <v>189</v>
       </c>
+      <c r="AU10" s="35">
+        <v>1</v>
+      </c>
       <c r="AV10" s="35">
         <v>1</v>
       </c>
-      <c r="AW10" s="35">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="9" t="s">
+      <c r="AW10" s="9" t="s">
         <v>190</v>
       </c>
+      <c r="AX10" s="35">
+        <v>1</v>
+      </c>
       <c r="AY10" s="35">
-        <v>1</v>
-      </c>
-      <c r="AZ10" s="35">
         <v>100</v>
       </c>
-      <c r="BA10" s="35"/>
+      <c r="AZ10" s="35"/>
+      <c r="BA10" s="35">
+        <v>2</v>
+      </c>
       <c r="BB10" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="35">
         <v>1</v>
       </c>
-      <c r="BD10" s="35">
-        <v>1</v>
-      </c>
-      <c r="BE10" s="105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:174" x14ac:dyDescent="0.25">
+      <c r="BD10" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="81">
+      <c r="B11" s="81">
         <v>42623</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
       <c r="H11" s="10">
         <v>1</v>
       </c>
       <c r="I11" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J11" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N11" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="10" t="s">
+      <c r="Q11" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
@@ -5585,70 +5676,70 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="10" t="s">
+      <c r="AB11" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="35">
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="35">
         <v>5</v>
       </c>
-      <c r="AG11" s="24">
+      <c r="AF11" s="24">
         <v>5678</v>
       </c>
-      <c r="AH11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="AI11" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ11" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="10" t="s">
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="10">
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="10">
         <v>1234</v>
       </c>
-      <c r="AO11" s="10" t="s">
+      <c r="AN11" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AP11" s="9" t="s">
+      <c r="AO11" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP11" s="8"/>
       <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="9" t="s">
+      <c r="AR11" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT11" s="10">
+      <c r="AS11" s="10">
         <v>2000</v>
       </c>
-      <c r="AU11" s="10" t="s">
+      <c r="AT11" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU11" s="10">
+        <v>1</v>
+      </c>
       <c r="AV11" s="10">
         <v>1</v>
       </c>
-      <c r="AW11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="9" t="s">
+      <c r="AW11" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="8"/>
-      <c r="BA11" s="10"/>
+      <c r="AX11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="8"/>
       <c r="BB11" s="8"/>
       <c r="BC11" s="8"/>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD11" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
@@ -5765,122 +5856,121 @@
       <c r="FO11" s="7"/>
       <c r="FP11" s="7"/>
       <c r="FQ11" s="7"/>
-      <c r="FR11" s="7"/>
-    </row>
-    <row r="12" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="81">
+      <c r="B12" s="81">
         <v>42624</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
       <c r="H12" s="10">
         <v>1</v>
       </c>
       <c r="I12" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J12" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N12" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="10" t="s">
+      <c r="Q12" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="35" t="s">
+      <c r="W12" s="35" t="s">
         <v>200</v>
       </c>
+      <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="10" t="s">
+      <c r="AB12" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="35">
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="35">
         <v>5</v>
       </c>
-      <c r="AG12" s="24">
+      <c r="AF12" s="24">
         <v>5678</v>
       </c>
-      <c r="AH12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="AI12" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ12" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="10" t="s">
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="10">
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="10">
         <v>1234</v>
       </c>
-      <c r="AO12" s="10" t="s">
+      <c r="AN12" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AP12" s="9" t="s">
+      <c r="AO12" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP12" s="8"/>
       <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="9" t="s">
+      <c r="AR12" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT12" s="10">
+      <c r="AS12" s="10">
         <v>2000</v>
       </c>
-      <c r="AU12" s="10" t="s">
+      <c r="AT12" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU12" s="10">
+        <v>1</v>
+      </c>
       <c r="AV12" s="10">
         <v>1</v>
       </c>
-      <c r="AW12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="9" t="s">
+      <c r="AW12" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="10"/>
+      <c r="AX12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="8"/>
       <c r="BB12" s="8"/>
       <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
-      <c r="BE12" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD12" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
@@ -5997,47 +6087,46 @@
       <c r="FO12" s="7"/>
       <c r="FP12" s="7"/>
       <c r="FQ12" s="7"/>
-      <c r="FR12" s="7"/>
-    </row>
-    <row r="13" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="81">
+      <c r="B13" s="81">
         <v>42625</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
       <c r="H13" s="10">
         <v>1</v>
       </c>
       <c r="I13" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J13" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K13" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N13" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="10" t="s">
+      <c r="Q13" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
@@ -6047,70 +6136,70 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="10" t="s">
+      <c r="AB13" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="35">
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="35">
         <v>5</v>
       </c>
-      <c r="AG13" s="115">
+      <c r="AF13" s="115">
         <v>5678</v>
       </c>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="19" t="s">
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="AJ13" s="16" t="s">
+      <c r="AI13" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="10" t="s">
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="10">
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="10">
         <v>1234</v>
       </c>
-      <c r="AO13" s="10" t="s">
+      <c r="AN13" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AP13" s="9" t="s">
+      <c r="AO13" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP13" s="8"/>
       <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="9" t="s">
+      <c r="AR13" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT13" s="10">
+      <c r="AS13" s="10">
         <v>2000</v>
       </c>
-      <c r="AU13" s="10" t="s">
+      <c r="AT13" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU13" s="10">
+        <v>1</v>
+      </c>
       <c r="AV13" s="10">
         <v>1</v>
       </c>
-      <c r="AW13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="9" t="s">
+      <c r="AW13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="10"/>
+      <c r="AX13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="8"/>
       <c r="BB13" s="8"/>
       <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
-      <c r="BE13" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD13" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="7"/>
       <c r="BF13" s="7"/>
       <c r="BG13" s="7"/>
       <c r="BH13" s="7"/>
@@ -6227,49 +6316,46 @@
       <c r="FO13" s="7"/>
       <c r="FP13" s="7"/>
       <c r="FQ13" s="7"/>
-      <c r="FR13" s="7"/>
-    </row>
-    <row r="14" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="81">
+      <c r="B14" s="81">
         <v>42626</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
       <c r="H14" s="10">
         <v>1</v>
       </c>
       <c r="I14" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J14" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N14" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="10" t="s">
+      <c r="Q14" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
@@ -6277,68 +6363,68 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="10" t="s">
+      <c r="Z14" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="10" t="s">
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AC14" s="13">
         <v>17</v>
       </c>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="24" t="s">
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="AJ14" s="13" t="s">
+      <c r="AI14" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="10" t="s">
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="10">
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="10">
         <v>1234</v>
       </c>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="9" t="s">
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP14" s="8"/>
       <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="9" t="s">
+      <c r="AR14" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="10" t="s">
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU14" s="10">
+        <v>1</v>
+      </c>
       <c r="AV14" s="10">
         <v>1</v>
       </c>
-      <c r="AW14" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="9" t="s">
+      <c r="AW14" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY14" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="10"/>
+      <c r="AX14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="8"/>
       <c r="BB14" s="8"/>
       <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
-      <c r="BE14" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD14" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="7"/>
       <c r="BF14" s="7"/>
       <c r="BG14" s="7"/>
       <c r="BH14" s="7"/>
@@ -6455,49 +6541,46 @@
       <c r="FO14" s="7"/>
       <c r="FP14" s="7"/>
       <c r="FQ14" s="7"/>
-      <c r="FR14" s="7"/>
-    </row>
-    <row r="15" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="81">
+      <c r="B15" s="81">
         <v>42627</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
       <c r="H15" s="10">
         <v>1</v>
       </c>
       <c r="I15" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J15" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K15" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N15" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
@@ -6505,70 +6588,70 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="10" t="s">
+      <c r="Z15" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="10" t="s">
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AC15" s="13">
         <v>17</v>
       </c>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="24" t="s">
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="AJ15" s="13" t="s">
+      <c r="AI15" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="10" t="s">
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="10">
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="10">
         <v>1234</v>
       </c>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="9" t="s">
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="9" t="s">
+      <c r="AR15" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT15" s="10">
+      <c r="AS15" s="10">
         <v>2000</v>
       </c>
-      <c r="AU15" s="10" t="s">
+      <c r="AT15" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU15" s="10">
+        <v>1</v>
+      </c>
       <c r="AV15" s="10">
         <v>1</v>
       </c>
-      <c r="AW15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="9" t="s">
+      <c r="AW15" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="10"/>
+      <c r="AX15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="8"/>
       <c r="BB15" s="8"/>
       <c r="BC15" s="8"/>
-      <c r="BD15" s="8"/>
-      <c r="BE15" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD15" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
       <c r="BG15" s="7"/>
       <c r="BH15" s="7"/>
@@ -6685,49 +6768,46 @@
       <c r="FO15" s="7"/>
       <c r="FP15" s="7"/>
       <c r="FQ15" s="7"/>
-      <c r="FR15" s="7"/>
-    </row>
-    <row r="16" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="81">
+      <c r="B16" s="81">
         <v>42628</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
       <c r="H16" s="10">
         <v>1</v>
       </c>
       <c r="I16" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J16" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K16" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N16" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="10" t="s">
+      <c r="Q16" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
@@ -6735,70 +6815,70 @@
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="10" t="s">
+      <c r="Z16" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="10" t="s">
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD16" s="10">
+      <c r="AC16" s="10">
         <v>17</v>
       </c>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="24" t="s">
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="AJ16" s="13" t="s">
+      <c r="AI16" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="10" t="s">
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="10">
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="10">
         <v>1234</v>
       </c>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="9" t="s">
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="9" t="s">
+      <c r="AR16" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT16" s="10">
+      <c r="AS16" s="10">
         <v>2000</v>
       </c>
-      <c r="AU16" s="10" t="s">
+      <c r="AT16" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU16" s="10">
+        <v>1</v>
+      </c>
       <c r="AV16" s="10">
         <v>1</v>
       </c>
-      <c r="AW16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="9" t="s">
+      <c r="AW16" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="10"/>
+      <c r="AX16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="8"/>
       <c r="BB16" s="8"/>
       <c r="BC16" s="8"/>
-      <c r="BD16" s="8"/>
-      <c r="BE16" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD16" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="7"/>
       <c r="BF16" s="7"/>
       <c r="BG16" s="7"/>
       <c r="BH16" s="7"/>
@@ -6915,122 +6995,117 @@
       <c r="FO16" s="7"/>
       <c r="FP16" s="7"/>
       <c r="FQ16" s="7"/>
-      <c r="FR16" s="7"/>
-    </row>
-    <row r="17" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="81">
+      <c r="B17" s="81">
         <v>42629</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
       <c r="H17" s="10">
         <v>1</v>
       </c>
       <c r="I17" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J17" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N17" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="10" t="s">
+      <c r="Q17" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="10" t="s">
-        <v>389</v>
-      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="10" t="s">
+      <c r="Z17" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="10" t="s">
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD17" s="10">
+      <c r="AC17" s="10">
         <v>17</v>
       </c>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="24" t="s">
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="AJ17" s="13" t="s">
+      <c r="AI17" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="10" t="s">
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="10">
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="10">
         <v>1234</v>
       </c>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="9" t="s">
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="9" t="s">
+      <c r="AR17" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT17" s="10">
+      <c r="AS17" s="10">
         <v>2000</v>
       </c>
-      <c r="AU17" s="10" t="s">
+      <c r="AT17" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU17" s="10">
+        <v>1</v>
+      </c>
       <c r="AV17" s="10">
         <v>1</v>
       </c>
-      <c r="AW17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="9" t="s">
+      <c r="AW17" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="8"/>
-      <c r="BA17" s="10"/>
+      <c r="AX17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="8"/>
       <c r="BB17" s="8"/>
       <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
-      <c r="BE17" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD17" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="7"/>
       <c r="BF17" s="7"/>
       <c r="BG17" s="7"/>
       <c r="BH17" s="7"/>
@@ -7147,49 +7222,46 @@
       <c r="FO17" s="7"/>
       <c r="FP17" s="7"/>
       <c r="FQ17" s="7"/>
-      <c r="FR17" s="7"/>
-    </row>
-    <row r="18" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="81">
+      <c r="B18" s="81">
         <v>42630</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
       <c r="H18" s="10">
         <v>1</v>
       </c>
       <c r="I18" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J18" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N18" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="10" t="s">
+      <c r="Q18" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
@@ -7197,70 +7269,70 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="10" t="s">
+      <c r="Z18" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="10" t="s">
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD18" s="10">
+      <c r="AC18" s="10">
         <v>17</v>
       </c>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="24" t="s">
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="AJ18" s="13" t="s">
+      <c r="AI18" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="10" t="s">
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="10">
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="10">
         <v>1234</v>
       </c>
-      <c r="AO18" s="8"/>
-      <c r="AP18" s="9" t="s">
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="AP18" s="8"/>
       <c r="AQ18" s="8"/>
-      <c r="AR18" s="8"/>
-      <c r="AS18" s="9" t="s">
+      <c r="AR18" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT18" s="10">
+      <c r="AS18" s="10">
         <v>2000</v>
       </c>
-      <c r="AU18" s="10" t="s">
+      <c r="AT18" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU18" s="10">
+        <v>1</v>
+      </c>
       <c r="AV18" s="10">
         <v>1</v>
       </c>
-      <c r="AW18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="9" t="s">
+      <c r="AW18" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="8"/>
-      <c r="BA18" s="10"/>
+      <c r="AX18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="8"/>
       <c r="BB18" s="8"/>
       <c r="BC18" s="8"/>
-      <c r="BD18" s="8"/>
-      <c r="BE18" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD18" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="7"/>
       <c r="BF18" s="7"/>
       <c r="BG18" s="7"/>
       <c r="BH18" s="7"/>
@@ -7377,47 +7449,46 @@
       <c r="FO18" s="7"/>
       <c r="FP18" s="7"/>
       <c r="FQ18" s="7"/>
-      <c r="FR18" s="7"/>
-    </row>
-    <row r="19" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="81">
+      <c r="B19" s="81">
         <v>42631</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
       <c r="H19" s="10">
         <v>1</v>
       </c>
       <c r="I19" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J19" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N19" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="10" t="s">
+      <c r="Q19" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
@@ -7427,64 +7498,64 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="10" t="s">
+      <c r="AB19" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="24" t="s">
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="AJ19" s="13" t="s">
+      <c r="AI19" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="10" t="s">
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="10">
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="10">
         <v>1234</v>
       </c>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="9" t="s">
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="10">
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="10">
         <v>911</v>
       </c>
-      <c r="AS19" s="9" t="s">
+      <c r="AR19" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT19" s="8"/>
-      <c r="AU19" s="10" t="s">
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU19" s="10">
+        <v>1</v>
+      </c>
       <c r="AV19" s="10">
         <v>1</v>
       </c>
-      <c r="AW19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="9" t="s">
+      <c r="AW19" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ19" s="8"/>
-      <c r="BA19" s="10"/>
+      <c r="AX19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="8"/>
       <c r="BB19" s="8"/>
       <c r="BC19" s="8"/>
-      <c r="BD19" s="8"/>
-      <c r="BE19" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD19" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="7"/>
       <c r="BF19" s="7"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
@@ -7601,116 +7672,115 @@
       <c r="FO19" s="7"/>
       <c r="FP19" s="7"/>
       <c r="FQ19" s="7"/>
-      <c r="FR19" s="7"/>
-    </row>
-    <row r="20" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="81">
+      <c r="B20" s="81">
         <v>42632</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
       <c r="H20" s="10">
         <v>1</v>
       </c>
       <c r="I20" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J20" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K20" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N20" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="10" t="s">
+      <c r="Q20" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="10">
+      <c r="W20" s="10">
         <v>911</v>
       </c>
+      <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="10" t="s">
+      <c r="AB20" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="24" t="s">
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="AJ20" s="13" t="s">
+      <c r="AI20" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="10" t="s">
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="10">
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="10">
         <v>1234</v>
       </c>
-      <c r="AO20" s="8"/>
-      <c r="AP20" s="9" t="s">
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AQ20" s="8"/>
-      <c r="AR20" s="10">
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="10">
         <v>911</v>
       </c>
-      <c r="AS20" s="9" t="s">
+      <c r="AR20" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT20" s="8"/>
-      <c r="AU20" s="10" t="s">
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU20" s="10">
+        <v>1</v>
+      </c>
       <c r="AV20" s="10">
         <v>1</v>
       </c>
-      <c r="AW20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX20" s="9" t="s">
+      <c r="AW20" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="8"/>
-      <c r="BA20" s="10"/>
+      <c r="AX20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="8"/>
       <c r="BB20" s="8"/>
       <c r="BC20" s="8"/>
-      <c r="BD20" s="8"/>
-      <c r="BE20" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD20" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="7"/>
       <c r="BF20" s="7"/>
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
@@ -7827,47 +7897,46 @@
       <c r="FO20" s="7"/>
       <c r="FP20" s="7"/>
       <c r="FQ20" s="7"/>
-      <c r="FR20" s="7"/>
-    </row>
-    <row r="21" spans="1:174" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="81">
+      <c r="B21" s="81">
         <v>42633</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
       <c r="H21" s="10">
         <v>1</v>
       </c>
       <c r="I21" s="10">
-        <v>1</v>
+        <v>1234567890</v>
       </c>
       <c r="J21" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="N21" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="10" t="s">
+      <c r="Q21" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="R21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
@@ -7877,64 +7946,64 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="10" t="s">
+      <c r="AB21" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="24" t="s">
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="AJ21" s="13" t="s">
+      <c r="AI21" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AK21" s="21"/>
-      <c r="AL21" s="10" t="s">
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="10">
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="10">
         <v>1234</v>
       </c>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="9" t="s">
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="10">
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="10">
         <v>911</v>
       </c>
-      <c r="AS21" s="9" t="s">
+      <c r="AR21" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="10" t="s">
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="AU21" s="10">
+        <v>1</v>
+      </c>
       <c r="AV21" s="10">
         <v>1</v>
       </c>
-      <c r="AW21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX21" s="9" t="s">
+      <c r="AW21" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AY21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="10"/>
+      <c r="AX21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="8"/>
       <c r="BB21" s="8"/>
       <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="105" t="b">
-        <v>1</v>
-      </c>
+      <c r="BD21" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="7"/>
       <c r="BF21" s="7"/>
       <c r="BG21" s="7"/>
       <c r="BH21" s="7"/>
@@ -8051,7 +8120,6 @@
       <c r="FO21" s="7"/>
       <c r="FP21" s="7"/>
       <c r="FQ21" s="7"/>
-      <c r="FR21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8063,8 +8131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH20"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AS29" sqref="AS29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="54.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8334,7 +8402,7 @@
         <v>196</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="U2" s="35" t="b">
         <v>1</v>
@@ -8845,7 +8913,7 @@
         <v>197</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="R11" s="35" t="b">
         <v>1</v>
@@ -8937,7 +9005,7 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="35" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="R12" s="35" t="b">
         <v>1</v>
@@ -9310,7 +9378,7 @@
   <dimension ref="A1:CP138"/>
   <sheetViews>
     <sheetView topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="BS5" sqref="BS5:BS9"/>
+      <selection activeCell="BS19" sqref="BS19:BS24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9539,7 +9607,7 @@
         <v>220</v>
       </c>
       <c r="BP1" s="68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BQ1" s="68" t="s">
         <v>178</v>
@@ -10034,7 +10102,7 @@
       </c>
       <c r="BP5" s="2"/>
       <c r="BS5" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT5" s="105" t="b">
         <v>1</v>
@@ -10090,7 +10158,7 @@
       </c>
       <c r="BP6" s="2"/>
       <c r="BS6" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT6" s="105" t="b">
         <v>1</v>
@@ -10216,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="BS7" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT7" s="105" t="b">
         <v>1</v>
@@ -10272,7 +10340,7 @@
       </c>
       <c r="BP8" s="2"/>
       <c r="BS8" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT8" s="105" t="b">
         <v>1</v>
@@ -10328,7 +10396,7 @@
       </c>
       <c r="BP9" s="2"/>
       <c r="BS9" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT9" s="105" t="b">
         <v>1</v>
@@ -11714,7 +11782,7 @@
       <c r="BQ19" s="2"/>
       <c r="BR19" s="2"/>
       <c r="BS19" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT19" s="105" t="b">
         <v>1</v>
@@ -11835,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="BS20" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT20" s="105" t="b">
         <v>1</v>
@@ -11948,7 +12016,7 @@
         <v>1</v>
       </c>
       <c r="BS21" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT21" s="105" t="b">
         <v>1</v>
@@ -12069,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="BS22" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT22" s="105" t="b">
         <v>1</v>
@@ -12190,7 +12258,7 @@
         <v>1</v>
       </c>
       <c r="BS23" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT23" s="105" t="b">
         <v>1</v>
@@ -12311,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="BS24" s="86" t="s">
-        <v>394</v>
+        <v>223</v>
       </c>
       <c r="BT24" s="105" t="b">
         <v>1</v>
@@ -13052,15 +13120,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB124"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="94" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="5" bestFit="1" customWidth="1"/>
@@ -13106,7 +13174,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="38" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="92" t="s">
@@ -13271,7 +13339,7 @@
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>68</v>
+        <v>505</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>384</v>
@@ -13293,7 +13361,7 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>69</v>
+        <v>506</v>
       </c>
       <c r="B3" s="93" t="s">
         <v>384</v>
@@ -13812,7 +13880,7 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>85</v>
+        <v>507</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>384</v>
@@ -13964,13 +14032,31 @@
       <c r="B24" s="99"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B25" s="99"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A26" s="131"/>
       <c r="B26" s="99"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A27" s="89"/>
       <c r="B27" s="99"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B28" s="99"/>
@@ -14268,6 +14354,7 @@
     <hyperlink ref="J17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14275,7 +14362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2:AC17"/>
     </sheetView>
   </sheetViews>
@@ -14396,10 +14483,10 @@
         <v>303</v>
       </c>
       <c r="AA1" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB1" s="68" t="s">
         <v>390</v>
-      </c>
-      <c r="AB1" s="68" t="s">
-        <v>391</v>
       </c>
       <c r="AC1" s="68" t="s">
         <v>121</v>
@@ -14727,7 +14814,7 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
       <c r="AB6" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AC6" s="35"/>
       <c r="AD6" s="35"/>
@@ -14795,7 +14882,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="34"/>
       <c r="AB7" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AC7" s="35"/>
       <c r="AD7" s="35"/>
@@ -14859,7 +14946,7 @@
       <c r="Z8" s="34"/>
       <c r="AA8" s="34"/>
       <c r="AB8" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AC8" s="35"/>
       <c r="AD8" s="35"/>
@@ -14923,7 +15010,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AC9" s="35"/>
       <c r="AD9" s="35"/>
@@ -16540,7 +16627,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -16729,7 +16816,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -16918,7 +17005,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17107,7 +17194,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17298,7 +17385,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17513,7 +17600,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -17714,7 +17801,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -17917,7 +18004,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18114,7 +18201,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18365,7 +18452,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18618,7 +18705,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -18871,7 +18958,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19104,7 +19191,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19341,7 +19428,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19574,7 +19661,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -19799,7 +19886,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20024,7 +20111,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20216,7 +20303,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20405,7 +20492,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20594,7 +20681,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -20785,7 +20872,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -20974,7 +21061,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21201,7 +21288,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21414,7 +21501,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21627,7 +21714,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -21884,7 +21971,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22141,7 +22228,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22380,7 +22467,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22615,7 +22702,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -22854,7 +22941,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23091,7 +23178,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23300,7 +23387,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23507,7 +23594,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -23762,7 +23849,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24027,7 +24114,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24292,7 +24379,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24591,7 +24678,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -24800,7 +24887,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25045,7 +25132,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25256,7 +25343,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25463,7 +25550,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -25684,7 +25771,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -25949,7 +26036,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26214,7 +26301,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26481,7 +26568,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -26694,7 +26781,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -26907,7 +26994,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27118,7 +27205,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27327,7 +27414,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27518,7 +27605,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -27715,7 +27802,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -27908,7 +27995,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28114,7 +28201,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28319,7 +28406,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28560,7 +28647,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -28765,7 +28852,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -28959,7 +29046,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29159,7 +29246,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29361,7 +29448,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29558,7 +29645,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -29791,7 +29878,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30024,7 +30111,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30261,7 +30348,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30494,7 +30581,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -30743,7 +30830,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -30996,7 +31083,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31233,7 +31320,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31472,7 +31559,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -31711,7 +31798,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -31952,7 +32039,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32189,7 +32276,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32378,7 +32465,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32567,7 +32654,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -32756,7 +32843,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33005,7 +33092,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33256,7 +33343,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33507,7 +33594,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -33738,7 +33825,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -33973,7 +34060,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34204,7 +34291,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34447,7 +34534,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -34668,7 +34755,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -34917,7 +35004,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35166,7 +35253,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35415,7 +35502,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -35664,7 +35751,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -35855,7 +35942,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36046,7 +36133,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36421,7 +36508,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -36796,7 +36883,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37013,7 +37100,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37230,7 +37317,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37445,7 +37532,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -37658,7 +37745,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -37858,7 +37945,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38058,7 +38145,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38260,7 +38347,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38462,7 +38549,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -38664,7 +38751,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -38866,7 +38953,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39067,7 +39154,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39284,7 +39371,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39501,7 +39588,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -39718,7 +39805,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -39935,7 +40022,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40152,7 +40239,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40369,7 +40456,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40586,7 +40673,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -40803,7 +40890,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41020,7 +41107,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41237,7 +41324,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41426,7 +41513,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41615,7 +41702,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -41804,7 +41891,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -41993,7 +42080,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42496</v>
+        <v>42502</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42203,8 +42290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42220,10 +42307,10 @@
         <v>117</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="120" t="s">
         <v>395</v>
-      </c>
-      <c r="C1" s="120" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -42232,7 +42319,7 @@
       </c>
       <c r="B2" s="120"/>
       <c r="C2" s="126">
-        <f t="shared" ref="C2:C66" si="0">B2</f>
+        <f t="shared" ref="C2:C56" si="0">B2</f>
         <v>0</v>
       </c>
       <c r="I2" s="121"/>
@@ -42286,7 +42373,7 @@
         <v>650</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I6" s="121"/>
       <c r="J6" s="122"/>
@@ -42335,10 +42422,11 @@
       <c r="A10" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B10" s="120">
+        <v>2685</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -42349,7 +42437,7 @@
         <v>2895</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -42360,7 +42448,7 @@
         <v>2885</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -42371,7 +42459,7 @@
         <v>1050</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -42382,7 +42470,7 @@
         <v>4135</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -42393,7 +42481,7 @@
         <v>2545</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -42404,7 +42492,7 @@
         <v>300</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -42415,7 +42503,7 @@
         <v>250</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -42426,7 +42514,7 @@
         <v>400</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -42477,37 +42565,40 @@
         <v>600</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="120"/>
-      <c r="C24" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B24" s="120">
+        <v>1700</v>
+      </c>
+      <c r="C24" s="126" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="120"/>
-      <c r="C25" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B25" s="120">
+        <v>1120</v>
+      </c>
+      <c r="C25" s="126" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B26" s="120">
+        <v>2910</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -42524,10 +42615,11 @@
       <c r="A28" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B28" s="120">
+        <v>2375</v>
+      </c>
+      <c r="C28" s="126" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -42538,7 +42630,7 @@
         <v>1200</v>
       </c>
       <c r="C29" s="126" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -42549,7 +42641,7 @@
         <v>4195</v>
       </c>
       <c r="C30" s="126" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -42560,7 +42652,7 @@
         <v>2995</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -42571,7 +42663,7 @@
         <v>242</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -42588,10 +42680,11 @@
       <c r="A34" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="120"/>
-      <c r="C34" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B34" s="120">
+        <v>2685</v>
+      </c>
+      <c r="C34" s="126" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -42602,7 +42695,7 @@
         <v>2375</v>
       </c>
       <c r="C35" s="126" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -42613,7 +42706,7 @@
         <v>2070</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -42621,10 +42714,10 @@
         <v>67</v>
       </c>
       <c r="B37" s="120">
-        <v>6235</v>
+        <v>4625</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -42635,7 +42728,7 @@
         <v>265</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -42646,7 +42739,7 @@
         <v>305</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -42657,7 +42750,7 @@
         <v>305</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -42668,7 +42761,7 @@
         <v>770</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -42679,7 +42772,7 @@
         <v>770</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -42690,7 +42783,7 @@
         <v>270</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -42701,7 +42794,7 @@
         <v>2025</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -42712,47 +42805,51 @@
         <v>1700</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="120"/>
-      <c r="C46" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B46" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C46" s="126" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="120"/>
-      <c r="C47" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B47" s="120">
+        <v>1800</v>
+      </c>
+      <c r="C47" s="126" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="120"/>
-      <c r="C48" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B48" s="120">
+        <v>900</v>
+      </c>
+      <c r="C48" s="126" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="120"/>
-      <c r="C49" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B49" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C49" s="126" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -42773,7 +42870,7 @@
         <v>450</v>
       </c>
       <c r="C51" s="126" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -42794,7 +42891,7 @@
         <v>200</v>
       </c>
       <c r="C53" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -42805,7 +42902,7 @@
         <v>190</v>
       </c>
       <c r="C54" s="126" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -42816,7 +42913,7 @@
         <v>230</v>
       </c>
       <c r="C55" s="126" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -42837,27 +42934,29 @@
         <v>300</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B58" s="120">
+        <v>135</v>
+      </c>
+      <c r="C58" s="126" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B59" s="120">
+        <v>80</v>
+      </c>
+      <c r="C59" s="126" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -42868,7 +42967,7 @@
         <v>770</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -42879,7 +42978,7 @@
         <v>770</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -42890,7 +42989,7 @@
         <v>490</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -42901,7 +43000,7 @@
         <v>1960</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -42912,17 +43011,18 @@
         <v>1175</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="120"/>
-      <c r="C65" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B65" s="120">
+        <v>2685</v>
+      </c>
+      <c r="C65" s="126" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -42933,7 +43033,7 @@
         <v>6425</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -42941,10 +43041,10 @@
         <v>18</v>
       </c>
       <c r="B67" s="120">
-        <v>680</v>
+        <v>895</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -42952,10 +43052,10 @@
         <v>19</v>
       </c>
       <c r="B68" s="120">
-        <v>895</v>
+        <v>540</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -42966,7 +43066,7 @@
         <v>1715</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -42974,10 +43074,10 @@
         <v>21</v>
       </c>
       <c r="B70" s="120">
-        <v>3575</v>
+        <v>3750</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -42985,10 +43085,10 @@
         <v>22</v>
       </c>
       <c r="B71" s="120">
-        <v>2145</v>
+        <v>1430</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -42999,7 +43099,7 @@
         <v>1500</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -43010,7 +43110,7 @@
         <v>1100</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -43021,127 +43121,139 @@
         <v>1000</v>
       </c>
       <c r="C74" s="126" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="120"/>
-      <c r="C75" s="126">
-        <f t="shared" ref="C67:C117" si="1">B75</f>
-        <v>0</v>
+      <c r="B75" s="120">
+        <v>1120</v>
+      </c>
+      <c r="C75" s="126" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="120"/>
-      <c r="C76" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B76" s="120">
+        <v>2725</v>
+      </c>
+      <c r="C76" s="126" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="120"/>
-      <c r="C77" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B77" s="120">
+        <v>2035</v>
+      </c>
+      <c r="C77" s="126" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="120"/>
-      <c r="C78" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B78" s="120">
+        <v>690</v>
+      </c>
+      <c r="C78" s="126" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="120"/>
-      <c r="C79" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B79" s="120">
+        <v>2705</v>
+      </c>
+      <c r="C79" s="126" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="120"/>
-      <c r="C80" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B80" s="120">
+        <v>1665</v>
+      </c>
+      <c r="C80" s="126" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B81" s="120"/>
-      <c r="C81" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B81" s="120">
+        <v>3250</v>
+      </c>
+      <c r="C81" s="126" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B82" s="120"/>
-      <c r="C82" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B82" s="120">
+        <v>2725</v>
+      </c>
+      <c r="C82" s="126" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="120"/>
-      <c r="C83" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B83" s="120">
+        <v>4205</v>
+      </c>
+      <c r="C83" s="126" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="120"/>
-      <c r="C84" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B84" s="120">
+        <v>7080</v>
+      </c>
+      <c r="C84" s="126" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B85" s="120"/>
-      <c r="C85" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B85" s="120">
+        <v>3470</v>
+      </c>
+      <c r="C85" s="126" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="120"/>
-      <c r="C86" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B86" s="120">
+        <v>6430</v>
+      </c>
+      <c r="C86" s="126" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -43152,7 +43264,7 @@
         <v>400</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -43163,7 +43275,7 @@
         <v>800</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -43174,7 +43286,7 @@
         <v>600</v>
       </c>
       <c r="C89" s="126" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -43185,7 +43297,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="126">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C90:C112" si="1">B90</f>
         <v>0</v>
       </c>
     </row>
@@ -43197,7 +43309,7 @@
         <v>500</v>
       </c>
       <c r="C91" s="126" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -43216,100 +43328,110 @@
       <c r="A93" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="120"/>
-      <c r="C93" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B93" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C93" s="126" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="120"/>
-      <c r="C94" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B94" s="120">
+        <v>1800</v>
+      </c>
+      <c r="C94" s="126" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="120"/>
-      <c r="C95" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B95" s="120">
+        <v>900</v>
+      </c>
+      <c r="C95" s="126" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="120"/>
-      <c r="C96" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B96" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C96" s="126" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="120"/>
-      <c r="C97" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B97" s="120">
+        <v>925</v>
+      </c>
+      <c r="C97" s="126" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="120"/>
-      <c r="C98" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B98" s="120">
+        <v>1850</v>
+      </c>
+      <c r="C98" s="126" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="120"/>
-      <c r="C99" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B99" s="120">
+        <v>700</v>
+      </c>
+      <c r="C99" s="126" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="120"/>
-      <c r="C100" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B100" s="120">
+        <v>1400</v>
+      </c>
+      <c r="C100" s="126" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="120"/>
-      <c r="C101" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B101" s="120">
+        <v>525</v>
+      </c>
+      <c r="C101" s="126" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="120"/>
-      <c r="C102" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B102" s="120">
+        <v>1025</v>
+      </c>
+      <c r="C102" s="126" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -43320,7 +43442,7 @@
         <v>99</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -43331,7 +43453,7 @@
         <v>4830</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -43342,7 +43464,7 @@
         <v>7945</v>
       </c>
       <c r="C105" s="126" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -43363,7 +43485,7 @@
         <v>2265</v>
       </c>
       <c r="C107" s="126" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -43384,10 +43506,10 @@
         <v>700</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>31</v>
       </c>
@@ -43395,10 +43517,10 @@
         <v>5595</v>
       </c>
       <c r="C110" s="126" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
         <v>33</v>
       </c>
@@ -43406,7 +43528,7 @@
         <v>5595</v>
       </c>
       <c r="C111" s="126" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -43427,7 +43549,7 @@
         <v>1710</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -43438,7 +43560,7 @@
         <v>300</v>
       </c>
       <c r="C114" s="126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -43449,7 +43571,7 @@
         <v>250</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -43460,7 +43582,7 @@
         <v>250</v>
       </c>
       <c r="C116" s="126" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -43471,7 +43593,7 @@
         <v>350</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -43482,7 +43604,7 @@
         <v>400</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -43637,222 +43759,257 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="49" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B149" s="49"/>
       <c r="C149" s="120"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="124" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B150" s="127">
         <f>SUM(B6,B32,B51)</f>
         <v>1342</v>
       </c>
       <c r="C150" s="128" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B151" s="120">
         <f>SUM(B13:B15)</f>
         <v>7730</v>
       </c>
       <c r="C151" s="126" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B152" s="120">
         <f>SUM(B11:B12)</f>
         <v>5780</v>
       </c>
       <c r="C152" s="126" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="34" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B153" s="49"/>
       <c r="C153" s="126"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B154" s="120">
         <f>SUM(B29:B31)</f>
         <v>8390</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="34" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B155" s="120">
         <f>SUM(B37)</f>
-        <v>6235</v>
+        <v>4625</v>
       </c>
       <c r="C155" s="126" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B156" s="120">
         <f>SUM(B43:B45)</f>
         <v>3995</v>
       </c>
       <c r="C156" s="126" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B157" s="120">
         <f>SUM(B35:B36)</f>
         <v>4445</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B158" s="120">
         <f>SUM(B54,B38,B55,B39)</f>
         <v>990</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B159" s="120">
         <f>SUM(B113,B111,B110,B107,B60,B61,B42,B41)</f>
         <v>18245</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B160" s="120">
         <f>SUM(B114:B117,B16,B17)</f>
         <v>1700</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B161" s="129">
         <f>SUM(B62:B64)</f>
         <v>3625</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B162" s="120">
         <f>SUM(B66)</f>
         <v>6425</v>
       </c>
       <c r="C162" s="126" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B163" s="120">
         <f>SUM(B67:B71)</f>
-        <v>9010</v>
+        <v>8330</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>440</v>
-      </c>
-      <c r="B164" s="49"/>
-      <c r="C164" s="126"/>
+        <v>438</v>
+      </c>
+      <c r="B164" s="120">
+        <f>SUM(B78:B80)</f>
+        <v>5060</v>
+      </c>
+      <c r="C164" s="126" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
-        <v>441</v>
-      </c>
-      <c r="B165" s="49"/>
-      <c r="C165" s="126"/>
+        <v>439</v>
+      </c>
+      <c r="B165" s="120">
+        <f>SUM(B76:B77)</f>
+        <v>4760</v>
+      </c>
+      <c r="C165" s="126" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="B166" s="49"/>
-      <c r="C166" s="126"/>
+        <v>440</v>
+      </c>
+      <c r="B166" s="120">
+        <f>SUM(B81:B86)</f>
+        <v>27160</v>
+      </c>
+      <c r="C166" s="126" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="B167" s="49"/>
-      <c r="C167" s="126"/>
+        <v>441</v>
+      </c>
+      <c r="B167" s="120">
+        <f>SUM(B48,B49,B95,B96)</f>
+        <v>4800</v>
+      </c>
+      <c r="C167" s="126" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="B168" s="49"/>
-      <c r="C168" s="126"/>
+        <v>442</v>
+      </c>
+      <c r="B168" s="120">
+        <f>SUM(B93,B94,B46,B47)</f>
+        <v>6600</v>
+      </c>
+      <c r="C168" s="126" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="B169" s="49"/>
-      <c r="C169" s="126"/>
+        <v>443</v>
+      </c>
+      <c r="B169" s="120">
+        <f>SUM(B102,B101,B100,B99,B98,B97,B58,B59)</f>
+        <v>6640</v>
+      </c>
+      <c r="C169" s="126" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>446</v>
-      </c>
-      <c r="B170" s="49"/>
-      <c r="C170" s="126"/>
+        <v>444</v>
+      </c>
+      <c r="B170" s="120">
+        <f>SUM(B10,B24,B25,B26,B28,B34,B65,B75)</f>
+        <v>17280</v>
+      </c>
+      <c r="C170" s="126" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="49"/>
@@ -44008,8 +44165,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B151:B152 B154 B156:B157 B160:B161 B163" formulaRange="1"/>
-    <ignoredError sqref="C29:C32 C23 C18 C11:C15 C6 C51 C53 C57 C72:C74 C91 C87:C89 C103:C105 C109 C118 C150:C152 C154 C43:C44 C156 C45 C37" numberStoredAsText="1"/>
+    <ignoredError sqref="B151:B152 B154 B156:B157 B160:B161 B163:B166" formulaRange="1"/>
+    <ignoredError sqref="C29:C32 C23 C18 C11:C15 C6 C51 C53 C57 C72:C74 C91 C87:C89 C103:C105 C109 C118 C150:C152 C154 C43:C44 C156 C45" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -1536,9 +1536,6 @@
     <t>$2,685.00</t>
   </si>
   <si>
-    <t>$17,280.00</t>
-  </si>
-  <si>
     <t>/Dealer.com SEO</t>
   </si>
   <si>
@@ -1552,6 +1549,9 @@
   </si>
   <si>
     <t>Escape</t>
+  </si>
+  <si>
+    <t>$16,160.00</t>
   </si>
 </sst>
 </file>
@@ -3397,7 +3397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
@@ -4590,7 +4590,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="132" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -13339,7 +13339,7 @@
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>384</v>
@@ -13361,7 +13361,7 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3" s="93" t="s">
         <v>384</v>
@@ -13880,7 +13880,7 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>384</v>
@@ -16627,7 +16627,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -16816,7 +16816,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17005,7 +17005,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17194,7 +17194,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17385,7 +17385,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17600,7 +17600,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -17801,7 +17801,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18004,7 +18004,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18201,7 +18201,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18452,7 +18452,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18705,7 +18705,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -18958,7 +18958,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19191,7 +19191,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19428,7 +19428,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19661,7 +19661,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -19886,7 +19886,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20111,7 +20111,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20303,7 +20303,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20492,7 +20492,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20681,7 +20681,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -20872,7 +20872,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21061,7 +21061,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21288,7 +21288,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21501,7 +21501,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21714,7 +21714,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -21971,7 +21971,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22228,7 +22228,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22467,7 +22467,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22702,7 +22702,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -22941,7 +22941,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23178,7 +23178,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23387,7 +23387,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23594,7 +23594,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -23849,7 +23849,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24114,7 +24114,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24379,7 +24379,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24678,7 +24678,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -24887,7 +24887,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25132,7 +25132,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25343,7 +25343,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25550,7 +25550,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -25771,7 +25771,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26036,7 +26036,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26301,7 +26301,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -26781,7 +26781,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -26994,7 +26994,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27205,7 +27205,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27414,7 +27414,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27605,7 +27605,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -27802,7 +27802,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -27995,7 +27995,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28201,7 +28201,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28406,7 +28406,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28647,7 +28647,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -28852,7 +28852,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29046,7 +29046,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29246,7 +29246,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29448,7 +29448,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29645,7 +29645,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -29878,7 +29878,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30111,7 +30111,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30348,7 +30348,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30581,7 +30581,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -30830,7 +30830,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31083,7 +31083,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31320,7 +31320,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31559,7 +31559,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -31798,7 +31798,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32039,7 +32039,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32276,7 +32276,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32465,7 +32465,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32654,7 +32654,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -32843,7 +32843,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33092,7 +33092,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33343,7 +33343,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33594,7 +33594,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -33825,7 +33825,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34060,7 +34060,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34291,7 +34291,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34534,7 +34534,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -34755,7 +34755,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35004,7 +35004,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35253,7 +35253,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35502,7 +35502,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -35751,7 +35751,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -35942,7 +35942,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36133,7 +36133,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36508,7 +36508,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -36883,7 +36883,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37100,7 +37100,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37317,7 +37317,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37532,7 +37532,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -37745,7 +37745,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -37945,7 +37945,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38145,7 +38145,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38347,7 +38347,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38549,7 +38549,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -38751,7 +38751,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -38953,7 +38953,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39154,7 +39154,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39371,7 +39371,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39588,7 +39588,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -39805,7 +39805,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40022,7 +40022,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40239,7 +40239,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40456,7 +40456,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40673,7 +40673,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -40890,7 +40890,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41107,7 +41107,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41324,7 +41324,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41513,7 +41513,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41702,7 +41702,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -41891,7 +41891,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42080,7 +42080,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42290,8 +42290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42717,7 +42717,7 @@
         <v>4625</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -43828,7 +43828,7 @@
         <v>4625</v>
       </c>
       <c r="C155" s="126" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -44004,11 +44004,11 @@
         <v>444</v>
       </c>
       <c r="B170" s="120">
-        <f>SUM(B10,B24,B25,B26,B28,B34,B65,B75)</f>
-        <v>17280</v>
+        <f>SUM(B10,B24,B25,B26,B28,B34,B65)</f>
+        <v>16160</v>
       </c>
       <c r="C170" s="126" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="509">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1068,12 +1068,6 @@
     <t>LeaderboardNewClickThruURL</t>
   </si>
   <si>
-    <t>LeaderboardUsedClickThruURL</t>
-  </si>
-  <si>
-    <t>SitelinkUsedProOptIn</t>
-  </si>
-  <si>
     <t>www.haystakurl.com</t>
   </si>
   <si>
@@ -1552,6 +1546,9 @@
   </si>
   <si>
     <t>$16,160.00</t>
+  </si>
+  <si>
+    <t>SitelinkUsedProOptIN</t>
   </si>
 </sst>
 </file>
@@ -3554,7 +3551,7 @@
         <v>155</v>
       </c>
       <c r="AE1" s="68" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AF1" s="68" t="s">
         <v>156</v>
@@ -4590,7 +4587,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="132" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -8131,8 +8128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="54.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8253,7 +8250,7 @@
         <v>145</v>
       </c>
       <c r="S1" s="68" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="T1" s="68" t="s">
         <v>147</v>
@@ -8262,7 +8259,7 @@
         <v>208</v>
       </c>
       <c r="V1" s="68" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="W1" s="68" t="s">
         <v>210</v>
@@ -8310,7 +8307,7 @@
         <v>215</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>349</v>
+        <v>508</v>
       </c>
       <c r="AM1" s="68" t="s">
         <v>217</v>
@@ -8431,6 +8428,7 @@
       <c r="AF2" s="35" t="s">
         <v>189</v>
       </c>
+      <c r="AH2" s="32"/>
       <c r="AK2" s="35" t="b">
         <v>1</v>
       </c>
@@ -8576,6 +8574,8 @@
       <c r="AF4" s="35" t="s">
         <v>189</v>
       </c>
+      <c r="AH4" s="32"/>
+      <c r="AL4" s="32"/>
       <c r="AO4" s="35"/>
       <c r="AX4" s="36"/>
       <c r="AZ4" s="15"/>
@@ -9377,13 +9377,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="BS19" sqref="BS19:BS24"/>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="37.5703125" style="5"/>
+    <col min="1" max="1" width="52.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="37.5703125" style="5"/>
     <col min="14" max="17" width="37.5703125" style="32"/>
     <col min="18" max="25" width="37.5703125" style="5"/>
     <col min="26" max="27" width="37.5703125" style="32"/>
@@ -9445,7 +9446,7 @@
         <v>128</v>
       </c>
       <c r="N1" s="68" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O1" s="68" t="s">
         <v>129</v>
@@ -9454,7 +9455,7 @@
         <v>131</v>
       </c>
       <c r="Q1" s="68" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R1" s="68" t="s">
         <v>132</v>
@@ -9508,7 +9509,7 @@
         <v>242</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="AJ1" s="119" t="s">
         <v>243</v>
@@ -9517,7 +9518,7 @@
         <v>156</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AM1" s="68" t="s">
         <v>157</v>
@@ -9529,7 +9530,7 @@
         <v>159</v>
       </c>
       <c r="AP1" s="68" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AQ1" s="68" t="s">
         <v>162</v>
@@ -9538,7 +9539,7 @@
         <v>163</v>
       </c>
       <c r="AS1" s="68" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AT1" s="68" t="s">
         <v>213</v>
@@ -9580,7 +9581,7 @@
         <v>215</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>349</v>
+        <v>216</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>217</v>
@@ -9607,7 +9608,7 @@
         <v>220</v>
       </c>
       <c r="BP1" s="68" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="BQ1" s="68" t="s">
         <v>178</v>
@@ -11718,12 +11719,12 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S19" s="35" t="s">
         <v>192</v>
@@ -11809,12 +11810,12 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S20" s="35" t="s">
         <v>192</v>
@@ -11835,7 +11836,7 @@
         <v>194</v>
       </c>
       <c r="Y20" s="35" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -11930,12 +11931,12 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>192</v>
@@ -11956,7 +11957,7 @@
         <v>194</v>
       </c>
       <c r="Y21" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -12043,12 +12044,12 @@
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S22" s="35" t="s">
         <v>192</v>
@@ -12069,7 +12070,7 @@
         <v>194</v>
       </c>
       <c r="Y22" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -12164,12 +12165,12 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S23" s="35" t="s">
         <v>192</v>
@@ -12190,7 +12191,7 @@
         <v>194</v>
       </c>
       <c r="Y23" s="35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -12285,12 +12286,12 @@
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S24" s="35" t="s">
         <v>192</v>
@@ -12311,7 +12312,7 @@
         <v>194</v>
       </c>
       <c r="Y24" s="35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -13121,7 +13122,7 @@
   <dimension ref="A1:BB124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:G27"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13339,16 +13340,16 @@
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C2" s="73">
         <v>42614</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="37"/>
@@ -13361,16 +13362,16 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C3" s="73">
         <v>42615</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P3" s="12">
         <v>1000</v>
@@ -13388,7 +13389,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C4" s="73">
         <v>42616</v>
@@ -13409,7 +13410,7 @@
         <v>328</v>
       </c>
       <c r="AH4" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AI4" s="35" t="s">
         <v>338</v>
@@ -13421,13 +13422,13 @@
         <v>7539517896</v>
       </c>
       <c r="AL4" s="35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AM4" s="35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN4" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AU4" s="35">
         <v>100</v>
@@ -13448,7 +13449,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" s="73">
         <v>42617</v>
@@ -13469,7 +13470,7 @@
         <v>328</v>
       </c>
       <c r="AH5" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AI5" s="35" t="s">
         <v>338</v>
@@ -13481,13 +13482,13 @@
         <v>7539517896</v>
       </c>
       <c r="AL5" s="35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AM5" s="35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN5" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AU5" s="35">
         <v>100</v>
@@ -13508,7 +13509,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C6" s="73">
         <v>42618</v>
@@ -13546,7 +13547,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C7" s="73">
         <v>42619</v>
@@ -13567,7 +13568,7 @@
         <v>328</v>
       </c>
       <c r="AH7" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AI7" s="35" t="s">
         <v>338</v>
@@ -13579,13 +13580,13 @@
         <v>7539517896</v>
       </c>
       <c r="AL7" s="35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AM7" s="35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN7" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AU7" s="35">
         <v>100</v>
@@ -13606,13 +13607,13 @@
         <v>74</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" s="73">
         <v>42620</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P8" s="13">
         <v>1000</v>
@@ -13628,13 +13629,13 @@
         <v>75</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C9" s="73">
         <v>42621</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P9" s="13">
         <v>1000</v>
@@ -13650,13 +13651,13 @@
         <v>76</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C10" s="73">
         <v>42622</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P10" s="13">
         <v>1000</v>
@@ -13672,13 +13673,13 @@
         <v>77</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C11" s="73">
         <v>42623</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="37"/>
@@ -13692,7 +13693,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C12" s="84"/>
       <c r="P12" s="12"/>
@@ -13707,7 +13708,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C13" s="84"/>
       <c r="P13" s="12"/>
@@ -13722,13 +13723,13 @@
         <v>80</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C14" s="73">
         <v>42626</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="37"/>
@@ -13742,13 +13743,13 @@
         <v>81</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C15" s="73">
         <v>42627</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="37"/>
@@ -13762,13 +13763,13 @@
         <v>82</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C16" s="73">
         <v>42628</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="37"/>
@@ -13782,7 +13783,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C17" s="73">
         <v>42629</v>
@@ -13809,41 +13810,41 @@
         <v>2000</v>
       </c>
       <c r="V17" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="W17" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="X17" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="W17" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="X17" s="28" t="s">
-        <v>357</v>
-      </c>
       <c r="Y17" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z17" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA17" s="35" t="s">
         <v>352</v>
-      </c>
-      <c r="Z17" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA17" s="35" t="s">
-        <v>354</v>
       </c>
       <c r="AF17" s="35"/>
       <c r="AO17" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="AP17" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="AQ17" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="AP17" s="35" t="s">
+      <c r="AR17" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="AQ17" s="35" t="s">
+      <c r="AS17" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="AR17" s="35" t="s">
+      <c r="AT17" s="35" t="s">
         <v>362</v>
-      </c>
-      <c r="AS17" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT17" s="35" t="s">
-        <v>364</v>
       </c>
       <c r="AW17" s="35">
         <v>23789</v>
@@ -13858,7 +13859,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C18" s="73">
         <v>42630</v>
@@ -13880,10 +13881,10 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C19" s="73">
         <v>42631</v>
@@ -13943,7 +13944,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C20" s="73">
         <v>42632</v>
@@ -13962,19 +13963,19 @@
         <v>87</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C21" s="73">
         <v>42633</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M21" s="35" t="s">
         <v>332</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O21" s="35" t="s">
         <v>333</v>
@@ -14002,7 +14003,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C22" s="73">
         <v>42634</v>
@@ -14483,10 +14484,10 @@
         <v>303</v>
       </c>
       <c r="AA1" s="68" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AB1" s="68" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AC1" s="68" t="s">
         <v>121</v>
@@ -14514,7 +14515,7 @@
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>182</v>
@@ -14580,7 +14581,7 @@
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>182</v>
@@ -14648,7 +14649,7 @@
         <v>345</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -14710,7 +14711,7 @@
         <v>345</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -14770,7 +14771,7 @@
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>182</v>
@@ -14814,7 +14815,7 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
       <c r="AB6" s="35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AC6" s="35"/>
       <c r="AD6" s="35"/>
@@ -14838,7 +14839,7 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>182</v>
@@ -14882,7 +14883,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="34"/>
       <c r="AB7" s="35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AC7" s="35"/>
       <c r="AD7" s="35"/>
@@ -14908,7 +14909,7 @@
         <v>345</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -14946,7 +14947,7 @@
       <c r="Z8" s="34"/>
       <c r="AA8" s="34"/>
       <c r="AB8" s="35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AC8" s="35"/>
       <c r="AD8" s="35"/>
@@ -14972,7 +14973,7 @@
         <v>345</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -15010,7 +15011,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AC9" s="35"/>
       <c r="AD9" s="35"/>
@@ -15667,7 +15668,7 @@
         <v>264</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F5" s="34">
         <v>123</v>
@@ -15708,7 +15709,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P6" s="34" t="b">
         <v>1</v>
@@ -15740,7 +15741,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M7" s="34" t="s">
         <v>195</v>
@@ -15789,7 +15790,7 @@
         <v>42468</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V9" s="34" t="s">
         <v>180</v>
@@ -15806,7 +15807,7 @@
         <v>42469</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V10" s="34" t="s">
         <v>180</v>
@@ -15823,7 +15824,7 @@
         <v>42470</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V11" s="34" t="s">
         <v>180</v>
@@ -15840,7 +15841,7 @@
         <v>42471</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V12" s="34" t="s">
         <v>180</v>
@@ -15872,7 +15873,7 @@
         <v>328</v>
       </c>
       <c r="X13" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Y13" s="34" t="s">
         <v>338</v>
@@ -15884,13 +15885,13 @@
         <v>1234567890</v>
       </c>
       <c r="AB13" s="34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AC13" s="33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AD13" s="33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AF13" s="34">
         <v>50</v>
@@ -16627,7 +16628,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -16816,7 +16817,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17005,7 +17006,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17194,7 +17195,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17385,7 +17386,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17600,7 +17601,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -17801,7 +17802,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18004,7 +18005,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18201,7 +18202,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18452,7 +18453,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18705,7 +18706,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -18958,7 +18959,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19191,7 +19192,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19428,7 +19429,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19661,7 +19662,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -19886,7 +19887,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20111,7 +20112,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20303,7 +20304,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20492,7 +20493,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20681,7 +20682,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -20872,7 +20873,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21061,7 +21062,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21288,7 +21289,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21501,7 +21502,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21714,7 +21715,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -21971,7 +21972,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22228,7 +22229,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22467,7 +22468,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22702,7 +22703,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -22941,7 +22942,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23178,7 +23179,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23387,7 +23388,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23594,7 +23595,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -23849,7 +23850,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24114,7 +24115,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24379,7 +24380,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24678,7 +24679,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -24887,7 +24888,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25132,7 +25133,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25343,7 +25344,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25550,7 +25551,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -25771,7 +25772,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26036,7 +26037,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26301,7 +26302,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26568,7 +26569,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -26781,7 +26782,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -26994,7 +26995,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27205,7 +27206,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27414,7 +27415,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27605,7 +27606,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -27802,7 +27803,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -27995,7 +27996,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28201,7 +28202,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28406,7 +28407,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28647,7 +28648,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -28852,7 +28853,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29046,7 +29047,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29246,7 +29247,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29448,7 +29449,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29645,7 +29646,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -29878,7 +29879,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30111,7 +30112,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30348,7 +30349,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30581,7 +30582,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -30830,7 +30831,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31083,7 +31084,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31320,7 +31321,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31559,7 +31560,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -31798,7 +31799,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32039,7 +32040,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32276,7 +32277,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32465,7 +32466,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32654,7 +32655,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -32843,7 +32844,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33092,7 +33093,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33343,7 +33344,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33594,7 +33595,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -33825,7 +33826,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34060,7 +34061,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34291,7 +34292,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34534,7 +34535,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -34755,7 +34756,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35004,7 +35005,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35253,7 +35254,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35502,7 +35503,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -35751,7 +35752,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -35942,7 +35943,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36133,7 +36134,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36508,7 +36509,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -36883,7 +36884,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37100,7 +37101,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37317,7 +37318,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37532,7 +37533,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -37745,7 +37746,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -37945,7 +37946,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38145,7 +38146,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38347,7 +38348,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38549,7 +38550,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -38751,7 +38752,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -38953,7 +38954,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39154,7 +39155,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39371,7 +39372,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39588,7 +39589,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -39805,7 +39806,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40022,7 +40023,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40239,7 +40240,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40456,7 +40457,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40673,7 +40674,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -40890,7 +40891,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41107,7 +41108,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41324,7 +41325,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41513,7 +41514,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41702,7 +41703,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -41891,7 +41892,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42080,7 +42081,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42503</v>
+        <v>42527</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42290,7 +42291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
@@ -42307,10 +42308,10 @@
         <v>117</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="120" t="s">
         <v>393</v>
-      </c>
-      <c r="C1" s="120" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -42373,7 +42374,7 @@
         <v>650</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I6" s="121"/>
       <c r="J6" s="122"/>
@@ -42426,7 +42427,7 @@
         <v>2685</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -42437,7 +42438,7 @@
         <v>2895</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -42448,7 +42449,7 @@
         <v>2885</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -42459,7 +42460,7 @@
         <v>1050</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -42470,7 +42471,7 @@
         <v>4135</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -42481,7 +42482,7 @@
         <v>2545</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -42492,7 +42493,7 @@
         <v>300</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -42503,7 +42504,7 @@
         <v>250</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -42514,7 +42515,7 @@
         <v>400</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -42565,7 +42566,7 @@
         <v>600</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -42576,7 +42577,7 @@
         <v>1700</v>
       </c>
       <c r="C24" s="126" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -42587,7 +42588,7 @@
         <v>1120</v>
       </c>
       <c r="C25" s="126" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -42598,7 +42599,7 @@
         <v>2910</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -42619,7 +42620,7 @@
         <v>2375</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -42630,7 +42631,7 @@
         <v>1200</v>
       </c>
       <c r="C29" s="126" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -42641,7 +42642,7 @@
         <v>4195</v>
       </c>
       <c r="C30" s="126" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -42652,7 +42653,7 @@
         <v>2995</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -42663,7 +42664,7 @@
         <v>242</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -42684,7 +42685,7 @@
         <v>2685</v>
       </c>
       <c r="C34" s="126" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -42695,7 +42696,7 @@
         <v>2375</v>
       </c>
       <c r="C35" s="126" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -42706,7 +42707,7 @@
         <v>2070</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -42717,7 +42718,7 @@
         <v>4625</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -42728,7 +42729,7 @@
         <v>265</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -42739,7 +42740,7 @@
         <v>305</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -42750,7 +42751,7 @@
         <v>305</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -42761,7 +42762,7 @@
         <v>770</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -42772,7 +42773,7 @@
         <v>770</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -42783,7 +42784,7 @@
         <v>270</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -42794,7 +42795,7 @@
         <v>2025</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -42805,7 +42806,7 @@
         <v>1700</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -42816,7 +42817,7 @@
         <v>1500</v>
       </c>
       <c r="C46" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -42827,7 +42828,7 @@
         <v>1800</v>
       </c>
       <c r="C47" s="126" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -42838,7 +42839,7 @@
         <v>900</v>
       </c>
       <c r="C48" s="126" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -42849,7 +42850,7 @@
         <v>1500</v>
       </c>
       <c r="C49" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -42870,7 +42871,7 @@
         <v>450</v>
       </c>
       <c r="C51" s="126" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -42891,7 +42892,7 @@
         <v>200</v>
       </c>
       <c r="C53" s="126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -42902,7 +42903,7 @@
         <v>190</v>
       </c>
       <c r="C54" s="126" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -42913,7 +42914,7 @@
         <v>230</v>
       </c>
       <c r="C55" s="126" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -42934,7 +42935,7 @@
         <v>300</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -42945,7 +42946,7 @@
         <v>135</v>
       </c>
       <c r="C58" s="126" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -42956,7 +42957,7 @@
         <v>80</v>
       </c>
       <c r="C59" s="126" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -42967,7 +42968,7 @@
         <v>770</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -42978,7 +42979,7 @@
         <v>770</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -42989,7 +42990,7 @@
         <v>490</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -43000,7 +43001,7 @@
         <v>1960</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -43011,7 +43012,7 @@
         <v>1175</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -43022,7 +43023,7 @@
         <v>2685</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -43033,7 +43034,7 @@
         <v>6425</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -43044,7 +43045,7 @@
         <v>895</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -43055,7 +43056,7 @@
         <v>540</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -43066,7 +43067,7 @@
         <v>1715</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -43077,7 +43078,7 @@
         <v>3750</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -43088,7 +43089,7 @@
         <v>1430</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -43099,7 +43100,7 @@
         <v>1500</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -43110,7 +43111,7 @@
         <v>1100</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -43121,7 +43122,7 @@
         <v>1000</v>
       </c>
       <c r="C74" s="126" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -43132,7 +43133,7 @@
         <v>1120</v>
       </c>
       <c r="C75" s="126" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -43143,7 +43144,7 @@
         <v>2725</v>
       </c>
       <c r="C76" s="126" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -43154,7 +43155,7 @@
         <v>2035</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -43165,7 +43166,7 @@
         <v>690</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -43176,7 +43177,7 @@
         <v>2705</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -43187,7 +43188,7 @@
         <v>1665</v>
       </c>
       <c r="C80" s="126" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -43198,7 +43199,7 @@
         <v>3250</v>
       </c>
       <c r="C81" s="126" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -43209,7 +43210,7 @@
         <v>2725</v>
       </c>
       <c r="C82" s="126" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -43220,7 +43221,7 @@
         <v>4205</v>
       </c>
       <c r="C83" s="126" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -43231,7 +43232,7 @@
         <v>7080</v>
       </c>
       <c r="C84" s="126" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -43242,7 +43243,7 @@
         <v>3470</v>
       </c>
       <c r="C85" s="126" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -43253,7 +43254,7 @@
         <v>6430</v>
       </c>
       <c r="C86" s="126" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -43264,7 +43265,7 @@
         <v>400</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -43275,7 +43276,7 @@
         <v>800</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -43286,7 +43287,7 @@
         <v>600</v>
       </c>
       <c r="C89" s="126" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -43309,7 +43310,7 @@
         <v>500</v>
       </c>
       <c r="C91" s="126" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -43332,7 +43333,7 @@
         <v>1500</v>
       </c>
       <c r="C93" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -43343,7 +43344,7 @@
         <v>1800</v>
       </c>
       <c r="C94" s="126" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -43354,7 +43355,7 @@
         <v>900</v>
       </c>
       <c r="C95" s="126" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -43365,7 +43366,7 @@
         <v>1500</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -43376,7 +43377,7 @@
         <v>925</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -43387,7 +43388,7 @@
         <v>1850</v>
       </c>
       <c r="C98" s="126" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -43398,7 +43399,7 @@
         <v>700</v>
       </c>
       <c r="C99" s="126" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -43409,7 +43410,7 @@
         <v>1400</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -43420,7 +43421,7 @@
         <v>525</v>
       </c>
       <c r="C101" s="126" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -43431,7 +43432,7 @@
         <v>1025</v>
       </c>
       <c r="C102" s="126" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -43442,7 +43443,7 @@
         <v>99</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -43453,7 +43454,7 @@
         <v>4830</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -43464,7 +43465,7 @@
         <v>7945</v>
       </c>
       <c r="C105" s="126" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -43485,7 +43486,7 @@
         <v>2265</v>
       </c>
       <c r="C107" s="126" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -43506,7 +43507,7 @@
         <v>700</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -43517,7 +43518,7 @@
         <v>5595</v>
       </c>
       <c r="C110" s="126" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -43528,7 +43529,7 @@
         <v>5595</v>
       </c>
       <c r="C111" s="126" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -43549,7 +43550,7 @@
         <v>1710</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -43560,7 +43561,7 @@
         <v>300</v>
       </c>
       <c r="C114" s="126" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -43571,7 +43572,7 @@
         <v>250</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -43582,7 +43583,7 @@
         <v>250</v>
       </c>
       <c r="C116" s="126" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -43593,7 +43594,7 @@
         <v>350</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -43604,7 +43605,7 @@
         <v>400</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -43759,256 +43760,256 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="49" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B149" s="49"/>
       <c r="C149" s="120"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="124" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B150" s="127">
         <f>SUM(B6,B32,B51)</f>
         <v>1342</v>
       </c>
       <c r="C150" s="128" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B151" s="120">
         <f>SUM(B13:B15)</f>
         <v>7730</v>
       </c>
       <c r="C151" s="126" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="34" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B152" s="120">
         <f>SUM(B11:B12)</f>
         <v>5780</v>
       </c>
       <c r="C152" s="126" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B153" s="49"/>
       <c r="C153" s="126"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="34" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B154" s="120">
         <f>SUM(B29:B31)</f>
         <v>8390</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="34" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B155" s="120">
         <f>SUM(B37)</f>
         <v>4625</v>
       </c>
       <c r="C155" s="126" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B156" s="120">
         <f>SUM(B43:B45)</f>
         <v>3995</v>
       </c>
       <c r="C156" s="126" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B157" s="120">
         <f>SUM(B35:B36)</f>
         <v>4445</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B158" s="120">
         <f>SUM(B54,B38,B55,B39)</f>
         <v>990</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B159" s="120">
         <f>SUM(B113,B111,B110,B107,B60,B61,B42,B41)</f>
         <v>18245</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B160" s="120">
         <f>SUM(B114:B117,B16,B17)</f>
         <v>1700</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B161" s="129">
         <f>SUM(B62:B64)</f>
         <v>3625</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B162" s="120">
         <f>SUM(B66)</f>
         <v>6425</v>
       </c>
       <c r="C162" s="126" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B163" s="120">
         <f>SUM(B67:B71)</f>
         <v>8330</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B164" s="120">
         <f>SUM(B78:B80)</f>
         <v>5060</v>
       </c>
       <c r="C164" s="126" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B165" s="120">
         <f>SUM(B76:B77)</f>
         <v>4760</v>
       </c>
       <c r="C165" s="126" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B166" s="120">
         <f>SUM(B81:B86)</f>
         <v>27160</v>
       </c>
       <c r="C166" s="126" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B167" s="120">
         <f>SUM(B48,B49,B95,B96)</f>
         <v>4800</v>
       </c>
       <c r="C167" s="126" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B168" s="120">
         <f>SUM(B93,B94,B46,B47)</f>
         <v>6600</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B169" s="120">
         <f>SUM(B102,B101,B100,B99,B98,B97,B58,B59)</f>
         <v>6640</v>
       </c>
       <c r="C169" s="126" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B170" s="120">
         <f>SUM(B10,B24,B25,B26,B28,B34,B65)</f>
         <v>16160</v>
       </c>
       <c r="C170" s="126" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -3394,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ21"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
@@ -8128,7 +8128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
@@ -9377,8 +9377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BF9" sqref="BF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9581,7 +9581,7 @@
         <v>215</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>216</v>
+        <v>508</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>217</v>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="Not Priceable-Unclassified" sheetId="7" r:id="rId7"/>
     <sheet name="All" sheetId="8" r:id="rId8"/>
     <sheet name="Pricing" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="MVP" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="512">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1549,6 +1551,15 @@
   </si>
   <si>
     <t>SitelinkUsedProOptIN</t>
+  </si>
+  <si>
+    <t>MVPPriceTotal</t>
+  </si>
+  <si>
+    <t>Connect Advanced</t>
+  </si>
+  <si>
+    <t>Connect Core</t>
   </si>
 </sst>
 </file>
@@ -3390,12 +3401,275 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z1" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA1" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB1" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC1" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD1" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE1" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF1" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG1" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH1" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI1" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ1" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK1" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL1" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM1" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN1" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO1" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP1" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ1" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR1" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS1" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT1" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU1" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV1" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW1" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX1" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY1" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ1" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA1" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB1" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC1" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD1" s="68" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9377,7 +9651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+    <sheetView topLeftCell="BD1" workbookViewId="0">
       <selection activeCell="BF9" sqref="BF9"/>
     </sheetView>
   </sheetViews>
@@ -16628,7 +16902,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -16817,7 +17091,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17006,7 +17280,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17195,7 +17469,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17386,7 +17660,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17601,7 +17875,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -17802,7 +18076,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18005,7 +18279,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18202,7 +18476,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18453,7 +18727,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18706,7 +18980,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -18959,7 +19233,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19192,7 +19466,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19429,7 +19703,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19662,7 +19936,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -19887,7 +20161,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20112,7 +20386,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20304,7 +20578,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20493,7 +20767,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20682,7 +20956,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -20873,7 +21147,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21062,7 +21336,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21289,7 +21563,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21502,7 +21776,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21715,7 +21989,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -21972,7 +22246,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22229,7 +22503,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22468,7 +22742,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22703,7 +22977,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -22942,7 +23216,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23179,7 +23453,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23388,7 +23662,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23595,7 +23869,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -23850,7 +24124,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24115,7 +24389,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24380,7 +24654,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24679,7 +24953,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -24888,7 +25162,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25133,7 +25407,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25344,7 +25618,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25551,7 +25825,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -25772,7 +26046,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26037,7 +26311,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26302,7 +26576,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26569,7 +26843,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -26782,7 +27056,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -26995,7 +27269,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27206,7 +27480,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27415,7 +27689,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27606,7 +27880,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -27803,7 +28077,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -27996,7 +28270,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28202,7 +28476,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28407,7 +28681,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28648,7 +28922,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -28853,7 +29127,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29047,7 +29321,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29247,7 +29521,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29449,7 +29723,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29646,7 +29920,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -29879,7 +30153,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30112,7 +30386,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30349,7 +30623,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30582,7 +30856,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -30831,7 +31105,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31084,7 +31358,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31321,7 +31595,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31560,7 +31834,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -31799,7 +32073,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32040,7 +32314,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32277,7 +32551,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32466,7 +32740,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32655,7 +32929,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -32844,7 +33118,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33093,7 +33367,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33344,7 +33618,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33595,7 +33869,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -33826,7 +34100,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34061,7 +34335,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34292,7 +34566,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34535,7 +34809,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -34756,7 +35030,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35005,7 +35279,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35254,7 +35528,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35503,7 +35777,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -35752,7 +36026,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -35943,7 +36217,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36134,7 +36408,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36509,7 +36783,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -36884,7 +37158,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37101,7 +37375,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37318,7 +37592,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37533,7 +37807,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -37746,7 +38020,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -37946,7 +38220,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38146,7 +38420,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38348,7 +38622,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38550,7 +38824,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -38752,7 +39026,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -38954,7 +39228,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39155,7 +39429,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39372,7 +39646,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39589,7 +39863,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -39806,7 +40080,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40023,7 +40297,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40240,7 +40514,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40457,7 +40731,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40674,7 +40948,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -40891,7 +41165,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41108,7 +41382,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41325,7 +41599,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41514,7 +41788,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41703,7 +41977,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -41892,7 +42166,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42081,7 +42355,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42527</v>
+        <v>42558</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42289,10 +42563,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42320,7 +42594,7 @@
       </c>
       <c r="B2" s="120"/>
       <c r="C2" s="126">
-        <f t="shared" ref="C2:C56" si="0">B2</f>
+        <f t="shared" ref="C2:C58" si="0">B2</f>
         <v>0</v>
       </c>
       <c r="I2" s="121"/>
@@ -42485,62 +42759,56 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="120">
-        <v>300</v>
-      </c>
-      <c r="C16" s="126" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="126"/>
+    </row>
+    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="120">
-        <v>250</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>460</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="B17" s="120"/>
+      <c r="C17" s="126"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B18" s="120">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B19" s="120">
+        <v>250</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="B20" s="120">
+        <v>400</v>
+      </c>
+      <c r="C20" s="126" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B21" s="120"/>
       <c r="C21" s="126">
@@ -42550,7 +42818,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B22" s="120"/>
       <c r="C22" s="126">
@@ -42560,323 +42828,322 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="120">
-        <v>600</v>
-      </c>
-      <c r="C23" s="126" t="s">
-        <v>402</v>
+        <v>69</v>
+      </c>
+      <c r="B23" s="120"/>
+      <c r="C23" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="120">
-        <v>1700</v>
-      </c>
-      <c r="C24" s="126" t="s">
-        <v>445</v>
+        <v>68</v>
+      </c>
+      <c r="B24" s="120"/>
+      <c r="C24" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B25" s="120">
-        <v>1120</v>
+        <v>600</v>
       </c>
       <c r="C25" s="126" t="s">
-        <v>499</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" s="120">
-        <v>2910</v>
+        <v>1700</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="120">
+        <v>1120</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="120">
+        <v>2910</v>
+      </c>
+      <c r="C28" s="126" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="120"/>
-      <c r="C27" s="126">
+      <c r="B29" s="120"/>
+      <c r="C29" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="120">
-        <v>2375</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="120">
-        <v>1200</v>
-      </c>
-      <c r="C29" s="126" t="s">
-        <v>403</v>
-      </c>
-    </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B30" s="120">
-        <v>4195</v>
+        <v>2375</v>
       </c>
       <c r="C30" s="126" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="120">
-        <v>2995</v>
+        <v>1200</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B32" s="120">
-        <v>242</v>
+        <v>4195</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="120">
+        <v>2995</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="120">
+        <v>242</v>
+      </c>
+      <c r="C34" s="126" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="126">
+      <c r="B35" s="120"/>
+      <c r="C35" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="120">
-        <v>2685</v>
-      </c>
-      <c r="C34" s="126" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="120">
-        <v>2375</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>447</v>
-      </c>
-    </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B36" s="120">
-        <v>2070</v>
+        <v>2685</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B37" s="120">
-        <v>4625</v>
+        <v>2375</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B38" s="120">
-        <v>265</v>
+        <v>2070</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B39" s="120">
-        <v>305</v>
+        <v>4625</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B40" s="120">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B41" s="120">
-        <v>770</v>
+        <v>305</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B42" s="120">
-        <v>770</v>
+        <v>305</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B43" s="120">
-        <v>270</v>
+        <v>770</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B44" s="120">
-        <v>2025</v>
+        <v>770</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="120">
-        <v>1700</v>
+        <v>270</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B46" s="120">
-        <v>1500</v>
+        <v>2025</v>
       </c>
       <c r="C46" s="126" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="B47" s="120">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C47" s="126" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B48" s="120">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="C48" s="126" t="s">
-        <v>487</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B49" s="120">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="C49" s="126" t="s">
-        <v>409</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="120"/>
-      <c r="C50" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B50" s="120">
+        <v>900</v>
+      </c>
+      <c r="C50" s="126" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B51" s="120">
-        <v>450</v>
+        <v>1500</v>
       </c>
       <c r="C51" s="126" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="B52" s="120"/>
       <c r="C52" s="126">
@@ -42886,612 +43153,612 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="B53" s="120">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="C53" s="126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="120">
-        <v>190</v>
-      </c>
-      <c r="C54" s="126" t="s">
-        <v>450</v>
+        <v>5</v>
+      </c>
+      <c r="B54" s="120"/>
+      <c r="C54" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B55" s="120">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C55" s="126" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="120">
+        <v>190</v>
+      </c>
+      <c r="C56" s="126" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="120">
+        <v>230</v>
+      </c>
+      <c r="C57" s="126" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="126">
+      <c r="B58" s="120"/>
+      <c r="C58" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="120">
-        <v>300</v>
-      </c>
-      <c r="C57" s="126" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="120">
-        <v>135</v>
-      </c>
-      <c r="C58" s="126" t="s">
-        <v>496</v>
-      </c>
-    </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B59" s="120">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="C59" s="126" t="s">
-        <v>497</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B60" s="120">
-        <v>770</v>
+        <v>135</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B61" s="120">
-        <v>770</v>
+        <v>80</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B62" s="120">
-        <v>490</v>
+        <v>770</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B63" s="120">
-        <v>1960</v>
+        <v>770</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="120">
-        <v>1175</v>
+        <v>490</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B65" s="120">
-        <v>2685</v>
+        <v>1960</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B66" s="120">
-        <v>6425</v>
+        <v>1175</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B67" s="120">
-        <v>895</v>
+        <v>2685</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B68" s="120">
-        <v>540</v>
+        <v>6425</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B69" s="120">
-        <v>1715</v>
+        <v>895</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B70" s="120">
-        <v>3750</v>
+        <v>540</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B71" s="120">
-        <v>1430</v>
+        <v>1715</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B72" s="120">
-        <v>1500</v>
+        <v>3750</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B73" s="120">
-        <v>1100</v>
+        <v>1430</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B74" s="120">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C74" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B75" s="120">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="C75" s="126" t="s">
-        <v>499</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B76" s="120">
-        <v>2725</v>
+        <v>1000</v>
       </c>
       <c r="C76" s="126" t="s">
-        <v>479</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B77" s="120">
-        <v>2035</v>
+        <v>1120</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B78" s="120">
-        <v>690</v>
+        <v>2725</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B79" s="120">
-        <v>2705</v>
+        <v>2035</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80" s="120">
-        <v>1665</v>
+        <v>690</v>
       </c>
       <c r="C80" s="126" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B81" s="120">
-        <v>3250</v>
+        <v>2705</v>
       </c>
       <c r="C81" s="126" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B82" s="120">
-        <v>2725</v>
+        <v>1665</v>
       </c>
       <c r="C82" s="126" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B83" s="120">
-        <v>4205</v>
+        <v>3250</v>
       </c>
       <c r="C83" s="126" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B84" s="120">
-        <v>7080</v>
+        <v>2725</v>
       </c>
       <c r="C84" s="126" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B85" s="120">
-        <v>3470</v>
+        <v>4205</v>
       </c>
       <c r="C85" s="126" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B86" s="120">
-        <v>6430</v>
+        <v>7080</v>
       </c>
       <c r="C86" s="126" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B87" s="120">
-        <v>400</v>
+        <v>3470</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>401</v>
+        <v>481</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B88" s="120">
-        <v>800</v>
+        <v>6430</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" s="120">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C89" s="126" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B90" s="120">
-        <v>0</v>
-      </c>
-      <c r="C90" s="126">
-        <f t="shared" ref="C90:C112" si="1">B90</f>
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="C90" s="126" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B91" s="120">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C91" s="126" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B92" s="120">
         <v>0</v>
       </c>
       <c r="C92" s="126">
+        <f t="shared" ref="C92:C114" si="1">B92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="120">
+        <v>500</v>
+      </c>
+      <c r="C93" s="126" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="120">
+        <v>0</v>
+      </c>
+      <c r="C94" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="120">
-        <v>1500</v>
-      </c>
-      <c r="C93" s="126" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="120">
-        <v>1800</v>
-      </c>
-      <c r="C94" s="126" t="s">
-        <v>489</v>
-      </c>
-    </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B95" s="120">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="C95" s="126" t="s">
-        <v>487</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B96" s="120">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>409</v>
+        <v>489</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B97" s="120">
-        <v>925</v>
+        <v>900</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B98" s="120">
-        <v>1850</v>
+        <v>1500</v>
       </c>
       <c r="C98" s="126" t="s">
-        <v>492</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B99" s="120">
-        <v>700</v>
+        <v>925</v>
       </c>
       <c r="C99" s="126" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B100" s="120">
-        <v>1400</v>
+        <v>1850</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="120">
-        <v>525</v>
+        <v>700</v>
       </c>
       <c r="C101" s="126" t="s">
-        <v>493</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" s="120">
-        <v>1025</v>
+        <v>1400</v>
       </c>
       <c r="C102" s="126" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B103" s="120">
-        <v>99</v>
+        <v>525</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B104" s="120">
-        <v>4830</v>
+        <v>1025</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>415</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B105" s="120">
-        <v>7945</v>
+        <v>99</v>
       </c>
       <c r="C105" s="126" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B106" s="120"/>
-      <c r="C106" s="126">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="B106" s="120">
+        <v>4830</v>
+      </c>
+      <c r="C106" s="126" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B107" s="120">
-        <v>2265</v>
+        <v>7945</v>
       </c>
       <c r="C107" s="126" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="B108" s="120"/>
       <c r="C108" s="126">
@@ -43501,122 +43768,133 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B109" s="120">
-        <v>700</v>
+        <v>2265</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110" s="120">
-        <v>5595</v>
-      </c>
-      <c r="C110" s="126" t="s">
-        <v>458</v>
+        <v>116</v>
+      </c>
+      <c r="B110" s="120"/>
+      <c r="C110" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B111" s="120">
-        <v>5595</v>
+        <v>700</v>
       </c>
       <c r="C111" s="126" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="120">
+        <v>5595</v>
+      </c>
+      <c r="C112" s="126" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="120">
+        <v>5595</v>
+      </c>
+      <c r="C113" s="126" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B112" s="120"/>
-      <c r="C112" s="126">
+      <c r="B114" s="120"/>
+      <c r="C114" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B113" s="120">
-        <v>1710</v>
-      </c>
-      <c r="C113" s="126" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B114" s="120">
-        <v>300</v>
-      </c>
-      <c r="C114" s="126" t="s">
-        <v>408</v>
-      </c>
-    </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B115" s="120">
-        <v>250</v>
+        <v>1710</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B116" s="120">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C116" s="126" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B117" s="120">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="120">
+        <v>250</v>
+      </c>
+      <c r="C118" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="120">
+        <v>350</v>
+      </c>
+      <c r="C119" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B118" s="120">
+      <c r="B120" s="120">
         <v>400</v>
       </c>
-      <c r="C118" s="126" t="s">
+      <c r="C120" s="126" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="74"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="129"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="74"/>
-      <c r="B120" s="74"/>
-      <c r="C120" s="129"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="74"/>
@@ -43629,14 +43907,14 @@
       <c r="C122" s="129"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="49"/>
-      <c r="B123" s="120"/>
-      <c r="C123" s="120"/>
+      <c r="A123" s="74"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="129"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="49"/>
-      <c r="B124" s="120"/>
-      <c r="C124" s="120"/>
+      <c r="A124" s="74"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="129"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="49"/>
@@ -43710,12 +43988,12 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="49"/>
-      <c r="B139" s="49"/>
+      <c r="B139" s="120"/>
       <c r="C139" s="120"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="49"/>
-      <c r="B140" s="49"/>
+      <c r="B140" s="120"/>
       <c r="C140" s="120"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -43759,271 +44037,273 @@
       <c r="C148" s="120"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="49" t="s">
-        <v>423</v>
-      </c>
+      <c r="A149" s="49"/>
       <c r="B149" s="49"/>
       <c r="C149" s="120"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="124" t="s">
+      <c r="A150" s="49"/>
+      <c r="B150" s="49"/>
+      <c r="C150" s="120"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="B151" s="49"/>
+      <c r="C151" s="120"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="124" t="s">
         <v>394</v>
       </c>
-      <c r="B150" s="127">
-        <f>SUM(B6,B32,B51)</f>
+      <c r="B152" s="127">
+        <f>SUM(B6,B34,B53)</f>
         <v>1342</v>
       </c>
-      <c r="C150" s="128" t="s">
+      <c r="C152" s="128" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="34" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="B151" s="120">
+      <c r="B153" s="120">
         <f>SUM(B13:B15)</f>
         <v>7730</v>
       </c>
-      <c r="C151" s="126" t="s">
+      <c r="C153" s="126" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="34" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="B152" s="120">
+      <c r="B154" s="120">
         <f>SUM(B11:B12)</f>
         <v>5780</v>
       </c>
-      <c r="C152" s="126" t="s">
+      <c r="C154" s="126" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="B153" s="49"/>
-      <c r="C153" s="126"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="B154" s="120">
-        <f>SUM(B29:B31)</f>
-        <v>8390</v>
-      </c>
-      <c r="C154" s="126" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="B155" s="120">
-        <f>SUM(B37)</f>
-        <v>4625</v>
-      </c>
-      <c r="C155" s="126" t="s">
-        <v>505</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="B155" s="49"/>
+      <c r="C155" s="126"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B156" s="120">
-        <f>SUM(B43:B45)</f>
-        <v>3995</v>
+        <f>SUM(B31:B33)</f>
+        <v>8390</v>
       </c>
       <c r="C156" s="126" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B157" s="120">
-        <f>SUM(B35:B36)</f>
-        <v>4445</v>
+        <f>SUM(B39)</f>
+        <v>4625</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B158" s="120">
-        <f>SUM(B54,B38,B55,B39)</f>
-        <v>990</v>
+        <f>SUM(B45:B47)</f>
+        <v>3995</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B159" s="120">
-        <f>SUM(B113,B111,B110,B107,B60,B61,B42,B41)</f>
-        <v>18245</v>
+        <f>SUM(B37:B38)</f>
+        <v>4445</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B160" s="120">
-        <f>SUM(B114:B117,B16,B17)</f>
-        <v>1700</v>
+        <f>SUM(B56,B40,B57,B41)</f>
+        <v>990</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="B161" s="129">
-        <f>SUM(B62:B64)</f>
-        <v>3625</v>
+        <v>431</v>
+      </c>
+      <c r="B161" s="120">
+        <f>SUM(B115,B113,B112,B109,B62,B63,B44,B43)</f>
+        <v>18245</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B162" s="120">
-        <f>SUM(B66)</f>
-        <v>6425</v>
+        <f>SUM(B116:B119,B18,B19)</f>
+        <v>1700</v>
       </c>
       <c r="C162" s="126" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="B163" s="120">
-        <f>SUM(B67:B71)</f>
-        <v>8330</v>
+        <v>433</v>
+      </c>
+      <c r="B163" s="129">
+        <f>SUM(B64:B66)</f>
+        <v>3625</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B164" s="120">
-        <f>SUM(B78:B80)</f>
-        <v>5060</v>
+        <f>SUM(B68)</f>
+        <v>6425</v>
       </c>
       <c r="C164" s="126" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B165" s="120">
-        <f>SUM(B76:B77)</f>
-        <v>4760</v>
+        <f>SUM(B69:B73)</f>
+        <v>8330</v>
       </c>
       <c r="C165" s="126" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B166" s="120">
-        <f>SUM(B81:B86)</f>
-        <v>27160</v>
+        <f>SUM(B80:B82)</f>
+        <v>5060</v>
       </c>
       <c r="C166" s="126" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B167" s="120">
-        <f>SUM(B48,B49,B95,B96)</f>
-        <v>4800</v>
+        <f>SUM(B78:B79)</f>
+        <v>4760</v>
       </c>
       <c r="C167" s="126" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B168" s="120">
-        <f>SUM(B93,B94,B46,B47)</f>
-        <v>6600</v>
+        <f>SUM(B83:B88)</f>
+        <v>27160</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B169" s="120">
-        <f>SUM(B102,B101,B100,B99,B98,B97,B58,B59)</f>
-        <v>6640</v>
+        <f>SUM(B50,B51,B97,B98)</f>
+        <v>4800</v>
       </c>
       <c r="C169" s="126" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="B170" s="120">
+        <f>SUM(B95,B96,B48,B49)</f>
+        <v>6600</v>
+      </c>
+      <c r="C170" s="126" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="B171" s="120">
+        <f>SUM(B104,B103,B102,B101,B100,B99,B60,B61)</f>
+        <v>6640</v>
+      </c>
+      <c r="C171" s="126" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="B170" s="120">
-        <f>SUM(B10,B24,B25,B26,B28,B34,B65)</f>
+      <c r="B172" s="120">
+        <f>SUM(B10,B26,B27,B28,B30,B36,B67)</f>
         <v>16160</v>
       </c>
-      <c r="C170" s="126" t="s">
+      <c r="C172" s="126" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="49"/>
-      <c r="B171" s="49"/>
-      <c r="C171" s="126"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="49"/>
-      <c r="B172" s="49"/>
-      <c r="C172" s="126"/>
-    </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="49"/>
+      <c r="A173" s="34" t="s">
+        <v>509</v>
+      </c>
       <c r="B173" s="49"/>
       <c r="C173" s="126"/>
     </row>
@@ -44162,12 +44442,22 @@
       <c r="B200" s="49"/>
       <c r="C200" s="126"/>
     </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="49"/>
+      <c r="B201" s="49"/>
+      <c r="C201" s="126"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="49"/>
+      <c r="B202" s="49"/>
+      <c r="C202" s="126"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B151:B152 B154 B156:B157 B160:B161 B163:B166" formulaRange="1"/>
-    <ignoredError sqref="C29:C32 C23 C18 C11:C15 C6 C51 C53 C57 C72:C74 C91 C87:C89 C103:C105 C109 C118 C150:C152 C154 C43:C44 C156 C45" numberStoredAsText="1"/>
+    <ignoredError sqref="B153:B154 B156 B158:B159 B162:B163 B165:B168" formulaRange="1"/>
+    <ignoredError sqref="C31:C34 C25 C20 C11:C15 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152:C154 C156 C45:C46 C158 C47" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="513">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1560,6 +1560,9 @@
   </si>
   <si>
     <t>Connect Core</t>
+  </si>
+  <si>
+    <t>LeaderboardUsedClickThruURL</t>
   </si>
 </sst>
 </file>
@@ -3417,7 +3420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -9651,8 +9654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BF9" sqref="BF9"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9783,7 +9786,7 @@
         <v>242</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>212</v>
+        <v>512</v>
       </c>
       <c r="AJ1" s="119" t="s">
         <v>243</v>
@@ -9855,7 +9858,7 @@
         <v>215</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>508</v>
+        <v>216</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>217</v>
@@ -16902,7 +16905,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -17091,7 +17094,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17280,7 +17283,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17469,7 +17472,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17660,7 +17663,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17875,7 +17878,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -18076,7 +18079,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18279,7 +18282,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18476,7 +18479,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18727,7 +18730,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18980,7 +18983,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -19233,7 +19236,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19466,7 +19469,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19703,7 +19706,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19936,7 +19939,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -20161,7 +20164,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20386,7 +20389,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20578,7 +20581,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20767,7 +20770,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20956,7 +20959,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -21147,7 +21150,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21336,7 +21339,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21563,7 +21566,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21776,7 +21779,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21989,7 +21992,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -22246,7 +22249,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22503,7 +22506,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22742,7 +22745,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22977,7 +22980,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -23216,7 +23219,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23453,7 +23456,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23662,7 +23665,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23869,7 +23872,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -24124,7 +24127,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24389,7 +24392,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24654,7 +24657,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24953,7 +24956,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -25162,7 +25165,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25407,7 +25410,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25618,7 +25621,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25825,7 +25828,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -26046,7 +26049,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26311,7 +26314,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26576,7 +26579,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26843,7 +26846,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -27056,7 +27059,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -27269,7 +27272,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27480,7 +27483,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27689,7 +27692,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27880,7 +27883,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -28077,7 +28080,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -28270,7 +28273,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28476,7 +28479,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28681,7 +28684,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28922,7 +28925,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -29127,7 +29130,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29321,7 +29324,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29521,7 +29524,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29723,7 +29726,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29920,7 +29923,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -30153,7 +30156,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30386,7 +30389,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30623,7 +30626,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30856,7 +30859,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -31105,7 +31108,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31358,7 +31361,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31595,7 +31598,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31834,7 +31837,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -32073,7 +32076,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32314,7 +32317,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32551,7 +32554,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32740,7 +32743,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32929,7 +32932,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -33118,7 +33121,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33367,7 +33370,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33618,7 +33621,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33869,7 +33872,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -34100,7 +34103,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34335,7 +34338,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34566,7 +34569,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34809,7 +34812,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -35030,7 +35033,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35279,7 +35282,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35528,7 +35531,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35777,7 +35780,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -36026,7 +36029,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -36217,7 +36220,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36408,7 +36411,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36783,7 +36786,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -37158,7 +37161,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37375,7 +37378,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37592,7 +37595,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37807,7 +37810,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -38020,7 +38023,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -38220,7 +38223,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38420,7 +38423,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38622,7 +38625,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38824,7 +38827,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -39026,7 +39029,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -39228,7 +39231,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39429,7 +39432,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39646,7 +39649,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39863,7 +39866,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -40080,7 +40083,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40297,7 +40300,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40514,7 +40517,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40731,7 +40734,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40948,7 +40951,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -41165,7 +41168,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41382,7 +41385,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41599,7 +41602,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41788,7 +41791,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41977,7 +41980,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -42166,7 +42169,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42355,7 +42358,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -9654,7 +9654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
       <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
@@ -9858,7 +9858,7 @@
         <v>215</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>216</v>
+        <v>508</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>217</v>
@@ -16905,7 +16905,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -17094,7 +17094,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17283,7 +17283,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17472,7 +17472,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17663,7 +17663,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17878,7 +17878,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -18079,7 +18079,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18282,7 +18282,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18479,7 +18479,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18730,7 +18730,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18983,7 +18983,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -19236,7 +19236,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19469,7 +19469,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19706,7 +19706,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19939,7 +19939,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -20164,7 +20164,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20389,7 +20389,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20581,7 +20581,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20770,7 +20770,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20959,7 +20959,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -21150,7 +21150,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21339,7 +21339,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21566,7 +21566,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21779,7 +21779,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21992,7 +21992,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -22249,7 +22249,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22506,7 +22506,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22745,7 +22745,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22980,7 +22980,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -23219,7 +23219,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23456,7 +23456,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23665,7 +23665,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23872,7 +23872,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -24127,7 +24127,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24392,7 +24392,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24657,7 +24657,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24956,7 +24956,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -25165,7 +25165,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25410,7 +25410,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25621,7 +25621,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25828,7 +25828,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -26049,7 +26049,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26314,7 +26314,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26579,7 +26579,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26846,7 +26846,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -27059,7 +27059,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -27272,7 +27272,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27483,7 +27483,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27692,7 +27692,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27883,7 +27883,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -28080,7 +28080,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -28273,7 +28273,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28479,7 +28479,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28684,7 +28684,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28925,7 +28925,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -29130,7 +29130,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29324,7 +29324,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29524,7 +29524,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29726,7 +29726,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29923,7 +29923,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -30156,7 +30156,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30389,7 +30389,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30626,7 +30626,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30859,7 +30859,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -31108,7 +31108,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31361,7 +31361,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31598,7 +31598,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31837,7 +31837,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -32076,7 +32076,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32317,7 +32317,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32554,7 +32554,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32743,7 +32743,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32932,7 +32932,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -33121,7 +33121,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33370,7 +33370,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33621,7 +33621,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33872,7 +33872,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -34103,7 +34103,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34338,7 +34338,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34569,7 +34569,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34812,7 +34812,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -35033,7 +35033,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35282,7 +35282,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35531,7 +35531,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35780,7 +35780,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -36029,7 +36029,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -36220,7 +36220,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36411,7 +36411,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36786,7 +36786,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -37161,7 +37161,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37378,7 +37378,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37595,7 +37595,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37810,7 +37810,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -38023,7 +38023,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -38223,7 +38223,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38423,7 +38423,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38625,7 +38625,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38827,7 +38827,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -39029,7 +39029,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -39231,7 +39231,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39432,7 +39432,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39649,7 +39649,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39866,7 +39866,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -40083,7 +40083,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40300,7 +40300,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40517,7 +40517,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40734,7 +40734,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40951,7 +40951,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -41168,7 +41168,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41385,7 +41385,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41602,7 +41602,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41791,7 +41791,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41980,7 +41980,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -42169,7 +42169,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42358,7 +42358,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="512">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1214,12 +1214,6 @@
     <t>$650.00</t>
   </si>
   <si>
-    <t>$2,895.00</t>
-  </si>
-  <si>
-    <t>$2,885.00</t>
-  </si>
-  <si>
     <t>$1,050.00</t>
   </si>
   <si>
@@ -1292,9 +1286,6 @@
     <t>BMWUsedCarPremiumPriceTotal</t>
   </si>
   <si>
-    <t>$5,780.00</t>
-  </si>
-  <si>
     <t>Test Totals</t>
   </si>
   <si>
@@ -1563,6 +1554,12 @@
   </si>
   <si>
     <t>LeaderboardUsedClickThruURL</t>
+  </si>
+  <si>
+    <t>$2,980.00</t>
+  </si>
+  <si>
+    <t>$5,975.00</t>
   </si>
 </sst>
 </file>
@@ -3654,12 +3651,12 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4864,7 +4861,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="132" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -8584,7 +8581,7 @@
         <v>215</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AM1" s="68" t="s">
         <v>217</v>
@@ -9654,7 +9651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+    <sheetView topLeftCell="BE1" workbookViewId="0">
       <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
@@ -9786,7 +9783,7 @@
         <v>242</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AJ1" s="119" t="s">
         <v>243</v>
@@ -9858,7 +9855,7 @@
         <v>215</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>217</v>
@@ -13617,7 +13614,7 @@
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>382</v>
@@ -13639,7 +13636,7 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B3" s="93" t="s">
         <v>382</v>
@@ -14158,7 +14155,7 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>382</v>
@@ -16905,7 +16902,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -17094,7 +17091,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17283,7 +17280,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17472,7 +17469,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17663,7 +17660,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17878,7 +17875,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -18079,7 +18076,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18282,7 +18279,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18479,7 +18476,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18730,7 +18727,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18983,7 +18980,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -19236,7 +19233,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19469,7 +19466,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19706,7 +19703,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19939,7 +19936,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -20164,7 +20161,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20389,7 +20386,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20581,7 +20578,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20770,7 +20767,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20959,7 +20956,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -21150,7 +21147,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21339,7 +21336,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21566,7 +21563,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21779,7 +21776,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21992,7 +21989,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -22249,7 +22246,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22506,7 +22503,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22745,7 +22742,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22980,7 +22977,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -23219,7 +23216,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23456,7 +23453,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23665,7 +23662,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23872,7 +23869,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -24127,7 +24124,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24392,7 +24389,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24657,7 +24654,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24956,7 +24953,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -25165,7 +25162,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25410,7 +25407,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25621,7 +25618,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25828,7 +25825,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -26049,7 +26046,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26314,7 +26311,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26579,7 +26576,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26846,7 +26843,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -27059,7 +27056,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -27272,7 +27269,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27483,7 +27480,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27692,7 +27689,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27883,7 +27880,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -28080,7 +28077,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -28273,7 +28270,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28479,7 +28476,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28684,7 +28681,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28925,7 +28922,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -29130,7 +29127,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29324,7 +29321,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29524,7 +29521,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29726,7 +29723,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29923,7 +29920,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -30156,7 +30153,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30389,7 +30386,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30626,7 +30623,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30859,7 +30856,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -31108,7 +31105,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31361,7 +31358,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31598,7 +31595,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31837,7 +31834,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -32076,7 +32073,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32317,7 +32314,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32554,7 +32551,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32743,7 +32740,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32932,7 +32929,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -33121,7 +33118,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33370,7 +33367,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33621,7 +33618,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33872,7 +33869,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -34103,7 +34100,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34338,7 +34335,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34569,7 +34566,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34812,7 +34809,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -35033,7 +35030,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35282,7 +35279,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35531,7 +35528,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35780,7 +35777,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -36029,7 +36026,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -36220,7 +36217,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36411,7 +36408,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36786,7 +36783,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -37161,7 +37158,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37378,7 +37375,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37595,7 +37592,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37810,7 +37807,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -38023,7 +38020,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -38223,7 +38220,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38423,7 +38420,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38625,7 +38622,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38827,7 +38824,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -39029,7 +39026,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -39231,7 +39228,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39432,7 +39429,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39649,7 +39646,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39866,7 +39863,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -40083,7 +40080,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40300,7 +40297,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40517,7 +40514,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40734,7 +40731,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40951,7 +40948,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -41168,7 +41165,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41385,7 +41382,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41602,7 +41599,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41791,7 +41788,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41980,7 +41977,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -42169,7 +42166,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42358,7 +42355,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42563</v>
+        <v>42586</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42568,8 +42565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42704,7 +42701,7 @@
         <v>2685</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -42712,10 +42709,10 @@
         <v>45</v>
       </c>
       <c r="B11" s="120">
-        <v>2895</v>
+        <v>2995</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -42723,10 +42720,10 @@
         <v>46</v>
       </c>
       <c r="B12" s="120">
-        <v>2885</v>
+        <v>2980</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>397</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -42737,7 +42734,7 @@
         <v>1050</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -42748,7 +42745,7 @@
         <v>4135</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -42759,19 +42756,19 @@
         <v>2545</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B16" s="120"/>
       <c r="C16" s="126"/>
     </row>
     <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B17" s="120"/>
       <c r="C17" s="126"/>
@@ -42784,7 +42781,7 @@
         <v>300</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -42795,7 +42792,7 @@
         <v>250</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -42806,7 +42803,7 @@
         <v>400</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -42857,7 +42854,7 @@
         <v>600</v>
       </c>
       <c r="C25" s="126" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -42868,7 +42865,7 @@
         <v>1700</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -42879,7 +42876,7 @@
         <v>1120</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -42890,7 +42887,7 @@
         <v>2910</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -42911,7 +42908,7 @@
         <v>2375</v>
       </c>
       <c r="C30" s="126" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -42922,7 +42919,7 @@
         <v>1200</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -42933,7 +42930,7 @@
         <v>4195</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -42944,7 +42941,7 @@
         <v>2995</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -42955,7 +42952,7 @@
         <v>242</v>
       </c>
       <c r="C34" s="126" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -42976,7 +42973,7 @@
         <v>2685</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -42987,7 +42984,7 @@
         <v>2375</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -42998,7 +42995,7 @@
         <v>2070</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -43009,7 +43006,7 @@
         <v>4625</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -43020,7 +43017,7 @@
         <v>265</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -43031,7 +43028,7 @@
         <v>305</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -43042,7 +43039,7 @@
         <v>305</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -43053,7 +43050,7 @@
         <v>770</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -43064,7 +43061,7 @@
         <v>770</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -43075,7 +43072,7 @@
         <v>270</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -43086,7 +43083,7 @@
         <v>2025</v>
       </c>
       <c r="C46" s="126" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -43097,7 +43094,7 @@
         <v>1700</v>
       </c>
       <c r="C47" s="126" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -43108,7 +43105,7 @@
         <v>1500</v>
       </c>
       <c r="C48" s="126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -43119,7 +43116,7 @@
         <v>1800</v>
       </c>
       <c r="C49" s="126" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -43130,7 +43127,7 @@
         <v>900</v>
       </c>
       <c r="C50" s="126" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -43141,7 +43138,7 @@
         <v>1500</v>
       </c>
       <c r="C51" s="126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -43162,7 +43159,7 @@
         <v>450</v>
       </c>
       <c r="C53" s="126" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -43183,7 +43180,7 @@
         <v>200</v>
       </c>
       <c r="C55" s="126" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -43194,7 +43191,7 @@
         <v>190</v>
       </c>
       <c r="C56" s="126" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -43205,7 +43202,7 @@
         <v>230</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -43226,7 +43223,7 @@
         <v>300</v>
       </c>
       <c r="C59" s="126" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -43237,7 +43234,7 @@
         <v>135</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -43248,7 +43245,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -43259,7 +43256,7 @@
         <v>770</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -43270,7 +43267,7 @@
         <v>770</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -43281,7 +43278,7 @@
         <v>490</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -43292,7 +43289,7 @@
         <v>1960</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -43303,7 +43300,7 @@
         <v>1175</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -43314,7 +43311,7 @@
         <v>2685</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -43325,7 +43322,7 @@
         <v>6425</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -43336,7 +43333,7 @@
         <v>895</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -43347,7 +43344,7 @@
         <v>540</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -43358,7 +43355,7 @@
         <v>1715</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -43369,7 +43366,7 @@
         <v>3750</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -43380,7 +43377,7 @@
         <v>1430</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -43391,7 +43388,7 @@
         <v>1500</v>
       </c>
       <c r="C74" s="126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -43402,7 +43399,7 @@
         <v>1100</v>
       </c>
       <c r="C75" s="126" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -43413,7 +43410,7 @@
         <v>1000</v>
       </c>
       <c r="C76" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -43424,7 +43421,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -43435,7 +43432,7 @@
         <v>2725</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -43446,7 +43443,7 @@
         <v>2035</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -43457,7 +43454,7 @@
         <v>690</v>
       </c>
       <c r="C80" s="126" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -43468,7 +43465,7 @@
         <v>2705</v>
       </c>
       <c r="C81" s="126" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -43479,7 +43476,7 @@
         <v>1665</v>
       </c>
       <c r="C82" s="126" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -43490,7 +43487,7 @@
         <v>3250</v>
       </c>
       <c r="C83" s="126" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -43501,7 +43498,7 @@
         <v>2725</v>
       </c>
       <c r="C84" s="126" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -43512,7 +43509,7 @@
         <v>4205</v>
       </c>
       <c r="C85" s="126" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -43523,7 +43520,7 @@
         <v>7080</v>
       </c>
       <c r="C86" s="126" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -43534,7 +43531,7 @@
         <v>3470</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -43545,7 +43542,7 @@
         <v>6430</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -43556,7 +43553,7 @@
         <v>400</v>
       </c>
       <c r="C89" s="126" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -43567,7 +43564,7 @@
         <v>800</v>
       </c>
       <c r="C90" s="126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -43578,7 +43575,7 @@
         <v>600</v>
       </c>
       <c r="C91" s="126" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -43601,7 +43598,7 @@
         <v>500</v>
       </c>
       <c r="C93" s="126" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -43624,7 +43621,7 @@
         <v>1500</v>
       </c>
       <c r="C95" s="126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -43635,7 +43632,7 @@
         <v>1800</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -43646,7 +43643,7 @@
         <v>900</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -43657,7 +43654,7 @@
         <v>1500</v>
       </c>
       <c r="C98" s="126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -43668,7 +43665,7 @@
         <v>925</v>
       </c>
       <c r="C99" s="126" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -43679,7 +43676,7 @@
         <v>1850</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -43690,7 +43687,7 @@
         <v>700</v>
       </c>
       <c r="C101" s="126" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -43701,7 +43698,7 @@
         <v>1400</v>
       </c>
       <c r="C102" s="126" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -43712,7 +43709,7 @@
         <v>525</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -43723,7 +43720,7 @@
         <v>1025</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -43734,7 +43731,7 @@
         <v>99</v>
       </c>
       <c r="C105" s="126" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -43745,7 +43742,7 @@
         <v>4830</v>
       </c>
       <c r="C106" s="126" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -43756,7 +43753,7 @@
         <v>7945</v>
       </c>
       <c r="C107" s="126" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -43777,7 +43774,7 @@
         <v>2265</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -43798,7 +43795,7 @@
         <v>700</v>
       </c>
       <c r="C111" s="126" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -43809,7 +43806,7 @@
         <v>5595</v>
       </c>
       <c r="C112" s="126" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -43820,7 +43817,7 @@
         <v>5595</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -43841,7 +43838,7 @@
         <v>1710</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -43852,7 +43849,7 @@
         <v>300</v>
       </c>
       <c r="C116" s="126" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -43863,7 +43860,7 @@
         <v>250</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -43874,7 +43871,7 @@
         <v>250</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -43885,7 +43882,7 @@
         <v>350</v>
       </c>
       <c r="C119" s="126" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -43896,7 +43893,7 @@
         <v>400</v>
       </c>
       <c r="C120" s="126" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -44051,7 +44048,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="49" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B151" s="49"/>
       <c r="C151" s="120"/>
@@ -44065,7 +44062,7 @@
         <v>1342</v>
       </c>
       <c r="C152" s="128" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -44077,235 +44074,235 @@
         <v>7730</v>
       </c>
       <c r="C153" s="126" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="34" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B154" s="120">
         <f>SUM(B11:B12)</f>
-        <v>5780</v>
+        <v>5975</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>422</v>
+        <v>511</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="34" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B155" s="49"/>
       <c r="C155" s="126"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B156" s="120">
         <f>SUM(B31:B33)</f>
         <v>8390</v>
       </c>
       <c r="C156" s="126" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="34" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B157" s="120">
         <f>SUM(B39)</f>
         <v>4625</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B158" s="120">
         <f>SUM(B45:B47)</f>
         <v>3995</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B159" s="120">
         <f>SUM(B37:B38)</f>
         <v>4445</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B160" s="120">
         <f>SUM(B56,B40,B57,B41)</f>
         <v>990</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B161" s="120">
         <f>SUM(B115,B113,B112,B109,B62,B63,B44,B43)</f>
         <v>18245</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B162" s="120">
         <f>SUM(B116:B119,B18,B19)</f>
         <v>1700</v>
       </c>
       <c r="C162" s="126" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B163" s="129">
         <f>SUM(B64:B66)</f>
         <v>3625</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B164" s="120">
         <f>SUM(B68)</f>
         <v>6425</v>
       </c>
       <c r="C164" s="126" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B165" s="120">
         <f>SUM(B69:B73)</f>
         <v>8330</v>
       </c>
       <c r="C165" s="126" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B166" s="120">
         <f>SUM(B80:B82)</f>
         <v>5060</v>
       </c>
       <c r="C166" s="126" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B167" s="120">
         <f>SUM(B78:B79)</f>
         <v>4760</v>
       </c>
       <c r="C167" s="126" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B168" s="120">
         <f>SUM(B83:B88)</f>
         <v>27160</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B169" s="120">
         <f>SUM(B50,B51,B97,B98)</f>
         <v>4800</v>
       </c>
       <c r="C169" s="126" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B170" s="120">
         <f>SUM(B95,B96,B48,B49)</f>
         <v>6600</v>
       </c>
       <c r="C170" s="126" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B171" s="120">
         <f>SUM(B104,B103,B102,B101,B100,B99,B60,B61)</f>
         <v>6640</v>
       </c>
       <c r="C171" s="126" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B172" s="120">
         <f>SUM(B10,B26,B27,B28,B30,B36,B67)</f>
         <v>16160</v>
       </c>
       <c r="C172" s="126" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B173" s="49"/>
       <c r="C173" s="126"/>
@@ -44460,7 +44457,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B153:B154 B156 B158:B159 B162:B163 B165:B168" formulaRange="1"/>
-    <ignoredError sqref="C31:C34 C25 C20 C11:C15 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152:C154 C156 C45:C46 C158 C47" numberStoredAsText="1"/>
+    <ignoredError sqref="C31:C34 C25 C20 C13:C15 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152:C153 C156 C45:C46 C158 C47" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="512">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -2292,7 +2292,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2648,6 +2648,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2995,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AD7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,10 +3155,10 @@
       <c r="AA2" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="106" t="b">
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3205,10 +3208,10 @@
       <c r="AC3" s="35">
         <v>2000</v>
       </c>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="106" t="b">
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3251,10 +3254,10 @@
       <c r="AA4" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="106" t="b">
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3302,9 +3305,9 @@
       <c r="AA5" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
     </row>
     <row r="6" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
@@ -3316,6 +3319,7 @@
       <c r="E6" s="1">
         <v>42462</v>
       </c>
+      <c r="M6" s="15"/>
       <c r="T6" s="30" t="b">
         <v>1</v>
       </c>
@@ -3331,7 +3335,7 @@
       <c r="X6" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" s="30" t="s">
+      <c r="Y6" s="15" t="s">
         <v>266</v>
       </c>
       <c r="Z6" s="34"/>
@@ -3341,33 +3345,32 @@
       <c r="AC6" s="30">
         <v>2000</v>
       </c>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
     </row>
     <row r="7" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="E7" s="73">
         <v>42463</v>
       </c>
-      <c r="M7" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z7" s="34"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="14"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="14"/>
       <c r="AA7" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
@@ -9651,7 +9654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
@@ -16902,7 +16905,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -17091,7 +17094,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17280,7 +17283,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17469,7 +17472,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17660,7 +17663,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17875,7 +17878,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -18076,7 +18079,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18279,7 +18282,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18476,7 +18479,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18727,7 +18730,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18980,7 +18983,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -19233,7 +19236,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19466,7 +19469,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19703,7 +19706,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19936,7 +19939,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -20161,7 +20164,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20386,7 +20389,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20578,7 +20581,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20767,7 +20770,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20956,7 +20959,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -21147,7 +21150,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21336,7 +21339,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21563,7 +21566,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21776,7 +21779,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21989,7 +21992,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -22246,7 +22249,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22503,7 +22506,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22742,7 +22745,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22977,7 +22980,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -23216,7 +23219,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23453,7 +23456,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23662,7 +23665,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23869,7 +23872,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -24124,7 +24127,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24389,7 +24392,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24654,7 +24657,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24953,7 +24956,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -25162,7 +25165,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25407,7 +25410,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25618,7 +25621,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25825,7 +25828,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -26046,7 +26049,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26311,7 +26314,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26576,7 +26579,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26843,7 +26846,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -27056,7 +27059,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -27269,7 +27272,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27480,7 +27483,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27689,7 +27692,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27880,7 +27883,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -28077,7 +28080,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -28270,7 +28273,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28476,7 +28479,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28681,7 +28684,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28922,7 +28925,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -29127,7 +29130,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29321,7 +29324,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29521,7 +29524,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29723,7 +29726,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29920,7 +29923,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -30153,7 +30156,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30386,7 +30389,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30623,7 +30626,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30856,7 +30859,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -31105,7 +31108,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31358,7 +31361,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31595,7 +31598,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31834,7 +31837,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -32073,7 +32076,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32314,7 +32317,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32551,7 +32554,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32740,7 +32743,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32929,7 +32932,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -33118,7 +33121,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33367,7 +33370,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33618,7 +33621,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33869,7 +33872,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -34100,7 +34103,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34335,7 +34338,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34566,7 +34569,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34809,7 +34812,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -35030,7 +35033,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35279,7 +35282,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35528,7 +35531,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35777,7 +35780,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -36026,7 +36029,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -36217,7 +36220,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36408,7 +36411,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36783,7 +36786,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -37158,7 +37161,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37375,7 +37378,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37592,7 +37595,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37807,7 +37810,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -38020,7 +38023,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -38220,7 +38223,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38420,7 +38423,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38622,7 +38625,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38824,7 +38827,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -39026,7 +39029,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -39228,7 +39231,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39429,7 +39432,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39646,7 +39649,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39863,7 +39866,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -40080,7 +40083,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40297,7 +40300,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40514,7 +40517,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40731,7 +40734,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40948,7 +40951,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -41165,7 +41168,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41382,7 +41385,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41599,7 +41602,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41788,7 +41791,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41977,7 +41980,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -42166,7 +42169,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42355,7 +42358,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42586</v>
+        <v>42591</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42565,7 +42568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+    <sheetView topLeftCell="A149" workbookViewId="0">
       <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="512">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -2998,7 +2998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2:AF6"/>
     </sheetView>
   </sheetViews>
@@ -14640,8 +14640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15264,9 +15264,7 @@
       <c r="L9" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="M9" s="35" t="s">
-        <v>331</v>
-      </c>
+      <c r="M9" s="35"/>
       <c r="N9" s="35" t="s">
         <v>162</v>
       </c>
@@ -16905,7 +16903,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -17094,7 +17092,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17283,7 +17281,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17472,7 +17470,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17663,7 +17661,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17878,7 +17876,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -18079,7 +18077,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18282,7 +18280,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18479,7 +18477,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18730,7 +18728,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18983,7 +18981,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -19236,7 +19234,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19469,7 +19467,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19706,7 +19704,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19939,7 +19937,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -20164,7 +20162,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20389,7 +20387,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20581,7 +20579,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20770,7 +20768,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20959,7 +20957,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -21150,7 +21148,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21339,7 +21337,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21566,7 +21564,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21779,7 +21777,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21992,7 +21990,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -22249,7 +22247,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22506,7 +22504,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22745,7 +22743,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22980,7 +22978,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -23219,7 +23217,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23456,7 +23454,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23665,7 +23663,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23872,7 +23870,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -24127,7 +24125,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24392,7 +24390,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24657,7 +24655,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24956,7 +24954,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -25165,7 +25163,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25410,7 +25408,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25621,7 +25619,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25828,7 +25826,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -26049,7 +26047,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26314,7 +26312,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26579,7 +26577,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26846,7 +26844,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -27059,7 +27057,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -27272,7 +27270,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27483,7 +27481,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27692,7 +27690,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27883,7 +27881,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -28080,7 +28078,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -28273,7 +28271,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28479,7 +28477,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28684,7 +28682,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28925,7 +28923,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -29130,7 +29128,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29324,7 +29322,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29524,7 +29522,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29726,7 +29724,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29923,7 +29921,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -30156,7 +30154,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30389,7 +30387,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30626,7 +30624,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30859,7 +30857,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -31108,7 +31106,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31361,7 +31359,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31598,7 +31596,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31837,7 +31835,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -32076,7 +32074,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32317,7 +32315,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32554,7 +32552,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32743,7 +32741,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32932,7 +32930,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -33121,7 +33119,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33370,7 +33368,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33621,7 +33619,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33872,7 +33870,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -34103,7 +34101,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34338,7 +34336,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34569,7 +34567,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34812,7 +34810,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -35033,7 +35031,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35282,7 +35280,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35531,7 +35529,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35780,7 +35778,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -36029,7 +36027,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -36220,7 +36218,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36411,7 +36409,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36786,7 +36784,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -37161,7 +37159,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37378,7 +37376,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37595,7 +37593,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37810,7 +37808,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -38023,7 +38021,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -38223,7 +38221,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38423,7 +38421,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38625,7 +38623,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38827,7 +38825,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -39029,7 +39027,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -39231,7 +39229,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39432,7 +39430,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39649,7 +39647,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39866,7 +39864,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -40083,7 +40081,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40300,7 +40298,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40517,7 +40515,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40734,7 +40732,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40951,7 +40949,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -41168,7 +41166,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41385,7 +41383,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41602,7 +41600,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41791,7 +41789,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41980,7 +41978,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -42169,7 +42167,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42358,7 +42356,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="513">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1346,18 +1346,9 @@
     <t>UsedCarNonPremiumPriceTotal</t>
   </si>
   <si>
-    <t>$2,025.00</t>
-  </si>
-  <si>
-    <t>$270.00</t>
-  </si>
-  <si>
     <t>$1,700.00</t>
   </si>
   <si>
-    <t>$3,995.00</t>
-  </si>
-  <si>
     <t>$2,375.00</t>
   </si>
   <si>
@@ -1532,9 +1523,6 @@
     <t>/Trade In Marketplace - KBB Buying Center</t>
   </si>
   <si>
-    <t>$4,625.00</t>
-  </si>
-  <si>
     <t>Escape</t>
   </si>
   <si>
@@ -1560,6 +1548,21 @@
   </si>
   <si>
     <t>$5,975.00</t>
+  </si>
+  <si>
+    <t>$4,790.00</t>
+  </si>
+  <si>
+    <t>$2,175.00</t>
+  </si>
+  <si>
+    <t>$235.00</t>
+  </si>
+  <si>
+    <t>$1,490.00</t>
+  </si>
+  <si>
+    <t>$3,900.00</t>
   </si>
 </sst>
 </file>
@@ -3654,12 +3657,12 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +3675,7 @@
   <dimension ref="A1:FQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4864,7 +4867,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="132" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -5781,7 +5784,9 @@
       <c r="B10" s="81">
         <v>42622</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="35">
+        <v>345</v>
+      </c>
       <c r="D10" s="35"/>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -5802,7 +5807,9 @@
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="35">
+        <v>789</v>
+      </c>
       <c r="O10" s="35" t="s">
         <v>192</v>
       </c>
@@ -8584,7 +8591,7 @@
         <v>215</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AM1" s="68" t="s">
         <v>217</v>
@@ -9786,7 +9793,7 @@
         <v>242</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AJ1" s="119" t="s">
         <v>243</v>
@@ -9858,7 +9865,7 @@
         <v>215</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>217</v>
@@ -13617,7 +13624,7 @@
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>382</v>
@@ -13639,7 +13646,7 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B3" s="93" t="s">
         <v>382</v>
@@ -14158,7 +14165,7 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>382</v>
@@ -14640,7 +14647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -16903,7 +16910,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -17092,7 +17099,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17281,7 +17288,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17470,7 +17477,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -17661,7 +17668,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>263</v>
@@ -17876,7 +17883,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -18077,7 +18084,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18280,7 +18287,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18477,7 +18484,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -18728,7 +18735,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -18981,7 +18988,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -19234,7 +19241,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19467,7 +19474,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -19704,7 +19711,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -19937,7 +19944,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -20162,7 +20169,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20387,7 +20394,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20579,7 +20586,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -20768,7 +20775,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -20957,7 +20964,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -21148,7 +21155,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21337,7 +21344,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21564,7 +21571,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -21777,7 +21784,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -21990,7 +21997,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -22247,7 +22254,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22504,7 +22511,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -22743,7 +22750,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -22978,7 +22985,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -23217,7 +23224,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23454,7 +23461,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -23663,7 +23670,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -23870,7 +23877,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -24125,7 +24132,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24390,7 +24397,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -24655,7 +24662,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -24954,7 +24961,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -25163,7 +25170,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25408,7 +25415,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25619,7 +25626,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -25826,7 +25833,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -26047,7 +26054,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26312,7 +26319,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26577,7 +26584,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -26844,7 +26851,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -27057,7 +27064,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -27270,7 +27277,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27481,7 +27488,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -27690,7 +27697,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -27881,7 +27888,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -28078,7 +28085,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -28271,7 +28278,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28477,7 +28484,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -28682,7 +28689,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -28923,7 +28930,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -29128,7 +29135,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29322,7 +29329,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29522,7 +29529,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -29724,7 +29731,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -29921,7 +29928,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -30154,7 +30161,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30387,7 +30394,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30624,7 +30631,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -30857,7 +30864,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -31106,7 +31113,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31359,7 +31366,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31596,7 +31603,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -31835,7 +31842,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -32074,7 +32081,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32315,7 +32322,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32552,7 +32559,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -32741,7 +32748,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -32930,7 +32937,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -33119,7 +33126,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33368,7 +33375,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33619,7 +33626,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -33870,7 +33877,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -34101,7 +34108,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34336,7 +34343,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34567,7 +34574,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -34810,7 +34817,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -35031,7 +35038,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35280,7 +35287,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35529,7 +35536,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -35778,7 +35785,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -36027,7 +36034,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -36218,7 +36225,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36409,7 +36416,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -36784,7 +36791,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -37159,7 +37166,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37376,7 +37383,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37593,7 +37600,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -37808,7 +37815,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -38021,7 +38028,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -38221,7 +38228,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38421,7 +38428,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38623,7 +38630,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -38825,7 +38832,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -39027,7 +39034,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -39229,7 +39236,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39430,7 +39437,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39647,7 +39654,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -39864,7 +39871,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -40081,7 +40088,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40298,7 +40305,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40515,7 +40522,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -40732,7 +40739,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -40949,7 +40956,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -41166,7 +41173,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41383,7 +41390,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41600,7 +41607,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -41789,7 +41796,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -41978,7 +41985,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -42167,7 +42174,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42356,7 +42363,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42566,8 +42573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42702,7 +42709,7 @@
         <v>2685</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -42724,7 +42731,7 @@
         <v>2980</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -42762,14 +42769,14 @@
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B16" s="120"/>
       <c r="C16" s="126"/>
     </row>
     <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B17" s="120"/>
       <c r="C17" s="126"/>
@@ -42793,7 +42800,7 @@
         <v>250</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -42866,7 +42873,7 @@
         <v>1700</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -42877,7 +42884,7 @@
         <v>1120</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -42888,7 +42895,7 @@
         <v>2910</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -42909,7 +42916,7 @@
         <v>2375</v>
       </c>
       <c r="C30" s="126" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -42974,7 +42981,7 @@
         <v>2685</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -42985,7 +42992,7 @@
         <v>2375</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -42996,7 +43003,7 @@
         <v>2070</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -43004,10 +43011,10 @@
         <v>67</v>
       </c>
       <c r="B39" s="120">
-        <v>4625</v>
+        <v>4790</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -43018,7 +43025,7 @@
         <v>265</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -43029,7 +43036,7 @@
         <v>305</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -43040,7 +43047,7 @@
         <v>305</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -43051,7 +43058,7 @@
         <v>770</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -43062,7 +43069,7 @@
         <v>770</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -43070,10 +43077,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="120">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>441</v>
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -43081,10 +43088,10 @@
         <v>14</v>
       </c>
       <c r="B46" s="120">
-        <v>2025</v>
+        <v>2175</v>
       </c>
       <c r="C46" s="126" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -43092,10 +43099,10 @@
         <v>13</v>
       </c>
       <c r="B47" s="120">
-        <v>1700</v>
+        <v>1490</v>
       </c>
       <c r="C47" s="126" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -43117,7 +43124,7 @@
         <v>1800</v>
       </c>
       <c r="C49" s="126" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -43128,7 +43135,7 @@
         <v>900</v>
       </c>
       <c r="C50" s="126" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -43192,7 +43199,7 @@
         <v>190</v>
       </c>
       <c r="C56" s="126" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -43203,7 +43210,7 @@
         <v>230</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -43235,7 +43242,7 @@
         <v>135</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -43246,7 +43253,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -43257,7 +43264,7 @@
         <v>770</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -43268,7 +43275,7 @@
         <v>770</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -43279,7 +43286,7 @@
         <v>490</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -43290,7 +43297,7 @@
         <v>1960</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -43301,7 +43308,7 @@
         <v>1175</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -43312,7 +43319,7 @@
         <v>2685</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -43323,7 +43330,7 @@
         <v>6425</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -43334,7 +43341,7 @@
         <v>895</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -43345,7 +43352,7 @@
         <v>540</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -43356,7 +43363,7 @@
         <v>1715</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -43367,7 +43374,7 @@
         <v>3750</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -43378,7 +43385,7 @@
         <v>1430</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -43422,7 +43429,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -43433,7 +43440,7 @@
         <v>2725</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -43444,7 +43451,7 @@
         <v>2035</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -43455,7 +43462,7 @@
         <v>690</v>
       </c>
       <c r="C80" s="126" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -43466,7 +43473,7 @@
         <v>2705</v>
       </c>
       <c r="C81" s="126" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -43477,7 +43484,7 @@
         <v>1665</v>
       </c>
       <c r="C82" s="126" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -43488,7 +43495,7 @@
         <v>3250</v>
       </c>
       <c r="C83" s="126" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -43499,7 +43506,7 @@
         <v>2725</v>
       </c>
       <c r="C84" s="126" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -43510,7 +43517,7 @@
         <v>4205</v>
       </c>
       <c r="C85" s="126" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -43521,7 +43528,7 @@
         <v>7080</v>
       </c>
       <c r="C86" s="126" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -43532,7 +43539,7 @@
         <v>3470</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -43543,7 +43550,7 @@
         <v>6430</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -43633,7 +43640,7 @@
         <v>1800</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -43644,7 +43651,7 @@
         <v>900</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -43666,7 +43673,7 @@
         <v>925</v>
       </c>
       <c r="C99" s="126" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -43677,7 +43684,7 @@
         <v>1850</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -43699,7 +43706,7 @@
         <v>1400</v>
       </c>
       <c r="C102" s="126" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -43710,7 +43717,7 @@
         <v>525</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -43721,7 +43728,7 @@
         <v>1025</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -43775,7 +43782,7 @@
         <v>2265</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -43807,7 +43814,7 @@
         <v>5595</v>
       </c>
       <c r="C112" s="126" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -43818,7 +43825,7 @@
         <v>5595</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -43839,7 +43846,7 @@
         <v>1710</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -43861,7 +43868,7 @@
         <v>250</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -43872,7 +43879,7 @@
         <v>250</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -43883,7 +43890,7 @@
         <v>350</v>
       </c>
       <c r="C119" s="126" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -44087,7 +44094,7 @@
         <v>5975</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -44115,10 +44122,10 @@
       </c>
       <c r="B157" s="120">
         <f>SUM(B39)</f>
-        <v>4625</v>
+        <v>4790</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -44127,10 +44134,10 @@
       </c>
       <c r="B158" s="120">
         <f>SUM(B45:B47)</f>
-        <v>3995</v>
+        <v>3900</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -44142,7 +44149,7 @@
         <v>4445</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -44154,7 +44161,7 @@
         <v>990</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -44166,7 +44173,7 @@
         <v>18245</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -44178,7 +44185,7 @@
         <v>1700</v>
       </c>
       <c r="C162" s="126" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -44190,7 +44197,7 @@
         <v>3625</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -44202,7 +44209,7 @@
         <v>6425</v>
       </c>
       <c r="C164" s="126" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -44214,7 +44221,7 @@
         <v>8330</v>
       </c>
       <c r="C165" s="126" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -44226,7 +44233,7 @@
         <v>5060</v>
       </c>
       <c r="C166" s="126" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -44238,7 +44245,7 @@
         <v>4760</v>
       </c>
       <c r="C167" s="126" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -44250,7 +44257,7 @@
         <v>27160</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -44262,7 +44269,7 @@
         <v>4800</v>
       </c>
       <c r="C169" s="126" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -44274,7 +44281,7 @@
         <v>6600</v>
       </c>
       <c r="C170" s="126" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -44286,7 +44293,7 @@
         <v>6640</v>
       </c>
       <c r="C171" s="126" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -44298,12 +44305,12 @@
         <v>16160</v>
       </c>
       <c r="C172" s="126" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B173" s="49"/>
       <c r="C173" s="126"/>
@@ -44458,7 +44465,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B153:B154 B156 B158:B159 B162:B163 B165:B168" formulaRange="1"/>
-    <ignoredError sqref="C31:C34 C25 C20 C13:C15 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152:C153 C156 C45:C46 C158 C47" numberStoredAsText="1"/>
+    <ignoredError sqref="C31:C34 C25 C20 C13:C15 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152:C153 C156" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="516">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -626,9 +626,6 @@
     <t>Use GM New Car Templates</t>
   </si>
   <si>
-    <t>Cooper</t>
-  </si>
-  <si>
     <t>BMWDealerCenterId</t>
   </si>
   <si>
@@ -1397,18 +1394,6 @@
     <t>$6,425.00</t>
   </si>
   <si>
-    <t>$490.00</t>
-  </si>
-  <si>
-    <t>$1,960.00</t>
-  </si>
-  <si>
-    <t>$1,175.00</t>
-  </si>
-  <si>
-    <t>$3,625.00</t>
-  </si>
-  <si>
     <t>$895.00</t>
   </si>
   <si>
@@ -1553,16 +1538,40 @@
     <t>$4,790.00</t>
   </si>
   <si>
-    <t>$2,175.00</t>
-  </si>
-  <si>
     <t>$235.00</t>
   </si>
   <si>
     <t>$1,490.00</t>
   </si>
   <si>
-    <t>$3,900.00</t>
+    <t>$1,770.00</t>
+  </si>
+  <si>
+    <t>$3,495.00</t>
+  </si>
+  <si>
+    <t>$785.00</t>
+  </si>
+  <si>
+    <t>$3,130.00</t>
+  </si>
+  <si>
+    <t>$1,880.00</t>
+  </si>
+  <si>
+    <t>$5,795.00</t>
+  </si>
+  <si>
+    <t>$1,998.00</t>
+  </si>
+  <si>
+    <t>$1,413.00</t>
+  </si>
+  <si>
+    <t>$3,411.00</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2304,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2654,6 +2663,7 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3001,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2:AF6"/>
     </sheetView>
   </sheetViews>
@@ -3049,28 +3059,28 @@
         <v>118</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>225</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>226</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>119</v>
       </c>
       <c r="F1" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>227</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>228</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>120</v>
       </c>
       <c r="I1" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>230</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>231</v>
       </c>
       <c r="K1" s="38" t="s">
         <v>128</v>
@@ -3091,28 +3101,28 @@
         <v>135</v>
       </c>
       <c r="Q1" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" s="38" t="s">
         <v>236</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>237</v>
       </c>
       <c r="S1" s="38" t="s">
         <v>142</v>
       </c>
       <c r="T1" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="U1" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="V1" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="W1" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="W1" s="38" t="s">
-        <v>241</v>
-      </c>
       <c r="X1" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y1" s="82" t="s">
         <v>155</v>
@@ -3136,10 +3146,10 @@
         <v>176</v>
       </c>
       <c r="AF1" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG1" s="38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -3147,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E2" s="73">
         <v>42458</v>
@@ -3170,19 +3180,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E3" s="73">
         <v>42459</v>
       </c>
       <c r="F3" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>263</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>264</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>181</v>
@@ -3195,7 +3205,7 @@
       </c>
       <c r="P3" s="71"/>
       <c r="Q3" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R3" s="35">
         <v>1000</v>
@@ -3223,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="73">
         <v>42460</v>
@@ -3232,7 +3242,7 @@
         <v>1234</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>181</v>
@@ -3244,7 +3254,7 @@
         <v>184</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R4" s="35">
         <v>1000</v>
@@ -3275,7 +3285,7 @@
         <v>1234</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>195</v>
@@ -3290,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V5" s="30" t="b">
         <v>1</v>
@@ -3302,7 +3312,7 @@
         <v>181</v>
       </c>
       <c r="Y5" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z5" s="34"/>
       <c r="AA5" s="35" t="s">
@@ -3327,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V6" s="30" t="b">
         <v>1</v>
@@ -3339,7 +3349,7 @@
         <v>181</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z6" s="34"/>
       <c r="AA6" s="35" t="s">
@@ -3421,71 +3431,79 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="37.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>117</v>
       </c>
@@ -3493,176 +3511,553 @@
         <v>119</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F1" s="68" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>128</v>
       </c>
       <c r="L1" s="68" t="s">
+        <v>379</v>
+      </c>
+      <c r="M1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="N1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="68" t="s">
-        <v>132</v>
-      </c>
       <c r="O1" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="P1" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="Q1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="R1" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="S1" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="T1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="U1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="V1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="V1" s="68" t="s">
+      <c r="W1" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="X1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="W1" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="X1" s="68" t="s">
-        <v>142</v>
-      </c>
       <c r="Y1" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="68" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB1" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC1" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD1" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="AF1" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="AA1" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB1" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC1" s="68" t="s">
+      <c r="AG1" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH1" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE1" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF1" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG1" s="68" t="s">
+      <c r="AI1" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ1" s="68" t="s">
+        <v>500</v>
+      </c>
+      <c r="AK1" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL1" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="AH1" s="68" t="s">
+      <c r="AM1" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="AI1" s="68" t="s">
+      <c r="AN1" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="AJ1" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK1" s="68" t="s">
+      <c r="AO1" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="AL1" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM1" s="68" t="s">
+      <c r="AP1" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="AN1" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO1" s="68" t="s">
+      <c r="AQ1" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="AR1" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="AP1" s="68" t="s">
+      <c r="AS1" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="AQ1" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR1" s="68" t="s">
+      <c r="AT1" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="AS1" s="68" t="s">
+      <c r="AU1" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="AT1" s="68" t="s">
+      <c r="AV1" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="AU1" s="68" t="s">
+      <c r="AW1" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="AV1" s="68" t="s">
+      <c r="AX1" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="AW1" s="68" t="s">
+      <c r="AY1" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="AX1" s="68" t="s">
+      <c r="AZ1" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="AY1" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="AZ1" s="68" t="s">
-        <v>176</v>
-      </c>
       <c r="BA1" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB1" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="BC1" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD1" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BE1" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF1" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="BB1" s="68" t="s">
+      <c r="BG1" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH1" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="BC1" s="68" t="s">
+      <c r="BI1" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="BD1" s="68" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>504</v>
+      <c r="BJ1" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="BK1" s="68" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="73">
+        <v>42617</v>
+      </c>
+      <c r="C2" s="35">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1</v>
+      </c>
+      <c r="E2" s="35">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35">
+        <v>1</v>
+      </c>
+      <c r="G2" s="35">
+        <v>1</v>
+      </c>
+      <c r="H2" s="35">
+        <v>1</v>
+      </c>
+      <c r="I2" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="J2" s="35">
+        <v>1</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="W2" s="74"/>
+      <c r="X2" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y2" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="35">
+        <v>8765309111</v>
+      </c>
+      <c r="AB2" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="35">
+        <v>1119035678</v>
+      </c>
+      <c r="AE2" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF2" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG2" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH2" s="35">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK2" s="86" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN2" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO2" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP2" s="35">
+        <v>4567</v>
+      </c>
+      <c r="AQ2" s="35">
+        <v>8910</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS2" s="35">
+        <v>1234567890</v>
+      </c>
+      <c r="AT2" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU2" s="35">
+        <v>2000</v>
+      </c>
+      <c r="AV2" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW2" s="35">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ2" s="35">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="35">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="35">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD2" s="35">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="35">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH2" s="35">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK2" s="105" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3" s="73">
+        <v>42617</v>
+      </c>
+      <c r="C3" s="35">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35">
+        <v>1</v>
+      </c>
+      <c r="H3" s="35">
+        <v>1</v>
+      </c>
+      <c r="I3" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="J3" s="35">
+        <v>1</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="74"/>
+      <c r="M3" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="W3" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="X3" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y3" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="35">
+        <v>8765309111</v>
+      </c>
+      <c r="AB3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="35">
+        <v>1119035678</v>
+      </c>
+      <c r="AE3" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF3" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH3" s="35">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK3" s="86" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO3" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP3" s="35">
+        <v>4567</v>
+      </c>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS3" s="35">
+        <v>1234567890</v>
+      </c>
+      <c r="AT3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU3" s="35">
+        <v>2000</v>
+      </c>
+      <c r="AV3" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="35">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK3" s="105" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3675,7 +4070,7 @@
   <dimension ref="A1:FQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,7 +4217,7 @@
         <v>152</v>
       </c>
       <c r="AB1" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AC1" s="68" t="s">
         <v>154</v>
@@ -3831,7 +4226,7 @@
         <v>155</v>
       </c>
       <c r="AE1" s="68" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF1" s="68" t="s">
         <v>156</v>
@@ -3906,7 +4301,7 @@
         <v>179</v>
       </c>
       <c r="BD1" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:173" x14ac:dyDescent="0.25">
@@ -4867,7 +5262,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="132" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -5952,7 +6347,7 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+      <c r="W11" s="15"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -6180,11 +6575,9 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="X12" s="8"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="14"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -6412,7 +6805,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
+      <c r="W13" s="36"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
@@ -8525,28 +8918,28 @@
         <v>144</v>
       </c>
       <c r="P1" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="68" t="s">
         <v>206</v>
-      </c>
-      <c r="Q1" s="68" t="s">
-        <v>207</v>
       </c>
       <c r="R1" s="68" t="s">
         <v>145</v>
       </c>
       <c r="S1" s="68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T1" s="68" t="s">
         <v>147</v>
       </c>
       <c r="U1" s="68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V1" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W1" s="68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X1" s="68" t="s">
         <v>148</v>
@@ -8561,7 +8954,7 @@
         <v>155</v>
       </c>
       <c r="AB1" s="68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC1" s="68" t="s">
         <v>159</v>
@@ -8588,55 +8981,55 @@
         <v>174</v>
       </c>
       <c r="AK1" s="68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AM1" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN1" s="68" t="s">
         <v>217</v>
-      </c>
-      <c r="AN1" s="68" t="s">
-        <v>218</v>
       </c>
       <c r="AO1" s="68" t="s">
         <v>121</v>
       </c>
       <c r="AP1" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ1" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="AQ1" s="68" t="s">
+      <c r="AR1" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="AR1" s="68" t="s">
+      <c r="AS1" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="AS1" s="68" t="s">
+      <c r="AT1" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="AT1" s="68" t="s">
+      <c r="AU1" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="AU1" s="68" t="s">
+      <c r="AV1" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="AV1" s="68" t="s">
+      <c r="AW1" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="AW1" s="68" t="s">
+      <c r="AX1" s="68" t="s">
         <v>315</v>
-      </c>
-      <c r="AX1" s="68" t="s">
-        <v>316</v>
       </c>
       <c r="AY1" s="68" t="s">
         <v>175</v>
       </c>
       <c r="AZ1" s="76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BA1" s="68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BB1" s="68" t="s">
         <v>176</v>
@@ -8645,7 +9038,7 @@
         <v>177</v>
       </c>
       <c r="BD1" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BE1" s="68" t="s">
         <v>178</v>
@@ -8654,10 +9047,10 @@
         <v>179</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BH1" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:60" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -8683,22 +9076,22 @@
         <v>196</v>
       </c>
       <c r="P2" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="U2" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="W2" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y2" s="35" t="s">
         <v>223</v>
-      </c>
-      <c r="U2" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="W2" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="X2" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y2" s="35" t="s">
-        <v>224</v>
       </c>
       <c r="Z2" s="35" t="s">
         <v>198</v>
@@ -8751,7 +9144,7 @@
         <v>42492</v>
       </c>
       <c r="AB3" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AC3" s="35" t="s">
         <v>186</v>
@@ -8761,13 +9154,13 @@
       </c>
       <c r="AO3" s="35"/>
       <c r="AP3" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AQ3" s="77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR3" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AS3" s="35">
         <v>8527419630</v>
@@ -8776,13 +9169,13 @@
         <v>3216549870</v>
       </c>
       <c r="AU3" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AV3" s="78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AW3" s="77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX3" s="37"/>
       <c r="AY3" s="14"/>
@@ -8818,7 +9211,7 @@
         <v>184</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -8829,7 +9222,7 @@
       <c r="M4" s="2"/>
       <c r="O4" s="32"/>
       <c r="Q4" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R4" s="74"/>
       <c r="S4" s="74"/>
@@ -8838,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W4" s="35" t="b">
         <v>1</v>
@@ -8882,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W5" s="35" t="b">
         <v>1</v>
@@ -8907,7 +9300,7 @@
         <v>42495</v>
       </c>
       <c r="AB6" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AC6" s="34" t="s">
         <v>186</v>
@@ -8917,13 +9310,13 @@
       </c>
       <c r="AO6" s="35"/>
       <c r="AP6" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AQ6" s="130" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR6" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AS6" s="35">
         <v>8527419630</v>
@@ -8932,13 +9325,13 @@
         <v>3216549870</v>
       </c>
       <c r="AU6" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AV6" s="78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AW6" s="77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX6" s="37"/>
       <c r="AY6" s="14"/>
@@ -8965,7 +9358,7 @@
         <v>42496</v>
       </c>
       <c r="AB7" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AC7" s="35" t="s">
         <v>186</v>
@@ -8975,13 +9368,13 @@
       </c>
       <c r="AO7" s="35"/>
       <c r="AP7" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AQ7" s="130" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR7" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AS7" s="35">
         <v>8527419630</v>
@@ -8990,13 +9383,13 @@
         <v>3216549870</v>
       </c>
       <c r="AU7" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AV7" s="78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AW7" s="77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX7" s="37"/>
       <c r="AY7" s="14"/>
@@ -9038,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W8" s="35" t="b">
         <v>1</v>
@@ -9066,7 +9459,7 @@
         <v>42498</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AC9" s="34" t="s">
         <v>186</v>
@@ -9076,13 +9469,13 @@
       </c>
       <c r="AO9" s="35"/>
       <c r="AP9" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AQ9" s="77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR9" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AS9" s="35">
         <v>8527419630</v>
@@ -9091,13 +9484,13 @@
         <v>3216549870</v>
       </c>
       <c r="AU9" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AV9" s="78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AW9" s="77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX9" s="37"/>
       <c r="AY9" s="79"/>
@@ -9139,13 +9532,13 @@
         <v>1</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T10" s="35" t="b">
         <v>1</v>
       </c>
       <c r="AA10" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AC10" s="35" t="s">
         <v>186</v>
@@ -9197,28 +9590,28 @@
         <v>197</v>
       </c>
       <c r="O11" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="R11" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="T11" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y11" s="35" t="s">
         <v>223</v>
-      </c>
-      <c r="R11" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="S11" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="T11" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="X11" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y11" s="35" t="s">
-        <v>224</v>
       </c>
       <c r="Z11" s="35" t="s">
         <v>198</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AC11" s="35" t="s">
         <v>186</v>
@@ -9289,22 +9682,22 @@
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="R12" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="T12" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y12" s="35" t="s">
         <v>223</v>
-      </c>
-      <c r="R12" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="S12" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="T12" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="X12" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y12" s="35" t="s">
-        <v>224</v>
       </c>
       <c r="Z12" s="35" t="s">
         <v>198</v>
@@ -9366,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T13" s="35" t="b">
         <v>1</v>
@@ -9462,7 +9855,7 @@
         <v>42507</v>
       </c>
       <c r="AB18" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AC18" s="35" t="s">
         <v>186</v>
@@ -9472,13 +9865,13 @@
       </c>
       <c r="AO18" s="35"/>
       <c r="AP18" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AQ18" s="77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR18" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AS18" s="35">
         <v>8527419630</v>
@@ -9487,13 +9880,13 @@
         <v>3216549870</v>
       </c>
       <c r="AU18" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AV18" s="78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AW18" s="77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX18" s="37"/>
       <c r="AY18" s="14"/>
@@ -9526,7 +9919,7 @@
         <v>193</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I19" s="35" t="s">
         <v>194</v>
@@ -9596,7 +9989,7 @@
         <v>193</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>194</v>
@@ -9661,8 +10054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9715,22 +10108,22 @@
         <v>127</v>
       </c>
       <c r="I1" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="K1" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="L1" s="68" t="s">
         <v>204</v>
-      </c>
-      <c r="L1" s="68" t="s">
-        <v>205</v>
       </c>
       <c r="M1" s="68" t="s">
         <v>128</v>
       </c>
       <c r="N1" s="68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O1" s="68" t="s">
         <v>129</v>
@@ -9739,7 +10132,7 @@
         <v>131</v>
       </c>
       <c r="Q1" s="68" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R1" s="68" t="s">
         <v>132</v>
@@ -9766,10 +10159,10 @@
         <v>139</v>
       </c>
       <c r="Z1" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA1" s="68" t="s">
         <v>234</v>
-      </c>
-      <c r="AA1" s="68" t="s">
-        <v>235</v>
       </c>
       <c r="AB1" s="68" t="s">
         <v>140</v>
@@ -9784,25 +10177,25 @@
         <v>152</v>
       </c>
       <c r="AF1" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG1" s="68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH1" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI1" s="68" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ1" s="119" t="s">
         <v>242</v>
-      </c>
-      <c r="AI1" s="68" t="s">
-        <v>505</v>
-      </c>
-      <c r="AJ1" s="119" t="s">
-        <v>243</v>
       </c>
       <c r="AK1" s="68" t="s">
         <v>156</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AM1" s="68" t="s">
         <v>157</v>
@@ -9814,7 +10207,7 @@
         <v>159</v>
       </c>
       <c r="AP1" s="68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AQ1" s="68" t="s">
         <v>162</v>
@@ -9823,10 +10216,10 @@
         <v>163</v>
       </c>
       <c r="AS1" s="68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AT1" s="68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AU1" s="68" t="s">
         <v>165</v>
@@ -9838,7 +10231,7 @@
         <v>167</v>
       </c>
       <c r="AX1" s="68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AY1" s="68" t="s">
         <v>168</v>
@@ -9862,16 +10255,16 @@
         <v>174</v>
       </c>
       <c r="BF1" s="68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="BH1" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="BI1" s="68" t="s">
         <v>217</v>
-      </c>
-      <c r="BI1" s="68" t="s">
-        <v>218</v>
       </c>
       <c r="BJ1" s="68" t="s">
         <v>121</v>
@@ -9880,7 +10273,7 @@
         <v>175</v>
       </c>
       <c r="BL1" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BM1" s="68" t="s">
         <v>176</v>
@@ -9889,10 +10282,10 @@
         <v>177</v>
       </c>
       <c r="BO1" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BP1" s="68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BQ1" s="68" t="s">
         <v>178</v>
@@ -9901,10 +10294,10 @@
         <v>179</v>
       </c>
       <c r="BS1" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BT1" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:72" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -9982,7 +10375,7 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="37"/>
       <c r="AN2" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO2" s="34"/>
       <c r="AP2" s="34"/>
@@ -10125,7 +10518,7 @@
       <c r="AL3" s="34"/>
       <c r="AM3" s="37"/>
       <c r="AN3" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO3" s="34"/>
       <c r="AP3" s="34"/>
@@ -10268,7 +10661,7 @@
       <c r="AL4" s="34"/>
       <c r="AM4" s="26"/>
       <c r="AN4" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO4" s="34"/>
       <c r="AP4" s="34"/>
@@ -10387,7 +10780,7 @@
       </c>
       <c r="BP5" s="2"/>
       <c r="BS5" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT5" s="105" t="b">
         <v>1</v>
@@ -10443,7 +10836,7 @@
       </c>
       <c r="BP6" s="2"/>
       <c r="BS6" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT6" s="105" t="b">
         <v>1</v>
@@ -10497,7 +10890,7 @@
         <v>195</v>
       </c>
       <c r="Z7" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AA7" s="35" t="s">
         <v>182</v>
@@ -10569,7 +10962,7 @@
         <v>1</v>
       </c>
       <c r="BS7" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT7" s="105" t="b">
         <v>1</v>
@@ -10625,7 +11018,7 @@
       </c>
       <c r="BP8" s="2"/>
       <c r="BS8" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT8" s="105" t="b">
         <v>1</v>
@@ -10681,7 +11074,7 @@
       </c>
       <c r="BP9" s="2"/>
       <c r="BS9" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT9" s="105" t="b">
         <v>1</v>
@@ -10812,7 +11205,7 @@
         <v>186</v>
       </c>
       <c r="BP10" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BQ10" s="35">
         <v>1</v>
@@ -10905,7 +11298,7 @@
       <c r="AJ11" s="51"/>
       <c r="AM11" s="37"/>
       <c r="AN11" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO11" s="34"/>
       <c r="AP11" s="34"/>
@@ -11048,7 +11441,7 @@
       <c r="AJ12" s="51"/>
       <c r="AM12" s="37"/>
       <c r="AN12" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO12" s="34"/>
       <c r="AP12" s="34"/>
@@ -11203,7 +11596,7 @@
       <c r="AJ13" s="51"/>
       <c r="AM13" s="37"/>
       <c r="AN13" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO13" s="35" t="s">
         <v>186</v>
@@ -11354,7 +11747,7 @@
       </c>
       <c r="AM14" s="37"/>
       <c r="AN14" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO14" s="34"/>
       <c r="AP14" s="31"/>
@@ -11499,7 +11892,7 @@
       </c>
       <c r="AM15" s="37"/>
       <c r="AN15" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO15" s="34"/>
       <c r="AP15" s="31"/>
@@ -11638,7 +12031,7 @@
       <c r="AL16" s="34"/>
       <c r="AM16" s="37"/>
       <c r="AN16" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO16" s="34"/>
       <c r="AP16" s="31"/>
@@ -11779,7 +12172,7 @@
       <c r="AL17" s="34"/>
       <c r="AM17" s="37"/>
       <c r="AN17" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO17" s="34"/>
       <c r="AP17" s="31"/>
@@ -11918,7 +12311,7 @@
       <c r="AL18" s="34"/>
       <c r="AM18" s="26"/>
       <c r="AN18" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO18" s="34"/>
       <c r="AP18" s="31"/>
@@ -12003,12 +12396,12 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S19" s="35" t="s">
         <v>192</v>
@@ -12067,7 +12460,7 @@
       <c r="BQ19" s="2"/>
       <c r="BR19" s="2"/>
       <c r="BS19" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT19" s="105" t="b">
         <v>1</v>
@@ -12094,12 +12487,12 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S20" s="35" t="s">
         <v>192</v>
@@ -12120,7 +12513,7 @@
         <v>194</v>
       </c>
       <c r="Y20" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -12188,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="BS20" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT20" s="105" t="b">
         <v>1</v>
@@ -12215,12 +12608,12 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>192</v>
@@ -12241,7 +12634,7 @@
         <v>194</v>
       </c>
       <c r="Y21" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -12301,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="BS21" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT21" s="105" t="b">
         <v>1</v>
@@ -12328,12 +12721,12 @@
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S22" s="35" t="s">
         <v>192</v>
@@ -12354,7 +12747,7 @@
         <v>194</v>
       </c>
       <c r="Y22" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -12422,7 +12815,7 @@
         <v>1</v>
       </c>
       <c r="BS22" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT22" s="105" t="b">
         <v>1</v>
@@ -12449,12 +12842,12 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S23" s="35" t="s">
         <v>192</v>
@@ -12475,7 +12868,7 @@
         <v>194</v>
       </c>
       <c r="Y23" s="35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -12543,7 +12936,7 @@
         <v>1</v>
       </c>
       <c r="BS23" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT23" s="105" t="b">
         <v>1</v>
@@ -12570,12 +12963,12 @@
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S24" s="35" t="s">
         <v>192</v>
@@ -12596,7 +12989,7 @@
         <v>194</v>
       </c>
       <c r="Y24" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -12664,7 +13057,7 @@
         <v>1</v>
       </c>
       <c r="BS24" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BT24" s="105" t="b">
         <v>1</v>
@@ -13463,55 +13856,55 @@
         <v>117</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1" s="68" t="s">
         <v>119</v>
       </c>
       <c r="D1" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="F1" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="G1" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="68" t="s">
-        <v>205</v>
-      </c>
       <c r="H1" s="68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I1" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="68" t="s">
-        <v>233</v>
-      </c>
       <c r="K1" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="M1" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="N1" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="O1" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="P1" s="68" t="s">
         <v>290</v>
-      </c>
-      <c r="P1" s="68" t="s">
-        <v>291</v>
       </c>
       <c r="Q1" s="76" t="s">
         <v>157</v>
       </c>
       <c r="R1" s="68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S1" s="68" t="s">
         <v>159</v>
@@ -13523,91 +13916,91 @@
         <v>169</v>
       </c>
       <c r="V1" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="W1" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="W1" s="68" t="s">
+      <c r="X1" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="X1" s="68" t="s">
+      <c r="Y1" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="Y1" s="68" t="s">
+      <c r="Z1" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="AA1" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="AA1" s="68" t="s">
-        <v>251</v>
-      </c>
       <c r="AB1" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC1" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="AC1" s="68" t="s">
+      <c r="AD1" s="68" t="s">
         <v>304</v>
       </c>
-      <c r="AD1" s="68" t="s">
+      <c r="AE1" s="68" t="s">
         <v>305</v>
-      </c>
-      <c r="AE1" s="68" t="s">
-        <v>306</v>
       </c>
       <c r="AF1" s="68" t="s">
         <v>121</v>
       </c>
       <c r="AG1" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH1" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="AH1" s="68" t="s">
+      <c r="AI1" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="AI1" s="68" t="s">
+      <c r="AJ1" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="AJ1" s="68" t="s">
+      <c r="AK1" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="AK1" s="68" t="s">
+      <c r="AL1" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="AL1" s="68" t="s">
+      <c r="AM1" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="AM1" s="68" t="s">
+      <c r="AN1" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="AN1" s="68" t="s">
+      <c r="AO1" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP1" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ1" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR1" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS1" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT1" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU1" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="AO1" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="AP1" s="68" t="s">
-        <v>254</v>
-      </c>
-      <c r="AQ1" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="AR1" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS1" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="AT1" s="68" t="s">
+      <c r="AV1" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW1" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="AU1" s="68" t="s">
+      <c r="AX1" s="68" t="s">
         <v>316</v>
-      </c>
-      <c r="AV1" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AW1" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="AX1" s="68" t="s">
-        <v>317</v>
       </c>
       <c r="AY1" s="68" t="s">
         <v>176</v>
@@ -13616,24 +14009,24 @@
         <v>177</v>
       </c>
       <c r="BA1" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BB1" s="68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2" s="73">
         <v>42614</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="37"/>
@@ -13646,16 +14039,16 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C3" s="73">
         <v>42615</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P3" s="12">
         <v>1000</v>
@@ -13673,7 +14066,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C4" s="73">
         <v>42616</v>
@@ -13681,7 +14074,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S4" s="35" t="s">
         <v>186</v>
@@ -13691,13 +14084,13 @@
       </c>
       <c r="AF4" s="35"/>
       <c r="AG4" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH4" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AI4" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AJ4" s="35">
         <v>1234567890</v>
@@ -13706,13 +14099,13 @@
         <v>7539517896</v>
       </c>
       <c r="AL4" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AM4" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN4" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AU4" s="35">
         <v>100</v>
@@ -13733,7 +14126,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C5" s="73">
         <v>42617</v>
@@ -13741,7 +14134,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="37"/>
       <c r="R5" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S5" s="35" t="s">
         <v>186</v>
@@ -13751,13 +14144,13 @@
       </c>
       <c r="AF5" s="35"/>
       <c r="AG5" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH5" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AI5" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AJ5" s="35">
         <v>1234567890</v>
@@ -13766,13 +14159,13 @@
         <v>7539517896</v>
       </c>
       <c r="AL5" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AM5" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN5" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AU5" s="35">
         <v>100</v>
@@ -13793,7 +14186,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C6" s="73">
         <v>42618</v>
@@ -13831,7 +14224,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C7" s="73">
         <v>42619</v>
@@ -13839,7 +14232,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S7" s="35" t="s">
         <v>186</v>
@@ -13849,13 +14242,13 @@
       </c>
       <c r="AF7" s="35"/>
       <c r="AG7" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH7" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AI7" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AJ7" s="35">
         <v>1234567890</v>
@@ -13864,13 +14257,13 @@
         <v>7539517896</v>
       </c>
       <c r="AL7" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AM7" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN7" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AU7" s="35">
         <v>100</v>
@@ -13891,13 +14284,13 @@
         <v>74</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C8" s="73">
         <v>42620</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P8" s="13">
         <v>1000</v>
@@ -13913,13 +14306,13 @@
         <v>75</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" s="73">
         <v>42621</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P9" s="13">
         <v>1000</v>
@@ -13935,13 +14328,13 @@
         <v>76</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C10" s="73">
         <v>42622</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P10" s="13">
         <v>1000</v>
@@ -13957,13 +14350,13 @@
         <v>77</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C11" s="73">
         <v>42623</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="37"/>
@@ -13977,7 +14370,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" s="84"/>
       <c r="P12" s="12"/>
@@ -13992,7 +14385,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13" s="84"/>
       <c r="P13" s="12"/>
@@ -14007,13 +14400,13 @@
         <v>80</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C14" s="73">
         <v>42626</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="37"/>
@@ -14027,13 +14420,13 @@
         <v>81</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C15" s="73">
         <v>42627</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="37"/>
@@ -14047,13 +14440,13 @@
         <v>82</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" s="73">
         <v>42628</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="37"/>
@@ -14067,7 +14460,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C17" s="73">
         <v>42629</v>
@@ -14079,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="37"/>
@@ -14094,41 +14487,41 @@
         <v>2000</v>
       </c>
       <c r="V17" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="W17" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="W17" s="28" t="s">
+      <c r="X17" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="X17" s="28" t="s">
-        <v>355</v>
-      </c>
       <c r="Y17" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z17" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="Z17" s="35" t="s">
+      <c r="AA17" s="35" t="s">
         <v>351</v>
-      </c>
-      <c r="AA17" s="35" t="s">
-        <v>352</v>
       </c>
       <c r="AF17" s="35"/>
       <c r="AO17" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP17" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="AP17" s="35" t="s">
+      <c r="AQ17" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="AQ17" s="35" t="s">
+      <c r="AR17" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="AR17" s="35" t="s">
+      <c r="AS17" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="AS17" s="35" t="s">
+      <c r="AT17" s="35" t="s">
         <v>361</v>
-      </c>
-      <c r="AT17" s="35" t="s">
-        <v>362</v>
       </c>
       <c r="AW17" s="35">
         <v>23789</v>
@@ -14143,7 +14536,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C18" s="73">
         <v>42630</v>
@@ -14165,10 +14558,10 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C19" s="73">
         <v>42631</v>
@@ -14176,7 +14569,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S19" s="34" t="s">
         <v>186</v>
@@ -14186,13 +14579,13 @@
       </c>
       <c r="AF19" s="35"/>
       <c r="AG19" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH19" s="34" t="s">
         <v>181</v>
       </c>
       <c r="AI19" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AJ19" s="34">
         <v>1234567890</v>
@@ -14228,7 +14621,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C20" s="73">
         <v>42632</v>
@@ -14247,22 +14640,22 @@
         <v>87</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C21" s="73">
         <v>42633</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M21" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="O21" s="35" t="s">
         <v>332</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>333</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="37"/>
@@ -14274,7 +14667,7 @@
         <v>181</v>
       </c>
       <c r="AD21" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AE21" s="35">
         <v>1234567890</v>
@@ -14287,7 +14680,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C22" s="73">
         <v>42634</v>
@@ -14647,7 +15040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -14693,10 +15086,10 @@
         <v>117</v>
       </c>
       <c r="B1" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>226</v>
       </c>
       <c r="D1" s="68" t="s">
         <v>119</v>
@@ -14717,7 +15110,7 @@
         <v>132</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>135</v>
@@ -14738,40 +15131,40 @@
         <v>169</v>
       </c>
       <c r="Q1" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="R1" s="68" t="s">
         <v>294</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="S1" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="T1" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="U1" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="V1" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="V1" s="68" t="s">
+      <c r="W1" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="W1" s="68" t="s">
+      <c r="X1" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="X1" s="68" t="s">
+      <c r="Y1" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="Y1" s="68" t="s">
+      <c r="Z1" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="Z1" s="68" t="s">
-        <v>303</v>
-      </c>
       <c r="AA1" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB1" s="68" t="s">
         <v>387</v>
-      </c>
-      <c r="AB1" s="68" t="s">
-        <v>388</v>
       </c>
       <c r="AC1" s="68" t="s">
         <v>121</v>
@@ -14780,10 +15173,10 @@
         <v>176</v>
       </c>
       <c r="AE1" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF1" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="117" customFormat="1" x14ac:dyDescent="0.25">
@@ -14791,7 +15184,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="73">
@@ -14799,7 +15192,7 @@
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>182</v>
@@ -14840,7 +15233,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
       <c r="AA2" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB2" s="34"/>
       <c r="AC2" s="35"/>
@@ -14857,7 +15250,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="73">
@@ -14865,7 +15258,7 @@
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>182</v>
@@ -14906,7 +15299,7 @@
       <c r="Y3" s="34"/>
       <c r="Z3" s="34"/>
       <c r="AA3" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB3" s="34"/>
       <c r="AC3" s="35"/>
@@ -14924,7 +15317,7 @@
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" s="73">
         <v>42432</v>
@@ -14933,7 +15326,7 @@
         <v>345</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -14968,7 +15361,7 @@
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
       <c r="AA4" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB4" s="34"/>
       <c r="AC4" s="35"/>
@@ -14986,7 +15379,7 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" s="73">
         <v>42433</v>
@@ -14995,7 +15388,7 @@
         <v>345</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -15030,7 +15423,7 @@
       <c r="Y5" s="34"/>
       <c r="Z5" s="34"/>
       <c r="AA5" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB5" s="34"/>
       <c r="AC5" s="35"/>
@@ -15047,7 +15440,7 @@
         <v>93</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="73">
@@ -15055,7 +15448,7 @@
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>182</v>
@@ -15070,7 +15463,7 @@
       </c>
       <c r="L6" s="34"/>
       <c r="M6" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N6" s="35" t="s">
         <v>162</v>
@@ -15099,7 +15492,7 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
       <c r="AB6" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC6" s="35"/>
       <c r="AD6" s="35"/>
@@ -15115,7 +15508,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="73">
@@ -15123,7 +15516,7 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>182</v>
@@ -15138,7 +15531,7 @@
       </c>
       <c r="L7" s="34"/>
       <c r="M7" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N7" s="35" t="s">
         <v>162</v>
@@ -15167,7 +15560,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="34"/>
       <c r="AB7" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC7" s="35"/>
       <c r="AD7" s="35"/>
@@ -15184,7 +15577,7 @@
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" s="73">
         <v>42436</v>
@@ -15193,7 +15586,7 @@
         <v>345</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -15208,7 +15601,7 @@
         <v>197</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N8" s="35" t="s">
         <v>162</v>
@@ -15231,7 +15624,7 @@
       <c r="Z8" s="34"/>
       <c r="AA8" s="34"/>
       <c r="AB8" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC8" s="35"/>
       <c r="AD8" s="35"/>
@@ -15248,7 +15641,7 @@
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="73">
         <v>42437</v>
@@ -15257,7 +15650,7 @@
         <v>345</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -15293,7 +15686,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC9" s="35"/>
       <c r="AD9" s="35"/>
@@ -15390,7 +15783,7 @@
       <c r="W11" s="34"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z11" s="39"/>
       <c r="AA11" s="34"/>
@@ -15536,7 +15929,7 @@
       <c r="W14" s="34"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z14" s="39"/>
       <c r="AA14" s="34"/>
@@ -15586,7 +15979,7 @@
       <c r="W15" s="34"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z15" s="39"/>
       <c r="AA15" s="34"/>
@@ -15636,7 +16029,7 @@
       <c r="W16" s="34"/>
       <c r="X16" s="39"/>
       <c r="Y16" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z16" s="39"/>
       <c r="AA16" s="34"/>
@@ -15686,7 +16079,7 @@
       <c r="W17" s="34"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z17" s="39"/>
       <c r="AA17" s="34"/>
@@ -15762,7 +16155,7 @@
         <v>120</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E1" s="68" t="s">
         <v>128</v>
@@ -15774,10 +16167,10 @@
         <v>135</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J1" s="68" t="s">
         <v>142</v>
@@ -15792,19 +16185,19 @@
         <v>147</v>
       </c>
       <c r="N1" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="P1" s="68" t="s">
         <v>209</v>
-      </c>
-      <c r="P1" s="68" t="s">
-        <v>210</v>
       </c>
       <c r="Q1" s="68" t="s">
         <v>155</v>
       </c>
       <c r="R1" s="68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S1" s="68" t="s">
         <v>159</v>
@@ -15813,58 +16206,58 @@
         <v>162</v>
       </c>
       <c r="U1" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V1" s="68" t="s">
         <v>121</v>
       </c>
       <c r="W1" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="X1" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="X1" s="68" t="s">
+      <c r="Y1" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="Y1" s="68" t="s">
+      <c r="Z1" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="AA1" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="AA1" s="68" t="s">
+      <c r="AB1" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="AB1" s="68" t="s">
+      <c r="AC1" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="AC1" s="68" t="s">
+      <c r="AD1" s="68" t="s">
         <v>314</v>
-      </c>
-      <c r="AD1" s="68" t="s">
-        <v>315</v>
       </c>
       <c r="AE1" s="68" t="s">
         <v>175</v>
       </c>
       <c r="AF1" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG1" s="68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH1" s="68" t="s">
         <v>176</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ1" s="68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK1" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -15909,19 +16302,19 @@
         <v>42463</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>184</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T4" s="34" t="s">
         <v>162</v>
       </c>
       <c r="U4" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V4" s="34" t="s">
         <v>180</v>
@@ -15947,10 +16340,10 @@
         <v>345</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F5" s="34">
         <v>123</v>
@@ -15959,7 +16352,7 @@
         <v>184</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="34" t="s">
         <v>197</v>
@@ -15968,7 +16361,7 @@
         <v>162</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V5" s="34" t="s">
         <v>180</v>
@@ -15991,7 +16384,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P6" s="34" t="b">
         <v>1</v>
@@ -16023,13 +16416,13 @@
         <v>1</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M7" s="34" t="s">
         <v>195</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S7" s="34" t="s">
         <v>186</v>
@@ -16072,7 +16465,7 @@
         <v>42468</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V9" s="34" t="s">
         <v>180</v>
@@ -16089,7 +16482,7 @@
         <v>42469</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V10" s="34" t="s">
         <v>180</v>
@@ -16106,7 +16499,7 @@
         <v>42470</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V11" s="34" t="s">
         <v>180</v>
@@ -16123,7 +16516,7 @@
         <v>42471</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V12" s="34" t="s">
         <v>180</v>
@@ -16140,7 +16533,7 @@
         <v>42472</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S13" s="34" t="s">
         <v>186</v>
@@ -16152,13 +16545,13 @@
         <v>180</v>
       </c>
       <c r="W13" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X13" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y13" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z13" s="34">
         <v>9876543210</v>
@@ -16167,13 +16560,13 @@
         <v>1234567890</v>
       </c>
       <c r="AB13" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AC13" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AD13" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF13" s="34">
         <v>50</v>
@@ -16383,28 +16776,28 @@
         <v>118</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>225</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>226</v>
       </c>
       <c r="E1" s="42" t="s">
         <v>119</v>
       </c>
       <c r="F1" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>227</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>228</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>120</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J1" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K1" s="42" t="s">
         <v>124</v>
@@ -16419,25 +16812,25 @@
         <v>127</v>
       </c>
       <c r="O1" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="R1" s="42" t="s">
-        <v>205</v>
-      </c>
       <c r="S1" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="T1" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="U1" s="42" t="s">
         <v>230</v>
-      </c>
-      <c r="U1" s="42" t="s">
-        <v>231</v>
       </c>
       <c r="V1" s="42" t="s">
         <v>128</v>
@@ -16455,7 +16848,7 @@
         <v>132</v>
       </c>
       <c r="AA1" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB1" s="42" t="s">
         <v>133</v>
@@ -16464,10 +16857,10 @@
         <v>134</v>
       </c>
       <c r="AD1" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AE1" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF1" s="42" t="s">
         <v>135</v>
@@ -16485,10 +16878,10 @@
         <v>139</v>
       </c>
       <c r="AK1" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL1" s="42" t="s">
         <v>234</v>
-      </c>
-      <c r="AL1" s="42" t="s">
-        <v>235</v>
       </c>
       <c r="AM1" s="42" t="s">
         <v>140</v>
@@ -16497,61 +16890,61 @@
         <v>141</v>
       </c>
       <c r="AO1" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP1" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="AP1" s="42" t="s">
-        <v>237</v>
-      </c>
       <c r="AQ1" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="AR1" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="AR1" s="43" t="s">
+      <c r="AS1" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="AS1" s="43" t="s">
+      <c r="AT1" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="AT1" s="43" t="s">
+      <c r="AU1" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="AU1" s="43" t="s">
+      <c r="AV1" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="AV1" s="43" t="s">
+      <c r="AW1" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="AW1" s="43" t="s">
+      <c r="AX1" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="AX1" s="43" t="s">
+      <c r="AY1" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="AY1" s="43" t="s">
+      <c r="AZ1" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="AZ1" s="43" t="s">
+      <c r="BA1" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="BA1" s="43" t="s">
+      <c r="BB1" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="BB1" s="43" t="s">
+      <c r="BC1" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="BC1" s="43" t="s">
+      <c r="BD1" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="BD1" s="43" t="s">
+      <c r="BE1" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="BE1" s="43" t="s">
+      <c r="BF1" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="BF1" s="43" t="s">
+      <c r="BG1" s="42" t="s">
         <v>285</v>
-      </c>
-      <c r="BG1" s="42" t="s">
-        <v>286</v>
       </c>
       <c r="BH1" s="42" t="s">
         <v>142</v>
@@ -16563,10 +16956,10 @@
         <v>144</v>
       </c>
       <c r="BK1" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="BL1" s="42" t="s">
         <v>206</v>
-      </c>
-      <c r="BL1" s="42" t="s">
-        <v>207</v>
       </c>
       <c r="BM1" s="42" t="s">
         <v>145</v>
@@ -16578,13 +16971,13 @@
         <v>147</v>
       </c>
       <c r="BP1" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="BQ1" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="BQ1" s="42" t="s">
+      <c r="BR1" s="42" t="s">
         <v>209</v>
-      </c>
-      <c r="BR1" s="42" t="s">
-        <v>210</v>
       </c>
       <c r="BS1" s="42" t="s">
         <v>148</v>
@@ -16593,31 +16986,31 @@
         <v>149</v>
       </c>
       <c r="BU1" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="BV1" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="BV1" s="45" t="s">
+      <c r="BW1" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="BW1" s="45" t="s">
+      <c r="BX1" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="BX1" s="45" t="s">
-        <v>290</v>
-      </c>
       <c r="BY1" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ1" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="BZ1" s="42" t="s">
+      <c r="CA1" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="CA1" s="42" t="s">
+      <c r="CB1" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="CB1" s="42" t="s">
-        <v>241</v>
-      </c>
       <c r="CC1" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="CD1" s="42" t="s">
         <v>150</v>
@@ -16635,28 +17028,28 @@
         <v>154</v>
       </c>
       <c r="CI1" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="CJ1" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="CK1" s="42" t="s">
         <v>211</v>
-      </c>
-      <c r="CK1" s="42" t="s">
-        <v>212</v>
       </c>
       <c r="CM1" s="42" t="s">
         <v>155</v>
       </c>
       <c r="CN1" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CO1" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="CP1" s="42" t="s">
         <v>157</v>
       </c>
       <c r="CQ1" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="CR1" s="42" t="s">
         <v>158</v>
@@ -16665,7 +17058,7 @@
         <v>159</v>
       </c>
       <c r="CT1" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="CU1" s="42" t="s">
         <v>160</v>
@@ -16683,7 +17076,7 @@
         <v>164</v>
       </c>
       <c r="CZ1" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DA1" s="42" t="s">
         <v>165</v>
@@ -16695,10 +17088,10 @@
         <v>167</v>
       </c>
       <c r="DD1" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DE1" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="DF1" s="42" t="s">
         <v>168</v>
@@ -16707,25 +17100,25 @@
         <v>169</v>
       </c>
       <c r="DH1" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="DI1" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="DJ1" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="DJ1" s="42" t="s">
+      <c r="DK1" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="DK1" s="42" t="s">
+      <c r="DL1" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="DL1" s="42" t="s">
+      <c r="DM1" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="DM1" s="42" t="s">
+      <c r="DN1" s="42" t="s">
         <v>250</v>
-      </c>
-      <c r="DN1" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="DO1" s="42" t="s">
         <v>170</v>
@@ -16743,118 +17136,118 @@
         <v>174</v>
       </c>
       <c r="DT1" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="DU1" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="DU1" s="42" t="s">
+      <c r="DV1" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="DV1" s="42" t="s">
+      <c r="DW1" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="DW1" s="42" t="s">
-        <v>218</v>
-      </c>
       <c r="DX1" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="DY1" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="DY1" s="42" t="s">
+      <c r="DZ1" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="DZ1" s="42" t="s">
+      <c r="EA1" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="EA1" s="42" t="s">
+      <c r="EB1" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="EB1" s="42" t="s">
+      <c r="EC1" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="EC1" s="42" t="s">
+      <c r="ED1" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="ED1" s="42" t="s">
+      <c r="EE1" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="EE1" s="44" t="s">
+      <c r="EF1" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="EF1" s="38" t="s">
+      <c r="EG1" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="EG1" s="41" t="s">
+      <c r="EH1" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="EH1" s="42" t="s">
+      <c r="EI1" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="EI1" s="42" t="s">
+      <c r="EJ1" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="EK1" s="44" t="s">
         <v>306</v>
-      </c>
-      <c r="EJ1" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="EK1" s="44" t="s">
-        <v>307</v>
       </c>
       <c r="EL1" s="38" t="s">
         <v>121</v>
       </c>
       <c r="EM1" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="EN1" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="EN1" s="42" t="s">
+      <c r="EO1" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="EO1" s="42" t="s">
+      <c r="EP1" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="EP1" s="42" t="s">
+      <c r="EQ1" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="EQ1" s="43" t="s">
+      <c r="ER1" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="ER1" s="43" t="s">
+      <c r="ES1" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="ES1" s="42" t="s">
+      <c r="ET1" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="ET1" s="43" t="s">
+      <c r="EU1" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="EV1" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="EW1" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="EX1" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="EY1" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="EZ1" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="FA1" s="42" t="s">
         <v>315</v>
-      </c>
-      <c r="EU1" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="EV1" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="EW1" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="EX1" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="EY1" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="EZ1" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="FA1" s="42" t="s">
-        <v>316</v>
       </c>
       <c r="FB1" s="42" t="s">
         <v>175</v>
       </c>
       <c r="FC1" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="FD1" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FE1" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="FF1" s="42" t="s">
         <v>176</v>
@@ -16863,13 +17256,13 @@
         <v>177</v>
       </c>
       <c r="FH1" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="FI1" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="FJ1" s="43" t="s">
         <v>318</v>
-      </c>
-      <c r="FJ1" s="43" t="s">
-        <v>319</v>
       </c>
       <c r="FK1" s="42" t="s">
         <v>178</v>
@@ -16878,13 +17271,13 @@
         <v>179</v>
       </c>
       <c r="FM1" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="FN1" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="FO1" s="42" t="s">
         <v>260</v>
-      </c>
-      <c r="FO1" s="42" t="s">
-        <v>261</v>
       </c>
       <c r="FP1" s="47" t="s">
         <v>161</v>
@@ -16898,7 +17291,7 @@
       <c r="FW1" s="47"/>
       <c r="FX1" s="47"/>
       <c r="FY1" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:181" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17663,7 +18056,7 @@
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="52">
@@ -17671,7 +18064,7 @@
         <v>42593</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G6" s="51" t="s">
         <v>195</v>
@@ -17689,7 +18082,7 @@
       <c r="R6" s="51"/>
       <c r="S6" s="51"/>
       <c r="T6" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U6" s="51"/>
       <c r="V6" s="51" t="s">
@@ -17720,7 +18113,7 @@
       <c r="AM6" s="51"/>
       <c r="AN6" s="51"/>
       <c r="AO6" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP6" s="51" t="s">
         <v>195</v>
@@ -17900,7 +18293,7 @@
       <c r="R7" s="51"/>
       <c r="S7" s="51"/>
       <c r="T7" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U7" s="51"/>
       <c r="V7" s="51"/>
@@ -17925,7 +18318,7 @@
       <c r="AM7" s="51"/>
       <c r="AN7" s="51"/>
       <c r="AO7" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP7" s="51"/>
       <c r="AQ7" s="53"/>
@@ -18025,7 +18418,7 @@
       <c r="EH7" s="51"/>
       <c r="EI7" s="51"/>
       <c r="EJ7" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="EK7" s="54"/>
       <c r="EL7" s="58" t="s">
@@ -18151,7 +18544,7 @@
         <v>1</v>
       </c>
       <c r="BN8" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BO8" s="51" t="s">
         <v>195</v>
@@ -18178,7 +18571,7 @@
       <c r="CJ8" s="51"/>
       <c r="CK8" s="51"/>
       <c r="CM8" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN8" s="53"/>
       <c r="CO8" s="51"/>
@@ -18355,7 +18748,7 @@
         <v>1</v>
       </c>
       <c r="BQ9" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BR9" s="51" t="b">
         <v>1</v>
@@ -18524,13 +18917,13 @@
         <v>192</v>
       </c>
       <c r="AC10" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD10" s="51"/>
       <c r="AE10" s="51"/>
       <c r="AF10" s="51"/>
       <c r="AG10" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH10" s="51" t="s">
         <v>194</v>
@@ -18544,7 +18937,7 @@
       <c r="AK10" s="51"/>
       <c r="AL10" s="51"/>
       <c r="AM10" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN10" s="51"/>
       <c r="AO10" s="51"/>
@@ -18775,7 +19168,7 @@
         <v>192</v>
       </c>
       <c r="AC11" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD11" s="51"/>
       <c r="AE11" s="51"/>
@@ -18783,7 +19176,7 @@
         <v>184</v>
       </c>
       <c r="AG11" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH11" s="51" t="s">
         <v>194</v>
@@ -18797,7 +19190,7 @@
       <c r="AK11" s="51"/>
       <c r="AL11" s="51"/>
       <c r="AM11" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN11" s="51"/>
       <c r="AO11" s="51"/>
@@ -19028,7 +19421,7 @@
         <v>192</v>
       </c>
       <c r="AC12" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD12" s="51"/>
       <c r="AE12" s="51"/>
@@ -19036,7 +19429,7 @@
         <v>184</v>
       </c>
       <c r="AG12" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH12" s="51" t="s">
         <v>194</v>
@@ -19050,7 +19443,7 @@
       <c r="AK12" s="51"/>
       <c r="AL12" s="51"/>
       <c r="AM12" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN12" s="51"/>
       <c r="AO12" s="51"/>
@@ -19527,7 +19920,7 @@
       <c r="AL14" s="51"/>
       <c r="AM14" s="51"/>
       <c r="AN14" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO14" s="51"/>
       <c r="AP14" s="51"/>
@@ -19580,7 +19973,7 @@
       <c r="CJ14" s="51"/>
       <c r="CK14" s="51"/>
       <c r="CM14" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN14" s="53"/>
       <c r="CO14" s="51"/>
@@ -19972,13 +20365,13 @@
         <v>192</v>
       </c>
       <c r="AC16" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD16" s="51"/>
       <c r="AE16" s="51"/>
       <c r="AF16" s="51"/>
       <c r="AG16" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH16" s="51" t="s">
         <v>194</v>
@@ -19992,7 +20385,7 @@
       <c r="AK16" s="51"/>
       <c r="AL16" s="51"/>
       <c r="AM16" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN16" s="51"/>
       <c r="AO16" s="51"/>
@@ -20197,13 +20590,13 @@
         <v>192</v>
       </c>
       <c r="AC17" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD17" s="51"/>
       <c r="AE17" s="51"/>
       <c r="AF17" s="51"/>
       <c r="AG17" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH17" s="51" t="s">
         <v>194</v>
@@ -20217,7 +20610,7 @@
       <c r="AK17" s="51"/>
       <c r="AL17" s="51"/>
       <c r="AM17" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN17" s="51"/>
       <c r="AO17" s="51"/>
@@ -21375,7 +21768,7 @@
       <c r="AB23" s="51"/>
       <c r="AC23" s="51"/>
       <c r="AD23" s="62" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE23" s="51"/>
       <c r="AF23" s="51"/>
@@ -21473,13 +21866,13 @@
         <v>181</v>
       </c>
       <c r="DL23" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DM23" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DN23" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DO23" s="51"/>
       <c r="DP23" s="51"/>
@@ -21515,22 +21908,22 @@
       <c r="ES23" s="51"/>
       <c r="ET23" s="53"/>
       <c r="EU23" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="EV23" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="EW23" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="EX23" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="EY23" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="EZ23" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="FA23" s="51"/>
       <c r="FB23" s="51"/>
@@ -21761,7 +22154,7 @@
       <c r="FL24" s="51"/>
       <c r="FM24" s="51"/>
       <c r="FN24" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO24" s="51"/>
       <c r="FP24" s="59"/>
@@ -21974,7 +22367,7 @@
       <c r="FL25" s="51"/>
       <c r="FM25" s="51"/>
       <c r="FN25" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO25" s="51"/>
       <c r="FP25" s="59"/>
@@ -22039,13 +22432,13 @@
         <v>192</v>
       </c>
       <c r="AC26" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD26" s="51"/>
       <c r="AE26" s="51"/>
       <c r="AF26" s="51"/>
       <c r="AG26" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH26" s="51" t="s">
         <v>194</v>
@@ -22057,13 +22450,13 @@
         <v>195</v>
       </c>
       <c r="AK26" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL26" s="51" t="s">
         <v>195</v>
       </c>
       <c r="AM26" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN26" s="51"/>
       <c r="AO26" s="51"/>
@@ -22231,7 +22624,7 @@
       </c>
       <c r="FM26" s="51"/>
       <c r="FN26" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO26" s="51"/>
       <c r="FP26" s="59"/>
@@ -22296,13 +22689,13 @@
         <v>192</v>
       </c>
       <c r="AC27" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD27" s="51"/>
       <c r="AE27" s="51"/>
       <c r="AF27" s="51"/>
       <c r="AG27" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH27" s="51" t="s">
         <v>194</v>
@@ -22314,13 +22707,13 @@
         <v>195</v>
       </c>
       <c r="AK27" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL27" s="51" t="s">
         <v>195</v>
       </c>
       <c r="AM27" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN27" s="51"/>
       <c r="AO27" s="51"/>
@@ -22488,7 +22881,7 @@
       </c>
       <c r="FM27" s="51"/>
       <c r="FN27" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO27" s="51"/>
       <c r="FP27" s="59"/>
@@ -22547,13 +22940,13 @@
         <v>192</v>
       </c>
       <c r="AC28" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD28" s="51"/>
       <c r="AE28" s="51"/>
       <c r="AF28" s="51"/>
       <c r="AG28" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH28" s="51" t="s">
         <v>194</v>
@@ -22567,7 +22960,7 @@
       <c r="AK28" s="51"/>
       <c r="AL28" s="51"/>
       <c r="AM28" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN28" s="51"/>
       <c r="AO28" s="51"/>
@@ -22727,7 +23120,7 @@
       </c>
       <c r="FM28" s="51"/>
       <c r="FN28" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO28" s="51"/>
       <c r="FP28" s="59"/>
@@ -23038,7 +23431,7 @@
       <c r="AL30" s="51"/>
       <c r="AM30" s="51"/>
       <c r="AN30" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO30" s="51"/>
       <c r="AP30" s="51"/>
@@ -23091,7 +23484,7 @@
       <c r="CJ30" s="51"/>
       <c r="CK30" s="51"/>
       <c r="CM30" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN30" s="53"/>
       <c r="CO30" s="51"/>
@@ -23457,7 +23850,7 @@
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
       <c r="D32" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
@@ -23480,7 +23873,7 @@
       <c r="R32" s="51"/>
       <c r="S32" s="51"/>
       <c r="T32" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U32" s="51"/>
       <c r="V32" s="51" t="s">
@@ -23509,7 +23902,7 @@
       <c r="AM32" s="51"/>
       <c r="AN32" s="51"/>
       <c r="AO32" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP32" s="51" t="s">
         <v>195</v>
@@ -23689,7 +24082,7 @@
       <c r="R33" s="51"/>
       <c r="S33" s="51"/>
       <c r="T33" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U33" s="51"/>
       <c r="V33" s="51" t="s">
@@ -23718,7 +24111,7 @@
       <c r="AM33" s="51"/>
       <c r="AN33" s="51"/>
       <c r="AO33" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP33" s="51"/>
       <c r="AQ33" s="53"/>
@@ -23820,7 +24213,7 @@
       <c r="EH33" s="51"/>
       <c r="EI33" s="51"/>
       <c r="EJ33" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="EK33" s="54"/>
       <c r="EL33" s="58" t="s">
@@ -23919,7 +24312,7 @@
         <v>192</v>
       </c>
       <c r="AC34" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD34" s="51"/>
       <c r="AE34" s="51"/>
@@ -23927,7 +24320,7 @@
         <v>184</v>
       </c>
       <c r="AG34" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH34" s="51" t="s">
         <v>194</v>
@@ -23941,7 +24334,7 @@
       <c r="AK34" s="51"/>
       <c r="AL34" s="51"/>
       <c r="AM34" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN34" s="51"/>
       <c r="AO34" s="51"/>
@@ -24174,7 +24567,7 @@
         <v>192</v>
       </c>
       <c r="AC35" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD35" s="51"/>
       <c r="AE35" s="51"/>
@@ -24182,7 +24575,7 @@
         <v>184</v>
       </c>
       <c r="AG35" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH35" s="51" t="s">
         <v>194</v>
@@ -24196,7 +24589,7 @@
       <c r="AK35" s="51"/>
       <c r="AL35" s="51"/>
       <c r="AM35" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN35" s="51"/>
       <c r="AO35" s="51"/>
@@ -24439,7 +24832,7 @@
         <v>192</v>
       </c>
       <c r="AC36" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD36" s="51"/>
       <c r="AE36" s="51"/>
@@ -24447,7 +24840,7 @@
         <v>184</v>
       </c>
       <c r="AG36" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH36" s="51" t="s">
         <v>194</v>
@@ -24461,7 +24854,7 @@
       <c r="AK36" s="51"/>
       <c r="AL36" s="51"/>
       <c r="AM36" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN36" s="51"/>
       <c r="AO36" s="51"/>
@@ -24712,7 +25105,7 @@
         <v>192</v>
       </c>
       <c r="AC37" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD37" s="51"/>
       <c r="AE37" s="51"/>
@@ -24720,7 +25113,7 @@
         <v>184</v>
       </c>
       <c r="AG37" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH37" s="51" t="s">
         <v>194</v>
@@ -24734,7 +25127,7 @@
       <c r="AK37" s="51"/>
       <c r="AL37" s="51"/>
       <c r="AM37" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN37" s="51"/>
       <c r="AO37" s="51"/>
@@ -25034,7 +25427,7 @@
         <v>1</v>
       </c>
       <c r="BN38" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BO38" s="51" t="s">
         <v>195</v>
@@ -25061,7 +25454,7 @@
       <c r="CJ38" s="51"/>
       <c r="CK38" s="51"/>
       <c r="CM38" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN38" s="53"/>
       <c r="CO38" s="51"/>
@@ -25206,7 +25599,7 @@
         <v>184</v>
       </c>
       <c r="AG39" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH39" s="51" t="s">
         <v>194</v>
@@ -25220,7 +25613,7 @@
       <c r="AK39" s="51"/>
       <c r="AL39" s="51"/>
       <c r="AM39" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN39" s="51"/>
       <c r="AO39" s="51"/>
@@ -25247,7 +25640,7 @@
       </c>
       <c r="BI39" s="51"/>
       <c r="BJ39" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BK39" s="51"/>
       <c r="BL39" s="51"/>
@@ -25255,7 +25648,7 @@
         <v>1</v>
       </c>
       <c r="BN39" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BO39" s="51" t="s">
         <v>195</v>
@@ -25264,10 +25657,10 @@
       <c r="BQ39" s="51"/>
       <c r="BR39" s="51"/>
       <c r="BS39" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BT39" s="54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BV39" s="55"/>
       <c r="BW39" s="55"/>
@@ -25288,7 +25681,7 @@
       <c r="CJ39" s="51"/>
       <c r="CK39" s="51"/>
       <c r="CM39" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN39" s="53"/>
       <c r="CO39" s="51"/>
@@ -25435,7 +25828,7 @@
       <c r="S40" s="51"/>
       <c r="T40" s="51"/>
       <c r="U40" s="62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V40" s="51"/>
       <c r="W40" s="51"/>
@@ -25501,7 +25894,7 @@
         <v>1</v>
       </c>
       <c r="BZ40" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="CA40" s="51" t="b">
         <v>1</v>
@@ -25521,7 +25914,7 @@
       <c r="CJ40" s="51"/>
       <c r="CK40" s="51"/>
       <c r="CM40" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN40" s="53"/>
       <c r="CO40" s="51"/>
@@ -25702,7 +26095,7 @@
         <v>1</v>
       </c>
       <c r="BQ41" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BR41" s="51" t="b">
         <v>1</v>
@@ -25865,7 +26258,7 @@
         <v>192</v>
       </c>
       <c r="AC42" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD42" s="51"/>
       <c r="AE42" s="51"/>
@@ -25873,7 +26266,7 @@
         <v>184</v>
       </c>
       <c r="AG42" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH42" s="51"/>
       <c r="AI42" s="51"/>
@@ -25881,7 +26274,7 @@
       <c r="AK42" s="51"/>
       <c r="AL42" s="51"/>
       <c r="AM42" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN42" s="51"/>
       <c r="AO42" s="51"/>
@@ -25908,7 +26301,7 @@
       <c r="BJ42" s="51"/>
       <c r="BK42" s="51"/>
       <c r="BL42" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BM42" s="51"/>
       <c r="BN42" s="51"/>
@@ -25917,7 +26310,7 @@
         <v>1</v>
       </c>
       <c r="BQ42" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BR42" s="51" t="b">
         <v>1</v>
@@ -26096,7 +26489,7 @@
         <v>192</v>
       </c>
       <c r="AC43" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD43" s="51"/>
       <c r="AE43" s="51"/>
@@ -26104,7 +26497,7 @@
         <v>184</v>
       </c>
       <c r="AG43" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH43" s="51" t="s">
         <v>194</v>
@@ -26118,7 +26511,7 @@
       <c r="AK43" s="51"/>
       <c r="AL43" s="51"/>
       <c r="AM43" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN43" s="51"/>
       <c r="AO43" s="51"/>
@@ -26361,7 +26754,7 @@
         <v>192</v>
       </c>
       <c r="AC44" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD44" s="51"/>
       <c r="AE44" s="51"/>
@@ -26369,7 +26762,7 @@
         <v>184</v>
       </c>
       <c r="AG44" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH44" s="51" t="s">
         <v>194</v>
@@ -26383,7 +26776,7 @@
       <c r="AK44" s="51"/>
       <c r="AL44" s="51"/>
       <c r="AM44" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN44" s="51"/>
       <c r="AO44" s="51"/>
@@ -26626,7 +27019,7 @@
         <v>192</v>
       </c>
       <c r="AC45" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD45" s="51"/>
       <c r="AE45" s="51"/>
@@ -26634,7 +27027,7 @@
         <v>184</v>
       </c>
       <c r="AG45" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH45" s="51" t="s">
         <v>194</v>
@@ -26648,7 +27041,7 @@
       <c r="AK45" s="51"/>
       <c r="AL45" s="51"/>
       <c r="AM45" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN45" s="51"/>
       <c r="AO45" s="51"/>
@@ -26847,7 +27240,7 @@
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
       <c r="D46" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
@@ -27006,7 +27399,7 @@
       <c r="EI46" s="51"/>
       <c r="EJ46" s="51"/>
       <c r="EK46" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="EL46" s="58" t="s">
         <v>195</v>
@@ -27060,7 +27453,7 @@
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
@@ -27219,7 +27612,7 @@
       <c r="EI47" s="51"/>
       <c r="EJ47" s="51"/>
       <c r="EK47" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="EL47" s="58" t="s">
         <v>195</v>
@@ -27273,7 +27666,7 @@
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
       <c r="D48" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
@@ -27429,7 +27822,7 @@
       <c r="EH48" s="51"/>
       <c r="EI48" s="51"/>
       <c r="EJ48" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="EK48" s="54"/>
       <c r="EL48" s="58" t="s">
@@ -27484,7 +27877,7 @@
       <c r="B49" s="49"/>
       <c r="C49" s="50"/>
       <c r="D49" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
@@ -27640,7 +28033,7 @@
       <c r="EH49" s="51"/>
       <c r="EI49" s="51"/>
       <c r="EJ49" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="EK49" s="54"/>
       <c r="EL49" s="58" t="s">
@@ -27883,7 +28276,7 @@
       </c>
       <c r="B51" s="49"/>
       <c r="C51" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="52">
@@ -27976,7 +28369,7 @@
       <c r="CJ51" s="51"/>
       <c r="CK51" s="51"/>
       <c r="CM51" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN51" s="53"/>
       <c r="CO51" s="51"/>
@@ -28173,7 +28566,7 @@
       <c r="CJ52" s="51"/>
       <c r="CK52" s="51"/>
       <c r="CM52" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN52" s="53"/>
       <c r="CO52" s="51"/>
@@ -28348,16 +28741,16 @@
       <c r="BS53" s="51"/>
       <c r="BT53" s="54"/>
       <c r="BU53" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV53" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="BV53" s="49" t="s">
+      <c r="BW53" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="BW53" s="49" t="s">
-        <v>333</v>
-      </c>
       <c r="BX53" s="49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BY53" s="50"/>
       <c r="BZ53" s="51"/>
@@ -28423,7 +28816,7 @@
         <v>181</v>
       </c>
       <c r="EH53" s="51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="EI53" s="51">
         <v>5555555555</v>
@@ -28551,7 +28944,7 @@
         <v>1</v>
       </c>
       <c r="BN54" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BO54" s="51" t="s">
         <v>195</v>
@@ -28578,7 +28971,7 @@
       <c r="CJ54" s="51"/>
       <c r="CK54" s="51"/>
       <c r="CM54" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN54" s="53"/>
       <c r="CO54" s="51"/>
@@ -28721,7 +29114,7 @@
         <v>184</v>
       </c>
       <c r="AG55" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH55" s="51" t="s">
         <v>194</v>
@@ -28735,7 +29128,7 @@
       <c r="AK55" s="51"/>
       <c r="AL55" s="51"/>
       <c r="AM55" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN55" s="51"/>
       <c r="AO55" s="51"/>
@@ -28759,7 +29152,7 @@
       <c r="BG55" s="51"/>
       <c r="BH55" s="51"/>
       <c r="BI55" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BJ55" s="51"/>
       <c r="BK55" s="51"/>
@@ -28768,7 +29161,7 @@
         <v>1</v>
       </c>
       <c r="BN55" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BO55" s="51" t="s">
         <v>195</v>
@@ -28777,10 +29170,10 @@
       <c r="BQ55" s="51"/>
       <c r="BR55" s="51"/>
       <c r="BS55" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BT55" s="54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BV55" s="55"/>
       <c r="BW55" s="55"/>
@@ -28801,7 +29194,7 @@
       <c r="CJ55" s="51"/>
       <c r="CK55" s="51"/>
       <c r="CM55" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN55" s="53"/>
       <c r="CO55" s="51"/>
@@ -29008,7 +29401,7 @@
         <v>1</v>
       </c>
       <c r="BZ56" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="CA56" s="51" t="b">
         <v>1</v>
@@ -29028,7 +29421,7 @@
       <c r="CJ56" s="51"/>
       <c r="CK56" s="51"/>
       <c r="CM56" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN56" s="53"/>
       <c r="CO56" s="51"/>
@@ -29466,7 +29859,7 @@
       <c r="EB58" s="51"/>
       <c r="EC58" s="51"/>
       <c r="ED58" s="51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="EE58" s="54"/>
       <c r="EF58" s="57">
@@ -29666,10 +30059,10 @@
       <c r="EB59" s="51"/>
       <c r="EC59" s="51"/>
       <c r="ED59" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="EE59" s="54" t="s">
         <v>335</v>
-      </c>
-      <c r="EE59" s="54" t="s">
-        <v>336</v>
       </c>
       <c r="EF59" s="57">
         <v>5</v>
@@ -29799,7 +30192,7 @@
         <v>1</v>
       </c>
       <c r="BQ60" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BR60" s="51" t="b">
         <v>1</v>
@@ -29958,7 +30351,7 @@
       <c r="AE61" s="51"/>
       <c r="AF61" s="51"/>
       <c r="AG61" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH61" s="51" t="s">
         <v>194</v>
@@ -29972,7 +30365,7 @@
       <c r="AK61" s="51"/>
       <c r="AL61" s="51"/>
       <c r="AM61" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN61" s="51"/>
       <c r="AO61" s="51"/>
@@ -30008,16 +30401,16 @@
         <v>1</v>
       </c>
       <c r="BQ61" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BR61" s="51" t="b">
         <v>1</v>
       </c>
       <c r="BS61" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BT61" s="54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BV61" s="55"/>
       <c r="BW61" s="55"/>
@@ -30447,7 +30840,7 @@
       <c r="AL63" s="51"/>
       <c r="AM63" s="51"/>
       <c r="AN63" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO63" s="51"/>
       <c r="AP63" s="51"/>
@@ -30500,7 +30893,7 @@
       <c r="CJ63" s="51"/>
       <c r="CK63" s="51"/>
       <c r="CM63" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN63" s="53"/>
       <c r="CO63" s="51"/>
@@ -30902,13 +31295,13 @@
         <v>192</v>
       </c>
       <c r="AC65" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD65" s="51"/>
       <c r="AE65" s="51"/>
       <c r="AF65" s="51"/>
       <c r="AG65" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH65" s="51" t="s">
         <v>194</v>
@@ -30922,7 +31315,7 @@
       <c r="AK65" s="51"/>
       <c r="AL65" s="51"/>
       <c r="AM65" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN65" s="51"/>
       <c r="AO65" s="51"/>
@@ -31151,7 +31544,7 @@
         <v>192</v>
       </c>
       <c r="AC66" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD66" s="51"/>
       <c r="AE66" s="51"/>
@@ -31159,7 +31552,7 @@
         <v>184</v>
       </c>
       <c r="AG66" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH66" s="51" t="s">
         <v>194</v>
@@ -31173,7 +31566,7 @@
       <c r="AK66" s="51"/>
       <c r="AL66" s="51"/>
       <c r="AM66" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN66" s="51"/>
       <c r="AO66" s="51"/>
@@ -31474,7 +31867,7 @@
       <c r="CJ67" s="51"/>
       <c r="CK67" s="51"/>
       <c r="CM67" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN67" s="53"/>
       <c r="CO67" s="51"/>
@@ -31711,7 +32104,7 @@
       <c r="CJ68" s="51"/>
       <c r="CK68" s="51"/>
       <c r="CM68" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN68" s="53"/>
       <c r="CO68" s="51"/>
@@ -31950,7 +32343,7 @@
       <c r="CJ69" s="51"/>
       <c r="CK69" s="51"/>
       <c r="CM69" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN69" s="53"/>
       <c r="CO69" s="51"/>
@@ -32134,7 +32527,7 @@
       <c r="AL70" s="51"/>
       <c r="AM70" s="51"/>
       <c r="AN70" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO70" s="51"/>
       <c r="AP70" s="51"/>
@@ -32191,7 +32584,7 @@
       <c r="CJ70" s="51"/>
       <c r="CK70" s="51"/>
       <c r="CM70" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN70" s="53"/>
       <c r="CO70" s="51"/>
@@ -32430,7 +32823,7 @@
       <c r="CJ71" s="51"/>
       <c r="CK71" s="51"/>
       <c r="CM71" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN71" s="53"/>
       <c r="CO71" s="51"/>
@@ -33164,13 +33557,13 @@
         <v>192</v>
       </c>
       <c r="AC75" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD75" s="51"/>
       <c r="AE75" s="51"/>
       <c r="AF75" s="51"/>
       <c r="AG75" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH75" s="51" t="s">
         <v>194</v>
@@ -33184,7 +33577,7 @@
       <c r="AK75" s="51"/>
       <c r="AL75" s="51"/>
       <c r="AM75" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN75" s="51"/>
       <c r="AO75" s="51"/>
@@ -33413,7 +33806,7 @@
         <v>192</v>
       </c>
       <c r="AC76" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD76" s="51"/>
       <c r="AE76" s="51"/>
@@ -33421,7 +33814,7 @@
         <v>184</v>
       </c>
       <c r="AG76" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH76" s="51" t="s">
         <v>194</v>
@@ -33435,7 +33828,7 @@
       <c r="AK76" s="51"/>
       <c r="AL76" s="51"/>
       <c r="AM76" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN76" s="51"/>
       <c r="AO76" s="51"/>
@@ -33664,7 +34057,7 @@
         <v>192</v>
       </c>
       <c r="AC77" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD77" s="51"/>
       <c r="AE77" s="51"/>
@@ -33672,7 +34065,7 @@
         <v>184</v>
       </c>
       <c r="AG77" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH77" s="51" t="s">
         <v>194</v>
@@ -33686,7 +34079,7 @@
       <c r="AK77" s="51"/>
       <c r="AL77" s="51"/>
       <c r="AM77" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN77" s="51"/>
       <c r="AO77" s="51"/>
@@ -34161,7 +34554,7 @@
       <c r="AL79" s="51"/>
       <c r="AM79" s="51"/>
       <c r="AN79" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO79" s="51"/>
       <c r="AP79" s="51"/>
@@ -34214,7 +34607,7 @@
       <c r="CJ79" s="51"/>
       <c r="CK79" s="51"/>
       <c r="CM79" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CN79" s="53"/>
       <c r="CO79" s="51"/>
@@ -34610,7 +35003,7 @@
         <v>192</v>
       </c>
       <c r="AC81" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD81" s="51"/>
       <c r="AE81" s="51"/>
@@ -34618,7 +35011,7 @@
         <v>184</v>
       </c>
       <c r="AG81" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH81" s="51" t="s">
         <v>194</v>
@@ -34632,7 +35025,7 @@
       <c r="AK81" s="51"/>
       <c r="AL81" s="51"/>
       <c r="AM81" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN81" s="51"/>
       <c r="AO81" s="51"/>
@@ -34794,7 +35187,7 @@
       </c>
       <c r="FM81" s="51"/>
       <c r="FN81" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO81" s="51"/>
       <c r="FP81" s="59"/>
@@ -34853,7 +35246,7 @@
         <v>192</v>
       </c>
       <c r="AC82" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD82" s="51"/>
       <c r="AE82" s="51"/>
@@ -35015,7 +35408,7 @@
       <c r="FL82" s="51"/>
       <c r="FM82" s="51"/>
       <c r="FN82" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO82" s="51"/>
       <c r="FP82" s="59"/>
@@ -35074,7 +35467,7 @@
         <v>192</v>
       </c>
       <c r="AC83" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD83" s="51"/>
       <c r="AE83" s="51"/>
@@ -35082,7 +35475,7 @@
         <v>184</v>
       </c>
       <c r="AG83" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH83" s="51" t="s">
         <v>194</v>
@@ -35096,7 +35489,7 @@
       <c r="AK83" s="51"/>
       <c r="AL83" s="51"/>
       <c r="AM83" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN83" s="51"/>
       <c r="AO83" s="51"/>
@@ -35264,7 +35657,7 @@
       </c>
       <c r="FM83" s="51"/>
       <c r="FN83" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO83" s="51"/>
       <c r="FP83" s="59"/>
@@ -35323,7 +35716,7 @@
         <v>192</v>
       </c>
       <c r="AC84" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD84" s="51"/>
       <c r="AE84" s="51"/>
@@ -35331,7 +35724,7 @@
         <v>184</v>
       </c>
       <c r="AG84" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH84" s="51" t="s">
         <v>194</v>
@@ -35345,7 +35738,7 @@
       <c r="AK84" s="51"/>
       <c r="AL84" s="51"/>
       <c r="AM84" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN84" s="51"/>
       <c r="AO84" s="51"/>
@@ -35513,7 +35906,7 @@
       </c>
       <c r="FM84" s="51"/>
       <c r="FN84" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO84" s="51"/>
       <c r="FP84" s="59"/>
@@ -35572,7 +35965,7 @@
         <v>192</v>
       </c>
       <c r="AC85" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD85" s="51"/>
       <c r="AE85" s="51"/>
@@ -35580,7 +35973,7 @@
         <v>184</v>
       </c>
       <c r="AG85" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH85" s="51" t="s">
         <v>194</v>
@@ -35594,7 +35987,7 @@
       <c r="AK85" s="51"/>
       <c r="AL85" s="51"/>
       <c r="AM85" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN85" s="51"/>
       <c r="AO85" s="51"/>
@@ -35762,7 +36155,7 @@
       </c>
       <c r="FM85" s="51"/>
       <c r="FN85" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO85" s="51"/>
       <c r="FP85" s="59"/>
@@ -35821,7 +36214,7 @@
         <v>192</v>
       </c>
       <c r="AC86" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD86" s="51"/>
       <c r="AE86" s="51"/>
@@ -35829,7 +36222,7 @@
         <v>184</v>
       </c>
       <c r="AG86" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AH86" s="51" t="s">
         <v>194</v>
@@ -35843,7 +36236,7 @@
       <c r="AK86" s="51"/>
       <c r="AL86" s="51"/>
       <c r="AM86" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN86" s="51"/>
       <c r="AO86" s="51"/>
@@ -36011,7 +36404,7 @@
       </c>
       <c r="FM86" s="51"/>
       <c r="FN86" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FO86" s="51"/>
       <c r="FP86" s="59"/>
@@ -37161,7 +37554,7 @@
       </c>
       <c r="B93" s="49"/>
       <c r="C93" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="51"/>
       <c r="E93" s="52">
@@ -37325,7 +37718,7 @@
       <c r="EI93" s="51"/>
       <c r="EJ93" s="51"/>
       <c r="EK93" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="EL93" s="58" t="s">
         <v>195</v>
@@ -37378,7 +37771,7 @@
       </c>
       <c r="B94" s="49"/>
       <c r="C94" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="51"/>
       <c r="E94" s="52">
@@ -37542,7 +37935,7 @@
       <c r="EI94" s="51"/>
       <c r="EJ94" s="51"/>
       <c r="EK94" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="EL94" s="58" t="s">
         <v>195</v>
@@ -37595,7 +37988,7 @@
       </c>
       <c r="B95" s="49"/>
       <c r="C95" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="51"/>
       <c r="E95" s="52">
@@ -37756,7 +38149,7 @@
       <c r="EH95" s="51"/>
       <c r="EI95" s="51"/>
       <c r="EJ95" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="EK95" s="54"/>
       <c r="EL95" s="58" t="s">
@@ -37810,7 +38203,7 @@
       </c>
       <c r="B96" s="49"/>
       <c r="C96" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="51"/>
       <c r="E96" s="52">
@@ -37971,7 +38364,7 @@
       <c r="EH96" s="51"/>
       <c r="EI96" s="51"/>
       <c r="EJ96" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="EK96" s="54"/>
       <c r="EL96" s="58" t="s">
@@ -38165,7 +38558,7 @@
       <c r="EB97" s="51"/>
       <c r="EC97" s="51"/>
       <c r="ED97" s="51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="EE97" s="54"/>
       <c r="EF97" s="57">
@@ -38365,7 +38758,7 @@
       <c r="EB98" s="51"/>
       <c r="EC98" s="51"/>
       <c r="ED98" s="51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="EE98" s="54"/>
       <c r="EF98" s="57">
@@ -38565,10 +38958,10 @@
       <c r="EB99" s="51"/>
       <c r="EC99" s="51"/>
       <c r="ED99" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="EE99" s="54" t="s">
         <v>335</v>
-      </c>
-      <c r="EE99" s="54" t="s">
-        <v>336</v>
       </c>
       <c r="EF99" s="57">
         <v>5</v>
@@ -38767,10 +39160,10 @@
       <c r="EB100" s="51"/>
       <c r="EC100" s="51"/>
       <c r="ED100" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="EE100" s="54" t="s">
         <v>335</v>
-      </c>
-      <c r="EE100" s="54" t="s">
-        <v>336</v>
       </c>
       <c r="EF100" s="57">
         <v>5</v>
@@ -38969,10 +39362,10 @@
       <c r="EB101" s="51"/>
       <c r="EC101" s="51"/>
       <c r="ED101" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="EE101" s="54" t="s">
         <v>335</v>
-      </c>
-      <c r="EE101" s="54" t="s">
-        <v>336</v>
       </c>
       <c r="EF101" s="57">
         <v>5</v>
@@ -39171,10 +39564,10 @@
       <c r="EB102" s="51"/>
       <c r="EC102" s="51"/>
       <c r="ED102" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="EE102" s="54" t="s">
         <v>335</v>
-      </c>
-      <c r="EE102" s="54" t="s">
-        <v>336</v>
       </c>
       <c r="EF102" s="57">
         <v>5</v>
@@ -39527,7 +39920,7 @@
       <c r="CO104" s="51"/>
       <c r="CP104" s="51"/>
       <c r="CQ104" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR104" s="51"/>
       <c r="CS104" s="51" t="s">
@@ -39582,13 +39975,13 @@
         <v>195</v>
       </c>
       <c r="EM104" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="EN104" s="51" t="s">
         <v>181</v>
       </c>
       <c r="EO104" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="EP104" s="51">
         <v>5555555555</v>
@@ -39744,7 +40137,7 @@
       <c r="CO105" s="51"/>
       <c r="CP105" s="51"/>
       <c r="CQ105" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR105" s="51"/>
       <c r="CS105" s="51" t="s">
@@ -39799,13 +40192,13 @@
         <v>195</v>
       </c>
       <c r="EM105" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="EN105" s="51" t="s">
         <v>181</v>
       </c>
       <c r="EO105" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="EP105" s="51">
         <v>5555555555</v>
@@ -39961,7 +40354,7 @@
       <c r="CO106" s="51"/>
       <c r="CP106" s="51"/>
       <c r="CQ106" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR106" s="51"/>
       <c r="CS106" s="51" t="s">
@@ -40016,13 +40409,13 @@
         <v>195</v>
       </c>
       <c r="EM106" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="EN106" s="51" t="s">
         <v>181</v>
       </c>
       <c r="EO106" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="EP106" s="51">
         <v>5555555555</v>
@@ -40178,7 +40571,7 @@
       <c r="CO107" s="51"/>
       <c r="CP107" s="51"/>
       <c r="CQ107" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR107" s="51"/>
       <c r="CS107" s="51" t="s">
@@ -40233,13 +40626,13 @@
         <v>195</v>
       </c>
       <c r="EM107" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="EN107" s="51" t="s">
         <v>181</v>
       </c>
       <c r="EO107" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="EP107" s="51">
         <v>5555555555</v>
@@ -40395,7 +40788,7 @@
       <c r="CO108" s="51"/>
       <c r="CP108" s="51"/>
       <c r="CQ108" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR108" s="51"/>
       <c r="CS108" s="51" t="s">
@@ -40450,13 +40843,13 @@
         <v>195</v>
       </c>
       <c r="EM108" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="EN108" s="51" t="s">
         <v>181</v>
       </c>
       <c r="EO108" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="EP108" s="51">
         <v>5555555555</v>
@@ -40612,7 +41005,7 @@
       <c r="CO109" s="51"/>
       <c r="CP109" s="51"/>
       <c r="CQ109" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR109" s="51"/>
       <c r="CS109" s="51" t="s">
@@ -40667,13 +41060,13 @@
         <v>195</v>
       </c>
       <c r="EM109" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="EN109" s="51" t="s">
         <v>181</v>
       </c>
       <c r="EO109" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="EP109" s="51">
         <v>5555555555</v>
@@ -40829,7 +41222,7 @@
       <c r="CO110" s="51"/>
       <c r="CP110" s="51"/>
       <c r="CQ110" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR110" s="51"/>
       <c r="CS110" s="51" t="s">
@@ -40884,13 +41277,13 @@
         <v>195</v>
       </c>
       <c r="EM110" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="EN110" s="51" t="s">
         <v>181</v>
       </c>
       <c r="EO110" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="EP110" s="51">
         <v>5555555555</v>
@@ -41046,7 +41439,7 @@
       <c r="CO111" s="51"/>
       <c r="CP111" s="51"/>
       <c r="CQ111" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR111" s="51"/>
       <c r="CS111" s="51" t="s">
@@ -41101,13 +41494,13 @@
         <v>195</v>
       </c>
       <c r="EM111" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="EN111" s="51" t="s">
         <v>181</v>
       </c>
       <c r="EO111" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="EP111" s="51">
         <v>5555555555</v>
@@ -41263,7 +41656,7 @@
       <c r="CO112" s="51"/>
       <c r="CP112" s="51"/>
       <c r="CQ112" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR112" s="51"/>
       <c r="CS112" s="51" t="s">
@@ -41318,13 +41711,13 @@
         <v>195</v>
       </c>
       <c r="EM112" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="EN112" s="51" t="s">
         <v>181</v>
       </c>
       <c r="EO112" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="EP112" s="51">
         <v>5555555555</v>
@@ -41480,7 +41873,7 @@
       <c r="CO113" s="51"/>
       <c r="CP113" s="51"/>
       <c r="CQ113" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR113" s="51"/>
       <c r="CS113" s="51" t="s">
@@ -41535,13 +41928,13 @@
         <v>195</v>
       </c>
       <c r="EM113" s="50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="EN113" s="51" t="s">
         <v>181</v>
       </c>
       <c r="EO113" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="EP113" s="51">
         <v>5555555555</v>
@@ -42551,7 +42944,7 @@
     </row>
     <row r="122" spans="1:181" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="66" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:181" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -42573,8 +42966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42590,10 +42983,10 @@
         <v>117</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C1" s="120" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -42656,7 +43049,7 @@
         <v>650</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I6" s="121"/>
       <c r="J6" s="122"/>
@@ -42709,7 +43102,7 @@
         <v>2685</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -42720,7 +43113,7 @@
         <v>2995</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -42731,7 +43124,7 @@
         <v>2980</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -42742,7 +43135,7 @@
         <v>1050</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -42753,7 +43146,7 @@
         <v>4135</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -42764,22 +43157,30 @@
         <v>2545</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="126"/>
+        <v>498</v>
+      </c>
+      <c r="B16" s="120">
+        <v>1998</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="126"/>
+        <v>499</v>
+      </c>
+      <c r="B17" s="120">
+        <v>1413</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -42789,7 +43190,7 @@
         <v>300</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -42800,7 +43201,7 @@
         <v>250</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -42811,7 +43212,7 @@
         <v>400</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -42862,7 +43263,7 @@
         <v>600</v>
       </c>
       <c r="C25" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -42873,7 +43274,7 @@
         <v>1700</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -42884,7 +43285,7 @@
         <v>1120</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -42895,7 +43296,7 @@
         <v>2910</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -42916,7 +43317,7 @@
         <v>2375</v>
       </c>
       <c r="C30" s="126" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -42927,7 +43328,7 @@
         <v>1200</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -42938,7 +43339,7 @@
         <v>4195</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -42949,7 +43350,7 @@
         <v>2995</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -42960,7 +43361,7 @@
         <v>242</v>
       </c>
       <c r="C34" s="126" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -42981,7 +43382,7 @@
         <v>2685</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -42992,7 +43393,7 @@
         <v>2375</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -43003,7 +43404,7 @@
         <v>2070</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -43014,7 +43415,7 @@
         <v>4790</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -43025,7 +43426,7 @@
         <v>265</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -43036,7 +43437,7 @@
         <v>305</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -43047,7 +43448,7 @@
         <v>305</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -43058,7 +43459,7 @@
         <v>770</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -43069,7 +43470,7 @@
         <v>770</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -43080,7 +43481,7 @@
         <v>235</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -43088,10 +43489,10 @@
         <v>14</v>
       </c>
       <c r="B46" s="120">
-        <v>2175</v>
+        <v>1770</v>
       </c>
       <c r="C46" s="126" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -43102,7 +43503,7 @@
         <v>1490</v>
       </c>
       <c r="C47" s="126" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -43113,7 +43514,7 @@
         <v>1500</v>
       </c>
       <c r="C48" s="126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -43124,7 +43525,7 @@
         <v>1800</v>
       </c>
       <c r="C49" s="126" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -43135,7 +43536,7 @@
         <v>900</v>
       </c>
       <c r="C50" s="126" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -43146,7 +43547,7 @@
         <v>1500</v>
       </c>
       <c r="C51" s="126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -43167,7 +43568,7 @@
         <v>450</v>
       </c>
       <c r="C53" s="126" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -43188,7 +43589,7 @@
         <v>200</v>
       </c>
       <c r="C55" s="126" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -43199,7 +43600,7 @@
         <v>190</v>
       </c>
       <c r="C56" s="126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -43210,7 +43611,7 @@
         <v>230</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -43231,7 +43632,7 @@
         <v>300</v>
       </c>
       <c r="C59" s="126" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -43242,7 +43643,7 @@
         <v>135</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -43253,7 +43654,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -43264,7 +43665,7 @@
         <v>770</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -43275,7 +43676,7 @@
         <v>770</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -43283,10 +43684,10 @@
         <v>15</v>
       </c>
       <c r="B64" s="120">
-        <v>490</v>
+        <v>785</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -43294,10 +43695,10 @@
         <v>17</v>
       </c>
       <c r="B65" s="120">
-        <v>1960</v>
+        <v>3130</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -43305,10 +43706,10 @@
         <v>16</v>
       </c>
       <c r="B66" s="120">
-        <v>1175</v>
+        <v>1880</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -43319,7 +43720,7 @@
         <v>2685</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -43330,7 +43731,7 @@
         <v>6425</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -43341,7 +43742,7 @@
         <v>895</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -43352,7 +43753,7 @@
         <v>540</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -43363,7 +43764,7 @@
         <v>1715</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -43374,7 +43775,7 @@
         <v>3750</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -43385,7 +43786,7 @@
         <v>1430</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -43396,7 +43797,7 @@
         <v>1500</v>
       </c>
       <c r="C74" s="126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -43407,7 +43808,7 @@
         <v>1100</v>
       </c>
       <c r="C75" s="126" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -43418,7 +43819,7 @@
         <v>1000</v>
       </c>
       <c r="C76" s="126" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -43429,7 +43830,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -43440,7 +43841,7 @@
         <v>2725</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -43451,7 +43852,7 @@
         <v>2035</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -43462,7 +43863,7 @@
         <v>690</v>
       </c>
       <c r="C80" s="126" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -43473,7 +43874,7 @@
         <v>2705</v>
       </c>
       <c r="C81" s="126" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -43484,7 +43885,7 @@
         <v>1665</v>
       </c>
       <c r="C82" s="126" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -43495,7 +43896,7 @@
         <v>3250</v>
       </c>
       <c r="C83" s="126" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -43506,7 +43907,7 @@
         <v>2725</v>
       </c>
       <c r="C84" s="126" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -43517,7 +43918,7 @@
         <v>4205</v>
       </c>
       <c r="C85" s="126" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -43528,7 +43929,7 @@
         <v>7080</v>
       </c>
       <c r="C86" s="126" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -43539,7 +43940,7 @@
         <v>3470</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -43550,7 +43951,7 @@
         <v>6430</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -43561,7 +43962,7 @@
         <v>400</v>
       </c>
       <c r="C89" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -43572,7 +43973,7 @@
         <v>800</v>
       </c>
       <c r="C90" s="126" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -43583,7 +43984,7 @@
         <v>600</v>
       </c>
       <c r="C91" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -43606,7 +44007,7 @@
         <v>500</v>
       </c>
       <c r="C93" s="126" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -43629,7 +44030,7 @@
         <v>1500</v>
       </c>
       <c r="C95" s="126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -43640,7 +44041,7 @@
         <v>1800</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -43651,7 +44052,7 @@
         <v>900</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -43662,7 +44063,7 @@
         <v>1500</v>
       </c>
       <c r="C98" s="126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -43673,7 +44074,7 @@
         <v>925</v>
       </c>
       <c r="C99" s="126" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -43684,7 +44085,7 @@
         <v>1850</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -43695,7 +44096,7 @@
         <v>700</v>
       </c>
       <c r="C101" s="126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -43706,7 +44107,7 @@
         <v>1400</v>
       </c>
       <c r="C102" s="126" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -43717,7 +44118,7 @@
         <v>525</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -43728,7 +44129,7 @@
         <v>1025</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -43739,7 +44140,7 @@
         <v>99</v>
       </c>
       <c r="C105" s="126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -43750,7 +44151,7 @@
         <v>4830</v>
       </c>
       <c r="C106" s="126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -43761,7 +44162,7 @@
         <v>7945</v>
       </c>
       <c r="C107" s="126" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -43782,7 +44183,7 @@
         <v>2265</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -43803,7 +44204,7 @@
         <v>700</v>
       </c>
       <c r="C111" s="126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -43814,7 +44215,7 @@
         <v>5595</v>
       </c>
       <c r="C112" s="126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -43825,7 +44226,7 @@
         <v>5595</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -43846,7 +44247,7 @@
         <v>1710</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -43857,7 +44258,7 @@
         <v>300</v>
       </c>
       <c r="C116" s="126" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -43868,7 +44269,7 @@
         <v>250</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -43879,7 +44280,7 @@
         <v>250</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -43890,7 +44291,7 @@
         <v>350</v>
       </c>
       <c r="C119" s="126" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -43901,7 +44302,7 @@
         <v>400</v>
       </c>
       <c r="C120" s="126" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -44056,264 +44457,269 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B151" s="49"/>
       <c r="C151" s="120"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="124" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B152" s="127">
         <f>SUM(B6,B34,B53)</f>
         <v>1342</v>
       </c>
       <c r="C152" s="128" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B153" s="120">
         <f>SUM(B13:B15)</f>
         <v>7730</v>
       </c>
       <c r="C153" s="126" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B154" s="120">
         <f>SUM(B11:B12)</f>
         <v>5975</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B155" s="49"/>
       <c r="C155" s="126"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B156" s="120">
         <f>SUM(B31:B33)</f>
         <v>8390</v>
       </c>
       <c r="C156" s="126" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B157" s="120">
         <f>SUM(B39)</f>
         <v>4790</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B158" s="120">
         <f>SUM(B45:B47)</f>
-        <v>3900</v>
+        <v>3495</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B159" s="120">
         <f>SUM(B37:B38)</f>
         <v>4445</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B160" s="120">
         <f>SUM(B56,B40,B57,B41)</f>
         <v>990</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B161" s="120">
         <f>SUM(B115,B113,B112,B109,B62,B63,B44,B43)</f>
         <v>18245</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B162" s="120">
         <f>SUM(B116:B119,B18,B19)</f>
         <v>1700</v>
       </c>
       <c r="C162" s="126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B163" s="129">
         <f>SUM(B64:B66)</f>
-        <v>3625</v>
+        <v>5795</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B164" s="120">
         <f>SUM(B68)</f>
         <v>6425</v>
       </c>
       <c r="C164" s="126" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B165" s="120">
         <f>SUM(B69:B73)</f>
         <v>8330</v>
       </c>
       <c r="C165" s="126" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B166" s="120">
         <f>SUM(B80:B82)</f>
         <v>5060</v>
       </c>
       <c r="C166" s="126" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B167" s="120">
         <f>SUM(B78:B79)</f>
         <v>4760</v>
       </c>
       <c r="C167" s="126" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B168" s="120">
         <f>SUM(B83:B88)</f>
         <v>27160</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B169" s="120">
         <f>SUM(B50,B51,B97,B98)</f>
         <v>4800</v>
       </c>
       <c r="C169" s="126" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B170" s="120">
         <f>SUM(B95,B96,B48,B49)</f>
         <v>6600</v>
       </c>
       <c r="C170" s="126" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B171" s="120">
         <f>SUM(B104,B103,B102,B101,B100,B99,B60,B61)</f>
         <v>6640</v>
       </c>
       <c r="C171" s="126" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B172" s="120">
         <f>SUM(B10,B26,B27,B28,B30,B36,B67)</f>
         <v>16160</v>
       </c>
       <c r="C172" s="126" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>502</v>
-      </c>
-      <c r="B173" s="49"/>
-      <c r="C173" s="126"/>
+        <v>497</v>
+      </c>
+      <c r="B173" s="120">
+        <f>SUM(B16:B17)</f>
+        <v>3411</v>
+      </c>
+      <c r="C173" s="126" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="49"/>
@@ -44464,7 +44870,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B153:B154 B156 B158:B159 B162:B163 B165:B168" formulaRange="1"/>
+    <ignoredError sqref="B153:B154 B156 B158:B159 B162:B163 B165:B168 B173" formulaRange="1"/>
     <ignoredError sqref="C31:C34 C25 C20 C13:C15 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152:C153 C156" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -1211,15 +1211,6 @@
     <t>$650.00</t>
   </si>
   <si>
-    <t>$1,050.00</t>
-  </si>
-  <si>
-    <t>$4,135.00</t>
-  </si>
-  <si>
-    <t>$2,545.00</t>
-  </si>
-  <si>
     <t>$400.00</t>
   </si>
   <si>
@@ -1274,9 +1265,6 @@
     <t>$1,342.00</t>
   </si>
   <si>
-    <t>$7,730.00</t>
-  </si>
-  <si>
     <t>$242.00</t>
   </si>
   <si>
@@ -1572,6 +1560,18 @@
   </si>
   <si>
     <t>34</t>
+  </si>
+  <si>
+    <t>$1,095.00</t>
+  </si>
+  <si>
+    <t>$4,315.00</t>
+  </si>
+  <si>
+    <t>$2,660.00</t>
+  </si>
+  <si>
+    <t>$8,070.00</t>
   </si>
 </sst>
 </file>
@@ -3433,7 +3433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
@@ -3610,7 +3610,7 @@
         <v>241</v>
       </c>
       <c r="AJ1" s="68" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AK1" s="68" t="s">
         <v>242</v>
@@ -3664,7 +3664,7 @@
         <v>214</v>
       </c>
       <c r="BB1" s="68" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="BC1" s="68" t="s">
         <v>216</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B2" s="73">
         <v>42617</v>
@@ -3802,7 +3802,7 @@
         <v>185</v>
       </c>
       <c r="AK2" s="86" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="35" t="s">
@@ -3881,7 +3881,7 @@
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B3" s="73">
         <v>42617</v>
@@ -3985,7 +3985,7 @@
         <v>185</v>
       </c>
       <c r="AK3" s="86" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="35" t="s">
@@ -5262,7 +5262,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="132" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -8984,7 +8984,7 @@
         <v>214</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AM1" s="68" t="s">
         <v>216</v>
@@ -10186,7 +10186,7 @@
         <v>241</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AJ1" s="119" t="s">
         <v>242</v>
@@ -10258,7 +10258,7 @@
         <v>214</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>216</v>
@@ -14017,7 +14017,7 @@
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>381</v>
@@ -14039,7 +14039,7 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B3" s="93" t="s">
         <v>381</v>
@@ -14558,7 +14558,7 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>381</v>
@@ -17303,7 +17303,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -17492,7 +17492,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17681,7 +17681,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17870,7 +17870,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -18061,7 +18061,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>262</v>
@@ -18276,7 +18276,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -18477,7 +18477,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18680,7 +18680,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18877,7 +18877,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -19128,7 +19128,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -19381,7 +19381,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -19634,7 +19634,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19867,7 +19867,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -20104,7 +20104,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -20337,7 +20337,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -20562,7 +20562,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20787,7 +20787,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20979,7 +20979,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -21168,7 +21168,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -21357,7 +21357,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -21548,7 +21548,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21737,7 +21737,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21964,7 +21964,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -22177,7 +22177,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -22390,7 +22390,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -22647,7 +22647,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22904,7 +22904,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -23143,7 +23143,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -23378,7 +23378,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -23617,7 +23617,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23854,7 +23854,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -24063,7 +24063,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -24270,7 +24270,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -24525,7 +24525,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24790,7 +24790,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -25055,7 +25055,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -25354,7 +25354,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -25563,7 +25563,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25808,7 +25808,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -26019,7 +26019,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -26226,7 +26226,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -26447,7 +26447,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26712,7 +26712,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26977,7 +26977,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -27244,7 +27244,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -27457,7 +27457,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -27670,7 +27670,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27881,7 +27881,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -28090,7 +28090,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -28281,7 +28281,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -28478,7 +28478,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -28671,7 +28671,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28877,7 +28877,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -29082,7 +29082,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -29323,7 +29323,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -29528,7 +29528,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29722,7 +29722,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29922,7 +29922,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -30124,7 +30124,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -30321,7 +30321,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -30554,7 +30554,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30787,7 +30787,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -31024,7 +31024,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -31257,7 +31257,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -31506,7 +31506,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31759,7 +31759,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31996,7 +31996,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -32235,7 +32235,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -32474,7 +32474,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32715,7 +32715,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32952,7 +32952,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -33141,7 +33141,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -33330,7 +33330,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -33519,7 +33519,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33768,7 +33768,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -34019,7 +34019,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -34270,7 +34270,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -34501,7 +34501,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34736,7 +34736,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34967,7 +34967,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -35210,7 +35210,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -35431,7 +35431,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35680,7 +35680,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35929,7 +35929,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -36178,7 +36178,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -36427,7 +36427,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -36618,7 +36618,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36809,7 +36809,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -37184,7 +37184,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -37559,7 +37559,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37776,7 +37776,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37993,7 +37993,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -38208,7 +38208,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -38421,7 +38421,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -38621,7 +38621,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38821,7 +38821,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -39023,7 +39023,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -39225,7 +39225,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -39427,7 +39427,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -39629,7 +39629,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39830,7 +39830,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -40047,7 +40047,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -40264,7 +40264,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -40481,7 +40481,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40698,7 +40698,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40915,7 +40915,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -41132,7 +41132,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -41349,7 +41349,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -41566,7 +41566,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41783,7 +41783,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -42000,7 +42000,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -42189,7 +42189,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -42378,7 +42378,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -42567,7 +42567,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42756,7 +42756,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42966,8 +42966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43102,7 +43102,7 @@
         <v>2685</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -43113,7 +43113,7 @@
         <v>2995</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -43124,7 +43124,7 @@
         <v>2980</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -43132,10 +43132,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="120">
-        <v>1050</v>
+        <v>1095</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>395</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -43143,10 +43143,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="120">
-        <v>4135</v>
+        <v>4315</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>396</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -43154,32 +43154,32 @@
         <v>7</v>
       </c>
       <c r="B15" s="120">
-        <v>2545</v>
+        <v>2660</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>397</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B16" s="120">
         <v>1998</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B17" s="120">
         <v>1413</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -43190,7 +43190,7 @@
         <v>300</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -43201,7 +43201,7 @@
         <v>250</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -43212,7 +43212,7 @@
         <v>400</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -43263,7 +43263,7 @@
         <v>600</v>
       </c>
       <c r="C25" s="126" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -43274,7 +43274,7 @@
         <v>1700</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -43285,7 +43285,7 @@
         <v>1120</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -43296,7 +43296,7 @@
         <v>2910</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -43317,7 +43317,7 @@
         <v>2375</v>
       </c>
       <c r="C30" s="126" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -43328,7 +43328,7 @@
         <v>1200</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -43339,7 +43339,7 @@
         <v>4195</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -43350,7 +43350,7 @@
         <v>2995</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -43361,7 +43361,7 @@
         <v>242</v>
       </c>
       <c r="C34" s="126" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -43382,7 +43382,7 @@
         <v>2685</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -43393,7 +43393,7 @@
         <v>2375</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -43404,7 +43404,7 @@
         <v>2070</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -43415,7 +43415,7 @@
         <v>4790</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -43426,7 +43426,7 @@
         <v>265</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -43437,7 +43437,7 @@
         <v>305</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -43448,7 +43448,7 @@
         <v>305</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -43459,7 +43459,7 @@
         <v>770</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -43470,7 +43470,7 @@
         <v>770</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -43481,7 +43481,7 @@
         <v>235</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -43492,7 +43492,7 @@
         <v>1770</v>
       </c>
       <c r="C46" s="126" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -43503,7 +43503,7 @@
         <v>1490</v>
       </c>
       <c r="C47" s="126" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -43514,7 +43514,7 @@
         <v>1500</v>
       </c>
       <c r="C48" s="126" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -43525,7 +43525,7 @@
         <v>1800</v>
       </c>
       <c r="C49" s="126" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -43536,7 +43536,7 @@
         <v>900</v>
       </c>
       <c r="C50" s="126" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -43547,7 +43547,7 @@
         <v>1500</v>
       </c>
       <c r="C51" s="126" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -43568,7 +43568,7 @@
         <v>450</v>
       </c>
       <c r="C53" s="126" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -43589,7 +43589,7 @@
         <v>200</v>
       </c>
       <c r="C55" s="126" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -43600,7 +43600,7 @@
         <v>190</v>
       </c>
       <c r="C56" s="126" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -43611,7 +43611,7 @@
         <v>230</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -43632,7 +43632,7 @@
         <v>300</v>
       </c>
       <c r="C59" s="126" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -43643,7 +43643,7 @@
         <v>135</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -43654,7 +43654,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -43665,7 +43665,7 @@
         <v>770</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -43676,7 +43676,7 @@
         <v>770</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -43687,7 +43687,7 @@
         <v>785</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -43698,7 +43698,7 @@
         <v>3130</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -43709,7 +43709,7 @@
         <v>1880</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -43720,7 +43720,7 @@
         <v>2685</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -43731,7 +43731,7 @@
         <v>6425</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -43742,7 +43742,7 @@
         <v>895</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -43753,7 +43753,7 @@
         <v>540</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -43764,7 +43764,7 @@
         <v>1715</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -43775,7 +43775,7 @@
         <v>3750</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -43786,7 +43786,7 @@
         <v>1430</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -43797,7 +43797,7 @@
         <v>1500</v>
       </c>
       <c r="C74" s="126" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -43808,7 +43808,7 @@
         <v>1100</v>
       </c>
       <c r="C75" s="126" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -43819,7 +43819,7 @@
         <v>1000</v>
       </c>
       <c r="C76" s="126" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -43830,7 +43830,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -43841,7 +43841,7 @@
         <v>2725</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -43852,7 +43852,7 @@
         <v>2035</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -43863,7 +43863,7 @@
         <v>690</v>
       </c>
       <c r="C80" s="126" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -43874,7 +43874,7 @@
         <v>2705</v>
       </c>
       <c r="C81" s="126" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -43885,7 +43885,7 @@
         <v>1665</v>
       </c>
       <c r="C82" s="126" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -43896,7 +43896,7 @@
         <v>3250</v>
       </c>
       <c r="C83" s="126" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -43907,7 +43907,7 @@
         <v>2725</v>
       </c>
       <c r="C84" s="126" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -43918,7 +43918,7 @@
         <v>4205</v>
       </c>
       <c r="C85" s="126" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -43929,7 +43929,7 @@
         <v>7080</v>
       </c>
       <c r="C86" s="126" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -43940,7 +43940,7 @@
         <v>3470</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -43951,7 +43951,7 @@
         <v>6430</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -43962,7 +43962,7 @@
         <v>400</v>
       </c>
       <c r="C89" s="126" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -43973,7 +43973,7 @@
         <v>800</v>
       </c>
       <c r="C90" s="126" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -43984,7 +43984,7 @@
         <v>600</v>
       </c>
       <c r="C91" s="126" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -44007,7 +44007,7 @@
         <v>500</v>
       </c>
       <c r="C93" s="126" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -44030,7 +44030,7 @@
         <v>1500</v>
       </c>
       <c r="C95" s="126" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -44041,7 +44041,7 @@
         <v>1800</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -44052,7 +44052,7 @@
         <v>900</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -44063,7 +44063,7 @@
         <v>1500</v>
       </c>
       <c r="C98" s="126" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -44074,7 +44074,7 @@
         <v>925</v>
       </c>
       <c r="C99" s="126" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -44085,7 +44085,7 @@
         <v>1850</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -44096,7 +44096,7 @@
         <v>700</v>
       </c>
       <c r="C101" s="126" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -44107,7 +44107,7 @@
         <v>1400</v>
       </c>
       <c r="C102" s="126" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -44118,7 +44118,7 @@
         <v>525</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -44129,7 +44129,7 @@
         <v>1025</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -44140,7 +44140,7 @@
         <v>99</v>
       </c>
       <c r="C105" s="126" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -44151,7 +44151,7 @@
         <v>4830</v>
       </c>
       <c r="C106" s="126" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -44162,7 +44162,7 @@
         <v>7945</v>
       </c>
       <c r="C107" s="126" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -44183,7 +44183,7 @@
         <v>2265</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -44204,7 +44204,7 @@
         <v>700</v>
       </c>
       <c r="C111" s="126" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -44215,7 +44215,7 @@
         <v>5595</v>
       </c>
       <c r="C112" s="126" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -44226,7 +44226,7 @@
         <v>5595</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -44247,7 +44247,7 @@
         <v>1710</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -44258,7 +44258,7 @@
         <v>300</v>
       </c>
       <c r="C116" s="126" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -44269,7 +44269,7 @@
         <v>250</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -44280,7 +44280,7 @@
         <v>250</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -44291,7 +44291,7 @@
         <v>350</v>
       </c>
       <c r="C119" s="126" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -44302,7 +44302,7 @@
         <v>400</v>
       </c>
       <c r="C120" s="126" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -44457,7 +44457,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="49" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B151" s="49"/>
       <c r="C151" s="120"/>
@@ -44471,7 +44471,7 @@
         <v>1342</v>
       </c>
       <c r="C152" s="128" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -44480,245 +44480,245 @@
       </c>
       <c r="B153" s="120">
         <f>SUM(B13:B15)</f>
-        <v>7730</v>
+        <v>8070</v>
       </c>
       <c r="C153" s="126" t="s">
-        <v>416</v>
+        <v>515</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="34" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B154" s="120">
         <f>SUM(B11:B12)</f>
         <v>5975</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="34" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B155" s="49"/>
       <c r="C155" s="126"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B156" s="120">
         <f>SUM(B31:B33)</f>
         <v>8390</v>
       </c>
       <c r="C156" s="126" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="34" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B157" s="120">
         <f>SUM(B39)</f>
         <v>4790</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B158" s="120">
         <f>SUM(B45:B47)</f>
         <v>3495</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B159" s="120">
         <f>SUM(B37:B38)</f>
         <v>4445</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B160" s="120">
         <f>SUM(B56,B40,B57,B41)</f>
         <v>990</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B161" s="120">
         <f>SUM(B115,B113,B112,B109,B62,B63,B44,B43)</f>
         <v>18245</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B162" s="120">
         <f>SUM(B116:B119,B18,B19)</f>
         <v>1700</v>
       </c>
       <c r="C162" s="126" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B163" s="129">
         <f>SUM(B64:B66)</f>
         <v>5795</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B164" s="120">
         <f>SUM(B68)</f>
         <v>6425</v>
       </c>
       <c r="C164" s="126" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B165" s="120">
         <f>SUM(B69:B73)</f>
         <v>8330</v>
       </c>
       <c r="C165" s="126" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B166" s="120">
         <f>SUM(B80:B82)</f>
         <v>5060</v>
       </c>
       <c r="C166" s="126" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B167" s="120">
         <f>SUM(B78:B79)</f>
         <v>4760</v>
       </c>
       <c r="C167" s="126" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B168" s="120">
         <f>SUM(B83:B88)</f>
         <v>27160</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B169" s="120">
         <f>SUM(B50,B51,B97,B98)</f>
         <v>4800</v>
       </c>
       <c r="C169" s="126" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B170" s="120">
         <f>SUM(B95,B96,B48,B49)</f>
         <v>6600</v>
       </c>
       <c r="C170" s="126" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B171" s="120">
         <f>SUM(B104,B103,B102,B101,B100,B99,B60,B61)</f>
         <v>6640</v>
       </c>
       <c r="C171" s="126" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B172" s="120">
         <f>SUM(B10,B26,B27,B28,B30,B36,B67)</f>
         <v>16160</v>
       </c>
       <c r="C172" s="126" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B173" s="120">
         <f>SUM(B16:B17)</f>
         <v>3411</v>
       </c>
       <c r="C173" s="126" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -44871,7 +44871,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B153:B154 B156 B158:B159 B162:B163 B165:B168 B173" formulaRange="1"/>
-    <ignoredError sqref="C31:C34 C25 C20 C13:C15 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152:C153 C156" numberStoredAsText="1"/>
+    <ignoredError sqref="C31:C34 C25 C20 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152 C156" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="516">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1217,12 +1217,6 @@
     <t>$600.00</t>
   </si>
   <si>
-    <t>$1,200.00</t>
-  </si>
-  <si>
-    <t>$4,195.00</t>
-  </si>
-  <si>
     <t>$2,995.00</t>
   </si>
   <si>
@@ -1280,9 +1274,6 @@
     <t>FordNewCarPriceTotal</t>
   </si>
   <si>
-    <t>$8,390.00</t>
-  </si>
-  <si>
     <t>GMNewCarPriceTotal</t>
   </si>
   <si>
@@ -1337,12 +1328,6 @@
     <t>$2,375.00</t>
   </si>
   <si>
-    <t>$2,070.00</t>
-  </si>
-  <si>
-    <t>$4,445.00</t>
-  </si>
-  <si>
     <t>$190.00</t>
   </si>
   <si>
@@ -1496,9 +1481,6 @@
     <t>/Trade In Marketplace - KBB Buying Center</t>
   </si>
   <si>
-    <t>Escape</t>
-  </si>
-  <si>
     <t>$16,160.00</t>
   </si>
   <si>
@@ -1572,6 +1554,24 @@
   </si>
   <si>
     <t>$8,070.00</t>
+  </si>
+  <si>
+    <t>$1,255.00</t>
+  </si>
+  <si>
+    <t>$4,380.00</t>
+  </si>
+  <si>
+    <t>$8,765.00</t>
+  </si>
+  <si>
+    <t>$2,455.00</t>
+  </si>
+  <si>
+    <t>$2,140.00</t>
+  </si>
+  <si>
+    <t>$4,595.00</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2304,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2655,9 +2655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3373,7 +3370,7 @@
       <c r="M7" s="37"/>
       <c r="N7" s="14"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="133"/>
+      <c r="Y7" s="132"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="35" t="s">
         <v>162</v>
@@ -3499,7 +3496,7 @@
     <col min="59" max="59" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="20" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="18" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.42578125" style="133" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3610,7 +3607,7 @@
         <v>241</v>
       </c>
       <c r="AJ1" s="68" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AK1" s="68" t="s">
         <v>242</v>
@@ -3664,7 +3661,7 @@
         <v>214</v>
       </c>
       <c r="BB1" s="68" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="BC1" s="68" t="s">
         <v>216</v>
@@ -3696,7 +3693,7 @@
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B2" s="73">
         <v>42617</v>
@@ -3802,7 +3799,7 @@
         <v>185</v>
       </c>
       <c r="AK2" s="86" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="35" t="s">
@@ -3881,7 +3878,7 @@
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B3" s="73">
         <v>42617</v>
@@ -3985,7 +3982,7 @@
         <v>185</v>
       </c>
       <c r="AK3" s="86" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="35" t="s">
@@ -4070,7 +4067,7 @@
   <dimension ref="A1:FQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4991,7 +4988,7 @@
       <c r="FP4" s="7"/>
       <c r="FQ4" s="7"/>
     </row>
-    <row r="5" spans="1:173" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>9</v>
       </c>
@@ -5034,7 +5031,7 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="W5" s="15"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -5218,7 +5215,7 @@
       <c r="FP5" s="7"/>
       <c r="FQ5" s="7"/>
     </row>
-    <row r="6" spans="1:173" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>11</v>
       </c>
@@ -5260,11 +5257,9 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="132" t="s">
-        <v>490</v>
-      </c>
-      <c r="X6" s="8"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="14"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -5447,7 +5442,7 @@
       <c r="FP6" s="7"/>
       <c r="FQ6" s="7"/>
     </row>
-    <row r="7" spans="1:173" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:173" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>10</v>
       </c>
@@ -5490,7 +5485,7 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+      <c r="W7" s="36"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -8984,7 +8979,7 @@
         <v>214</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AM1" s="68" t="s">
         <v>216</v>
@@ -10054,7 +10049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
@@ -10186,7 +10181,7 @@
         <v>241</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AJ1" s="119" t="s">
         <v>242</v>
@@ -10258,7 +10253,7 @@
         <v>214</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>216</v>
@@ -14017,7 +14012,7 @@
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>381</v>
@@ -14039,7 +14034,7 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B3" s="93" t="s">
         <v>381</v>
@@ -14558,7 +14553,7 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>381</v>
@@ -42966,8 +42961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43102,7 +43097,7 @@
         <v>2685</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -43113,7 +43108,7 @@
         <v>2995</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -43124,7 +43119,7 @@
         <v>2980</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -43135,7 +43130,7 @@
         <v>1095</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -43146,7 +43141,7 @@
         <v>4315</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -43157,29 +43152,29 @@
         <v>2660</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B16" s="120">
         <v>1998</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B17" s="120">
         <v>1413</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -43190,7 +43185,7 @@
         <v>300</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -43201,7 +43196,7 @@
         <v>250</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -43274,7 +43269,7 @@
         <v>1700</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -43285,7 +43280,7 @@
         <v>1120</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -43296,7 +43291,7 @@
         <v>2910</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -43317,7 +43312,7 @@
         <v>2375</v>
       </c>
       <c r="C30" s="126" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -43325,10 +43320,10 @@
         <v>9</v>
       </c>
       <c r="B31" s="120">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>397</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -43336,10 +43331,10 @@
         <v>11</v>
       </c>
       <c r="B32" s="120">
-        <v>4195</v>
+        <v>4380</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>398</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -43347,10 +43342,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="120">
-        <v>2995</v>
+        <v>3130</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>399</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -43361,7 +43356,7 @@
         <v>242</v>
       </c>
       <c r="C34" s="126" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -43382,7 +43377,7 @@
         <v>2685</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -43390,10 +43385,10 @@
         <v>47</v>
       </c>
       <c r="B37" s="120">
-        <v>2375</v>
+        <v>2455</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>436</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -43401,10 +43396,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="120">
-        <v>2070</v>
+        <v>2140</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -43415,7 +43410,7 @@
         <v>4790</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -43426,7 +43421,7 @@
         <v>265</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -43437,7 +43432,7 @@
         <v>305</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -43448,7 +43443,7 @@
         <v>305</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -43459,7 +43454,7 @@
         <v>770</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -43470,7 +43465,7 @@
         <v>770</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -43481,7 +43476,7 @@
         <v>235</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -43492,7 +43487,7 @@
         <v>1770</v>
       </c>
       <c r="C46" s="126" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -43503,7 +43498,7 @@
         <v>1490</v>
       </c>
       <c r="C47" s="126" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -43514,7 +43509,7 @@
         <v>1500</v>
       </c>
       <c r="C48" s="126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -43525,7 +43520,7 @@
         <v>1800</v>
       </c>
       <c r="C49" s="126" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -43536,7 +43531,7 @@
         <v>900</v>
       </c>
       <c r="C50" s="126" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -43547,7 +43542,7 @@
         <v>1500</v>
       </c>
       <c r="C51" s="126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -43568,7 +43563,7 @@
         <v>450</v>
       </c>
       <c r="C53" s="126" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -43589,7 +43584,7 @@
         <v>200</v>
       </c>
       <c r="C55" s="126" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -43600,7 +43595,7 @@
         <v>190</v>
       </c>
       <c r="C56" s="126" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -43611,7 +43606,7 @@
         <v>230</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -43632,7 +43627,7 @@
         <v>300</v>
       </c>
       <c r="C59" s="126" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -43643,7 +43638,7 @@
         <v>135</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -43654,7 +43649,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -43665,7 +43660,7 @@
         <v>770</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -43676,7 +43671,7 @@
         <v>770</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -43687,7 +43682,7 @@
         <v>785</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -43698,7 +43693,7 @@
         <v>3130</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -43709,7 +43704,7 @@
         <v>1880</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -43720,7 +43715,7 @@
         <v>2685</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -43731,7 +43726,7 @@
         <v>6425</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -43742,7 +43737,7 @@
         <v>895</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -43753,7 +43748,7 @@
         <v>540</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -43764,7 +43759,7 @@
         <v>1715</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -43775,7 +43770,7 @@
         <v>3750</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -43786,7 +43781,7 @@
         <v>1430</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -43797,7 +43792,7 @@
         <v>1500</v>
       </c>
       <c r="C74" s="126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -43808,7 +43803,7 @@
         <v>1100</v>
       </c>
       <c r="C75" s="126" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -43819,7 +43814,7 @@
         <v>1000</v>
       </c>
       <c r="C76" s="126" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -43830,7 +43825,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -43841,7 +43836,7 @@
         <v>2725</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -43852,7 +43847,7 @@
         <v>2035</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -43863,7 +43858,7 @@
         <v>690</v>
       </c>
       <c r="C80" s="126" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -43874,7 +43869,7 @@
         <v>2705</v>
       </c>
       <c r="C81" s="126" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -43885,7 +43880,7 @@
         <v>1665</v>
       </c>
       <c r="C82" s="126" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -43896,7 +43891,7 @@
         <v>3250</v>
       </c>
       <c r="C83" s="126" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -43907,7 +43902,7 @@
         <v>2725</v>
       </c>
       <c r="C84" s="126" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -43918,7 +43913,7 @@
         <v>4205</v>
       </c>
       <c r="C85" s="126" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -43929,7 +43924,7 @@
         <v>7080</v>
       </c>
       <c r="C86" s="126" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -43940,7 +43935,7 @@
         <v>3470</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -43951,7 +43946,7 @@
         <v>6430</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -43973,7 +43968,7 @@
         <v>800</v>
       </c>
       <c r="C90" s="126" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -44007,7 +44002,7 @@
         <v>500</v>
       </c>
       <c r="C93" s="126" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -44030,7 +44025,7 @@
         <v>1500</v>
       </c>
       <c r="C95" s="126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -44041,7 +44036,7 @@
         <v>1800</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -44052,7 +44047,7 @@
         <v>900</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -44063,7 +44058,7 @@
         <v>1500</v>
       </c>
       <c r="C98" s="126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -44074,7 +44069,7 @@
         <v>925</v>
       </c>
       <c r="C99" s="126" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -44085,7 +44080,7 @@
         <v>1850</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -44096,7 +44091,7 @@
         <v>700</v>
       </c>
       <c r="C101" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -44107,7 +44102,7 @@
         <v>1400</v>
       </c>
       <c r="C102" s="126" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -44118,7 +44113,7 @@
         <v>525</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -44129,7 +44124,7 @@
         <v>1025</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -44140,7 +44135,7 @@
         <v>99</v>
       </c>
       <c r="C105" s="126" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -44151,7 +44146,7 @@
         <v>4830</v>
       </c>
       <c r="C106" s="126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -44162,7 +44157,7 @@
         <v>7945</v>
       </c>
       <c r="C107" s="126" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -44183,7 +44178,7 @@
         <v>2265</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -44204,7 +44199,7 @@
         <v>700</v>
       </c>
       <c r="C111" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -44215,7 +44210,7 @@
         <v>5595</v>
       </c>
       <c r="C112" s="126" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -44226,7 +44221,7 @@
         <v>5595</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -44247,7 +44242,7 @@
         <v>1710</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -44258,7 +44253,7 @@
         <v>300</v>
       </c>
       <c r="C116" s="126" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -44269,7 +44264,7 @@
         <v>250</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -44280,7 +44275,7 @@
         <v>250</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -44291,7 +44286,7 @@
         <v>350</v>
       </c>
       <c r="C119" s="126" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -44457,7 +44452,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="49" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B151" s="49"/>
       <c r="C151" s="120"/>
@@ -44471,7 +44466,7 @@
         <v>1342</v>
       </c>
       <c r="C152" s="128" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -44483,242 +44478,242 @@
         <v>8070</v>
       </c>
       <c r="C153" s="126" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="34" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B154" s="120">
         <f>SUM(B11:B12)</f>
         <v>5975</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="34" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B155" s="49"/>
       <c r="C155" s="126"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B156" s="120">
         <f>SUM(B31:B33)</f>
-        <v>8390</v>
+        <v>8765</v>
       </c>
       <c r="C156" s="126" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="34" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B157" s="120">
         <f>SUM(B39)</f>
         <v>4790</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B158" s="120">
         <f>SUM(B45:B47)</f>
         <v>3495</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B159" s="120">
         <f>SUM(B37:B38)</f>
-        <v>4445</v>
+        <v>4595</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>438</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B160" s="120">
         <f>SUM(B56,B40,B57,B41)</f>
         <v>990</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B161" s="120">
         <f>SUM(B115,B113,B112,B109,B62,B63,B44,B43)</f>
         <v>18245</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B162" s="120">
         <f>SUM(B116:B119,B18,B19)</f>
         <v>1700</v>
       </c>
       <c r="C162" s="126" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B163" s="129">
         <f>SUM(B64:B66)</f>
         <v>5795</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B164" s="120">
         <f>SUM(B68)</f>
         <v>6425</v>
       </c>
       <c r="C164" s="126" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B165" s="120">
         <f>SUM(B69:B73)</f>
         <v>8330</v>
       </c>
       <c r="C165" s="126" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B166" s="120">
         <f>SUM(B80:B82)</f>
         <v>5060</v>
       </c>
       <c r="C166" s="126" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B167" s="120">
         <f>SUM(B78:B79)</f>
         <v>4760</v>
       </c>
       <c r="C167" s="126" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B168" s="120">
         <f>SUM(B83:B88)</f>
         <v>27160</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B169" s="120">
         <f>SUM(B50,B51,B97,B98)</f>
         <v>4800</v>
       </c>
       <c r="C169" s="126" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B170" s="120">
         <f>SUM(B95,B96,B48,B49)</f>
         <v>6600</v>
       </c>
       <c r="C170" s="126" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B171" s="120">
         <f>SUM(B104,B103,B102,B101,B100,B99,B60,B61)</f>
         <v>6640</v>
       </c>
       <c r="C171" s="126" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B172" s="120">
         <f>SUM(B10,B26,B27,B28,B30,B36,B67)</f>
         <v>16160</v>
       </c>
       <c r="C172" s="126" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B173" s="120">
         <f>SUM(B16:B17)</f>
         <v>3411</v>
       </c>
       <c r="C173" s="126" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -44871,7 +44866,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B153:B154 B156 B158:B159 B162:B163 B165:B168 B173" formulaRange="1"/>
-    <ignoredError sqref="C31:C34 C25 C20 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152 C156" numberStoredAsText="1"/>
+    <ignoredError sqref="C25 C20 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152 C34" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="508">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1328,105 +1328,15 @@
     <t>$2,375.00</t>
   </si>
   <si>
-    <t>$190.00</t>
-  </si>
-  <si>
-    <t>$265.00</t>
-  </si>
-  <si>
-    <t>$230.00</t>
-  </si>
-  <si>
     <t>$305.00</t>
   </si>
   <si>
-    <t>$990.00</t>
-  </si>
-  <si>
-    <t>$2,265.00</t>
-  </si>
-  <si>
-    <t>$770.00</t>
-  </si>
-  <si>
-    <t>$1,710.00</t>
-  </si>
-  <si>
-    <t>$5,595.00</t>
-  </si>
-  <si>
-    <t>$18,245.00</t>
-  </si>
-  <si>
     <t>$250.00</t>
   </si>
   <si>
     <t>$350.00</t>
   </si>
   <si>
-    <t>$6,425.00</t>
-  </si>
-  <si>
-    <t>$895.00</t>
-  </si>
-  <si>
-    <t>$1,715.00</t>
-  </si>
-  <si>
-    <t>$540.00</t>
-  </si>
-  <si>
-    <t>$1,430.00</t>
-  </si>
-  <si>
-    <t>$3,750.00</t>
-  </si>
-  <si>
-    <t>$8,330.00</t>
-  </si>
-  <si>
-    <t>$690.00</t>
-  </si>
-  <si>
-    <t>$2,705.00</t>
-  </si>
-  <si>
-    <t>$1,665.00</t>
-  </si>
-  <si>
-    <t>$5,060.00</t>
-  </si>
-  <si>
-    <t>$4,760.00</t>
-  </si>
-  <si>
-    <t>$2,035.00</t>
-  </si>
-  <si>
-    <t>$2.725.00</t>
-  </si>
-  <si>
-    <t>$6,430.00</t>
-  </si>
-  <si>
-    <t>$3,470.00</t>
-  </si>
-  <si>
-    <t>$7,080.00</t>
-  </si>
-  <si>
-    <t>$4,205.00</t>
-  </si>
-  <si>
-    <t>$2,725.00</t>
-  </si>
-  <si>
-    <t>$3,250.00</t>
-  </si>
-  <si>
-    <t>$27,160.00</t>
-  </si>
-  <si>
     <t>$900.00</t>
   </si>
   <si>
@@ -1572,6 +1482,72 @@
   </si>
   <si>
     <t>$4,595.00</t>
+  </si>
+  <si>
+    <t>$275.00</t>
+  </si>
+  <si>
+    <t>$240.00</t>
+  </si>
+  <si>
+    <t>$315.00</t>
+  </si>
+  <si>
+    <t>$1,030.00</t>
+  </si>
+  <si>
+    <t>$2,340.00</t>
+  </si>
+  <si>
+    <t>$795.00</t>
+  </si>
+  <si>
+    <t>$5,785.00</t>
+  </si>
+  <si>
+    <t>$18,860.00</t>
+  </si>
+  <si>
+    <t>$960.00</t>
+  </si>
+  <si>
+    <t>$580.00</t>
+  </si>
+  <si>
+    <t>$1,845.00</t>
+  </si>
+  <si>
+    <t>$1,535.00</t>
+  </si>
+  <si>
+    <t>$4,030.00</t>
+  </si>
+  <si>
+    <t>$8,950.00</t>
+  </si>
+  <si>
+    <t>$3,990.00</t>
+  </si>
+  <si>
+    <t>$6,985.00</t>
+  </si>
+  <si>
+    <t>$3,435.00</t>
+  </si>
+  <si>
+    <t>$2,880.00</t>
+  </si>
+  <si>
+    <t>$4,445.00</t>
+  </si>
+  <si>
+    <t>$7,485.00</t>
+  </si>
+  <si>
+    <t>$3,665.00</t>
+  </si>
+  <si>
+    <t>$27,885.00</t>
   </si>
 </sst>
 </file>
@@ -3607,7 +3583,7 @@
         <v>241</v>
       </c>
       <c r="AJ1" s="68" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="AK1" s="68" t="s">
         <v>242</v>
@@ -3661,7 +3637,7 @@
         <v>214</v>
       </c>
       <c r="BB1" s="68" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="BC1" s="68" t="s">
         <v>216</v>
@@ -3693,7 +3669,7 @@
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="B2" s="73">
         <v>42617</v>
@@ -3799,7 +3775,7 @@
         <v>185</v>
       </c>
       <c r="AK2" s="86" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="35" t="s">
@@ -3878,7 +3854,7 @@
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="B3" s="73">
         <v>42617</v>
@@ -3982,7 +3958,7 @@
         <v>185</v>
       </c>
       <c r="AK3" s="86" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="35" t="s">
@@ -4067,7 +4043,7 @@
   <dimension ref="A1:FQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8162,7 +8138,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
+      <c r="W19" s="15"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -8194,9 +8170,7 @@
         <v>187</v>
       </c>
       <c r="AP19" s="8"/>
-      <c r="AQ19" s="10">
-        <v>911</v>
-      </c>
+      <c r="AQ19" s="10"/>
       <c r="AR19" s="9" t="s">
         <v>188</v>
       </c>
@@ -8384,11 +8358,9 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="10">
-        <v>911</v>
-      </c>
-      <c r="X20" s="8"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="14"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
@@ -8419,9 +8391,7 @@
         <v>187</v>
       </c>
       <c r="AP20" s="8"/>
-      <c r="AQ20" s="10">
-        <v>911</v>
-      </c>
+      <c r="AQ20" s="10"/>
       <c r="AR20" s="9" t="s">
         <v>188</v>
       </c>
@@ -8610,7 +8580,7 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
+      <c r="W21" s="36"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -8642,9 +8612,7 @@
         <v>187</v>
       </c>
       <c r="AP21" s="8"/>
-      <c r="AQ21" s="10">
-        <v>911</v>
-      </c>
+      <c r="AQ21" s="10"/>
       <c r="AR21" s="9" t="s">
         <v>188</v>
       </c>
@@ -8979,7 +8947,7 @@
         <v>214</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="AM1" s="68" t="s">
         <v>216</v>
@@ -10050,7 +10018,7 @@
   <dimension ref="A1:CP138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="AW16" sqref="AW16:AW18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10181,7 +10149,7 @@
         <v>241</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="AJ1" s="119" t="s">
         <v>242</v>
@@ -10253,7 +10221,7 @@
         <v>214</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>216</v>
@@ -12042,9 +12010,7 @@
       <c r="AV16" s="35">
         <v>1234567980</v>
       </c>
-      <c r="AW16" s="35">
-        <v>911</v>
-      </c>
+      <c r="AW16" s="35"/>
       <c r="AX16" s="35">
         <v>944</v>
       </c>
@@ -12183,9 +12149,7 @@
       <c r="AV17" s="35">
         <v>1234567980</v>
       </c>
-      <c r="AW17" s="35">
-        <v>911</v>
-      </c>
+      <c r="AW17" s="35"/>
       <c r="AX17" s="37"/>
       <c r="AY17" s="35" t="s">
         <v>188</v>
@@ -12322,9 +12286,7 @@
       <c r="AV18" s="35">
         <v>1234567980</v>
       </c>
-      <c r="AW18" s="35">
-        <v>911</v>
-      </c>
+      <c r="AW18" s="35"/>
       <c r="AX18" s="37"/>
       <c r="AY18" s="35" t="s">
         <v>188</v>
@@ -14012,7 +13974,7 @@
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>381</v>
@@ -14034,7 +13996,7 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="B3" s="93" t="s">
         <v>381</v>
@@ -14553,7 +14515,7 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>381</v>
@@ -42961,8 +42923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43097,7 +43059,7 @@
         <v>2685</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -43119,7 +43081,7 @@
         <v>2980</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -43130,7 +43092,7 @@
         <v>1095</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -43141,7 +43103,7 @@
         <v>4315</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -43152,29 +43114,29 @@
         <v>2660</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="B16" s="120">
         <v>1998</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="B17" s="120">
         <v>1413</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -43196,7 +43158,7 @@
         <v>250</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -43280,7 +43242,7 @@
         <v>1120</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -43291,7 +43253,7 @@
         <v>2910</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -43323,7 +43285,7 @@
         <v>1255</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -43334,7 +43296,7 @@
         <v>4380</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -43345,7 +43307,7 @@
         <v>3130</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -43377,7 +43339,7 @@
         <v>2685</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -43388,7 +43350,7 @@
         <v>2455</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -43399,7 +43361,7 @@
         <v>2140</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -43410,7 +43372,7 @@
         <v>4790</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -43418,10 +43380,10 @@
         <v>34</v>
       </c>
       <c r="B40" s="120">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -43429,10 +43391,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="120">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -43443,7 +43405,7 @@
         <v>305</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -43451,10 +43413,10 @@
         <v>32</v>
       </c>
       <c r="B43" s="120">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -43462,10 +43424,10 @@
         <v>28</v>
       </c>
       <c r="B44" s="120">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -43476,7 +43438,7 @@
         <v>235</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -43487,7 +43449,7 @@
         <v>1770</v>
       </c>
       <c r="C46" s="126" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -43498,7 +43460,7 @@
         <v>1490</v>
       </c>
       <c r="C47" s="126" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -43520,7 +43482,7 @@
         <v>1800</v>
       </c>
       <c r="C49" s="126" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -43531,7 +43493,7 @@
         <v>900</v>
       </c>
       <c r="C50" s="126" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -43592,10 +43554,10 @@
         <v>37</v>
       </c>
       <c r="B56" s="120">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C56" s="126" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -43603,10 +43565,10 @@
         <v>36</v>
       </c>
       <c r="B57" s="120">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -43638,7 +43600,7 @@
         <v>135</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -43649,7 +43611,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -43657,10 +43619,10 @@
         <v>29</v>
       </c>
       <c r="B62" s="120">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -43668,10 +43630,10 @@
         <v>26</v>
       </c>
       <c r="B63" s="120">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -43682,7 +43644,7 @@
         <v>785</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -43693,7 +43655,7 @@
         <v>3130</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -43704,7 +43666,7 @@
         <v>1880</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -43715,7 +43677,7 @@
         <v>2685</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -43723,10 +43685,10 @@
         <v>49</v>
       </c>
       <c r="B68" s="120">
-        <v>6425</v>
+        <v>6640</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -43734,10 +43696,10 @@
         <v>18</v>
       </c>
       <c r="B69" s="120">
-        <v>895</v>
+        <v>960</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -43745,10 +43707,10 @@
         <v>19</v>
       </c>
       <c r="B70" s="120">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -43756,10 +43718,10 @@
         <v>20</v>
       </c>
       <c r="B71" s="120">
-        <v>1715</v>
+        <v>1845</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -43767,10 +43729,10 @@
         <v>21</v>
       </c>
       <c r="B72" s="120">
-        <v>3750</v>
+        <v>4030</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -43778,10 +43740,10 @@
         <v>22</v>
       </c>
       <c r="B73" s="120">
-        <v>1430</v>
+        <v>1535</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -43825,7 +43787,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -43833,10 +43795,10 @@
         <v>51</v>
       </c>
       <c r="B78" s="120">
-        <v>2725</v>
+        <v>3990</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -43844,10 +43806,10 @@
         <v>50</v>
       </c>
       <c r="B79" s="120">
-        <v>2035</v>
+        <v>2995</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>458</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -43855,10 +43817,10 @@
         <v>23</v>
       </c>
       <c r="B80" s="120">
-        <v>690</v>
+        <v>1095</v>
       </c>
       <c r="C80" s="126" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -43866,10 +43828,10 @@
         <v>25</v>
       </c>
       <c r="B81" s="120">
-        <v>2705</v>
+        <v>4315</v>
       </c>
       <c r="C81" s="126" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -43877,10 +43839,10 @@
         <v>24</v>
       </c>
       <c r="B82" s="120">
-        <v>1665</v>
+        <v>2660</v>
       </c>
       <c r="C82" s="126" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -43888,10 +43850,10 @@
         <v>63</v>
       </c>
       <c r="B83" s="120">
-        <v>3250</v>
+        <v>3435</v>
       </c>
       <c r="C83" s="126" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -43899,10 +43861,10 @@
         <v>61</v>
       </c>
       <c r="B84" s="120">
-        <v>2725</v>
+        <v>2880</v>
       </c>
       <c r="C84" s="126" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -43910,10 +43872,10 @@
         <v>64</v>
       </c>
       <c r="B85" s="120">
-        <v>4205</v>
+        <v>4445</v>
       </c>
       <c r="C85" s="126" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -43921,10 +43883,10 @@
         <v>66</v>
       </c>
       <c r="B86" s="120">
-        <v>7080</v>
+        <v>7485</v>
       </c>
       <c r="C86" s="126" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -43932,10 +43894,10 @@
         <v>62</v>
       </c>
       <c r="B87" s="120">
-        <v>3470</v>
+        <v>3665</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -43943,10 +43905,10 @@
         <v>65</v>
       </c>
       <c r="B88" s="120">
-        <v>6430</v>
+        <v>5975</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -44036,7 +43998,7 @@
         <v>1800</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -44047,7 +44009,7 @@
         <v>900</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -44069,7 +44031,7 @@
         <v>925</v>
       </c>
       <c r="C99" s="126" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -44080,7 +44042,7 @@
         <v>1850</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -44102,7 +44064,7 @@
         <v>1400</v>
       </c>
       <c r="C102" s="126" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -44113,7 +44075,7 @@
         <v>525</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -44124,7 +44086,7 @@
         <v>1025</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -44175,10 +44137,10 @@
         <v>27</v>
       </c>
       <c r="B109" s="120">
-        <v>2265</v>
+        <v>2340</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -44207,10 +44169,10 @@
         <v>31</v>
       </c>
       <c r="B112" s="120">
-        <v>5595</v>
+        <v>5785</v>
       </c>
       <c r="C112" s="126" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -44218,10 +44180,10 @@
         <v>33</v>
       </c>
       <c r="B113" s="120">
-        <v>5595</v>
+        <v>5785</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -44239,10 +44201,10 @@
         <v>30</v>
       </c>
       <c r="B115" s="120">
-        <v>1710</v>
+        <v>1770</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -44264,7 +44226,7 @@
         <v>250</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -44275,7 +44237,7 @@
         <v>250</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -44286,7 +44248,7 @@
         <v>350</v>
       </c>
       <c r="C119" s="126" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -44478,7 +44440,7 @@
         <v>8070</v>
       </c>
       <c r="C153" s="126" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -44490,7 +44452,7 @@
         <v>5975</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -44509,7 +44471,7 @@
         <v>8765</v>
       </c>
       <c r="C156" s="126" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -44521,7 +44483,7 @@
         <v>4790</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -44533,7 +44495,7 @@
         <v>3495</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -44545,7 +44507,7 @@
         <v>4595</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -44554,10 +44516,10 @@
       </c>
       <c r="B160" s="120">
         <f>SUM(B56,B40,B57,B41)</f>
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -44566,10 +44528,10 @@
       </c>
       <c r="B161" s="120">
         <f>SUM(B115,B113,B112,B109,B62,B63,B44,B43)</f>
-        <v>18245</v>
+        <v>18860</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -44593,7 +44555,7 @@
         <v>5795</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -44602,10 +44564,10 @@
       </c>
       <c r="B164" s="120">
         <f>SUM(B68)</f>
-        <v>6425</v>
+        <v>6640</v>
       </c>
       <c r="C164" s="126" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -44614,10 +44576,10 @@
       </c>
       <c r="B165" s="120">
         <f>SUM(B69:B73)</f>
-        <v>8330</v>
+        <v>8950</v>
       </c>
       <c r="C165" s="126" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -44626,10 +44588,10 @@
       </c>
       <c r="B166" s="120">
         <f>SUM(B80:B82)</f>
-        <v>5060</v>
+        <v>8070</v>
       </c>
       <c r="C166" s="126" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -44638,10 +44600,10 @@
       </c>
       <c r="B167" s="120">
         <f>SUM(B78:B79)</f>
-        <v>4760</v>
+        <v>6985</v>
       </c>
       <c r="C167" s="126" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -44650,10 +44612,10 @@
       </c>
       <c r="B168" s="120">
         <f>SUM(B83:B88)</f>
-        <v>27160</v>
+        <v>27885</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -44665,7 +44627,7 @@
         <v>4800</v>
       </c>
       <c r="C169" s="126" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -44677,7 +44639,7 @@
         <v>6600</v>
       </c>
       <c r="C170" s="126" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -44689,7 +44651,7 @@
         <v>6640</v>
       </c>
       <c r="C171" s="126" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -44701,19 +44663,19 @@
         <v>16160</v>
       </c>
       <c r="C172" s="126" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="B173" s="120">
         <f>SUM(B16:B17)</f>
         <v>3411</v>
       </c>
       <c r="C173" s="126" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="509">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1349,27 +1349,9 @@
     <t>$6,600.00</t>
   </si>
   <si>
-    <t>$925.00</t>
-  </si>
-  <si>
-    <t>$1,850.00</t>
-  </si>
-  <si>
-    <t>$525.00</t>
-  </si>
-  <si>
     <t>$1,025.00</t>
   </si>
   <si>
-    <t>$1,400.00</t>
-  </si>
-  <si>
-    <t>$135.00</t>
-  </si>
-  <si>
-    <t>$80.00</t>
-  </si>
-  <si>
     <t>$6,640.00</t>
   </si>
   <si>
@@ -1548,6 +1530,27 @@
   </si>
   <si>
     <t>$27,885.00</t>
+  </si>
+  <si>
+    <t>$2,040.00</t>
+  </si>
+  <si>
+    <t>$1,130.00</t>
+  </si>
+  <si>
+    <t>$780.00</t>
+  </si>
+  <si>
+    <t>$1,545.00</t>
+  </si>
+  <si>
+    <t>$160.00</t>
+  </si>
+  <si>
+    <t>$95.00</t>
+  </si>
+  <si>
+    <t>$7,355.00</t>
   </si>
 </sst>
 </file>
@@ -3583,7 +3586,7 @@
         <v>241</v>
       </c>
       <c r="AJ1" s="68" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AK1" s="68" t="s">
         <v>242</v>
@@ -3637,7 +3640,7 @@
         <v>214</v>
       </c>
       <c r="BB1" s="68" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="BC1" s="68" t="s">
         <v>216</v>
@@ -3669,7 +3672,7 @@
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B2" s="73">
         <v>42617</v>
@@ -3775,7 +3778,7 @@
         <v>185</v>
       </c>
       <c r="AK2" s="86" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="35" t="s">
@@ -3854,7 +3857,7 @@
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B3" s="73">
         <v>42617</v>
@@ -3958,7 +3961,7 @@
         <v>185</v>
       </c>
       <c r="AK3" s="86" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="35" t="s">
@@ -8947,7 +8950,7 @@
         <v>214</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AM1" s="68" t="s">
         <v>216</v>
@@ -10149,7 +10152,7 @@
         <v>241</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AJ1" s="119" t="s">
         <v>242</v>
@@ -10221,7 +10224,7 @@
         <v>214</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>216</v>
@@ -13974,7 +13977,7 @@
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>381</v>
@@ -13996,7 +13999,7 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B3" s="93" t="s">
         <v>381</v>
@@ -14515,7 +14518,7 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>381</v>
@@ -14998,7 +15001,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15419,9 +15422,7 @@
         <v>184</v>
       </c>
       <c r="L6" s="34"/>
-      <c r="M6" s="35" t="s">
-        <v>330</v>
-      </c>
+      <c r="M6" s="74"/>
       <c r="N6" s="35" t="s">
         <v>162</v>
       </c>
@@ -15440,7 +15441,7 @@
         <v>189</v>
       </c>
       <c r="U6" s="34"/>
-      <c r="V6" s="34">
+      <c r="V6" s="35">
         <v>4</v>
       </c>
       <c r="W6" s="39"/>
@@ -15487,9 +15488,7 @@
         <v>184</v>
       </c>
       <c r="L7" s="34"/>
-      <c r="M7" s="35" t="s">
-        <v>330</v>
-      </c>
+      <c r="M7" s="74"/>
       <c r="N7" s="35" t="s">
         <v>162</v>
       </c>
@@ -15524,8 +15523,8 @@
       <c r="AE7" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="AF7" s="105" t="b">
-        <v>1</v>
+      <c r="AF7" s="105" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:32" s="117" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15557,9 +15556,7 @@
       <c r="L8" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="M8" s="35" t="s">
-        <v>330</v>
-      </c>
+      <c r="M8" s="74"/>
       <c r="N8" s="35" t="s">
         <v>162</v>
       </c>
@@ -15621,7 +15618,7 @@
       <c r="L9" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="35" t="s">
         <v>162</v>
       </c>
@@ -17260,7 +17257,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -17449,7 +17446,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17638,7 +17635,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17827,7 +17824,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -18018,7 +18015,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>262</v>
@@ -18233,7 +18230,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -18434,7 +18431,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18637,7 +18634,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18834,7 +18831,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -19085,7 +19082,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -19338,7 +19335,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -19591,7 +19588,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19824,7 +19821,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -20061,7 +20058,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -20294,7 +20291,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -20519,7 +20516,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20744,7 +20741,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20936,7 +20933,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -21125,7 +21122,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -21314,7 +21311,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -21505,7 +21502,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21694,7 +21691,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21921,7 +21918,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -22134,7 +22131,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -22347,7 +22344,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -22604,7 +22601,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22861,7 +22858,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -23100,7 +23097,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -23335,7 +23332,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -23574,7 +23571,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23811,7 +23808,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -24020,7 +24017,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -24227,7 +24224,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -24482,7 +24479,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24747,7 +24744,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -25012,7 +25009,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -25311,7 +25308,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -25520,7 +25517,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25765,7 +25762,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25976,7 +25973,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -26183,7 +26180,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -26404,7 +26401,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26669,7 +26666,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26934,7 +26931,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -27201,7 +27198,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -27414,7 +27411,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -27627,7 +27624,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27838,7 +27835,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -28047,7 +28044,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -28238,7 +28235,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -28435,7 +28432,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -28628,7 +28625,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28834,7 +28831,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -29039,7 +29036,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -29280,7 +29277,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -29485,7 +29482,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29679,7 +29676,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29879,7 +29876,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -30081,7 +30078,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -30278,7 +30275,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -30511,7 +30508,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30744,7 +30741,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30981,7 +30978,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -31214,7 +31211,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -31463,7 +31460,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31716,7 +31713,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31953,7 +31950,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -32192,7 +32189,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -32431,7 +32428,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32672,7 +32669,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32909,7 +32906,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -33098,7 +33095,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -33287,7 +33284,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -33476,7 +33473,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33725,7 +33722,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33976,7 +33973,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -34227,7 +34224,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -34458,7 +34455,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34693,7 +34690,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34924,7 +34921,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -35167,7 +35164,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -35388,7 +35385,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35637,7 +35634,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35886,7 +35883,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -36135,7 +36132,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -36384,7 +36381,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -36575,7 +36572,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36766,7 +36763,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -37141,7 +37138,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -37516,7 +37513,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37733,7 +37730,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37950,7 +37947,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -38165,7 +38162,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -38378,7 +38375,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -38578,7 +38575,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38778,7 +38775,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38980,7 +38977,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -39182,7 +39179,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -39384,7 +39381,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -39586,7 +39583,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39787,7 +39784,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -40004,7 +40001,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -40221,7 +40218,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -40438,7 +40435,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40655,7 +40652,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40872,7 +40869,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -41089,7 +41086,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -41306,7 +41303,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -41523,7 +41520,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41740,7 +41737,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41957,7 +41954,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -42146,7 +42143,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -42335,7 +42332,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -42524,7 +42521,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42713,7 +42710,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42597</v>
+        <v>42599</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42923,8 +42920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43059,7 +43056,7 @@
         <v>2685</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -43081,7 +43078,7 @@
         <v>2980</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -43092,7 +43089,7 @@
         <v>1095</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -43103,7 +43100,7 @@
         <v>4315</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -43114,29 +43111,29 @@
         <v>2660</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B16" s="120">
         <v>1998</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B17" s="120">
         <v>1413</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -43242,7 +43239,7 @@
         <v>1120</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -43253,7 +43250,7 @@
         <v>2910</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -43285,7 +43282,7 @@
         <v>1255</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -43296,7 +43293,7 @@
         <v>4380</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -43307,7 +43304,7 @@
         <v>3130</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -43339,7 +43336,7 @@
         <v>2685</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -43350,7 +43347,7 @@
         <v>2455</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -43361,7 +43358,7 @@
         <v>2140</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -43372,7 +43369,7 @@
         <v>4790</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -43383,7 +43380,7 @@
         <v>275</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -43394,7 +43391,7 @@
         <v>315</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -43416,7 +43413,7 @@
         <v>795</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -43427,7 +43424,7 @@
         <v>795</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -43438,7 +43435,7 @@
         <v>235</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -43449,7 +43446,7 @@
         <v>1770</v>
       </c>
       <c r="C46" s="126" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -43460,7 +43457,7 @@
         <v>1490</v>
       </c>
       <c r="C47" s="126" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -43568,7 +43565,7 @@
         <v>240</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -43597,10 +43594,10 @@
         <v>97</v>
       </c>
       <c r="B60" s="120">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -43608,10 +43605,10 @@
         <v>98</v>
       </c>
       <c r="B61" s="120">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>447</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -43622,7 +43619,7 @@
         <v>795</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -43633,7 +43630,7 @@
         <v>795</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -43644,7 +43641,7 @@
         <v>785</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -43655,7 +43652,7 @@
         <v>3130</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -43666,7 +43663,7 @@
         <v>1880</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -43677,7 +43674,7 @@
         <v>2685</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -43688,7 +43685,7 @@
         <v>6640</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -43699,7 +43696,7 @@
         <v>960</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -43710,7 +43707,7 @@
         <v>580</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -43721,7 +43718,7 @@
         <v>1845</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -43732,7 +43729,7 @@
         <v>4030</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -43743,7 +43740,7 @@
         <v>1535</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -43787,7 +43784,7 @@
         <v>1120</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -43798,7 +43795,7 @@
         <v>3990</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -43820,7 +43817,7 @@
         <v>1095</v>
       </c>
       <c r="C80" s="126" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -43831,7 +43828,7 @@
         <v>4315</v>
       </c>
       <c r="C81" s="126" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -43842,7 +43839,7 @@
         <v>2660</v>
       </c>
       <c r="C82" s="126" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -43853,7 +43850,7 @@
         <v>3435</v>
       </c>
       <c r="C83" s="126" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -43864,7 +43861,7 @@
         <v>2880</v>
       </c>
       <c r="C84" s="126" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -43875,7 +43872,7 @@
         <v>4445</v>
       </c>
       <c r="C85" s="126" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -43886,7 +43883,7 @@
         <v>7485</v>
       </c>
       <c r="C86" s="126" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -43897,7 +43894,7 @@
         <v>3665</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -43908,7 +43905,7 @@
         <v>5975</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -44028,7 +44025,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="120">
-        <v>925</v>
+        <v>1025</v>
       </c>
       <c r="C99" s="126" t="s">
         <v>441</v>
@@ -44039,10 +44036,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="120">
-        <v>1850</v>
+        <v>2040</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -44050,10 +44047,10 @@
         <v>103</v>
       </c>
       <c r="B101" s="120">
-        <v>700</v>
+        <v>780</v>
       </c>
       <c r="C101" s="126" t="s">
-        <v>409</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -44061,10 +44058,10 @@
         <v>104</v>
       </c>
       <c r="B102" s="120">
-        <v>1400</v>
+        <v>1545</v>
       </c>
       <c r="C102" s="126" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -44072,10 +44069,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="120">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -44083,10 +44080,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="120">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -44140,7 +44137,7 @@
         <v>2340</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -44172,7 +44169,7 @@
         <v>5785</v>
       </c>
       <c r="C112" s="126" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -44183,7 +44180,7 @@
         <v>5785</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -44204,7 +44201,7 @@
         <v>1770</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -44440,7 +44437,7 @@
         <v>8070</v>
       </c>
       <c r="C153" s="126" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -44452,7 +44449,7 @@
         <v>5975</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -44471,7 +44468,7 @@
         <v>8765</v>
       </c>
       <c r="C156" s="126" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -44483,7 +44480,7 @@
         <v>4790</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -44495,7 +44492,7 @@
         <v>3495</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -44507,7 +44504,7 @@
         <v>4595</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -44519,7 +44516,7 @@
         <v>1030</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -44531,7 +44528,7 @@
         <v>18860</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -44555,7 +44552,7 @@
         <v>5795</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -44567,7 +44564,7 @@
         <v>6640</v>
       </c>
       <c r="C164" s="126" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -44579,7 +44576,7 @@
         <v>8950</v>
       </c>
       <c r="C165" s="126" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -44591,7 +44588,7 @@
         <v>8070</v>
       </c>
       <c r="C166" s="126" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -44603,7 +44600,7 @@
         <v>6985</v>
       </c>
       <c r="C167" s="126" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -44615,7 +44612,7 @@
         <v>27885</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -44648,10 +44645,10 @@
       </c>
       <c r="B171" s="120">
         <f>SUM(B104,B103,B102,B101,B100,B99,B60,B61)</f>
-        <v>6640</v>
+        <v>7355</v>
       </c>
       <c r="C171" s="126" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -44663,19 +44660,19 @@
         <v>16160</v>
       </c>
       <c r="C172" s="126" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B173" s="120">
         <f>SUM(B16:B17)</f>
         <v>3411</v>
       </c>
       <c r="C173" s="126" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -1325,9 +1325,6 @@
     <t>$1,700.00</t>
   </si>
   <si>
-    <t>$2,375.00</t>
-  </si>
-  <si>
     <t>$305.00</t>
   </si>
   <si>
@@ -1355,15 +1352,6 @@
     <t>$6,640.00</t>
   </si>
   <si>
-    <t>$1,120.00</t>
-  </si>
-  <si>
-    <t>$2,910.00</t>
-  </si>
-  <si>
-    <t>$2,685.00</t>
-  </si>
-  <si>
     <t>/Dealer.com SEO</t>
   </si>
   <si>
@@ -1373,9 +1361,6 @@
     <t>/Trade In Marketplace - KBB Buying Center</t>
   </si>
   <si>
-    <t>$16,160.00</t>
-  </si>
-  <si>
     <t>SitelinkUsedProOptIN</t>
   </si>
   <si>
@@ -1551,6 +1536,21 @@
   </si>
   <si>
     <t>$7,355.00</t>
+  </si>
+  <si>
+    <t>$1,185.00</t>
+  </si>
+  <si>
+    <t>$2,510.00</t>
+  </si>
+  <si>
+    <t>$3,075.00</t>
+  </si>
+  <si>
+    <t>$2,840.00</t>
+  </si>
+  <si>
+    <t>$19,930.00</t>
   </si>
 </sst>
 </file>
@@ -3586,7 +3586,7 @@
         <v>241</v>
       </c>
       <c r="AJ1" s="68" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AK1" s="68" t="s">
         <v>242</v>
@@ -3640,7 +3640,7 @@
         <v>214</v>
       </c>
       <c r="BB1" s="68" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="BC1" s="68" t="s">
         <v>216</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B2" s="73">
         <v>42617</v>
@@ -3778,7 +3778,7 @@
         <v>185</v>
       </c>
       <c r="AK2" s="86" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="35" t="s">
@@ -3857,7 +3857,7 @@
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B3" s="73">
         <v>42617</v>
@@ -3961,7 +3961,7 @@
         <v>185</v>
       </c>
       <c r="AK3" s="86" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="35" t="s">
@@ -8950,7 +8950,7 @@
         <v>214</v>
       </c>
       <c r="AL1" s="68" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AM1" s="68" t="s">
         <v>216</v>
@@ -10020,8 +10020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AW16" sqref="AW16:AW18"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AX16" sqref="AX16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10152,7 +10152,7 @@
         <v>241</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AJ1" s="119" t="s">
         <v>242</v>
@@ -10224,7 +10224,7 @@
         <v>214</v>
       </c>
       <c r="BG1" s="68" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="BH1" s="68" t="s">
         <v>216</v>
@@ -12014,9 +12014,7 @@
         <v>1234567980</v>
       </c>
       <c r="AW16" s="35"/>
-      <c r="AX16" s="35">
-        <v>944</v>
-      </c>
+      <c r="AX16" s="74"/>
       <c r="AY16" s="35" t="s">
         <v>188</v>
       </c>
@@ -13977,7 +13975,7 @@
     </row>
     <row r="2" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>381</v>
@@ -13999,7 +13997,7 @@
     </row>
     <row r="3" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B3" s="93" t="s">
         <v>381</v>
@@ -14518,7 +14516,7 @@
     </row>
     <row r="19" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>381</v>
@@ -42920,8 +42918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43053,10 +43051,10 @@
         <v>57</v>
       </c>
       <c r="B10" s="120">
-        <v>2685</v>
+        <v>2840</v>
       </c>
       <c r="C10" s="126" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -43078,7 +43076,7 @@
         <v>2980</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -43089,7 +43087,7 @@
         <v>1095</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -43100,7 +43098,7 @@
         <v>4315</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -43111,29 +43109,29 @@
         <v>2660</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B16" s="120">
         <v>1998</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B17" s="120">
         <v>1413</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -43155,7 +43153,7 @@
         <v>250</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -43225,10 +43223,10 @@
         <v>56</v>
       </c>
       <c r="B26" s="120">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="C26" s="126" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -43236,10 +43234,10 @@
         <v>53</v>
       </c>
       <c r="B27" s="120">
-        <v>1120</v>
+        <v>1185</v>
       </c>
       <c r="C27" s="126" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -43247,10 +43245,10 @@
         <v>54</v>
       </c>
       <c r="B28" s="120">
-        <v>2910</v>
+        <v>3075</v>
       </c>
       <c r="C28" s="126" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -43268,10 +43266,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="120">
-        <v>2375</v>
+        <v>2510</v>
       </c>
       <c r="C30" s="126" t="s">
-        <v>433</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -43282,7 +43280,7 @@
         <v>1255</v>
       </c>
       <c r="C31" s="126" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -43293,7 +43291,7 @@
         <v>4380</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -43304,7 +43302,7 @@
         <v>3130</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -43333,10 +43331,10 @@
         <v>58</v>
       </c>
       <c r="B36" s="120">
-        <v>2685</v>
+        <v>2840</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -43347,7 +43345,7 @@
         <v>2455</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -43358,7 +43356,7 @@
         <v>2140</v>
       </c>
       <c r="C38" s="126" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -43369,7 +43367,7 @@
         <v>4790</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -43380,7 +43378,7 @@
         <v>275</v>
       </c>
       <c r="C40" s="126" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -43391,7 +43389,7 @@
         <v>315</v>
       </c>
       <c r="C41" s="126" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -43402,7 +43400,7 @@
         <v>305</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -43413,7 +43411,7 @@
         <v>795</v>
       </c>
       <c r="C43" s="126" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -43424,7 +43422,7 @@
         <v>795</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -43435,7 +43433,7 @@
         <v>235</v>
       </c>
       <c r="C45" s="126" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -43446,7 +43444,7 @@
         <v>1770</v>
       </c>
       <c r="C46" s="126" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -43457,7 +43455,7 @@
         <v>1490</v>
       </c>
       <c r="C47" s="126" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -43479,7 +43477,7 @@
         <v>1800</v>
       </c>
       <c r="C49" s="126" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -43490,7 +43488,7 @@
         <v>900</v>
       </c>
       <c r="C50" s="126" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -43565,7 +43563,7 @@
         <v>240</v>
       </c>
       <c r="C57" s="126" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -43597,7 +43595,7 @@
         <v>160</v>
       </c>
       <c r="C60" s="126" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -43608,7 +43606,7 @@
         <v>95</v>
       </c>
       <c r="C61" s="126" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -43619,7 +43617,7 @@
         <v>795</v>
       </c>
       <c r="C62" s="126" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -43630,7 +43628,7 @@
         <v>795</v>
       </c>
       <c r="C63" s="126" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -43641,7 +43639,7 @@
         <v>785</v>
       </c>
       <c r="C64" s="126" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -43652,7 +43650,7 @@
         <v>3130</v>
       </c>
       <c r="C65" s="126" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -43663,7 +43661,7 @@
         <v>1880</v>
       </c>
       <c r="C66" s="126" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -43671,10 +43669,10 @@
         <v>59</v>
       </c>
       <c r="B67" s="120">
-        <v>2685</v>
+        <v>2840</v>
       </c>
       <c r="C67" s="126" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -43685,7 +43683,7 @@
         <v>6640</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -43696,7 +43694,7 @@
         <v>960</v>
       </c>
       <c r="C69" s="126" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -43707,7 +43705,7 @@
         <v>580</v>
       </c>
       <c r="C70" s="126" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -43718,7 +43716,7 @@
         <v>1845</v>
       </c>
       <c r="C71" s="126" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -43729,7 +43727,7 @@
         <v>4030</v>
       </c>
       <c r="C72" s="126" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -43740,7 +43738,7 @@
         <v>1535</v>
       </c>
       <c r="C73" s="126" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -43781,10 +43779,10 @@
         <v>52</v>
       </c>
       <c r="B77" s="120">
-        <v>1120</v>
+        <v>2840</v>
       </c>
       <c r="C77" s="126" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -43795,7 +43793,7 @@
         <v>3990</v>
       </c>
       <c r="C78" s="126" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -43817,7 +43815,7 @@
         <v>1095</v>
       </c>
       <c r="C80" s="126" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -43828,7 +43826,7 @@
         <v>4315</v>
       </c>
       <c r="C81" s="126" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -43839,7 +43837,7 @@
         <v>2660</v>
       </c>
       <c r="C82" s="126" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -43850,7 +43848,7 @@
         <v>3435</v>
       </c>
       <c r="C83" s="126" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -43861,7 +43859,7 @@
         <v>2880</v>
       </c>
       <c r="C84" s="126" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -43872,7 +43870,7 @@
         <v>4445</v>
       </c>
       <c r="C85" s="126" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -43883,7 +43881,7 @@
         <v>7485</v>
       </c>
       <c r="C86" s="126" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -43894,7 +43892,7 @@
         <v>3665</v>
       </c>
       <c r="C87" s="126" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -43905,7 +43903,7 @@
         <v>5975</v>
       </c>
       <c r="C88" s="126" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -43995,7 +43993,7 @@
         <v>1800</v>
       </c>
       <c r="C96" s="126" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -44006,7 +44004,7 @@
         <v>900</v>
       </c>
       <c r="C97" s="126" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -44028,7 +44026,7 @@
         <v>1025</v>
       </c>
       <c r="C99" s="126" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -44039,7 +44037,7 @@
         <v>2040</v>
       </c>
       <c r="C100" s="126" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -44050,7 +44048,7 @@
         <v>780</v>
       </c>
       <c r="C101" s="126" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -44061,7 +44059,7 @@
         <v>1545</v>
       </c>
       <c r="C102" s="126" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -44072,7 +44070,7 @@
         <v>580</v>
       </c>
       <c r="C103" s="126" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -44083,7 +44081,7 @@
         <v>1130</v>
       </c>
       <c r="C104" s="126" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -44137,7 +44135,7 @@
         <v>2340</v>
       </c>
       <c r="C109" s="126" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -44169,7 +44167,7 @@
         <v>5785</v>
       </c>
       <c r="C112" s="126" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -44180,7 +44178,7 @@
         <v>5785</v>
       </c>
       <c r="C113" s="126" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -44201,7 +44199,7 @@
         <v>1770</v>
       </c>
       <c r="C115" s="126" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -44223,7 +44221,7 @@
         <v>250</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -44234,7 +44232,7 @@
         <v>250</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -44245,7 +44243,7 @@
         <v>350</v>
       </c>
       <c r="C119" s="126" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -44437,7 +44435,7 @@
         <v>8070</v>
       </c>
       <c r="C153" s="126" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -44449,7 +44447,7 @@
         <v>5975</v>
       </c>
       <c r="C154" s="126" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -44468,7 +44466,7 @@
         <v>8765</v>
       </c>
       <c r="C156" s="126" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -44480,7 +44478,7 @@
         <v>4790</v>
       </c>
       <c r="C157" s="126" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -44492,7 +44490,7 @@
         <v>3495</v>
       </c>
       <c r="C158" s="126" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -44504,7 +44502,7 @@
         <v>4595</v>
       </c>
       <c r="C159" s="126" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -44516,7 +44514,7 @@
         <v>1030</v>
       </c>
       <c r="C160" s="126" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -44528,7 +44526,7 @@
         <v>18860</v>
       </c>
       <c r="C161" s="126" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -44552,7 +44550,7 @@
         <v>5795</v>
       </c>
       <c r="C163" s="126" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -44564,7 +44562,7 @@
         <v>6640</v>
       </c>
       <c r="C164" s="126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -44576,7 +44574,7 @@
         <v>8950</v>
       </c>
       <c r="C165" s="126" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -44588,7 +44586,7 @@
         <v>8070</v>
       </c>
       <c r="C166" s="126" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -44600,7 +44598,7 @@
         <v>6985</v>
       </c>
       <c r="C167" s="126" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -44612,7 +44610,7 @@
         <v>27885</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -44624,7 +44622,7 @@
         <v>4800</v>
       </c>
       <c r="C169" s="126" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -44636,7 +44634,7 @@
         <v>6600</v>
       </c>
       <c r="C170" s="126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -44648,7 +44646,7 @@
         <v>7355</v>
       </c>
       <c r="C171" s="126" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -44656,23 +44654,23 @@
         <v>431</v>
       </c>
       <c r="B172" s="120">
-        <f>SUM(B10,B26,B27,B28,B30,B36,B67)</f>
-        <v>16160</v>
+        <f>SUM(B10,B26,B27,B28,B30,B36,B67,B77)</f>
+        <v>19930</v>
       </c>
       <c r="C172" s="126" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B173" s="120">
         <f>SUM(B16:B17)</f>
         <v>3411</v>
       </c>
       <c r="C173" s="126" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="517">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1367,12 +1367,6 @@
     <t>MVPPriceTotal</t>
   </si>
   <si>
-    <t>Connect Advanced</t>
-  </si>
-  <si>
-    <t>Connect Core</t>
-  </si>
-  <si>
     <t>LeaderboardUsedClickThruURL</t>
   </si>
   <si>
@@ -1409,15 +1403,6 @@
     <t>$5,795.00</t>
   </si>
   <si>
-    <t>$1,998.00</t>
-  </si>
-  <si>
-    <t>$1,413.00</t>
-  </si>
-  <si>
-    <t>$3,411.00</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -1551,6 +1536,45 @@
   </si>
   <si>
     <t>$19,930.00</t>
+  </si>
+  <si>
+    <t>Connect Advanced (Franchise)</t>
+  </si>
+  <si>
+    <t>Connect Advanced (Independent)</t>
+  </si>
+  <si>
+    <t>Connect Core (Franchise)</t>
+  </si>
+  <si>
+    <t>Connect Core (Independent)</t>
+  </si>
+  <si>
+    <t>Connect Premier (Franchise)</t>
+  </si>
+  <si>
+    <t>Connect Premier (Independent)</t>
+  </si>
+  <si>
+    <t>$2,255.00</t>
+  </si>
+  <si>
+    <t>$2,075.00</t>
+  </si>
+  <si>
+    <t>$1,580.00</t>
+  </si>
+  <si>
+    <t>$1,385.00</t>
+  </si>
+  <si>
+    <t>$3,120.00</t>
+  </si>
+  <si>
+    <t>$3,685.00</t>
+  </si>
+  <si>
+    <t>$14,100.00</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2307,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2620,13 +2644,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2640,6 +2658,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3349,7 +3388,7 @@
       <c r="M7" s="37"/>
       <c r="N7" s="14"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="132"/>
+      <c r="Y7" s="130"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="35" t="s">
         <v>162</v>
@@ -3407,15 +3446,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK3"/>
+  <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AW7" sqref="AW7:AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -3475,7 +3514,7 @@
     <col min="59" max="59" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="20" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="18" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.42578125" style="131" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3586,7 +3625,7 @@
         <v>241</v>
       </c>
       <c r="AJ1" s="68" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AK1" s="68" t="s">
         <v>242</v>
@@ -3672,7 +3711,7 @@
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="B2" s="73">
         <v>42617</v>
@@ -3778,7 +3817,7 @@
         <v>185</v>
       </c>
       <c r="AK2" s="86" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="35" t="s">
@@ -3855,25 +3894,17 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="B3" s="73">
         <v>42617</v>
       </c>
-      <c r="C3" s="35">
-        <v>1</v>
-      </c>
-      <c r="D3" s="35">
-        <v>1</v>
-      </c>
-      <c r="E3" s="35">
-        <v>1</v>
-      </c>
-      <c r="F3" s="35">
-        <v>1</v>
-      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="35">
         <v>1</v>
       </c>
@@ -3889,14 +3920,18 @@
       <c r="K3" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="L3" s="74"/>
+      <c r="L3" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="M3" s="35" t="s">
         <v>182</v>
       </c>
       <c r="N3" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="O3" s="35"/>
+      <c r="O3" s="35" t="s">
+        <v>380</v>
+      </c>
       <c r="P3" s="35" t="s">
         <v>192</v>
       </c>
@@ -3918,21 +3953,13 @@
       <c r="V3" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="W3" s="35" t="s">
-        <v>330</v>
-      </c>
+      <c r="W3" s="74"/>
       <c r="X3" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="Y3" s="35">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="35">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="35">
-        <v>8765309111</v>
-      </c>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
       <c r="AB3" s="35">
         <v>1</v>
       </c>
@@ -3945,15 +3972,9 @@
       <c r="AE3" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="AF3" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG3" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH3" s="35">
-        <v>12</v>
-      </c>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
       <c r="AI3" s="35" t="s">
         <v>189</v>
       </c>
@@ -3961,12 +3982,10 @@
         <v>185</v>
       </c>
       <c r="AK3" s="86" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AL3" s="37"/>
-      <c r="AM3" s="35" t="s">
-        <v>220</v>
-      </c>
+      <c r="AM3" s="74"/>
       <c r="AN3" s="35" t="s">
         <v>186</v>
       </c>
@@ -3976,34 +3995,24 @@
       <c r="AP3" s="35">
         <v>4567</v>
       </c>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="35" t="s">
-        <v>187</v>
-      </c>
+      <c r="AQ3" s="35">
+        <v>8910</v>
+      </c>
+      <c r="AR3" s="74"/>
       <c r="AS3" s="35">
         <v>1234567890</v>
       </c>
-      <c r="AT3" s="35" t="s">
-        <v>188</v>
-      </c>
+      <c r="AT3" s="74"/>
       <c r="AU3" s="35">
         <v>2000</v>
       </c>
       <c r="AV3" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="AW3" s="35">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ3" s="35">
-        <v>1</v>
-      </c>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
       <c r="BA3" s="35">
         <v>1</v>
       </c>
@@ -4033,6 +4042,658 @@
         <v>222</v>
       </c>
       <c r="BK3" s="105" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="73">
+        <v>42617</v>
+      </c>
+      <c r="C4" s="35">
+        <v>1</v>
+      </c>
+      <c r="D4" s="35">
+        <v>1</v>
+      </c>
+      <c r="E4" s="35">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35">
+        <v>1</v>
+      </c>
+      <c r="I4" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="J4" s="35">
+        <v>1</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L4" s="74"/>
+      <c r="M4" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="W4" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y4" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="35">
+        <v>8765309111</v>
+      </c>
+      <c r="AB4" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="35">
+        <v>1119035678</v>
+      </c>
+      <c r="AE4" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF4" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG4" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH4" s="35">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ4" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK4" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO4" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP4" s="35">
+        <v>4567</v>
+      </c>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS4" s="35">
+        <v>1234567890</v>
+      </c>
+      <c r="AT4" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU4" s="35">
+        <v>2000</v>
+      </c>
+      <c r="AV4" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW4" s="35">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ4" s="35">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="35">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="35">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD4" s="35">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="35">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH4" s="35">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK4" s="105" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="73">
+        <v>42617</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="35">
+        <v>1</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1</v>
+      </c>
+      <c r="I5" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="J5" s="35">
+        <v>1</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="W5" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="X5" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="35">
+        <v>1119035678</v>
+      </c>
+      <c r="AE5" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ5" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK5" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO5" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP5" s="35">
+        <v>4567</v>
+      </c>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="35">
+        <v>1234567890</v>
+      </c>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="35">
+        <v>2000</v>
+      </c>
+      <c r="AV5" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="35">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="35">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD5" s="35">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="35">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH5" s="35">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK5" s="105" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A6" s="132" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="73">
+        <v>42617</v>
+      </c>
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35">
+        <v>1</v>
+      </c>
+      <c r="E6" s="35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35">
+        <v>1</v>
+      </c>
+      <c r="H6" s="35">
+        <v>1</v>
+      </c>
+      <c r="I6" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="J6" s="35">
+        <v>1</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="M6" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="V6" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="W6" s="74"/>
+      <c r="X6" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y6" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="35">
+        <v>8765309111</v>
+      </c>
+      <c r="AB6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="35">
+        <v>1119035678</v>
+      </c>
+      <c r="AE6" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF6" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG6" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH6" s="35">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ6" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK6" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN6" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO6" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP6" s="35">
+        <v>4567</v>
+      </c>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS6" s="35">
+        <v>1234567890</v>
+      </c>
+      <c r="AT6" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU6" s="35">
+        <v>2000</v>
+      </c>
+      <c r="AV6" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ6" s="35">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="35">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="35">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD6" s="35">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="35">
+        <v>2</v>
+      </c>
+      <c r="BG6" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH6" s="35">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK6" s="105" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A7" s="132" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="73">
+        <v>42617</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="35">
+        <v>1</v>
+      </c>
+      <c r="H7" s="35">
+        <v>1</v>
+      </c>
+      <c r="I7" s="35">
+        <v>9638527410</v>
+      </c>
+      <c r="J7" s="35">
+        <v>1</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="M7" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="W7" s="74"/>
+      <c r="X7" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="35">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="35">
+        <v>1119035678</v>
+      </c>
+      <c r="AE7" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ7" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK7" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO7" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP7" s="35">
+        <v>4567</v>
+      </c>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="35">
+        <v>1234567890</v>
+      </c>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="35">
+        <v>2000</v>
+      </c>
+      <c r="AV7" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="35">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="35">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD7" s="35">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="35">
+        <v>2</v>
+      </c>
+      <c r="BG7" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH7" s="35">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="35">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK7" s="105" t="s">
         <v>381</v>
       </c>
     </row>
@@ -9278,7 +9939,7 @@
       <c r="AP6" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="AQ6" s="130" t="s">
+      <c r="AQ6" s="128" t="s">
         <v>342</v>
       </c>
       <c r="AR6" s="35" t="s">
@@ -9336,7 +9997,7 @@
       <c r="AP7" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="AQ7" s="130" t="s">
+      <c r="AQ7" s="128" t="s">
         <v>342</v>
       </c>
       <c r="AR7" s="35" t="s">
@@ -10020,7 +10681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+    <sheetView topLeftCell="AT1" workbookViewId="0">
       <selection activeCell="AX16" sqref="AX16"/>
     </sheetView>
   </sheetViews>
@@ -10152,7 +10813,7 @@
         <v>241</v>
       </c>
       <c r="AI1" s="68" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AJ1" s="119" t="s">
         <v>242</v>
@@ -14668,16 +15329,16 @@
       <c r="B24" s="99"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="99"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
@@ -17255,7 +17916,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -17444,7 +18105,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -17633,7 +18294,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17822,7 +18483,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -18013,7 +18674,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>262</v>
@@ -18228,7 +18889,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -18429,7 +19090,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -18632,7 +19293,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -18829,7 +19490,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -19080,7 +19741,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -19333,7 +19994,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -19586,7 +20247,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -19819,7 +20480,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -20056,7 +20717,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -20289,7 +20950,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -20514,7 +21175,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -20739,7 +21400,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -20931,7 +21592,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -21120,7 +21781,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -21309,7 +21970,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -21500,7 +22161,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -21689,7 +22350,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -21916,7 +22577,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -22129,7 +22790,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -22342,7 +23003,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -22599,7 +23260,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -22856,7 +23517,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -23095,7 +23756,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -23330,7 +23991,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -23569,7 +24230,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -23806,7 +24467,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -24015,7 +24676,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -24222,7 +24883,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -24477,7 +25138,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -24742,7 +25403,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -25007,7 +25668,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -25306,7 +25967,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -25515,7 +26176,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -25760,7 +26421,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -25971,7 +26632,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -26178,7 +26839,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -26399,7 +27060,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -26664,7 +27325,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -26929,7 +27590,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -27196,7 +27857,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -27409,7 +28070,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -27622,7 +28283,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -27833,7 +28494,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -28042,7 +28703,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -28233,7 +28894,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -28430,7 +29091,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -28623,7 +29284,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -28829,7 +29490,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -29034,7 +29695,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -29275,7 +29936,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -29480,7 +30141,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -29674,7 +30335,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -29874,7 +30535,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -30076,7 +30737,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -30273,7 +30934,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -30506,7 +31167,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -30739,7 +31400,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -30976,7 +31637,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -31209,7 +31870,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -31458,7 +32119,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -31711,7 +32372,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -31948,7 +32609,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -32187,7 +32848,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -32426,7 +33087,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -32667,7 +33328,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -32904,7 +33565,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -33093,7 +33754,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -33282,7 +33943,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -33471,7 +34132,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -33720,7 +34381,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -33971,7 +34632,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -34222,7 +34883,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -34453,7 +35114,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -34688,7 +35349,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -34919,7 +35580,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -35162,7 +35823,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -35383,7 +36044,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -35632,7 +36293,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -35881,7 +36542,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -36130,7 +36791,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -36379,7 +37040,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -36570,7 +37231,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -36761,7 +37422,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -37136,7 +37797,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -37511,7 +38172,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -37728,7 +38389,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -37945,7 +38606,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -38160,7 +38821,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -38373,7 +39034,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -38573,7 +39234,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -38773,7 +39434,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -38975,7 +39636,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -39177,7 +39838,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -39379,7 +40040,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -39581,7 +40242,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -39782,7 +40443,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -39999,7 +40660,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -40216,7 +40877,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -40433,7 +41094,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -40650,7 +41311,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -40867,7 +41528,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -41084,7 +41745,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -41301,7 +41962,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -41518,7 +42179,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -41735,7 +42396,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -41952,7 +42613,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -42141,7 +42802,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -42330,7 +42991,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -42519,7 +43180,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -42708,7 +43369,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>
@@ -42916,17 +43577,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K202"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="139" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -42934,10 +43595,10 @@
       <c r="A1" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="120" t="s">
         <v>390</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="136" t="s">
         <v>392</v>
       </c>
     </row>
@@ -42946,8 +43607,8 @@
         <v>112</v>
       </c>
       <c r="B2" s="120"/>
-      <c r="C2" s="126">
-        <f t="shared" ref="C2:C58" si="0">B2</f>
+      <c r="C2" s="136">
+        <f t="shared" ref="C2:C62" si="0">B2</f>
         <v>0</v>
       </c>
       <c r="I2" s="121"/>
@@ -42959,7 +43620,7 @@
         <v>113</v>
       </c>
       <c r="B3" s="120"/>
-      <c r="C3" s="126">
+      <c r="C3" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42972,7 +43633,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="120"/>
-      <c r="C4" s="126">
+      <c r="C4" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -42985,7 +43646,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="120"/>
-      <c r="C5" s="126">
+      <c r="C5" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43000,7 +43661,7 @@
       <c r="B6" s="120">
         <v>650</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="136" t="s">
         <v>394</v>
       </c>
       <c r="I6" s="121"/>
@@ -43012,7 +43673,7 @@
         <v>107</v>
       </c>
       <c r="B7" s="120"/>
-      <c r="C7" s="126">
+      <c r="C7" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43025,7 +43686,7 @@
         <v>110</v>
       </c>
       <c r="B8" s="120"/>
-      <c r="C8" s="126">
+      <c r="C8" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43038,7 +43699,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="120"/>
-      <c r="C9" s="126">
+      <c r="C9" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -43053,8 +43714,8 @@
       <c r="B10" s="120">
         <v>2840</v>
       </c>
-      <c r="C10" s="126" t="s">
-        <v>507</v>
+      <c r="C10" s="136" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -43064,7 +43725,7 @@
       <c r="B11" s="120">
         <v>2995</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="136" t="s">
         <v>397</v>
       </c>
     </row>
@@ -43075,8 +43736,8 @@
       <c r="B12" s="120">
         <v>2980</v>
       </c>
-      <c r="C12" s="126" t="s">
-        <v>450</v>
+      <c r="C12" s="136" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -43086,8 +43747,8 @@
       <c r="B13" s="120">
         <v>1095</v>
       </c>
-      <c r="C13" s="126" t="s">
-        <v>465</v>
+      <c r="C13" s="136" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -43097,8 +43758,8 @@
       <c r="B14" s="120">
         <v>4315</v>
       </c>
-      <c r="C14" s="126" t="s">
-        <v>466</v>
+      <c r="C14" s="136" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -43108,1722 +43769,1767 @@
       <c r="B15" s="120">
         <v>2660</v>
       </c>
-      <c r="C15" s="126" t="s">
-        <v>467</v>
+      <c r="C15" s="140" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="B16" s="120">
-        <v>1998</v>
-      </c>
-      <c r="C16" s="126" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="B17" s="120">
-        <v>1413</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2255</v>
+      </c>
+      <c r="C16" s="140" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="133" t="s">
+        <v>505</v>
+      </c>
+      <c r="B17" s="134">
+        <v>2075</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="B18" s="120">
+        <v>1580</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>512</v>
+      </c>
+      <c r="I18" s="135"/>
+    </row>
+    <row r="19" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19" s="120">
+        <v>1385</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="B20" s="120">
+        <v>3120</v>
+      </c>
+      <c r="C20" s="140" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="B21" s="120">
+        <v>3685</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="120">
+      <c r="B22" s="120">
         <v>300</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C22" s="136" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="120">
+      <c r="B23" s="120">
         <v>250</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C23" s="136" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="120">
+      <c r="B24" s="120">
         <v>400</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C24" s="136" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="126">
+      <c r="B25" s="120"/>
+      <c r="C25" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="126">
+      <c r="B26" s="120"/>
+      <c r="C26" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="126">
+      <c r="B27" s="120"/>
+      <c r="C27" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="120"/>
-      <c r="C24" s="126">
+      <c r="B28" s="120"/>
+      <c r="C28" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="120">
+      <c r="B29" s="120">
         <v>600</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C29" s="136" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="120">
+      <c r="B30" s="120">
         <v>1800</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="C30" s="136" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="120">
+      <c r="B31" s="120">
         <v>1185</v>
       </c>
-      <c r="C27" s="126" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+      <c r="C31" s="136" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="120">
+      <c r="B32" s="120">
         <v>3075</v>
       </c>
-      <c r="C28" s="126" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="C32" s="136" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="126">
+      <c r="B33" s="120"/>
+      <c r="C33" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="120">
-        <v>2510</v>
-      </c>
-      <c r="C30" s="126" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="120">
-        <v>1255</v>
-      </c>
-      <c r="C31" s="126" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="120">
-        <v>4380</v>
-      </c>
-      <c r="C32" s="126" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="120">
-        <v>3130</v>
-      </c>
-      <c r="C33" s="126" t="s">
-        <v>458</v>
-      </c>
-    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B34" s="120">
-        <v>242</v>
-      </c>
-      <c r="C34" s="126" t="s">
-        <v>411</v>
+        <v>2510</v>
+      </c>
+      <c r="C34" s="136" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="120">
+        <v>1255</v>
+      </c>
+      <c r="C35" s="136" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="120">
+        <v>4380</v>
+      </c>
+      <c r="C36" s="136" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="120">
+        <v>3130</v>
+      </c>
+      <c r="C37" s="136" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="120">
+        <v>242</v>
+      </c>
+      <c r="C38" s="136" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="126">
+      <c r="B39" s="120"/>
+      <c r="C39" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="120">
-        <v>2840</v>
-      </c>
-      <c r="C36" s="126" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="120">
-        <v>2455</v>
-      </c>
-      <c r="C37" s="126" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="120">
-        <v>2140</v>
-      </c>
-      <c r="C38" s="126" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="120">
-        <v>4790</v>
-      </c>
-      <c r="C39" s="126" t="s">
-        <v>452</v>
-      </c>
-    </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B40" s="120">
-        <v>275</v>
-      </c>
-      <c r="C40" s="126" t="s">
-        <v>475</v>
+        <v>2840</v>
+      </c>
+      <c r="C40" s="136" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B41" s="120">
-        <v>315</v>
-      </c>
-      <c r="C41" s="126" t="s">
-        <v>477</v>
+        <v>2455</v>
+      </c>
+      <c r="C41" s="136" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B42" s="120">
-        <v>305</v>
-      </c>
-      <c r="C42" s="126" t="s">
-        <v>433</v>
+        <v>2140</v>
+      </c>
+      <c r="C42" s="136" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B43" s="120">
-        <v>795</v>
-      </c>
-      <c r="C43" s="126" t="s">
-        <v>480</v>
+        <v>4790</v>
+      </c>
+      <c r="C43" s="136" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B44" s="120">
-        <v>795</v>
-      </c>
-      <c r="C44" s="126" t="s">
-        <v>480</v>
+        <v>275</v>
+      </c>
+      <c r="C44" s="136" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B45" s="120">
-        <v>235</v>
-      </c>
-      <c r="C45" s="126" t="s">
-        <v>453</v>
+        <v>315</v>
+      </c>
+      <c r="C45" s="136" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B46" s="120">
-        <v>1770</v>
-      </c>
-      <c r="C46" s="126" t="s">
-        <v>455</v>
+        <v>305</v>
+      </c>
+      <c r="C46" s="136" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B47" s="120">
-        <v>1490</v>
-      </c>
-      <c r="C47" s="126" t="s">
-        <v>454</v>
+        <v>795</v>
+      </c>
+      <c r="C47" s="136" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B48" s="120">
-        <v>1500</v>
-      </c>
-      <c r="C48" s="126" t="s">
-        <v>401</v>
+        <v>795</v>
+      </c>
+      <c r="C48" s="136" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="B49" s="120">
-        <v>1800</v>
-      </c>
-      <c r="C49" s="126" t="s">
-        <v>438</v>
+        <v>235</v>
+      </c>
+      <c r="C49" s="136" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B50" s="120">
-        <v>900</v>
-      </c>
-      <c r="C50" s="126" t="s">
-        <v>436</v>
+        <v>1770</v>
+      </c>
+      <c r="C50" s="136" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B51" s="120">
-        <v>1500</v>
-      </c>
-      <c r="C51" s="126" t="s">
-        <v>401</v>
+        <v>1490</v>
+      </c>
+      <c r="C51" s="136" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C52" s="136" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="120">
+        <v>1800</v>
+      </c>
+      <c r="C53" s="136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="120">
+        <v>900</v>
+      </c>
+      <c r="C54" s="136" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C55" s="136" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="120"/>
-      <c r="C52" s="126">
+      <c r="B56" s="120"/>
+      <c r="C56" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="120">
+      <c r="B57" s="120">
         <v>450</v>
       </c>
-      <c r="C53" s="126" t="s">
+      <c r="C57" s="136" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="120"/>
-      <c r="C54" s="126">
+      <c r="B58" s="120"/>
+      <c r="C58" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="120">
+      <c r="B59" s="120">
         <v>200</v>
       </c>
-      <c r="C55" s="126" t="s">
+      <c r="C59" s="136" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="120">
+      <c r="B60" s="120">
         <v>200</v>
       </c>
-      <c r="C56" s="126" t="s">
+      <c r="C60" s="136" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="120">
+      <c r="B61" s="120">
         <v>240</v>
       </c>
-      <c r="C57" s="126" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="48" t="s">
+      <c r="C61" s="136" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="126">
+      <c r="B62" s="120"/>
+      <c r="C62" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="120">
-        <v>300</v>
-      </c>
-      <c r="C59" s="126" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="120">
-        <v>160</v>
-      </c>
-      <c r="C60" s="126" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="120">
-        <v>95</v>
-      </c>
-      <c r="C61" s="126" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="120">
-        <v>795</v>
-      </c>
-      <c r="C62" s="126" t="s">
-        <v>480</v>
-      </c>
-    </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B63" s="120">
-        <v>795</v>
-      </c>
-      <c r="C63" s="126" t="s">
-        <v>480</v>
+        <v>300</v>
+      </c>
+      <c r="C63" s="136" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B64" s="120">
-        <v>785</v>
-      </c>
-      <c r="C64" s="126" t="s">
-        <v>457</v>
+        <v>160</v>
+      </c>
+      <c r="C64" s="136" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B65" s="120">
-        <v>3130</v>
-      </c>
-      <c r="C65" s="126" t="s">
-        <v>458</v>
+        <v>95</v>
+      </c>
+      <c r="C65" s="136" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B66" s="120">
-        <v>1880</v>
-      </c>
-      <c r="C66" s="126" t="s">
-        <v>459</v>
+        <v>795</v>
+      </c>
+      <c r="C66" s="136" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B67" s="120">
-        <v>2840</v>
-      </c>
-      <c r="C67" s="126" t="s">
-        <v>507</v>
+        <v>795</v>
+      </c>
+      <c r="C67" s="136" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B68" s="120">
-        <v>6640</v>
-      </c>
-      <c r="C68" s="126" t="s">
-        <v>441</v>
+        <v>785</v>
+      </c>
+      <c r="C68" s="136" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" s="120">
-        <v>960</v>
-      </c>
-      <c r="C69" s="126" t="s">
-        <v>483</v>
+        <v>3130</v>
+      </c>
+      <c r="C69" s="136" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B70" s="120">
-        <v>580</v>
-      </c>
-      <c r="C70" s="126" t="s">
-        <v>484</v>
+        <v>1880</v>
+      </c>
+      <c r="C70" s="136" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B71" s="120">
-        <v>1845</v>
-      </c>
-      <c r="C71" s="126" t="s">
-        <v>485</v>
+        <v>2840</v>
+      </c>
+      <c r="C71" s="136" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B72" s="120">
-        <v>4030</v>
-      </c>
-      <c r="C72" s="126" t="s">
-        <v>487</v>
+        <v>6640</v>
+      </c>
+      <c r="C72" s="136" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B73" s="120">
-        <v>1535</v>
-      </c>
-      <c r="C73" s="126" t="s">
-        <v>486</v>
+        <v>960</v>
+      </c>
+      <c r="C73" s="136" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B74" s="120">
-        <v>1500</v>
-      </c>
-      <c r="C74" s="126" t="s">
-        <v>401</v>
+        <v>580</v>
+      </c>
+      <c r="C74" s="136" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B75" s="120">
-        <v>1100</v>
-      </c>
-      <c r="C75" s="126" t="s">
-        <v>402</v>
+        <v>1845</v>
+      </c>
+      <c r="C75" s="136" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B76" s="120">
-        <v>1000</v>
-      </c>
-      <c r="C76" s="126" t="s">
-        <v>403</v>
+        <v>4030</v>
+      </c>
+      <c r="C76" s="136" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B77" s="120">
-        <v>2840</v>
-      </c>
-      <c r="C77" s="126" t="s">
-        <v>507</v>
+        <v>1535</v>
+      </c>
+      <c r="C77" s="136" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B78" s="120">
-        <v>3990</v>
-      </c>
-      <c r="C78" s="126" t="s">
-        <v>489</v>
+        <v>1500</v>
+      </c>
+      <c r="C78" s="136" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B79" s="120">
-        <v>2995</v>
-      </c>
-      <c r="C79" s="126" t="s">
-        <v>397</v>
+        <v>1100</v>
+      </c>
+      <c r="C79" s="136" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B80" s="120">
-        <v>1095</v>
-      </c>
-      <c r="C80" s="126" t="s">
-        <v>465</v>
+        <v>1000</v>
+      </c>
+      <c r="C80" s="136" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B81" s="120">
-        <v>4315</v>
-      </c>
-      <c r="C81" s="126" t="s">
-        <v>466</v>
+        <v>2840</v>
+      </c>
+      <c r="C81" s="136" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B82" s="120">
-        <v>2660</v>
-      </c>
-      <c r="C82" s="126" t="s">
-        <v>467</v>
+        <v>3990</v>
+      </c>
+      <c r="C82" s="136" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B83" s="120">
-        <v>3435</v>
-      </c>
-      <c r="C83" s="126" t="s">
-        <v>491</v>
+        <v>2995</v>
+      </c>
+      <c r="C83" s="136" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B84" s="120">
-        <v>2880</v>
-      </c>
-      <c r="C84" s="126" t="s">
-        <v>492</v>
+        <v>1095</v>
+      </c>
+      <c r="C84" s="136" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B85" s="120">
-        <v>4445</v>
-      </c>
-      <c r="C85" s="126" t="s">
-        <v>493</v>
+        <v>4315</v>
+      </c>
+      <c r="C85" s="136" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B86" s="120">
-        <v>7485</v>
-      </c>
-      <c r="C86" s="126" t="s">
-        <v>494</v>
+        <v>2660</v>
+      </c>
+      <c r="C86" s="136" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B87" s="120">
-        <v>3665</v>
-      </c>
-      <c r="C87" s="126" t="s">
-        <v>495</v>
+        <v>3435</v>
+      </c>
+      <c r="C87" s="136" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B88" s="120">
-        <v>5975</v>
-      </c>
-      <c r="C88" s="126" t="s">
-        <v>451</v>
+        <v>2880</v>
+      </c>
+      <c r="C88" s="136" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B89" s="120">
-        <v>400</v>
-      </c>
-      <c r="C89" s="126" t="s">
-        <v>395</v>
+        <v>4445</v>
+      </c>
+      <c r="C89" s="136" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B90" s="120">
-        <v>800</v>
-      </c>
-      <c r="C90" s="126" t="s">
-        <v>404</v>
+        <v>7485</v>
+      </c>
+      <c r="C90" s="136" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B91" s="120">
-        <v>600</v>
-      </c>
-      <c r="C91" s="126" t="s">
-        <v>396</v>
+        <v>3665</v>
+      </c>
+      <c r="C91" s="136" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B92" s="120">
-        <v>0</v>
-      </c>
-      <c r="C92" s="126">
-        <f t="shared" ref="C92:C114" si="1">B92</f>
-        <v>0</v>
+        <v>5975</v>
+      </c>
+      <c r="C92" s="136" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B93" s="120">
-        <v>500</v>
-      </c>
-      <c r="C93" s="126" t="s">
-        <v>405</v>
+        <v>400</v>
+      </c>
+      <c r="C93" s="136" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="120">
+        <v>800</v>
+      </c>
+      <c r="C94" s="136" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="120">
+        <v>600</v>
+      </c>
+      <c r="C95" s="136" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="120">
+        <v>0</v>
+      </c>
+      <c r="C96" s="136">
+        <f t="shared" ref="C96:C118" si="1">B96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="120">
+        <v>500</v>
+      </c>
+      <c r="C97" s="136" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="120">
+      <c r="B98" s="120">
         <v>0</v>
       </c>
-      <c r="C94" s="126">
+      <c r="C98" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="120">
-        <v>1500</v>
-      </c>
-      <c r="C95" s="126" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="120">
-        <v>1800</v>
-      </c>
-      <c r="C96" s="126" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="120">
-        <v>900</v>
-      </c>
-      <c r="C97" s="126" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B98" s="120">
-        <v>1500</v>
-      </c>
-      <c r="C98" s="126" t="s">
-        <v>401</v>
-      </c>
-    </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B99" s="120">
-        <v>1025</v>
-      </c>
-      <c r="C99" s="126" t="s">
-        <v>440</v>
+        <v>1500</v>
+      </c>
+      <c r="C99" s="136" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B100" s="120">
-        <v>2040</v>
-      </c>
-      <c r="C100" s="126" t="s">
-        <v>497</v>
+        <v>1800</v>
+      </c>
+      <c r="C100" s="136" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B101" s="120">
-        <v>780</v>
-      </c>
-      <c r="C101" s="126" t="s">
-        <v>499</v>
+        <v>900</v>
+      </c>
+      <c r="C101" s="136" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B102" s="120">
-        <v>1545</v>
-      </c>
-      <c r="C102" s="126" t="s">
-        <v>500</v>
+        <v>1500</v>
+      </c>
+      <c r="C102" s="136" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="120">
-        <v>580</v>
-      </c>
-      <c r="C103" s="126" t="s">
-        <v>484</v>
+        <v>1025</v>
+      </c>
+      <c r="C103" s="136" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B104" s="120">
-        <v>1130</v>
-      </c>
-      <c r="C104" s="126" t="s">
-        <v>498</v>
+        <v>2040</v>
+      </c>
+      <c r="C104" s="136" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B105" s="120">
-        <v>99</v>
-      </c>
-      <c r="C105" s="126" t="s">
-        <v>406</v>
+        <v>780</v>
+      </c>
+      <c r="C105" s="136" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B106" s="120">
-        <v>4830</v>
-      </c>
-      <c r="C106" s="126" t="s">
-        <v>407</v>
+        <v>1545</v>
+      </c>
+      <c r="C106" s="136" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B107" s="120">
-        <v>7945</v>
-      </c>
-      <c r="C107" s="126" t="s">
-        <v>408</v>
+        <v>580</v>
+      </c>
+      <c r="C107" s="136" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="120">
+        <v>1130</v>
+      </c>
+      <c r="C108" s="136" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="120">
+        <v>99</v>
+      </c>
+      <c r="C109" s="136" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="120">
+        <v>4830</v>
+      </c>
+      <c r="C110" s="136" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="120">
+        <v>7945</v>
+      </c>
+      <c r="C111" s="136" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B108" s="120"/>
-      <c r="C108" s="126">
+      <c r="B112" s="120"/>
+      <c r="C112" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="48" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B109" s="120">
+      <c r="B113" s="120">
         <v>2340</v>
       </c>
-      <c r="C109" s="126" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="48" t="s">
+      <c r="C113" s="136" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="120"/>
-      <c r="C110" s="126">
+      <c r="B114" s="120"/>
+      <c r="C114" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B111" s="120">
+      <c r="B115" s="120">
         <v>700</v>
       </c>
-      <c r="C111" s="126" t="s">
+      <c r="C115" s="136" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="48" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B112" s="120">
+      <c r="B116" s="120">
         <v>5785</v>
       </c>
-      <c r="C112" s="126" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="48" t="s">
+      <c r="C116" s="136" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B113" s="120">
+      <c r="B117" s="120">
         <v>5785</v>
       </c>
-      <c r="C113" s="126" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="48" t="s">
+      <c r="C117" s="136" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B114" s="120"/>
-      <c r="C114" s="126">
+      <c r="B118" s="120"/>
+      <c r="C118" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B115" s="120">
-        <v>1770</v>
-      </c>
-      <c r="C115" s="126" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B116" s="120">
-        <v>300</v>
-      </c>
-      <c r="C116" s="126" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B117" s="120">
-        <v>250</v>
-      </c>
-      <c r="C117" s="126" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B118" s="120">
-        <v>250</v>
-      </c>
-      <c r="C118" s="126" t="s">
-        <v>434</v>
-      </c>
-    </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B119" s="120">
-        <v>350</v>
-      </c>
-      <c r="C119" s="126" t="s">
-        <v>435</v>
+        <v>1770</v>
+      </c>
+      <c r="C119" s="136" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" s="120">
+        <v>300</v>
+      </c>
+      <c r="C120" s="136" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" s="120">
+        <v>250</v>
+      </c>
+      <c r="C121" s="136" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" s="120">
+        <v>250</v>
+      </c>
+      <c r="C122" s="136" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="120">
+        <v>350</v>
+      </c>
+      <c r="C123" s="136" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B120" s="120">
+      <c r="B124" s="120">
         <v>400</v>
       </c>
-      <c r="C120" s="126" t="s">
+      <c r="C124" s="136" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="74"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="129"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="74"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="129"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="74"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="129"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="74"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="129"/>
-    </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="49"/>
-      <c r="B125" s="120"/>
-      <c r="C125" s="120"/>
+      <c r="A125" s="74"/>
+      <c r="B125" s="127"/>
+      <c r="C125" s="137"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="49"/>
-      <c r="B126" s="120"/>
-      <c r="C126" s="120"/>
+      <c r="A126" s="74"/>
+      <c r="B126" s="127"/>
+      <c r="C126" s="137"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="49"/>
-      <c r="B127" s="120"/>
-      <c r="C127" s="120"/>
+      <c r="A127" s="74"/>
+      <c r="B127" s="127"/>
+      <c r="C127" s="137"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="49"/>
-      <c r="B128" s="120"/>
-      <c r="C128" s="120"/>
+      <c r="A128" s="74"/>
+      <c r="B128" s="127"/>
+      <c r="C128" s="137"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="49"/>
       <c r="B129" s="120"/>
-      <c r="C129" s="120"/>
+      <c r="C129" s="136"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="49"/>
       <c r="B130" s="120"/>
-      <c r="C130" s="120"/>
+      <c r="C130" s="136"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="49"/>
       <c r="B131" s="120"/>
-      <c r="C131" s="120"/>
+      <c r="C131" s="136"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="49"/>
       <c r="B132" s="120"/>
-      <c r="C132" s="120"/>
+      <c r="C132" s="136"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="49"/>
       <c r="B133" s="120"/>
-      <c r="C133" s="120"/>
+      <c r="C133" s="136"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="49"/>
       <c r="B134" s="120"/>
-      <c r="C134" s="120"/>
+      <c r="C134" s="136"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="49"/>
       <c r="B135" s="120"/>
-      <c r="C135" s="120"/>
+      <c r="C135" s="136"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="49"/>
       <c r="B136" s="120"/>
-      <c r="C136" s="120"/>
+      <c r="C136" s="136"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="49"/>
       <c r="B137" s="120"/>
-      <c r="C137" s="120"/>
+      <c r="C137" s="136"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="49"/>
       <c r="B138" s="120"/>
-      <c r="C138" s="120"/>
+      <c r="C138" s="136"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="49"/>
       <c r="B139" s="120"/>
-      <c r="C139" s="120"/>
+      <c r="C139" s="136"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="49"/>
       <c r="B140" s="120"/>
-      <c r="C140" s="120"/>
+      <c r="C140" s="136"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="49"/>
-      <c r="B141" s="49"/>
-      <c r="C141" s="120"/>
+      <c r="B141" s="120"/>
+      <c r="C141" s="136"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="49"/>
-      <c r="B142" s="49"/>
-      <c r="C142" s="120"/>
+      <c r="B142" s="120"/>
+      <c r="C142" s="136"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="49"/>
-      <c r="B143" s="49"/>
-      <c r="C143" s="120"/>
+      <c r="B143" s="120"/>
+      <c r="C143" s="136"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="49"/>
-      <c r="B144" s="49"/>
-      <c r="C144" s="120"/>
+      <c r="B144" s="120"/>
+      <c r="C144" s="136"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="49"/>
-      <c r="B145" s="49"/>
-      <c r="C145" s="120"/>
+      <c r="B145" s="120"/>
+      <c r="C145" s="136"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="49"/>
-      <c r="B146" s="49"/>
-      <c r="C146" s="120"/>
+      <c r="B146" s="120"/>
+      <c r="C146" s="136"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="49"/>
-      <c r="B147" s="49"/>
-      <c r="C147" s="120"/>
+      <c r="B147" s="120"/>
+      <c r="C147" s="136"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="49"/>
-      <c r="B148" s="49"/>
-      <c r="C148" s="120"/>
+      <c r="B148" s="120"/>
+      <c r="C148" s="136"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="49"/>
-      <c r="B149" s="49"/>
-      <c r="C149" s="120"/>
+      <c r="B149" s="120"/>
+      <c r="C149" s="136"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="49"/>
-      <c r="B150" s="49"/>
-      <c r="C150" s="120"/>
+      <c r="B150" s="120"/>
+      <c r="C150" s="136"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="49" t="s">
+      <c r="A151" s="49"/>
+      <c r="B151" s="120"/>
+      <c r="C151" s="136"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="49"/>
+      <c r="B152" s="120"/>
+      <c r="C152" s="136"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="49"/>
+      <c r="B153" s="120"/>
+      <c r="C153" s="136"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="49"/>
+      <c r="B154" s="120"/>
+      <c r="C154" s="136"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="B151" s="49"/>
-      <c r="C151" s="120"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="124" t="s">
+      <c r="B155" s="120"/>
+      <c r="C155" s="136"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="124" t="s">
         <v>393</v>
       </c>
-      <c r="B152" s="127">
-        <f>SUM(B6,B34,B53)</f>
+      <c r="B156" s="126">
+        <f>SUM(B6,B38,B57)</f>
         <v>1342</v>
       </c>
-      <c r="C152" s="128" t="s">
+      <c r="C156" s="138" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="34" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="B153" s="120">
+      <c r="B157" s="120">
         <f>SUM(B13:B15)</f>
         <v>8070</v>
       </c>
-      <c r="C153" s="126" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="34" t="s">
+      <c r="C157" s="136" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="B154" s="120">
+      <c r="B158" s="120">
         <f>SUM(B11:B12)</f>
         <v>5975</v>
       </c>
-      <c r="C154" s="126" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="B155" s="49"/>
-      <c r="C155" s="126"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="B156" s="120">
-        <f>SUM(B31:B33)</f>
-        <v>8765</v>
-      </c>
-      <c r="C156" s="126" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="B157" s="120">
-        <f>SUM(B39)</f>
-        <v>4790</v>
-      </c>
-      <c r="C157" s="126" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="B158" s="120">
-        <f>SUM(B45:B47)</f>
-        <v>3495</v>
-      </c>
-      <c r="C158" s="126" t="s">
-        <v>456</v>
+      <c r="C158" s="136" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="B159" s="120">
-        <f>SUM(B37:B38)</f>
-        <v>4595</v>
-      </c>
-      <c r="C159" s="126" t="s">
-        <v>474</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B159" s="120"/>
+      <c r="C159" s="136"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B160" s="120">
-        <f>SUM(B56,B40,B57,B41)</f>
-        <v>1030</v>
-      </c>
-      <c r="C160" s="126" t="s">
-        <v>478</v>
+        <f>SUM(B35:B37)</f>
+        <v>8765</v>
+      </c>
+      <c r="C160" s="136" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B161" s="120">
-        <f>SUM(B115,B113,B112,B109,B62,B63,B44,B43)</f>
-        <v>18860</v>
-      </c>
-      <c r="C161" s="126" t="s">
-        <v>482</v>
+        <f>SUM(B43)</f>
+        <v>4790</v>
+      </c>
+      <c r="C161" s="136" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B162" s="120">
-        <f>SUM(B116:B119,B18,B19)</f>
-        <v>1700</v>
-      </c>
-      <c r="C162" s="126" t="s">
-        <v>432</v>
+        <f>SUM(B49:B51)</f>
+        <v>3495</v>
+      </c>
+      <c r="C162" s="136" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="B163" s="129">
-        <f>SUM(B64:B66)</f>
-        <v>5795</v>
-      </c>
-      <c r="C163" s="126" t="s">
-        <v>460</v>
+        <v>418</v>
+      </c>
+      <c r="B163" s="120">
+        <f>SUM(B41:B42)</f>
+        <v>4595</v>
+      </c>
+      <c r="C163" s="136" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B164" s="120">
-        <f>SUM(B68)</f>
-        <v>6640</v>
-      </c>
-      <c r="C164" s="126" t="s">
-        <v>441</v>
+        <f>SUM(B60,B44,B61,B45)</f>
+        <v>1030</v>
+      </c>
+      <c r="C164" s="136" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B165" s="120">
-        <f>SUM(B69:B73)</f>
-        <v>8950</v>
-      </c>
-      <c r="C165" s="126" t="s">
-        <v>488</v>
+        <f>SUM(B119,B117,B116,B113,B66,B67,B48,B47)</f>
+        <v>18860</v>
+      </c>
+      <c r="C165" s="136" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B166" s="120">
-        <f>SUM(B80:B82)</f>
-        <v>8070</v>
-      </c>
-      <c r="C166" s="126" t="s">
-        <v>468</v>
+        <f>SUM(B120:B123,B22,B23)</f>
+        <v>1700</v>
+      </c>
+      <c r="C166" s="136" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="B167" s="120">
-        <f>SUM(B78:B79)</f>
-        <v>6985</v>
-      </c>
-      <c r="C167" s="126" t="s">
-        <v>490</v>
+        <v>422</v>
+      </c>
+      <c r="B167" s="127">
+        <f>SUM(B68:B70)</f>
+        <v>5795</v>
+      </c>
+      <c r="C167" s="136" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B168" s="120">
-        <f>SUM(B83:B88)</f>
-        <v>27885</v>
-      </c>
-      <c r="C168" s="126" t="s">
-        <v>496</v>
+        <f>SUM(B72)</f>
+        <v>6640</v>
+      </c>
+      <c r="C168" s="136" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B169" s="120">
-        <f>SUM(B50,B51,B97,B98)</f>
-        <v>4800</v>
-      </c>
-      <c r="C169" s="126" t="s">
-        <v>437</v>
+        <f>SUM(B73:B77)</f>
+        <v>8950</v>
+      </c>
+      <c r="C169" s="136" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="34" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B170" s="120">
-        <f>SUM(B95,B96,B48,B49)</f>
-        <v>6600</v>
-      </c>
-      <c r="C170" s="126" t="s">
-        <v>439</v>
+        <f>SUM(B84:B86)</f>
+        <v>8070</v>
+      </c>
+      <c r="C170" s="136" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B171" s="120">
-        <f>SUM(B104,B103,B102,B101,B100,B99,B60,B61)</f>
-        <v>7355</v>
-      </c>
-      <c r="C171" s="126" t="s">
-        <v>503</v>
+        <f>SUM(B82:B83)</f>
+        <v>6985</v>
+      </c>
+      <c r="C171" s="136" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B172" s="120">
-        <f>SUM(B10,B26,B27,B28,B30,B36,B67,B77)</f>
-        <v>19930</v>
-      </c>
-      <c r="C172" s="126" t="s">
-        <v>508</v>
+        <f>SUM(B87:B92)</f>
+        <v>27885</v>
+      </c>
+      <c r="C172" s="136" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B173" s="120">
+        <f>SUM(B54,B55,B101,B102)</f>
+        <v>4800</v>
+      </c>
+      <c r="C173" s="136" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="B174" s="120">
+        <f>SUM(B99,B100,B52,B53)</f>
+        <v>6600</v>
+      </c>
+      <c r="C174" s="136" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B175" s="120">
+        <f>SUM(B108,B107,B106,B105,B104,B103,B64,B65)</f>
+        <v>7355</v>
+      </c>
+      <c r="C175" s="136" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="B176" s="120">
+        <f>SUM(B10,B30,B31,B32,B34,B40,B71,B81)</f>
+        <v>19930</v>
+      </c>
+      <c r="C176" s="136" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="B173" s="120">
-        <f>SUM(B16:B17)</f>
-        <v>3411</v>
-      </c>
-      <c r="C173" s="126" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="49"/>
-      <c r="B174" s="49"/>
-      <c r="C174" s="126"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="49"/>
-      <c r="B175" s="49"/>
-      <c r="C175" s="126"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="49"/>
-      <c r="B176" s="49"/>
-      <c r="C176" s="126"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="49"/>
-      <c r="B177" s="49"/>
-      <c r="C177" s="126"/>
+      <c r="B177" s="120">
+        <f>SUM(B16:B21)</f>
+        <v>14100</v>
+      </c>
+      <c r="C177" s="140" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="49"/>
-      <c r="B178" s="49"/>
-      <c r="C178" s="126"/>
+      <c r="B178" s="120"/>
+      <c r="C178" s="136"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="49"/>
-      <c r="B179" s="49"/>
-      <c r="C179" s="126"/>
+      <c r="B179" s="120"/>
+      <c r="C179" s="136"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="49"/>
-      <c r="B180" s="49"/>
-      <c r="C180" s="126"/>
+      <c r="B180" s="120"/>
+      <c r="C180" s="136"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="49"/>
-      <c r="B181" s="49"/>
-      <c r="C181" s="126"/>
+      <c r="B181" s="120"/>
+      <c r="C181" s="136"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="49"/>
-      <c r="B182" s="49"/>
-      <c r="C182" s="126"/>
+      <c r="B182" s="120"/>
+      <c r="C182" s="136"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="49"/>
-      <c r="B183" s="49"/>
-      <c r="C183" s="126"/>
+      <c r="B183" s="120"/>
+      <c r="C183" s="136"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="49"/>
-      <c r="B184" s="49"/>
-      <c r="C184" s="126"/>
+      <c r="B184" s="120"/>
+      <c r="C184" s="136"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="49"/>
-      <c r="B185" s="49"/>
-      <c r="C185" s="126"/>
+      <c r="B185" s="120"/>
+      <c r="C185" s="136"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="49"/>
-      <c r="B186" s="49"/>
-      <c r="C186" s="126"/>
+      <c r="B186" s="120"/>
+      <c r="C186" s="136"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="49"/>
-      <c r="B187" s="49"/>
-      <c r="C187" s="126"/>
+      <c r="B187" s="120"/>
+      <c r="C187" s="136"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="49"/>
-      <c r="B188" s="49"/>
-      <c r="C188" s="126"/>
+      <c r="B188" s="120"/>
+      <c r="C188" s="136"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="49"/>
-      <c r="B189" s="49"/>
-      <c r="C189" s="126"/>
+      <c r="B189" s="120"/>
+      <c r="C189" s="136"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="49"/>
-      <c r="B190" s="49"/>
-      <c r="C190" s="126"/>
+      <c r="B190" s="120"/>
+      <c r="C190" s="136"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="49"/>
-      <c r="B191" s="49"/>
-      <c r="C191" s="126"/>
+      <c r="B191" s="120"/>
+      <c r="C191" s="136"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="49"/>
-      <c r="B192" s="49"/>
-      <c r="C192" s="126"/>
+      <c r="B192" s="120"/>
+      <c r="C192" s="136"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="49"/>
-      <c r="B193" s="49"/>
-      <c r="C193" s="126"/>
+      <c r="B193" s="120"/>
+      <c r="C193" s="136"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="49"/>
-      <c r="B194" s="49"/>
-      <c r="C194" s="126"/>
+      <c r="B194" s="120"/>
+      <c r="C194" s="136"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="49"/>
-      <c r="B195" s="49"/>
-      <c r="C195" s="126"/>
+      <c r="B195" s="120"/>
+      <c r="C195" s="136"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="49"/>
-      <c r="B196" s="49"/>
-      <c r="C196" s="126"/>
+      <c r="B196" s="120"/>
+      <c r="C196" s="136"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="49"/>
-      <c r="B197" s="49"/>
-      <c r="C197" s="126"/>
+      <c r="B197" s="120"/>
+      <c r="C197" s="136"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="49"/>
-      <c r="B198" s="49"/>
-      <c r="C198" s="126"/>
+      <c r="B198" s="120"/>
+      <c r="C198" s="136"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="49"/>
-      <c r="B199" s="49"/>
-      <c r="C199" s="126"/>
+      <c r="B199" s="120"/>
+      <c r="C199" s="136"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="49"/>
-      <c r="B200" s="49"/>
-      <c r="C200" s="126"/>
+      <c r="B200" s="120"/>
+      <c r="C200" s="136"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="49"/>
-      <c r="B201" s="49"/>
-      <c r="C201" s="126"/>
+      <c r="B201" s="120"/>
+      <c r="C201" s="136"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="49"/>
-      <c r="B202" s="49"/>
-      <c r="C202" s="126"/>
+      <c r="B202" s="120"/>
+      <c r="C202" s="136"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="49"/>
+      <c r="B203" s="120"/>
+      <c r="C203" s="136"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="49"/>
+      <c r="B204" s="120"/>
+      <c r="C204" s="136"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="49"/>
+      <c r="B205" s="120"/>
+      <c r="C205" s="136"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="49"/>
+      <c r="B206" s="120"/>
+      <c r="C206" s="136"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B153:B154 B156 B158:B159 B162:B163 B165:B168 B173" formulaRange="1"/>
-    <ignoredError sqref="C25 C20 C6 C53 C55 C59 C74:C76 C93 C89:C91 C105:C107 C111 C120 C152 C34" numberStoredAsText="1"/>
+    <ignoredError sqref="B157:B158 B160 B162:B163 B166:B167 B169:B172 B177" formulaRange="1"/>
+    <ignoredError sqref="C29 C24 C6 C57 C59 C63 C78:C80 C97 C93:C95 C109:C111 C115 C124 C156 C38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
     <sheet name="MVP" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="518">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1575,6 +1575,9 @@
   </si>
   <si>
     <t>$14,100.00</t>
+  </si>
+  <si>
+    <t>/FastAds Vehicle Video Platinum 2.0</t>
   </si>
 </sst>
 </file>
@@ -3448,7 +3451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+    <sheetView topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="AW7" sqref="AW7:AZ7"/>
     </sheetView>
   </sheetViews>
@@ -14417,8 +14420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15076,7 +15079,7 @@
     </row>
     <row r="17" spans="1:54" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>83</v>
+        <v>517</v>
       </c>
       <c r="B17" s="93" t="s">
         <v>381</v>
@@ -17916,7 +17919,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="52">
         <f t="shared" ref="E2:E33" ca="1" si="0">TODAY()</f>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -18105,7 +18108,7 @@
       <c r="D3" s="51"/>
       <c r="E3" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
@@ -18294,7 +18297,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -18483,7 +18486,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -18674,7 +18677,7 @@
       <c r="D6" s="51"/>
       <c r="E6" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>262</v>
@@ -18889,7 +18892,7 @@
       <c r="D7" s="51"/>
       <c r="E7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -19090,7 +19093,7 @@
       <c r="D8" s="51"/>
       <c r="E8" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -19293,7 +19296,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
@@ -19490,7 +19493,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
@@ -19741,7 +19744,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
@@ -19994,7 +19997,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
@@ -20247,7 +20250,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
@@ -20480,7 +20483,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
@@ -20717,7 +20720,7 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -20950,7 +20953,7 @@
       <c r="D16" s="51"/>
       <c r="E16" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -21175,7 +21178,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
@@ -21400,7 +21403,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
@@ -21592,7 +21595,7 @@
       <c r="D19" s="51"/>
       <c r="E19" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
@@ -21781,7 +21784,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -21970,7 +21973,7 @@
       <c r="D21" s="51"/>
       <c r="E21" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
@@ -22161,7 +22164,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -22350,7 +22353,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
@@ -22577,7 +22580,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -22790,7 +22793,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
@@ -23003,7 +23006,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
@@ -23260,7 +23263,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -23517,7 +23520,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
@@ -23756,7 +23759,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
@@ -23991,7 +23994,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
@@ -24230,7 +24233,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -24467,7 +24470,7 @@
       </c>
       <c r="E32" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -24676,7 +24679,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -24883,7 +24886,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E65" ca="1" si="1">TODAY()</f>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -25138,7 +25141,7 @@
       <c r="D35" s="51"/>
       <c r="E35" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -25403,7 +25406,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -25668,7 +25671,7 @@
       <c r="D37" s="51"/>
       <c r="E37" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -25967,7 +25970,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -26176,7 +26179,7 @@
       <c r="D39" s="51"/>
       <c r="E39" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -26421,7 +26424,7 @@
       <c r="D40" s="51"/>
       <c r="E40" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -26632,7 +26635,7 @@
       <c r="D41" s="51"/>
       <c r="E41" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -26839,7 +26842,7 @@
       <c r="D42" s="51"/>
       <c r="E42" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -27060,7 +27063,7 @@
       <c r="D43" s="51"/>
       <c r="E43" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -27325,7 +27328,7 @@
       <c r="D44" s="51"/>
       <c r="E44" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -27590,7 +27593,7 @@
       <c r="D45" s="51"/>
       <c r="E45" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -27857,7 +27860,7 @@
       </c>
       <c r="E46" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -28070,7 +28073,7 @@
       </c>
       <c r="E47" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -28283,7 +28286,7 @@
       </c>
       <c r="E48" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -28494,7 +28497,7 @@
       </c>
       <c r="E49" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -28703,7 +28706,7 @@
       <c r="D50" s="51"/>
       <c r="E50" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -28894,7 +28897,7 @@
       <c r="D51" s="51"/>
       <c r="E51" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
@@ -29091,7 +29094,7 @@
       <c r="D52" s="51"/>
       <c r="E52" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
@@ -29284,7 +29287,7 @@
       <c r="D53" s="51"/>
       <c r="E53" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
@@ -29490,7 +29493,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -29695,7 +29698,7 @@
       <c r="D55" s="51"/>
       <c r="E55" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -29936,7 +29939,7 @@
       <c r="D56" s="51"/>
       <c r="E56" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -30141,7 +30144,7 @@
       <c r="D57" s="51"/>
       <c r="E57" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -30335,7 +30338,7 @@
       <c r="D58" s="51"/>
       <c r="E58" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
@@ -30535,7 +30538,7 @@
       <c r="D59" s="51"/>
       <c r="E59" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -30737,7 +30740,7 @@
       <c r="D60" s="51"/>
       <c r="E60" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -30934,7 +30937,7 @@
       <c r="D61" s="51"/>
       <c r="E61" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -31167,7 +31170,7 @@
       <c r="D62" s="51"/>
       <c r="E62" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
@@ -31400,7 +31403,7 @@
       <c r="D63" s="51"/>
       <c r="E63" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
@@ -31637,7 +31640,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -31870,7 +31873,7 @@
       <c r="D65" s="51"/>
       <c r="E65" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
@@ -32119,7 +32122,7 @@
       <c r="D66" s="51"/>
       <c r="E66" s="52">
         <f t="shared" ref="E66:E89" ca="1" si="2">TODAY()</f>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
@@ -32372,7 +32375,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
@@ -32609,7 +32612,7 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
@@ -32848,7 +32851,7 @@
       <c r="D69" s="51"/>
       <c r="E69" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
@@ -33087,7 +33090,7 @@
       <c r="D70" s="51"/>
       <c r="E70" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
@@ -33328,7 +33331,7 @@
       <c r="D71" s="51"/>
       <c r="E71" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
@@ -33565,7 +33568,7 @@
       <c r="D72" s="51"/>
       <c r="E72" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -33754,7 +33757,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
@@ -33943,7 +33946,7 @@
       <c r="D74" s="51"/>
       <c r="E74" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -34132,7 +34135,7 @@
       <c r="D75" s="51"/>
       <c r="E75" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
@@ -34381,7 +34384,7 @@
       <c r="D76" s="51"/>
       <c r="E76" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -34632,7 +34635,7 @@
       <c r="D77" s="51"/>
       <c r="E77" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -34883,7 +34886,7 @@
       <c r="D78" s="51"/>
       <c r="E78" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -35114,7 +35117,7 @@
       <c r="D79" s="51"/>
       <c r="E79" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
@@ -35349,7 +35352,7 @@
       <c r="D80" s="51"/>
       <c r="E80" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -35580,7 +35583,7 @@
       <c r="D81" s="51"/>
       <c r="E81" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
@@ -35823,7 +35826,7 @@
       <c r="D82" s="51"/>
       <c r="E82" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
@@ -36044,7 +36047,7 @@
       <c r="D83" s="51"/>
       <c r="E83" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
@@ -36293,7 +36296,7 @@
       <c r="D84" s="51"/>
       <c r="E84" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -36542,7 +36545,7 @@
       <c r="D85" s="51"/>
       <c r="E85" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -36791,7 +36794,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -37040,7 +37043,7 @@
       <c r="D87" s="51"/>
       <c r="E87" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -37231,7 +37234,7 @@
       <c r="D88" s="51"/>
       <c r="E88" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -37422,7 +37425,7 @@
       <c r="D89" s="51"/>
       <c r="E89" s="52">
         <f t="shared" ca="1" si="2"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
@@ -37797,7 +37800,7 @@
       <c r="D91" s="51"/>
       <c r="E91" s="52">
         <f ca="1">TODAY()</f>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F91" s="51"/>
       <c r="G91" s="51"/>
@@ -38172,7 +38175,7 @@
       <c r="D93" s="51"/>
       <c r="E93" s="52">
         <f t="shared" ref="E93:E118" ca="1" si="3">TODAY()</f>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F93" s="51"/>
       <c r="G93" s="51"/>
@@ -38389,7 +38392,7 @@
       <c r="D94" s="51"/>
       <c r="E94" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F94" s="51"/>
       <c r="G94" s="51"/>
@@ -38606,7 +38609,7 @@
       <c r="D95" s="51"/>
       <c r="E95" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F95" s="51"/>
       <c r="G95" s="51"/>
@@ -38821,7 +38824,7 @@
       <c r="D96" s="51"/>
       <c r="E96" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F96" s="51"/>
       <c r="G96" s="51"/>
@@ -39034,7 +39037,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F97" s="51"/>
       <c r="G97" s="51"/>
@@ -39234,7 +39237,7 @@
       <c r="D98" s="51"/>
       <c r="E98" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F98" s="51"/>
       <c r="G98" s="51"/>
@@ -39434,7 +39437,7 @@
       <c r="D99" s="51"/>
       <c r="E99" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F99" s="51"/>
       <c r="G99" s="51"/>
@@ -39636,7 +39639,7 @@
       <c r="D100" s="51"/>
       <c r="E100" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
@@ -39838,7 +39841,7 @@
       <c r="D101" s="51"/>
       <c r="E101" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F101" s="51"/>
       <c r="G101" s="51"/>
@@ -40040,7 +40043,7 @@
       <c r="D102" s="51"/>
       <c r="E102" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F102" s="51"/>
       <c r="G102" s="51"/>
@@ -40242,7 +40245,7 @@
       <c r="D103" s="51"/>
       <c r="E103" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F103" s="51"/>
       <c r="G103" s="51"/>
@@ -40443,7 +40446,7 @@
       <c r="D104" s="51"/>
       <c r="E104" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F104" s="51"/>
       <c r="G104" s="51"/>
@@ -40660,7 +40663,7 @@
       <c r="D105" s="51"/>
       <c r="E105" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F105" s="51"/>
       <c r="G105" s="51"/>
@@ -40877,7 +40880,7 @@
       <c r="D106" s="51"/>
       <c r="E106" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -41094,7 +41097,7 @@
       <c r="D107" s="51"/>
       <c r="E107" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F107" s="51"/>
       <c r="G107" s="51"/>
@@ -41311,7 +41314,7 @@
       <c r="D108" s="51"/>
       <c r="E108" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
@@ -41528,7 +41531,7 @@
       <c r="D109" s="51"/>
       <c r="E109" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F109" s="51"/>
       <c r="G109" s="51"/>
@@ -41745,7 +41748,7 @@
       <c r="D110" s="51"/>
       <c r="E110" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F110" s="51"/>
       <c r="G110" s="51"/>
@@ -41962,7 +41965,7 @@
       <c r="D111" s="51"/>
       <c r="E111" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F111" s="51"/>
       <c r="G111" s="51"/>
@@ -42179,7 +42182,7 @@
       <c r="D112" s="51"/>
       <c r="E112" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F112" s="51"/>
       <c r="G112" s="51"/>
@@ -42396,7 +42399,7 @@
       <c r="D113" s="51"/>
       <c r="E113" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -42613,7 +42616,7 @@
       <c r="D114" s="51"/>
       <c r="E114" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F114" s="51"/>
       <c r="G114" s="51"/>
@@ -42802,7 +42805,7 @@
       <c r="D115" s="51"/>
       <c r="E115" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F115" s="51"/>
       <c r="G115" s="51"/>
@@ -42991,7 +42994,7 @@
       <c r="D116" s="51"/>
       <c r="E116" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F116" s="51"/>
       <c r="G116" s="51"/>
@@ -43180,7 +43183,7 @@
       <c r="D117" s="51"/>
       <c r="E117" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F117" s="51"/>
       <c r="G117" s="51"/>
@@ -43369,7 +43372,7 @@
       <c r="D118" s="51"/>
       <c r="E118" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42600</v>
+        <v>42628</v>
       </c>
       <c r="F118" s="51"/>
       <c r="G118" s="51"/>

--- a/Regression/templates/PriceProductGroups.xlsx
+++ b/Regression/templates/PriceProductGroups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" tabRatio="706"/>
   </bookViews>
   <sheets>
     <sheet name="AlphazoneMakeCounties" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,17 @@
     <sheet name="Flat" sheetId="5" r:id="rId5"/>
     <sheet name="Skyscraper-Spotlight" sheetId="6" r:id="rId6"/>
     <sheet name="Not Priceable-Unclassified" sheetId="7" r:id="rId7"/>
-    <sheet name="All" sheetId="8" r:id="rId8"/>
-    <sheet name="Pricing" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
-    <sheet name="MVP" sheetId="11" r:id="rId11"/>
+    <sheet name="MVP" sheetId="11" r:id="rId8"/>
+    <sheet name="All" sheetId="8" r:id="rId9"/>
+    <sheet name="Pricing" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="520">
   <si>
     <t>KBB Elite</t>
   </si>
@@ -1578,6 +1578,12 @@
   </si>
   <si>
     <t>/FastAds Vehicle Video Platinum 2.0</t>
+  </si>
+  <si>
+    <t>Cadillac</t>
+  </si>
+  <si>
+    <t>KBB Highlight Inventory Module - New</t>
   </si>
 </sst>
 </file>
@@ -3029,13 +3035,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AF6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -3178,7 +3184,7 @@
         <v>344</v>
       </c>
       <c r="E2" s="73">
-        <v>42458</v>
+        <v>43009</v>
       </c>
       <c r="P2" s="37"/>
       <c r="Y2" s="37"/>
@@ -3201,7 +3207,7 @@
         <v>344</v>
       </c>
       <c r="E3" s="73">
-        <v>42459</v>
+        <v>43010</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>262</v>
@@ -3254,7 +3260,7 @@
         <v>265</v>
       </c>
       <c r="E4" s="73">
-        <v>42460</v>
+        <v>43011</v>
       </c>
       <c r="H4" s="35">
         <v>1234</v>
@@ -3296,8 +3302,8 @@
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
-        <v>42461</v>
+      <c r="E5" s="73">
+        <v>43012</v>
       </c>
       <c r="H5" s="30">
         <v>1234</v>
@@ -3347,8 +3353,8 @@
       <c r="B6" s="30">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>42462</v>
+      <c r="E6" s="73">
+        <v>43013</v>
       </c>
       <c r="M6" s="15"/>
       <c r="T6" s="30" t="b">
@@ -3382,10 +3388,10 @@
     </row>
     <row r="7" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>5</v>
+        <v>519</v>
       </c>
       <c r="E7" s="73">
-        <v>42463</v>
+        <v>43014</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="37"/>
@@ -3437,6 +3443,1965 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K206"/>
+  <sheetViews>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="139" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="136">
+        <f t="shared" ref="C2:C62" si="0">B2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="120"/>
+      <c r="C3" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="121"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="123"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="123"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="120">
+        <v>650</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>394</v>
+      </c>
+      <c r="I6" s="121"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="120"/>
+      <c r="C7" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="120"/>
+      <c r="C8" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="120"/>
+      <c r="C9" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="123"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="120">
+        <v>2840</v>
+      </c>
+      <c r="C10" s="136" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="120">
+        <v>2995</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="120">
+        <v>2980</v>
+      </c>
+      <c r="C12" s="136" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="120">
+        <v>1095</v>
+      </c>
+      <c r="C13" s="136" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="120">
+        <v>4315</v>
+      </c>
+      <c r="C14" s="136" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="120">
+        <v>2660</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="B16" s="120">
+        <v>2255</v>
+      </c>
+      <c r="C16" s="140" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="133" t="s">
+        <v>505</v>
+      </c>
+      <c r="B17" s="134">
+        <v>2075</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="B18" s="120">
+        <v>1580</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>512</v>
+      </c>
+      <c r="I18" s="135"/>
+    </row>
+    <row r="19" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19" s="120">
+        <v>1385</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="B20" s="120">
+        <v>3120</v>
+      </c>
+      <c r="C20" s="140" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="B21" s="120">
+        <v>3685</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="120">
+        <v>300</v>
+      </c>
+      <c r="C22" s="136" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="120">
+        <v>250</v>
+      </c>
+      <c r="C23" s="136" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="120">
+        <v>400</v>
+      </c>
+      <c r="C24" s="136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="120"/>
+      <c r="C25" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="120"/>
+      <c r="C26" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="120"/>
+      <c r="C27" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="120"/>
+      <c r="C28" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="120">
+        <v>600</v>
+      </c>
+      <c r="C29" s="136" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="120">
+        <v>1800</v>
+      </c>
+      <c r="C30" s="136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="120">
+        <v>1185</v>
+      </c>
+      <c r="C31" s="136" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="120">
+        <v>3075</v>
+      </c>
+      <c r="C32" s="136" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="120"/>
+      <c r="C33" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="120">
+        <v>2510</v>
+      </c>
+      <c r="C34" s="136" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="120">
+        <v>1255</v>
+      </c>
+      <c r="C35" s="136" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="120">
+        <v>4380</v>
+      </c>
+      <c r="C36" s="136" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="120">
+        <v>3130</v>
+      </c>
+      <c r="C37" s="136" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="120">
+        <v>242</v>
+      </c>
+      <c r="C38" s="136" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="120"/>
+      <c r="C39" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="120">
+        <v>2840</v>
+      </c>
+      <c r="C40" s="136" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="120">
+        <v>2455</v>
+      </c>
+      <c r="C41" s="136" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="120">
+        <v>2140</v>
+      </c>
+      <c r="C42" s="136" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="120">
+        <v>4790</v>
+      </c>
+      <c r="C43" s="136" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="120">
+        <v>275</v>
+      </c>
+      <c r="C44" s="136" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="120">
+        <v>315</v>
+      </c>
+      <c r="C45" s="136" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="120">
+        <v>305</v>
+      </c>
+      <c r="C46" s="136" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="120">
+        <v>795</v>
+      </c>
+      <c r="C47" s="136" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="120">
+        <v>795</v>
+      </c>
+      <c r="C48" s="136" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="120">
+        <v>235</v>
+      </c>
+      <c r="C49" s="136" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="120">
+        <v>1770</v>
+      </c>
+      <c r="C50" s="136" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="120">
+        <v>1490</v>
+      </c>
+      <c r="C51" s="136" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C52" s="136" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="120">
+        <v>1800</v>
+      </c>
+      <c r="C53" s="136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="120">
+        <v>900</v>
+      </c>
+      <c r="C54" s="136" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C55" s="136" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="120"/>
+      <c r="C56" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="120">
+        <v>450</v>
+      </c>
+      <c r="C57" s="136" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="120"/>
+      <c r="C58" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="120">
+        <v>200</v>
+      </c>
+      <c r="C59" s="136" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="120">
+        <v>200</v>
+      </c>
+      <c r="C60" s="136" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="120">
+        <v>240</v>
+      </c>
+      <c r="C61" s="136" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="120"/>
+      <c r="C62" s="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="120">
+        <v>300</v>
+      </c>
+      <c r="C63" s="136" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="120">
+        <v>160</v>
+      </c>
+      <c r="C64" s="136" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="120">
+        <v>95</v>
+      </c>
+      <c r="C65" s="136" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="120">
+        <v>795</v>
+      </c>
+      <c r="C66" s="136" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="120">
+        <v>795</v>
+      </c>
+      <c r="C67" s="136" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="120">
+        <v>785</v>
+      </c>
+      <c r="C68" s="136" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="120">
+        <v>3130</v>
+      </c>
+      <c r="C69" s="136" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="120">
+        <v>1880</v>
+      </c>
+      <c r="C70" s="136" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="120">
+        <v>2840</v>
+      </c>
+      <c r="C71" s="136" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="120">
+        <v>6640</v>
+      </c>
+      <c r="C72" s="136" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="120">
+        <v>960</v>
+      </c>
+      <c r="C73" s="136" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="120">
+        <v>580</v>
+      </c>
+      <c r="C74" s="136" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="120">
+        <v>1845</v>
+      </c>
+      <c r="C75" s="136" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="120">
+        <v>4030</v>
+      </c>
+      <c r="C76" s="136" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="120">
+        <v>1535</v>
+      </c>
+      <c r="C77" s="136" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C78" s="136" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="120">
+        <v>1100</v>
+      </c>
+      <c r="C79" s="136" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="120">
+        <v>1000</v>
+      </c>
+      <c r="C80" s="136" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="120">
+        <v>2840</v>
+      </c>
+      <c r="C81" s="136" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="120">
+        <v>3990</v>
+      </c>
+      <c r="C82" s="136" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="120">
+        <v>2995</v>
+      </c>
+      <c r="C83" s="136" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="120">
+        <v>1095</v>
+      </c>
+      <c r="C84" s="136" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="120">
+        <v>4315</v>
+      </c>
+      <c r="C85" s="136" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="120">
+        <v>2660</v>
+      </c>
+      <c r="C86" s="136" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="120">
+        <v>3435</v>
+      </c>
+      <c r="C87" s="136" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="120">
+        <v>2880</v>
+      </c>
+      <c r="C88" s="136" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="120">
+        <v>4445</v>
+      </c>
+      <c r="C89" s="136" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="120">
+        <v>7485</v>
+      </c>
+      <c r="C90" s="136" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="120">
+        <v>3665</v>
+      </c>
+      <c r="C91" s="136" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="120">
+        <v>5975</v>
+      </c>
+      <c r="C92" s="136" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="120">
+        <v>400</v>
+      </c>
+      <c r="C93" s="136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="120">
+        <v>800</v>
+      </c>
+      <c r="C94" s="136" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="120">
+        <v>600</v>
+      </c>
+      <c r="C95" s="136" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="120">
+        <v>0</v>
+      </c>
+      <c r="C96" s="136">
+        <f t="shared" ref="C96:C118" si="1">B96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="120">
+        <v>500</v>
+      </c>
+      <c r="C97" s="136" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="120">
+        <v>0</v>
+      </c>
+      <c r="C98" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C99" s="136" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="120">
+        <v>1800</v>
+      </c>
+      <c r="C100" s="136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="120">
+        <v>900</v>
+      </c>
+      <c r="C101" s="136" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" s="120">
+        <v>1500</v>
+      </c>
+      <c r="C102" s="136" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="120">
+        <v>1025</v>
+      </c>
+      <c r="C103" s="136" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="120">
+        <v>2040</v>
+      </c>
+      <c r="C104" s="136" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="120">
+        <v>780</v>
+      </c>
+      <c r="C105" s="136" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="120">
+        <v>1545</v>
+      </c>
+      <c r="C106" s="136" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="120">
+        <v>580</v>
+      </c>
+      <c r="C107" s="136" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="120">
+        <v>1130</v>
+      </c>
+      <c r="C108" s="136" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="120">
+        <v>99</v>
+      </c>
+      <c r="C109" s="136" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="120">
+        <v>4830</v>
+      </c>
+      <c r="C110" s="136" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="120">
+        <v>7945</v>
+      </c>
+      <c r="C111" s="136" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="120"/>
+      <c r="C112" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="120">
+        <v>2340</v>
+      </c>
+      <c r="C113" s="136" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="120"/>
+      <c r="C114" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B115" s="120">
+        <v>700</v>
+      </c>
+      <c r="C115" s="136" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="120">
+        <v>5785</v>
+      </c>
+      <c r="C116" s="136" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="120">
+        <v>5785</v>
+      </c>
+      <c r="C117" s="136" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" s="120"/>
+      <c r="C118" s="136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" s="120">
+        <v>1770</v>
+      </c>
+      <c r="C119" s="136" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" s="120">
+        <v>300</v>
+      </c>
+      <c r="C120" s="136" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" s="120">
+        <v>250</v>
+      </c>
+      <c r="C121" s="136" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" s="120">
+        <v>250</v>
+      </c>
+      <c r="C122" s="136" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="120">
+        <v>350</v>
+      </c>
+      <c r="C123" s="136" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="120">
+        <v>400</v>
+      </c>
+      <c r="C124" s="136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="74"/>
+      <c r="B125" s="127"/>
+      <c r="C125" s="137"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="74"/>
+      <c r="B126" s="127"/>
+      <c r="C126" s="137"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="74"/>
+      <c r="B127" s="127"/>
+      <c r="C127" s="137"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="74"/>
+      <c r="B128" s="127"/>
+      <c r="C128" s="137"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="49"/>
+      <c r="B129" s="120"/>
+      <c r="C129" s="136"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="49"/>
+      <c r="B130" s="120"/>
+      <c r="C130" s="136"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="49"/>
+      <c r="B131" s="120"/>
+      <c r="C131" s="136"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="49"/>
+      <c r="B132" s="120"/>
+      <c r="C132" s="136"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="49"/>
+      <c r="B133" s="120"/>
+      <c r="C133" s="136"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="49"/>
+      <c r="B134" s="120"/>
+      <c r="C134" s="136"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="49"/>
+      <c r="B135" s="120"/>
+      <c r="C135" s="136"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="49"/>
+      <c r="B136" s="120"/>
+      <c r="C136" s="136"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="49"/>
+      <c r="B137" s="120"/>
+      <c r="C137" s="136"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="49"/>
+      <c r="B138" s="120"/>
+      <c r="C138" s="136"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="49"/>
+      <c r="B139" s="120"/>
+      <c r="C139" s="136"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="49"/>
+      <c r="B140" s="120"/>
+      <c r="C140" s="136"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="49"/>
+      <c r="B141" s="120"/>
+      <c r="C141" s="136"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="49"/>
+      <c r="B142" s="120"/>
+      <c r="C142" s="136"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="49"/>
+      <c r="B143" s="120"/>
+      <c r="C143" s="136"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="49"/>
+      <c r="B144" s="120"/>
+      <c r="C144" s="136"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="49"/>
+      <c r="B145" s="120"/>
+      <c r="C145" s="136"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="49"/>
+      <c r="B146" s="120"/>
+      <c r="C146" s="136"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="49"/>
+      <c r="B147" s="120"/>
+      <c r="C147" s="136"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="49"/>
+      <c r="B148" s="120"/>
+      <c r="C148" s="136"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="49"/>
+      <c r="B149" s="120"/>
+      <c r="C149" s="136"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="49"/>
+      <c r="B150" s="120"/>
+      <c r="C150" s="136"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="49"/>
+      <c r="B151" s="120"/>
+      <c r="C151" s="136"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="49"/>
+      <c r="B152" s="120"/>
+      <c r="C152" s="136"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="49"/>
+      <c r="B153" s="120"/>
+      <c r="C153" s="136"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="49"/>
+      <c r="B154" s="120"/>
+      <c r="C154" s="136"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="B155" s="120"/>
+      <c r="C155" s="136"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="124" t="s">
+        <v>393</v>
+      </c>
+      <c r="B156" s="126">
+        <f>SUM(B6,B38,B57)</f>
+        <v>1342</v>
+      </c>
+      <c r="C156" s="138" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="34" t="s">
+        <v>391</v>
+